--- a/investing spreadsheets/MSFT.xlsx
+++ b/investing spreadsheets/MSFT.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26004"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21675" windowHeight="12150" activeTab="1"/>
+    <workbookView xWindow="16720" yWindow="-20" windowWidth="16800" windowHeight="20540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -57,7 +60,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Martin Shkreli:</t>
         </r>
@@ -66,7 +69,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Revenue deferrals of 1,545m</t>
@@ -429,7 +432,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -457,17 +460,23 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -488,7 +497,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -498,7 +507,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -506,12 +515,12 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,31 +529,31 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,31 +561,53 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -639,8 +670,35 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="23">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1038,7 +1096,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1046,22 +1104,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L10"/>
+  <dimension ref="B2:L14"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12">
       <c r="B2" s="17" t="s">
         <v>77</v>
       </c>
@@ -1085,7 +1144,7 @@
         <v>56.53</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12">
       <c r="B3" s="15" t="s">
         <v>76</v>
       </c>
@@ -1107,13 +1166,13 @@
         <v>1</v>
       </c>
       <c r="K3" s="2">
-        <v>7793</v>
+        <v>7860</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
       <c r="B4" s="15" t="s">
         <v>80</v>
       </c>
@@ -1136,11 +1195,11 @@
       </c>
       <c r="K4" s="2">
         <f>+K3*K2</f>
-        <v>440538.29000000004</v>
+        <v>444325.8</v>
       </c>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12">
       <c r="B5" s="15" t="s">
         <v>82</v>
       </c>
@@ -1162,13 +1221,14 @@
         <v>3</v>
       </c>
       <c r="K5" s="2">
-        <v>116867</v>
+        <f>7170+98383+2895+11315</f>
+        <v>119763</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
       <c r="B6" s="16"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -1179,29 +1239,39 @@
         <v>4</v>
       </c>
       <c r="K6" s="2">
+        <f>5498+40896</f>
         <v>46394</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
       <c r="J7" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>370065.29000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+        <v>370956.79999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12">
       <c r="L10" s="1"/>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="K14" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1209,28 +1279,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:ES105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AS27" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AW39" sqref="AW39"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="3"/>
-    <col min="7" max="8" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="3"/>
-    <col min="10" max="10" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="3"/>
-    <col min="48" max="48" width="11.28515625" customWidth="1"/>
-    <col min="49" max="49" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" customWidth="1"/>
+    <col min="3" max="6" width="8.83203125" style="3"/>
+    <col min="7" max="8" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="3"/>
+    <col min="10" max="10" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.83203125" style="3"/>
+    <col min="48" max="48" width="11.33203125" customWidth="1"/>
+    <col min="49" max="49" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:46" ht="13">
+      <c r="C1" s="32">
+        <v>41547</v>
+      </c>
+      <c r="D1" s="32">
+        <v>41639</v>
+      </c>
       <c r="E1" s="4">
         <v>41729</v>
       </c>
@@ -1247,7 +1323,7 @@
         <v>42094</v>
       </c>
       <c r="J1" s="4">
-        <v>41820</v>
+        <v>42185</v>
       </c>
       <c r="K1" s="4">
         <v>42277</v>
@@ -1366,7 +1442,7 @@
         <v>47661</v>
       </c>
     </row>
-    <row r="2" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:46">
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1523,7 +1599,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:46">
       <c r="B3" t="s">
         <v>106</v>
       </c>
@@ -1541,7 +1617,7 @@
         <v>16472</v>
       </c>
     </row>
-    <row r="4" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:46">
       <c r="B4" t="s">
         <v>107</v>
       </c>
@@ -1559,7 +1635,7 @@
         <v>13189</v>
       </c>
     </row>
-    <row r="5" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:46">
       <c r="B5" t="s">
         <v>108</v>
       </c>
@@ -1577,7 +1653,7 @@
         <v>3214</v>
       </c>
     </row>
-    <row r="6" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:46">
       <c r="B6" t="s">
         <v>109</v>
       </c>
@@ -1595,7 +1671,7 @@
         <v>18937</v>
       </c>
     </row>
-    <row r="7" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:46">
       <c r="B7" t="s">
         <v>110</v>
       </c>
@@ -1613,7 +1689,7 @@
         <v>8139</v>
       </c>
     </row>
-    <row r="8" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:46">
       <c r="B8" t="s">
         <v>94</v>
       </c>
@@ -1631,13 +1707,13 @@
         <v>469</v>
       </c>
     </row>
-    <row r="9" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:46">
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:46" s="2" customFormat="1">
       <c r="B10" s="2" t="s">
         <v>95</v>
       </c>
@@ -1665,7 +1741,7 @@
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
     </row>
-    <row r="11" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:46" s="2" customFormat="1">
       <c r="B11" s="2" t="s">
         <v>96</v>
       </c>
@@ -1693,7 +1769,7 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
     </row>
-    <row r="12" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:46" s="2" customFormat="1">
       <c r="B12" s="2" t="s">
         <v>97</v>
       </c>
@@ -1721,7 +1797,7 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
     </row>
-    <row r="13" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:46" s="2" customFormat="1">
       <c r="B13" s="2" t="s">
         <v>98</v>
       </c>
@@ -1749,7 +1825,7 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
     </row>
-    <row r="14" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:46" s="2" customFormat="1">
       <c r="B14" s="2" t="s">
         <v>99</v>
       </c>
@@ -1777,7 +1853,7 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
     </row>
-    <row r="15" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:46" s="2" customFormat="1">
       <c r="B15" s="2" t="s">
         <v>100</v>
       </c>
@@ -1805,7 +1881,7 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
     </row>
-    <row r="16" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:46" s="2" customFormat="1">
       <c r="B16" s="2" t="s">
         <v>94</v>
       </c>
@@ -1830,13 +1906,13 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
     </row>
-    <row r="17" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:46">
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:46" s="2" customFormat="1">
       <c r="B18" s="2" t="s">
         <v>91</v>
       </c>
@@ -1871,7 +1947,7 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
     </row>
-    <row r="19" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:46" s="2" customFormat="1">
       <c r="B19" s="2" t="s">
         <v>92</v>
       </c>
@@ -1906,7 +1982,7 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
     </row>
-    <row r="20" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:46" s="2" customFormat="1">
       <c r="B20" s="2" t="s">
         <v>93</v>
       </c>
@@ -1941,7 +2017,7 @@
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
     </row>
-    <row r="21" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:46" s="2" customFormat="1">
       <c r="B21" s="2" t="s">
         <v>94</v>
       </c>
@@ -1974,19 +2050,23 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
     </row>
-    <row r="22" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:46">
       <c r="I22" s="6"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="2:46" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:46" s="8" customFormat="1">
       <c r="B23" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="C23" s="9">
+        <v>18529</v>
+      </c>
+      <c r="D23" s="9">
+        <v>24519</v>
+      </c>
       <c r="E23" s="9">
         <v>20403</v>
       </c>
@@ -2137,12 +2217,16 @@
         <v>130821.4034807429</v>
       </c>
     </row>
-    <row r="24" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:46" s="2" customFormat="1">
       <c r="B24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="C24" s="6">
+        <v>5114</v>
+      </c>
+      <c r="D24" s="6">
+        <v>8284</v>
+      </c>
       <c r="E24" s="6">
         <v>5978</v>
       </c>
@@ -2281,42 +2365,48 @@
         <v>48403.919287874873</v>
       </c>
     </row>
-    <row r="25" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:46" s="2" customFormat="1">
       <c r="B25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="C25" s="6">
+        <f t="shared" ref="C25:D25" si="14">+C23-C24</f>
+        <v>13415</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" si="14"/>
+        <v>16235</v>
+      </c>
       <c r="E25" s="6">
-        <f t="shared" ref="E25:L25" si="14">+E23-E24</f>
+        <f t="shared" ref="E25:L25" si="15">+E23-E24</f>
         <v>14425</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15749</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>14928</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16334</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>14568</v>
       </c>
       <c r="J25" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>14712</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>13172</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>13924</v>
       </c>
       <c r="M25" s="6">
@@ -2328,67 +2418,67 @@
         <v>14048</v>
       </c>
       <c r="O25" s="6">
-        <f t="shared" ref="O25:R25" si="15">+O23*0.63</f>
+        <f t="shared" ref="O25:R25" si="16">+O23*0.63</f>
         <v>12967.1577</v>
       </c>
       <c r="P25" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>15141.3948</v>
       </c>
       <c r="Q25" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>14046.958799999999</v>
       </c>
       <c r="R25" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>13966.785</v>
       </c>
       <c r="V25" s="2">
-        <f t="shared" ref="V25:AF25" si="16">V23-V24</f>
+        <f t="shared" ref="V25:AF25" si="17">V23-V24</f>
         <v>36632</v>
       </c>
       <c r="W25" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>40429</v>
       </c>
       <c r="X25" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>48822</v>
       </c>
       <c r="Y25" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>46282</v>
       </c>
       <c r="Z25" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>50089</v>
       </c>
       <c r="AA25" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>54366</v>
       </c>
       <c r="AB25" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>56193</v>
       </c>
       <c r="AC25" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>57464</v>
       </c>
       <c r="AD25" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>59755</v>
       </c>
       <c r="AE25" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>60542</v>
       </c>
       <c r="AF25" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>55498</v>
       </c>
       <c r="AG25" s="2">
-        <f t="shared" ref="AG25" si="17">AG23-AG24</f>
+        <f t="shared" ref="AG25" si="18">AG23-AG24</f>
         <v>56122.296299999987</v>
       </c>
       <c r="AH25" s="2">
@@ -2396,60 +2486,64 @@
         <v>57805.965189000002</v>
       </c>
       <c r="AI25" s="2">
-        <f t="shared" ref="AI25:AT25" si="18">+AI23*0.63</f>
+        <f t="shared" ref="AI25:AT25" si="19">+AI23*0.63</f>
         <v>59540.144144670005</v>
       </c>
       <c r="AJ25" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>61326.348469010103</v>
       </c>
       <c r="AK25" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>63166.138923080412</v>
       </c>
       <c r="AL25" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>65061.123090772824</v>
       </c>
       <c r="AM25" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>67012.956783496018</v>
       </c>
       <c r="AN25" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>69023.345487000901</v>
       </c>
       <c r="AO25" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>71094.045851610921</v>
       </c>
       <c r="AP25" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>73226.867227159251</v>
       </c>
       <c r="AQ25" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>75423.673243974044</v>
       </c>
       <c r="AR25" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>77686.383441293263</v>
       </c>
       <c r="AS25" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>80016.974944532063</v>
       </c>
       <c r="AT25" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>82417.484192868025</v>
       </c>
     </row>
-    <row r="26" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:46" s="2" customFormat="1">
       <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="C26" s="6">
+        <v>2767</v>
+      </c>
+      <c r="D26" s="6">
+        <v>2748</v>
+      </c>
       <c r="E26" s="6">
         <v>2743</v>
       </c>
@@ -2478,23 +2572,23 @@
         <v>2980</v>
       </c>
       <c r="N26" s="6">
-        <f t="shared" ref="N26:R28" si="19">+J26</f>
+        <f t="shared" ref="N26:R28" si="20">+J26</f>
         <v>3094</v>
       </c>
       <c r="O26" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2962</v>
       </c>
       <c r="P26" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2900</v>
       </c>
       <c r="Q26" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2980</v>
       </c>
       <c r="R26" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3094</v>
       </c>
       <c r="V26" s="12">
@@ -2540,60 +2634,64 @@
         <v>12055.36</v>
       </c>
       <c r="AI26" s="2">
-        <f t="shared" ref="AI26:AT26" si="20">+AH26*1.01</f>
+        <f t="shared" ref="AI26:AT26" si="21">+AH26*1.01</f>
         <v>12175.9136</v>
       </c>
       <c r="AJ26" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>12297.672736</v>
       </c>
       <c r="AK26" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>12420.649463360001</v>
       </c>
       <c r="AL26" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>12544.855957993601</v>
       </c>
       <c r="AM26" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>12670.304517573537</v>
       </c>
       <c r="AN26" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>12797.007562749272</v>
       </c>
       <c r="AO26" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>12924.977638376764</v>
       </c>
       <c r="AP26" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>13054.227414760531</v>
       </c>
       <c r="AQ26" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>13184.769688908136</v>
       </c>
       <c r="AR26" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>13316.617385797217</v>
       </c>
       <c r="AS26" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>13449.783559655189</v>
       </c>
       <c r="AT26" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>13584.281395251741</v>
       </c>
     </row>
-    <row r="27" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:46" s="2" customFormat="1">
       <c r="B27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="C27" s="6">
+        <v>3304</v>
+      </c>
+      <c r="D27" s="6">
+        <v>4283</v>
+      </c>
       <c r="E27" s="6">
         <v>3542</v>
       </c>
@@ -2622,23 +2720,23 @@
         <v>3406</v>
       </c>
       <c r="N27" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3961</v>
       </c>
       <c r="O27" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3333</v>
       </c>
       <c r="P27" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3960</v>
       </c>
       <c r="Q27" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3406</v>
       </c>
       <c r="R27" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3961</v>
       </c>
       <c r="V27" s="12">
@@ -2680,64 +2778,68 @@
         <v>14660</v>
       </c>
       <c r="AH27" s="2">
-        <f t="shared" ref="AH27:AT27" si="21">+AG27*1.01</f>
+        <f t="shared" ref="AH27:AT27" si="22">+AG27*1.01</f>
         <v>14806.6</v>
       </c>
       <c r="AI27" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>14954.666000000001</v>
       </c>
       <c r="AJ27" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>15104.212660000001</v>
       </c>
       <c r="AK27" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>15255.2547866</v>
       </c>
       <c r="AL27" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>15407.807334466001</v>
       </c>
       <c r="AM27" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>15561.885407810661</v>
       </c>
       <c r="AN27" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>15717.504261888767</v>
       </c>
       <c r="AO27" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>15874.679304507656</v>
       </c>
       <c r="AP27" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>16033.426097552732</v>
       </c>
       <c r="AQ27" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>16193.76035852826</v>
       </c>
       <c r="AR27" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>16355.697962113542</v>
       </c>
       <c r="AS27" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>16519.254941734678</v>
       </c>
       <c r="AT27" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>16684.447491152026</v>
       </c>
     </row>
-    <row r="28" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:46" s="2" customFormat="1">
       <c r="B28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="C28" s="6">
+        <v>1010</v>
+      </c>
+      <c r="D28" s="6">
+        <v>1235</v>
+      </c>
       <c r="E28" s="6">
         <v>1166</v>
       </c>
@@ -2766,23 +2868,23 @@
         <v>1140</v>
       </c>
       <c r="N28" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1272</v>
       </c>
       <c r="O28" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1084</v>
       </c>
       <c r="P28" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1038</v>
       </c>
       <c r="Q28" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1140</v>
       </c>
       <c r="R28" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1272</v>
       </c>
       <c r="V28" s="12">
@@ -2824,390 +2926,406 @@
         <v>4534</v>
       </c>
       <c r="AH28" s="2">
-        <f t="shared" ref="AH28:AT28" si="22">+AG28*1.01</f>
+        <f t="shared" ref="AH28:AT28" si="23">+AG28*1.01</f>
         <v>4579.34</v>
       </c>
       <c r="AI28" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4625.1334000000006</v>
       </c>
       <c r="AJ28" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4671.3847340000011</v>
       </c>
       <c r="AK28" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4718.0985813400011</v>
       </c>
       <c r="AL28" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4765.2795671534013</v>
       </c>
       <c r="AM28" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4812.9323628249358</v>
       </c>
       <c r="AN28" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4861.0616864531848</v>
       </c>
       <c r="AO28" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4909.6723033177168</v>
       </c>
       <c r="AP28" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4958.7690263508939</v>
       </c>
       <c r="AQ28" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5008.356716614403</v>
       </c>
       <c r="AR28" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5058.4402837805474</v>
       </c>
       <c r="AS28" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5109.0246866183525</v>
       </c>
       <c r="AT28" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5160.1149334845359</v>
       </c>
     </row>
-    <row r="29" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:46" s="2" customFormat="1">
       <c r="B29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="C29" s="6">
+        <f t="shared" ref="C29:D29" si="24">SUM(C26:C28)</f>
+        <v>7081</v>
+      </c>
+      <c r="D29" s="6">
+        <f t="shared" si="24"/>
+        <v>8266</v>
+      </c>
       <c r="E29" s="6">
-        <f t="shared" ref="E29:L29" si="23">SUM(E26:E28)</f>
+        <f t="shared" ref="E29:L29" si="25">SUM(E26:E28)</f>
         <v>7451</v>
       </c>
       <c r="F29" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>9140</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>7944</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>8315</v>
       </c>
       <c r="I29" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>7784</v>
       </c>
       <c r="J29" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>8327</v>
       </c>
       <c r="K29" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>7379</v>
       </c>
       <c r="L29" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>7898</v>
       </c>
       <c r="M29" s="6">
-        <f t="shared" ref="M29" si="24">SUM(M26:M28)</f>
+        <f t="shared" ref="M29" si="26">SUM(M26:M28)</f>
         <v>7526</v>
       </c>
       <c r="N29" s="6">
-        <f t="shared" ref="N29" si="25">SUM(N26:N28)</f>
+        <f t="shared" ref="N29" si="27">SUM(N26:N28)</f>
         <v>8327</v>
       </c>
       <c r="O29" s="6">
-        <f t="shared" ref="O29" si="26">SUM(O26:O28)</f>
+        <f t="shared" ref="O29" si="28">SUM(O26:O28)</f>
         <v>7379</v>
       </c>
       <c r="P29" s="6">
-        <f t="shared" ref="P29" si="27">SUM(P26:P28)</f>
+        <f t="shared" ref="P29" si="29">SUM(P26:P28)</f>
         <v>7898</v>
       </c>
       <c r="Q29" s="6">
-        <f t="shared" ref="Q29" si="28">SUM(Q26:Q28)</f>
+        <f t="shared" ref="Q29" si="30">SUM(Q26:Q28)</f>
         <v>7526</v>
       </c>
       <c r="R29" s="6">
-        <f t="shared" ref="R29" si="29">SUM(R26:R28)</f>
+        <f t="shared" ref="R29" si="31">SUM(R26:R28)</f>
         <v>8327</v>
       </c>
       <c r="V29" s="6">
-        <f t="shared" ref="V29:AE29" si="30">SUM(V26:V28)</f>
+        <f t="shared" ref="V29:AE29" si="32">SUM(V26:V28)</f>
         <v>20160</v>
       </c>
       <c r="W29" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>21991</v>
       </c>
       <c r="X29" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>26551</v>
       </c>
       <c r="Y29" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>25919</v>
       </c>
       <c r="Z29" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>25991</v>
       </c>
       <c r="AA29" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>27205</v>
       </c>
       <c r="AB29" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>28237</v>
       </c>
       <c r="AC29" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>30700</v>
       </c>
       <c r="AD29" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>31869</v>
       </c>
       <c r="AE29" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>32370</v>
       </c>
       <c r="AF29" s="6">
-        <f t="shared" ref="AF29:AG29" si="31">SUM(AF26:AF28)</f>
+        <f t="shared" ref="AF29:AG29" si="33">SUM(AF26:AF28)</f>
         <v>31130</v>
       </c>
       <c r="AG29" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>31130</v>
       </c>
       <c r="AH29" s="6">
-        <f t="shared" ref="AH29" si="32">SUM(AH26:AH28)</f>
+        <f t="shared" ref="AH29" si="34">SUM(AH26:AH28)</f>
         <v>31441.3</v>
       </c>
       <c r="AI29" s="6">
-        <f t="shared" ref="AI29" si="33">SUM(AI26:AI28)</f>
+        <f t="shared" ref="AI29" si="35">SUM(AI26:AI28)</f>
         <v>31755.713000000003</v>
       </c>
       <c r="AJ29" s="6">
-        <f t="shared" ref="AJ29" si="34">SUM(AJ26:AJ28)</f>
+        <f t="shared" ref="AJ29" si="36">SUM(AJ26:AJ28)</f>
         <v>32073.270130000004</v>
       </c>
       <c r="AK29" s="6">
-        <f t="shared" ref="AK29" si="35">SUM(AK26:AK28)</f>
+        <f t="shared" ref="AK29" si="37">SUM(AK26:AK28)</f>
         <v>32394.002831300004</v>
       </c>
       <c r="AL29" s="6">
-        <f t="shared" ref="AL29" si="36">SUM(AL26:AL28)</f>
+        <f t="shared" ref="AL29" si="38">SUM(AL26:AL28)</f>
         <v>32717.942859613002</v>
       </c>
       <c r="AM29" s="6">
-        <f t="shared" ref="AM29" si="37">SUM(AM26:AM28)</f>
+        <f t="shared" ref="AM29" si="39">SUM(AM26:AM28)</f>
         <v>33045.122288209132</v>
       </c>
       <c r="AN29" s="6">
-        <f t="shared" ref="AN29" si="38">SUM(AN26:AN28)</f>
+        <f t="shared" ref="AN29" si="40">SUM(AN26:AN28)</f>
         <v>33375.573511091221</v>
       </c>
       <c r="AO29" s="6">
-        <f t="shared" ref="AO29" si="39">SUM(AO26:AO28)</f>
+        <f t="shared" ref="AO29" si="41">SUM(AO26:AO28)</f>
         <v>33709.329246202135</v>
       </c>
       <c r="AP29" s="6">
-        <f t="shared" ref="AP29" si="40">SUM(AP26:AP28)</f>
+        <f t="shared" ref="AP29" si="42">SUM(AP26:AP28)</f>
         <v>34046.422538664156</v>
       </c>
       <c r="AQ29" s="6">
-        <f t="shared" ref="AQ29" si="41">SUM(AQ26:AQ28)</f>
+        <f t="shared" ref="AQ29" si="43">SUM(AQ26:AQ28)</f>
         <v>34386.886764050803</v>
       </c>
       <c r="AR29" s="6">
-        <f t="shared" ref="AR29" si="42">SUM(AR26:AR28)</f>
+        <f t="shared" ref="AR29" si="44">SUM(AR26:AR28)</f>
         <v>34730.755631691303</v>
       </c>
       <c r="AS29" s="6">
-        <f t="shared" ref="AS29" si="43">SUM(AS26:AS28)</f>
+        <f t="shared" ref="AS29" si="45">SUM(AS26:AS28)</f>
         <v>35078.063188008222</v>
       </c>
       <c r="AT29" s="6">
-        <f t="shared" ref="AT29" si="44">SUM(AT26:AT28)</f>
+        <f t="shared" ref="AT29" si="46">SUM(AT26:AT28)</f>
         <v>35428.843819888309</v>
       </c>
     </row>
-    <row r="30" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:46" s="2" customFormat="1">
       <c r="B30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="C30" s="6">
+        <f t="shared" ref="C30:D30" si="47">C25-C29</f>
+        <v>6334</v>
+      </c>
+      <c r="D30" s="6">
+        <f t="shared" si="47"/>
+        <v>7969</v>
+      </c>
       <c r="E30" s="6">
-        <f t="shared" ref="E30:L30" si="45">E25-E29</f>
+        <f t="shared" ref="E30:L30" si="48">E25-E29</f>
         <v>6974</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>6609</v>
       </c>
       <c r="G30" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>6984</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>8019</v>
       </c>
       <c r="I30" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>6784</v>
       </c>
       <c r="J30" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>6385</v>
       </c>
       <c r="K30" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>5793</v>
       </c>
       <c r="L30" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>6026</v>
       </c>
       <c r="M30" s="6">
-        <f t="shared" ref="M30" si="46">M25-M29</f>
+        <f t="shared" ref="M30" si="49">M25-M29</f>
         <v>6828</v>
       </c>
       <c r="N30" s="6">
-        <f t="shared" ref="N30" si="47">N25-N29</f>
+        <f t="shared" ref="N30" si="50">N25-N29</f>
         <v>5721</v>
       </c>
       <c r="O30" s="6">
-        <f t="shared" ref="O30" si="48">O25-O29</f>
+        <f t="shared" ref="O30" si="51">O25-O29</f>
         <v>5588.1576999999997</v>
       </c>
       <c r="P30" s="6">
-        <f t="shared" ref="P30" si="49">P25-P29</f>
+        <f t="shared" ref="P30" si="52">P25-P29</f>
         <v>7243.3948</v>
       </c>
       <c r="Q30" s="6">
-        <f t="shared" ref="Q30" si="50">Q25-Q29</f>
+        <f t="shared" ref="Q30" si="53">Q25-Q29</f>
         <v>6520.9587999999985</v>
       </c>
       <c r="R30" s="6">
-        <f t="shared" ref="R30" si="51">R25-R29</f>
+        <f t="shared" ref="R30" si="54">R25-R29</f>
         <v>5639.7849999999999</v>
       </c>
       <c r="V30" s="6">
-        <f t="shared" ref="V30:AE30" si="52">V25-V29</f>
+        <f t="shared" ref="V30:AE30" si="55">V25-V29</f>
         <v>16472</v>
       </c>
       <c r="W30" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>18438</v>
       </c>
       <c r="X30" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>22271</v>
       </c>
       <c r="Y30" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>20363</v>
       </c>
       <c r="Z30" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>24098</v>
       </c>
       <c r="AA30" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>27161</v>
       </c>
       <c r="AB30" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>27956</v>
       </c>
       <c r="AC30" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>26764</v>
       </c>
       <c r="AD30" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>27886</v>
       </c>
       <c r="AE30" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>28172</v>
       </c>
       <c r="AF30" s="6">
-        <f t="shared" ref="AF30:AG30" si="53">AF25-AF29</f>
+        <f t="shared" ref="AF30:AG30" si="56">AF25-AF29</f>
         <v>24368</v>
       </c>
       <c r="AG30" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>24992.296299999987</v>
       </c>
       <c r="AH30" s="6">
-        <f t="shared" ref="AH30" si="54">AH25-AH29</f>
+        <f t="shared" ref="AH30" si="57">AH25-AH29</f>
         <v>26364.665189000003</v>
       </c>
       <c r="AI30" s="6">
-        <f t="shared" ref="AI30" si="55">AI25-AI29</f>
+        <f t="shared" ref="AI30" si="58">AI25-AI29</f>
         <v>27784.431144670001</v>
       </c>
       <c r="AJ30" s="6">
-        <f t="shared" ref="AJ30" si="56">AJ25-AJ29</f>
+        <f t="shared" ref="AJ30" si="59">AJ25-AJ29</f>
         <v>29253.078339010099</v>
       </c>
       <c r="AK30" s="6">
-        <f t="shared" ref="AK30" si="57">AK25-AK29</f>
+        <f t="shared" ref="AK30" si="60">AK25-AK29</f>
         <v>30772.136091780409</v>
       </c>
       <c r="AL30" s="6">
-        <f t="shared" ref="AL30" si="58">AL25-AL29</f>
+        <f t="shared" ref="AL30" si="61">AL25-AL29</f>
         <v>32343.180231159822</v>
       </c>
       <c r="AM30" s="6">
-        <f t="shared" ref="AM30" si="59">AM25-AM29</f>
+        <f t="shared" ref="AM30" si="62">AM25-AM29</f>
         <v>33967.834495286887</v>
       </c>
       <c r="AN30" s="6">
-        <f t="shared" ref="AN30" si="60">AN25-AN29</f>
+        <f t="shared" ref="AN30" si="63">AN25-AN29</f>
         <v>35647.77197590968</v>
       </c>
       <c r="AO30" s="6">
-        <f t="shared" ref="AO30" si="61">AO25-AO29</f>
+        <f t="shared" ref="AO30" si="64">AO25-AO29</f>
         <v>37384.716605408787</v>
       </c>
       <c r="AP30" s="6">
-        <f t="shared" ref="AP30" si="62">AP25-AP29</f>
+        <f t="shared" ref="AP30" si="65">AP25-AP29</f>
         <v>39180.444688495096</v>
       </c>
       <c r="AQ30" s="6">
-        <f t="shared" ref="AQ30" si="63">AQ25-AQ29</f>
+        <f t="shared" ref="AQ30" si="66">AQ25-AQ29</f>
         <v>41036.786479923241</v>
       </c>
       <c r="AR30" s="6">
-        <f t="shared" ref="AR30" si="64">AR25-AR29</f>
+        <f t="shared" ref="AR30" si="67">AR25-AR29</f>
         <v>42955.62780960196</v>
       </c>
       <c r="AS30" s="6">
-        <f t="shared" ref="AS30" si="65">AS25-AS29</f>
+        <f t="shared" ref="AS30" si="68">AS25-AS29</f>
         <v>44938.911756523841</v>
       </c>
       <c r="AT30" s="6">
-        <f t="shared" ref="AT30" si="66">AT25-AT29</f>
+        <f t="shared" ref="AT30" si="69">AT25-AT29</f>
         <v>46988.640372979717</v>
       </c>
     </row>
-    <row r="31" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:46" s="2" customFormat="1">
       <c r="B31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+      <c r="C31" s="6">
+        <v>74</v>
+      </c>
+      <c r="D31" s="6">
+        <v>-91</v>
+      </c>
       <c r="E31" s="6">
         <v>-17</v>
       </c>
@@ -3236,19 +3354,24 @@
         <v>-247</v>
       </c>
       <c r="N31" s="6">
-        <v>0</v>
+        <f>M31+10</f>
+        <v>-237</v>
       </c>
       <c r="O31" s="6">
-        <v>0</v>
+        <f t="shared" ref="O31:R31" si="70">N31+10</f>
+        <v>-227</v>
       </c>
       <c r="P31" s="6">
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>-217</v>
       </c>
       <c r="Q31" s="6">
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>-207</v>
       </c>
       <c r="R31" s="6">
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>-197</v>
       </c>
       <c r="V31" s="12">
         <v>1790</v>
@@ -3282,234 +3405,244 @@
       </c>
       <c r="AF31" s="12">
         <f>SUM(K31:N31)</f>
-        <v>-698</v>
+        <v>-935</v>
       </c>
       <c r="AG31" s="12">
         <f>SUM(O31:R31)</f>
-        <v>0</v>
+        <v>-848</v>
       </c>
       <c r="AH31" s="2">
-        <f t="shared" ref="AH31:AT31" si="67">+AG47*$AW$38</f>
-        <v>2258.2428000599998</v>
+        <f t="shared" ref="AH31:AT31" si="71">+AG47*$AW$38</f>
+        <v>560.20200001499995</v>
       </c>
       <c r="AI31" s="2">
-        <f t="shared" si="67"/>
-        <v>2716.2093278849602</v>
+        <f t="shared" si="71"/>
+        <v>667.90146877105985</v>
       </c>
       <c r="AJ31" s="2">
-        <f t="shared" si="67"/>
-        <v>3204.2195754458394</v>
+        <f t="shared" si="71"/>
+        <v>781.7107992248242</v>
       </c>
       <c r="AK31" s="2">
-        <f t="shared" si="67"/>
-        <v>3723.5363420771341</v>
+        <f t="shared" si="71"/>
+        <v>901.84995577776385</v>
       </c>
       <c r="AL31" s="2">
-        <f t="shared" si="67"/>
-        <v>4275.4671010188549</v>
+        <f t="shared" si="71"/>
+        <v>1028.5458999679965</v>
       </c>
       <c r="AM31" s="2">
-        <f t="shared" si="67"/>
-        <v>4861.3654583337138</v>
+        <f t="shared" si="71"/>
+        <v>1162.0328044925079</v>
       </c>
       <c r="AN31" s="2">
-        <f t="shared" si="67"/>
-        <v>5482.6326575916437</v>
+        <f t="shared" si="71"/>
+        <v>1302.5522736916255</v>
       </c>
       <c r="AO31" s="2">
-        <f t="shared" si="67"/>
-        <v>6140.7191317276647</v>
+        <f t="shared" si="71"/>
+        <v>1450.3535706900309</v>
       </c>
       <c r="AP31" s="2">
-        <f t="shared" si="67"/>
-        <v>6837.1261035218477</v>
+        <f t="shared" si="71"/>
+        <v>1605.693851394426</v>
       </c>
       <c r="AQ31" s="2">
-        <f t="shared" si="67"/>
-        <v>7573.407236194118</v>
+        <f t="shared" si="71"/>
+        <v>1768.8384055539841</v>
       </c>
       <c r="AR31" s="2">
-        <f t="shared" si="67"/>
-        <v>8351.1703356519956</v>
+        <f t="shared" si="71"/>
+        <v>1940.0609050958931</v>
       </c>
       <c r="AS31" s="2">
-        <f t="shared" si="67"/>
-        <v>9172.0791059760595</v>
+        <f t="shared" si="71"/>
+        <v>2119.6436599546842</v>
       </c>
       <c r="AT31" s="2">
-        <f t="shared" si="67"/>
-        <v>10037.854959776058</v>
-      </c>
-    </row>
-    <row r="32" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="71"/>
+        <v>2307.8778816205986</v>
+      </c>
+    </row>
+    <row r="32" spans="2:46" s="2" customFormat="1">
       <c r="B32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="C32" s="6">
+        <f t="shared" ref="C32:D32" si="72">+C31+C30</f>
+        <v>6408</v>
+      </c>
+      <c r="D32" s="6">
+        <f t="shared" si="72"/>
+        <v>7878</v>
+      </c>
       <c r="E32" s="6">
-        <f t="shared" ref="E32:M32" si="68">+E31+E30</f>
+        <f t="shared" ref="E32:M32" si="73">+E31+E30</f>
         <v>6957</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>6704</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>7036</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>8093</v>
       </c>
       <c r="I32" s="6">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>6707</v>
       </c>
       <c r="J32" s="6">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>6682</v>
       </c>
       <c r="K32" s="6">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>5513</v>
       </c>
       <c r="L32" s="6">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>5855</v>
       </c>
       <c r="M32" s="6">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>6581</v>
       </c>
       <c r="N32" s="6">
-        <f t="shared" ref="N32" si="69">+N31+N30</f>
-        <v>5721</v>
+        <f t="shared" ref="N32" si="74">+N31+N30</f>
+        <v>5484</v>
       </c>
       <c r="O32" s="6">
-        <f t="shared" ref="O32" si="70">+O31+O30</f>
-        <v>5588.1576999999997</v>
+        <f t="shared" ref="O32" si="75">+O31+O30</f>
+        <v>5361.1576999999997</v>
       </c>
       <c r="P32" s="6">
-        <f t="shared" ref="P32" si="71">+P31+P30</f>
-        <v>7243.3948</v>
+        <f t="shared" ref="P32" si="76">+P31+P30</f>
+        <v>7026.3948</v>
       </c>
       <c r="Q32" s="6">
-        <f t="shared" ref="Q32" si="72">+Q31+Q30</f>
-        <v>6520.9587999999985</v>
+        <f t="shared" ref="Q32" si="77">+Q31+Q30</f>
+        <v>6313.9587999999985</v>
       </c>
       <c r="R32" s="6">
-        <f t="shared" ref="R32" si="73">+R31+R30</f>
-        <v>5639.7849999999999</v>
+        <f t="shared" ref="R32" si="78">+R31+R30</f>
+        <v>5442.7849999999999</v>
       </c>
       <c r="V32" s="6">
-        <f t="shared" ref="V32" si="74">+V31+V30</f>
+        <f t="shared" ref="V32" si="79">+V31+V30</f>
         <v>18262</v>
       </c>
       <c r="W32" s="6">
-        <f t="shared" ref="W32:X32" si="75">+W31+W30</f>
+        <f t="shared" ref="W32:X32" si="80">+W31+W30</f>
         <v>20101</v>
       </c>
       <c r="X32" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>23814</v>
       </c>
       <c r="Y32" s="6">
-        <f t="shared" ref="Y32:Z32" si="76">+Y31+Y30</f>
+        <f t="shared" ref="Y32:Z32" si="81">+Y31+Y30</f>
         <v>19821</v>
       </c>
       <c r="Z32" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>25013</v>
       </c>
       <c r="AA32" s="6">
-        <f t="shared" ref="AA32:AB32" si="77">+AA31+AA30</f>
+        <f t="shared" ref="AA32:AB32" si="82">+AA31+AA30</f>
         <v>28071</v>
       </c>
       <c r="AB32" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="82"/>
         <v>28460</v>
       </c>
       <c r="AC32" s="6">
-        <f t="shared" ref="AC32:AD32" si="78">+AC31+AC30</f>
+        <f t="shared" ref="AC32:AD32" si="83">+AC31+AC30</f>
         <v>27052</v>
       </c>
       <c r="AD32" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>27947</v>
       </c>
       <c r="AE32" s="6">
-        <f t="shared" ref="AE32:AF32" si="79">+AE31+AE30</f>
+        <f t="shared" ref="AE32:AF32" si="84">+AE31+AE30</f>
         <v>28518</v>
       </c>
       <c r="AF32" s="6">
-        <f t="shared" si="79"/>
-        <v>23670</v>
+        <f t="shared" si="84"/>
+        <v>23433</v>
       </c>
       <c r="AG32" s="6">
-        <f t="shared" ref="AG32" si="80">+AG31+AG30</f>
-        <v>24992.296299999987</v>
+        <f t="shared" ref="AG32" si="85">+AG31+AG30</f>
+        <v>24144.296299999987</v>
       </c>
       <c r="AH32" s="6">
-        <f t="shared" ref="AH32" si="81">+AH31+AH30</f>
-        <v>28622.907989060004</v>
+        <f t="shared" ref="AH32" si="86">+AH31+AH30</f>
+        <v>26924.867189015004</v>
       </c>
       <c r="AI32" s="6">
-        <f t="shared" ref="AI32" si="82">+AI31+AI30</f>
-        <v>30500.640472554962</v>
+        <f t="shared" ref="AI32" si="87">+AI31+AI30</f>
+        <v>28452.33261344106</v>
       </c>
       <c r="AJ32" s="6">
-        <f t="shared" ref="AJ32" si="83">+AJ31+AJ30</f>
-        <v>32457.297914455939</v>
+        <f t="shared" ref="AJ32" si="88">+AJ31+AJ30</f>
+        <v>30034.789138234923</v>
       </c>
       <c r="AK32" s="6">
-        <f t="shared" ref="AK32" si="84">+AK31+AK30</f>
-        <v>34495.672433857544</v>
+        <f t="shared" ref="AK32" si="89">+AK31+AK30</f>
+        <v>31673.986047558174</v>
       </c>
       <c r="AL32" s="6">
-        <f t="shared" ref="AL32" si="85">+AL31+AL30</f>
-        <v>36618.647332178676</v>
+        <f t="shared" ref="AL32" si="90">+AL31+AL30</f>
+        <v>33371.72613112782</v>
       </c>
       <c r="AM32" s="6">
-        <f t="shared" ref="AM32" si="86">+AM31+AM30</f>
-        <v>38829.199953620599</v>
+        <f t="shared" ref="AM32" si="91">+AM31+AM30</f>
+        <v>35129.867299779391</v>
       </c>
       <c r="AN32" s="6">
-        <f t="shared" ref="AN32" si="87">+AN31+AN30</f>
-        <v>41130.404633501326</v>
+        <f t="shared" ref="AN32" si="92">+AN31+AN30</f>
+        <v>36950.324249601304</v>
       </c>
       <c r="AO32" s="6">
-        <f t="shared" ref="AO32" si="88">+AO31+AO30</f>
-        <v>43525.435737136453</v>
+        <f t="shared" ref="AO32" si="93">+AO31+AO30</f>
+        <v>38835.070176098816</v>
       </c>
       <c r="AP32" s="6">
-        <f t="shared" ref="AP32" si="89">+AP31+AP30</f>
-        <v>46017.570792016944</v>
+        <f t="shared" ref="AP32" si="94">+AP31+AP30</f>
+        <v>40786.138539889522</v>
       </c>
       <c r="AQ32" s="6">
-        <f t="shared" ref="AQ32" si="90">+AQ31+AQ30</f>
-        <v>48610.193716117356</v>
+        <f t="shared" ref="AQ32" si="95">+AQ31+AQ30</f>
+        <v>42805.624885477228</v>
       </c>
       <c r="AR32" s="6">
-        <f t="shared" ref="AR32" si="91">+AR31+AR30</f>
-        <v>51306.798145253953</v>
+        <f t="shared" ref="AR32" si="96">+AR31+AR30</f>
+        <v>44895.688714697855</v>
       </c>
       <c r="AS32" s="6">
-        <f t="shared" ref="AS32" si="92">+AS31+AS30</f>
-        <v>54110.990862499901</v>
+        <f t="shared" ref="AS32" si="97">+AS31+AS30</f>
+        <v>47058.555416478528</v>
       </c>
       <c r="AT32" s="6">
-        <f t="shared" ref="AT32" si="93">+AT31+AT30</f>
-        <v>57026.495332755774</v>
-      </c>
-    </row>
-    <row r="33" spans="2:149" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AT32" si="98">+AT31+AT30</f>
+        <v>49296.518254600313</v>
+      </c>
+    </row>
+    <row r="33" spans="2:149" s="2" customFormat="1">
       <c r="B33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+      <c r="C33" s="6">
+        <v>1164</v>
+      </c>
+      <c r="D33" s="6">
+        <v>1320</v>
+      </c>
       <c r="E33" s="6">
         <v>1297</v>
       </c>
@@ -3539,23 +3672,23 @@
       </c>
       <c r="N33" s="6">
         <f>+N32*0.22</f>
-        <v>1258.6200000000001</v>
+        <v>1206.48</v>
       </c>
       <c r="O33" s="6">
-        <f t="shared" ref="O33:R33" si="94">+O32*0.19</f>
-        <v>1061.749963</v>
+        <f t="shared" ref="O33:R33" si="99">+O32*0.19</f>
+        <v>1018.619963</v>
       </c>
       <c r="P33" s="6">
-        <f t="shared" si="94"/>
-        <v>1376.2450120000001</v>
+        <f t="shared" si="99"/>
+        <v>1335.0150120000001</v>
       </c>
       <c r="Q33" s="6">
-        <f t="shared" si="94"/>
-        <v>1238.9821719999998</v>
+        <f t="shared" si="99"/>
+        <v>1199.6521719999998</v>
       </c>
       <c r="R33" s="6">
-        <f t="shared" si="94"/>
-        <v>1071.55915</v>
+        <f t="shared" si="99"/>
+        <v>1034.12915</v>
       </c>
       <c r="V33" s="12">
         <v>5663</v>
@@ -3589,809 +3722,825 @@
       </c>
       <c r="AF33" s="12">
         <f>SUM(K33:N33)</f>
-        <v>4288.62</v>
+        <v>4236.4799999999996</v>
       </c>
       <c r="AG33" s="12">
         <f>SUM(O33:R33)</f>
-        <v>4748.5362969999996</v>
+        <v>4587.4162969999998</v>
       </c>
       <c r="AH33" s="2">
         <f>+AH32*0.2</f>
-        <v>5724.5815978120008</v>
+        <v>5384.9734378030007</v>
       </c>
       <c r="AI33" s="2">
-        <f t="shared" ref="AI33:AT33" si="95">+AI32*0.2</f>
-        <v>6100.1280945109929</v>
+        <f t="shared" ref="AI33:AT33" si="100">+AI32*0.2</f>
+        <v>5690.4665226882125</v>
       </c>
       <c r="AJ33" s="2">
-        <f t="shared" si="95"/>
-        <v>6491.4595828911879</v>
+        <f t="shared" si="100"/>
+        <v>6006.9578276469847</v>
       </c>
       <c r="AK33" s="2">
-        <f t="shared" si="95"/>
-        <v>6899.1344867715088</v>
+        <f t="shared" si="100"/>
+        <v>6334.7972095116347</v>
       </c>
       <c r="AL33" s="2">
-        <f t="shared" si="95"/>
-        <v>7323.729466435736</v>
+        <f t="shared" si="100"/>
+        <v>6674.3452262255641</v>
       </c>
       <c r="AM33" s="2">
-        <f t="shared" si="95"/>
-        <v>7765.8399907241201</v>
+        <f t="shared" si="100"/>
+        <v>7025.9734599558788</v>
       </c>
       <c r="AN33" s="2">
-        <f t="shared" si="95"/>
-        <v>8226.080926700266</v>
+        <f t="shared" si="100"/>
+        <v>7390.0648499202616</v>
       </c>
       <c r="AO33" s="2">
-        <f t="shared" si="95"/>
-        <v>8705.0871474272917</v>
+        <f t="shared" si="100"/>
+        <v>7767.0140352197632</v>
       </c>
       <c r="AP33" s="2">
-        <f t="shared" si="95"/>
-        <v>9203.51415840339</v>
+        <f t="shared" si="100"/>
+        <v>8157.2277079779051</v>
       </c>
       <c r="AQ33" s="2">
-        <f t="shared" si="95"/>
-        <v>9722.0387432234711</v>
+        <f t="shared" si="100"/>
+        <v>8561.1249770954455</v>
       </c>
       <c r="AR33" s="2">
-        <f t="shared" si="95"/>
-        <v>10261.359629050792</v>
+        <f t="shared" si="100"/>
+        <v>8979.1377429395707</v>
       </c>
       <c r="AS33" s="2">
-        <f t="shared" si="95"/>
-        <v>10822.198172499981</v>
+        <f t="shared" si="100"/>
+        <v>9411.711083295706</v>
       </c>
       <c r="AT33" s="2">
-        <f t="shared" si="95"/>
-        <v>11405.299066551155</v>
-      </c>
-    </row>
-    <row r="34" spans="2:149" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
+        <f t="shared" si="100"/>
+        <v>9859.3036509200629</v>
+      </c>
+    </row>
+    <row r="34" spans="2:149" s="8" customFormat="1">
+      <c r="B34" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6">
-        <f t="shared" ref="E34:M34" si="96">+E32-E33</f>
+      <c r="C34" s="9">
+        <f t="shared" ref="C34:D34" si="101">+C32-C33</f>
+        <v>5244</v>
+      </c>
+      <c r="D34" s="9">
+        <f t="shared" si="101"/>
+        <v>6558</v>
+      </c>
+      <c r="E34" s="9">
+        <f t="shared" ref="E34:M34" si="102">+E32-E33</f>
         <v>5660</v>
       </c>
-      <c r="F34" s="6">
-        <f t="shared" si="96"/>
+      <c r="F34" s="9">
+        <f t="shared" si="102"/>
         <v>4739</v>
       </c>
-      <c r="G34" s="6">
-        <f t="shared" si="96"/>
+      <c r="G34" s="9">
+        <f t="shared" si="102"/>
         <v>5680</v>
       </c>
-      <c r="H34" s="6">
-        <f t="shared" si="96"/>
+      <c r="H34" s="9">
+        <f t="shared" si="102"/>
         <v>6106</v>
       </c>
-      <c r="I34" s="6">
-        <f t="shared" si="96"/>
+      <c r="I34" s="9">
+        <f t="shared" si="102"/>
         <v>5175</v>
       </c>
-      <c r="J34" s="6">
-        <f t="shared" si="96"/>
+      <c r="J34" s="9">
+        <f t="shared" si="102"/>
         <v>5243</v>
       </c>
-      <c r="K34" s="6">
-        <f t="shared" si="96"/>
+      <c r="K34" s="9">
+        <f t="shared" si="102"/>
         <v>4620</v>
       </c>
-      <c r="L34" s="6">
-        <f t="shared" si="96"/>
+      <c r="L34" s="9">
+        <f t="shared" si="102"/>
         <v>4998</v>
       </c>
-      <c r="M34" s="6">
-        <f t="shared" si="96"/>
+      <c r="M34" s="9">
+        <f t="shared" si="102"/>
         <v>5301</v>
       </c>
-      <c r="N34" s="6">
-        <f t="shared" ref="N34" si="97">+N32-N33</f>
-        <v>4462.38</v>
-      </c>
-      <c r="O34" s="6">
-        <f t="shared" ref="O34" si="98">+O32-O33</f>
-        <v>4526.4077369999995</v>
-      </c>
-      <c r="P34" s="6">
-        <f t="shared" ref="P34" si="99">+P32-P33</f>
-        <v>5867.1497879999997</v>
-      </c>
-      <c r="Q34" s="6">
-        <f t="shared" ref="Q34" si="100">+Q32-Q33</f>
-        <v>5281.9766279999985</v>
-      </c>
-      <c r="R34" s="6">
-        <f t="shared" ref="R34" si="101">+R32-R33</f>
-        <v>4568.2258499999998</v>
-      </c>
-      <c r="V34" s="6">
-        <f t="shared" ref="V34" si="102">+V32-V33</f>
+      <c r="N34" s="9">
+        <f t="shared" ref="N34" si="103">+N32-N33</f>
+        <v>4277.5200000000004</v>
+      </c>
+      <c r="O34" s="9">
+        <f t="shared" ref="O34" si="104">+O32-O33</f>
+        <v>4342.5377369999997</v>
+      </c>
+      <c r="P34" s="9">
+        <f t="shared" ref="P34" si="105">+P32-P33</f>
+        <v>5691.3797880000002</v>
+      </c>
+      <c r="Q34" s="9">
+        <f t="shared" ref="Q34" si="106">+Q32-Q33</f>
+        <v>5114.3066279999985</v>
+      </c>
+      <c r="R34" s="9">
+        <f t="shared" ref="R34" si="107">+R32-R33</f>
+        <v>4408.6558500000001</v>
+      </c>
+      <c r="V34" s="9">
+        <f t="shared" ref="V34" si="108">+V32-V33</f>
         <v>12599</v>
       </c>
-      <c r="W34" s="6">
-        <f t="shared" ref="W34:X34" si="103">+W32-W33</f>
+      <c r="W34" s="9">
+        <f t="shared" ref="W34:X34" si="109">+W32-W33</f>
         <v>14065</v>
       </c>
-      <c r="X34" s="6">
-        <f t="shared" si="103"/>
+      <c r="X34" s="9">
+        <f t="shared" si="109"/>
         <v>17681</v>
       </c>
-      <c r="Y34" s="6">
-        <f t="shared" ref="Y34:Z34" si="104">+Y32-Y33</f>
+      <c r="Y34" s="9">
+        <f t="shared" ref="Y34:Z34" si="110">+Y32-Y33</f>
         <v>14569</v>
       </c>
-      <c r="Z34" s="6">
-        <f t="shared" si="104"/>
+      <c r="Z34" s="9">
+        <f t="shared" si="110"/>
         <v>18760</v>
       </c>
-      <c r="AA34" s="6">
-        <f t="shared" ref="AA34:AB34" si="105">+AA32-AA33</f>
+      <c r="AA34" s="9">
+        <f t="shared" ref="AA34:AB34" si="111">+AA32-AA33</f>
         <v>23150</v>
       </c>
-      <c r="AB34" s="6">
-        <f t="shared" si="105"/>
+      <c r="AB34" s="9">
+        <f t="shared" si="111"/>
         <v>23171</v>
       </c>
-      <c r="AC34" s="6">
-        <f t="shared" ref="AC34:AD34" si="106">+AC32-AC33</f>
+      <c r="AC34" s="9">
+        <f t="shared" ref="AC34:AD34" si="112">+AC32-AC33</f>
         <v>21863</v>
       </c>
-      <c r="AD34" s="6">
-        <f t="shared" si="106"/>
+      <c r="AD34" s="9">
+        <f t="shared" si="112"/>
         <v>22201</v>
       </c>
-      <c r="AE34" s="6">
-        <f t="shared" ref="AE34:AF34" si="107">+AE32-AE33</f>
+      <c r="AE34" s="9">
+        <f t="shared" ref="AE34:AF34" si="113">+AE32-AE33</f>
         <v>22204</v>
       </c>
-      <c r="AF34" s="6">
-        <f t="shared" si="107"/>
-        <v>19381.38</v>
-      </c>
-      <c r="AG34" s="6">
-        <f t="shared" ref="AG34" si="108">+AG32-AG33</f>
-        <v>20243.760002999989</v>
-      </c>
-      <c r="AH34" s="6">
-        <f t="shared" ref="AH34" si="109">+AH32-AH33</f>
-        <v>22898.326391248003</v>
-      </c>
-      <c r="AI34" s="6">
-        <f t="shared" ref="AI34" si="110">+AI32-AI33</f>
-        <v>24400.512378043968</v>
-      </c>
-      <c r="AJ34" s="6">
-        <f t="shared" ref="AJ34" si="111">+AJ32-AJ33</f>
-        <v>25965.838331564752</v>
-      </c>
-      <c r="AK34" s="6">
-        <f t="shared" ref="AK34" si="112">+AK32-AK33</f>
-        <v>27596.537947086035</v>
-      </c>
-      <c r="AL34" s="6">
-        <f t="shared" ref="AL34" si="113">+AL32-AL33</f>
-        <v>29294.91786574294</v>
-      </c>
-      <c r="AM34" s="6">
-        <f t="shared" ref="AM34" si="114">+AM32-AM33</f>
-        <v>31063.35996289648</v>
-      </c>
-      <c r="AN34" s="6">
-        <f t="shared" ref="AN34" si="115">+AN32-AN33</f>
-        <v>32904.323706801064</v>
-      </c>
-      <c r="AO34" s="6">
-        <f t="shared" ref="AO34" si="116">+AO32-AO33</f>
-        <v>34820.34858970916</v>
-      </c>
-      <c r="AP34" s="6">
-        <f t="shared" ref="AP34" si="117">+AP32-AP33</f>
-        <v>36814.056633613553</v>
-      </c>
-      <c r="AQ34" s="6">
-        <f t="shared" ref="AQ34" si="118">+AQ32-AQ33</f>
-        <v>38888.154972893884</v>
-      </c>
-      <c r="AR34" s="6">
-        <f t="shared" ref="AR34" si="119">+AR32-AR33</f>
-        <v>41045.438516203161</v>
-      </c>
-      <c r="AS34" s="6">
-        <f t="shared" ref="AS34" si="120">+AS32-AS33</f>
-        <v>43288.792689999922</v>
-      </c>
-      <c r="AT34" s="6">
-        <f t="shared" ref="AT34" si="121">+AT32-AT33</f>
-        <v>45621.196266204621</v>
-      </c>
-      <c r="AU34" s="2">
+      <c r="AF34" s="9">
+        <f t="shared" si="113"/>
+        <v>19196.52</v>
+      </c>
+      <c r="AG34" s="9">
+        <f t="shared" ref="AG34" si="114">+AG32-AG33</f>
+        <v>19556.880002999987</v>
+      </c>
+      <c r="AH34" s="9">
+        <f t="shared" ref="AH34" si="115">+AH32-AH33</f>
+        <v>21539.893751212003</v>
+      </c>
+      <c r="AI34" s="9">
+        <f t="shared" ref="AI34" si="116">+AI32-AI33</f>
+        <v>22761.866090752847</v>
+      </c>
+      <c r="AJ34" s="9">
+        <f t="shared" ref="AJ34" si="117">+AJ32-AJ33</f>
+        <v>24027.831310587939</v>
+      </c>
+      <c r="AK34" s="9">
+        <f t="shared" ref="AK34" si="118">+AK32-AK33</f>
+        <v>25339.188838046539</v>
+      </c>
+      <c r="AL34" s="9">
+        <f t="shared" ref="AL34" si="119">+AL32-AL33</f>
+        <v>26697.380904902257</v>
+      </c>
+      <c r="AM34" s="9">
+        <f t="shared" ref="AM34" si="120">+AM32-AM33</f>
+        <v>28103.893839823511</v>
+      </c>
+      <c r="AN34" s="9">
+        <f t="shared" ref="AN34" si="121">+AN32-AN33</f>
+        <v>29560.259399681043</v>
+      </c>
+      <c r="AO34" s="9">
+        <f t="shared" ref="AO34" si="122">+AO32-AO33</f>
+        <v>31068.056140879053</v>
+      </c>
+      <c r="AP34" s="9">
+        <f t="shared" ref="AP34" si="123">+AP32-AP33</f>
+        <v>32628.910831911617</v>
+      </c>
+      <c r="AQ34" s="9">
+        <f t="shared" ref="AQ34" si="124">+AQ32-AQ33</f>
+        <v>34244.499908381782</v>
+      </c>
+      <c r="AR34" s="9">
+        <f t="shared" ref="AR34" si="125">+AR32-AR33</f>
+        <v>35916.550971758283</v>
+      </c>
+      <c r="AS34" s="9">
+        <f t="shared" ref="AS34" si="126">+AS32-AS33</f>
+        <v>37646.844333182824</v>
+      </c>
+      <c r="AT34" s="9">
+        <f t="shared" ref="AT34" si="127">+AT32-AT33</f>
+        <v>39437.214603680251</v>
+      </c>
+      <c r="AU34" s="8">
         <f>AT34*(1+$AW$37)</f>
-        <v>44252.560378218484</v>
-      </c>
-      <c r="AV34" s="2">
-        <f t="shared" ref="AV34:DG34" si="122">AU34*(1+$AW$37)</f>
-        <v>42924.983566871932</v>
-      </c>
-      <c r="AW34" s="2">
-        <f t="shared" si="122"/>
-        <v>41637.234059865776</v>
-      </c>
-      <c r="AX34" s="2">
-        <f t="shared" si="122"/>
-        <v>40388.117038069802</v>
-      </c>
-      <c r="AY34" s="2">
-        <f t="shared" si="122"/>
-        <v>39176.473526927708</v>
-      </c>
-      <c r="AZ34" s="2">
-        <f t="shared" si="122"/>
-        <v>38001.179321119875</v>
-      </c>
-      <c r="BA34" s="2">
-        <f t="shared" si="122"/>
-        <v>36861.143941486276</v>
-      </c>
-      <c r="BB34" s="2">
-        <f t="shared" si="122"/>
-        <v>35755.309623241686</v>
-      </c>
-      <c r="BC34" s="2">
-        <f t="shared" si="122"/>
-        <v>34682.650334544436</v>
-      </c>
-      <c r="BD34" s="2">
-        <f t="shared" si="122"/>
-        <v>33642.170824508103</v>
-      </c>
-      <c r="BE34" s="2">
-        <f t="shared" si="122"/>
-        <v>32632.905699772858</v>
-      </c>
-      <c r="BF34" s="2">
-        <f t="shared" si="122"/>
-        <v>31653.918528779672</v>
-      </c>
-      <c r="BG34" s="2">
-        <f t="shared" si="122"/>
-        <v>30704.30097291628</v>
-      </c>
-      <c r="BH34" s="2">
-        <f t="shared" si="122"/>
-        <v>29783.17194372879</v>
-      </c>
-      <c r="BI34" s="2">
-        <f t="shared" si="122"/>
-        <v>28889.676785416927</v>
-      </c>
-      <c r="BJ34" s="2">
-        <f t="shared" si="122"/>
-        <v>28022.986481854419</v>
-      </c>
-      <c r="BK34" s="2">
-        <f t="shared" si="122"/>
-        <v>27182.296887398785</v>
-      </c>
-      <c r="BL34" s="2">
-        <f t="shared" si="122"/>
-        <v>26366.827980776819</v>
-      </c>
-      <c r="BM34" s="2">
-        <f t="shared" si="122"/>
-        <v>25575.823141353514</v>
-      </c>
-      <c r="BN34" s="2">
-        <f t="shared" si="122"/>
-        <v>24808.548447112909</v>
-      </c>
-      <c r="BO34" s="2">
-        <f t="shared" si="122"/>
-        <v>24064.29199369952</v>
-      </c>
-      <c r="BP34" s="2">
-        <f t="shared" si="122"/>
-        <v>23342.363233888533</v>
-      </c>
-      <c r="BQ34" s="2">
-        <f t="shared" si="122"/>
-        <v>22642.092336871876</v>
-      </c>
-      <c r="BR34" s="2">
-        <f t="shared" si="122"/>
-        <v>21962.829566765718</v>
-      </c>
-      <c r="BS34" s="2">
-        <f t="shared" si="122"/>
-        <v>21303.944679762746</v>
-      </c>
-      <c r="BT34" s="2">
-        <f t="shared" si="122"/>
-        <v>20664.826339369862</v>
-      </c>
-      <c r="BU34" s="2">
-        <f t="shared" si="122"/>
-        <v>20044.881549188765</v>
-      </c>
-      <c r="BV34" s="2">
-        <f t="shared" si="122"/>
-        <v>19443.5351027131</v>
-      </c>
-      <c r="BW34" s="2">
-        <f t="shared" si="122"/>
-        <v>18860.229049631707</v>
-      </c>
-      <c r="BX34" s="2">
-        <f t="shared" si="122"/>
-        <v>18294.422178142755</v>
-      </c>
-      <c r="BY34" s="2">
-        <f t="shared" si="122"/>
-        <v>17745.589512798473</v>
-      </c>
-      <c r="BZ34" s="2">
-        <f t="shared" si="122"/>
-        <v>17213.22182741452</v>
-      </c>
-      <c r="CA34" s="2">
-        <f t="shared" si="122"/>
-        <v>16696.825172592085</v>
-      </c>
-      <c r="CB34" s="2">
-        <f t="shared" si="122"/>
-        <v>16195.920417414323</v>
-      </c>
-      <c r="CC34" s="2">
-        <f t="shared" si="122"/>
-        <v>15710.042804891893</v>
-      </c>
-      <c r="CD34" s="2">
-        <f t="shared" si="122"/>
-        <v>15238.741520745136</v>
-      </c>
-      <c r="CE34" s="2">
-        <f t="shared" si="122"/>
-        <v>14781.579275122782</v>
-      </c>
-      <c r="CF34" s="2">
-        <f t="shared" si="122"/>
-        <v>14338.131896869098</v>
-      </c>
-      <c r="CG34" s="2">
-        <f t="shared" si="122"/>
-        <v>13907.987939963024</v>
-      </c>
-      <c r="CH34" s="2">
-        <f t="shared" si="122"/>
-        <v>13490.748301764133</v>
-      </c>
-      <c r="CI34" s="2">
-        <f t="shared" si="122"/>
-        <v>13086.025852711209</v>
-      </c>
-      <c r="CJ34" s="2">
-        <f t="shared" si="122"/>
-        <v>12693.445077129873</v>
-      </c>
-      <c r="CK34" s="2">
-        <f t="shared" si="122"/>
-        <v>12312.641724815976</v>
-      </c>
-      <c r="CL34" s="2">
-        <f t="shared" si="122"/>
-        <v>11943.262473071496</v>
-      </c>
-      <c r="CM34" s="2">
-        <f t="shared" si="122"/>
-        <v>11584.964598879351</v>
-      </c>
-      <c r="CN34" s="2">
-        <f t="shared" si="122"/>
-        <v>11237.41566091297</v>
-      </c>
-      <c r="CO34" s="2">
-        <f t="shared" si="122"/>
-        <v>10900.29319108558</v>
-      </c>
-      <c r="CP34" s="2">
-        <f t="shared" si="122"/>
-        <v>10573.284395353014</v>
-      </c>
-      <c r="CQ34" s="2">
-        <f t="shared" si="122"/>
-        <v>10256.085863492423</v>
-      </c>
-      <c r="CR34" s="2">
-        <f t="shared" si="122"/>
-        <v>9948.4032875876492</v>
-      </c>
-      <c r="CS34" s="2">
-        <f t="shared" si="122"/>
-        <v>9649.9511889600199</v>
-      </c>
-      <c r="CT34" s="2">
-        <f t="shared" si="122"/>
-        <v>9360.4526532912187</v>
-      </c>
-      <c r="CU34" s="2">
-        <f t="shared" si="122"/>
-        <v>9079.6390736924823</v>
-      </c>
-      <c r="CV34" s="2">
-        <f t="shared" si="122"/>
-        <v>8807.2499014817076</v>
-      </c>
-      <c r="CW34" s="2">
-        <f t="shared" si="122"/>
-        <v>8543.0324044372555</v>
-      </c>
-      <c r="CX34" s="2">
-        <f t="shared" si="122"/>
-        <v>8286.7414323041376</v>
-      </c>
-      <c r="CY34" s="2">
-        <f t="shared" si="122"/>
-        <v>8038.1391893350128</v>
-      </c>
-      <c r="CZ34" s="2">
-        <f t="shared" si="122"/>
-        <v>7796.9950136549623</v>
-      </c>
-      <c r="DA34" s="2">
-        <f t="shared" si="122"/>
-        <v>7563.0851632453132</v>
-      </c>
-      <c r="DB34" s="2">
-        <f t="shared" si="122"/>
-        <v>7336.1926083479539</v>
-      </c>
-      <c r="DC34" s="2">
-        <f t="shared" si="122"/>
-        <v>7116.1068300975148</v>
-      </c>
-      <c r="DD34" s="2">
-        <f t="shared" si="122"/>
-        <v>6902.6236251945893</v>
-      </c>
-      <c r="DE34" s="2">
-        <f t="shared" si="122"/>
-        <v>6695.544916438751</v>
-      </c>
-      <c r="DF34" s="2">
-        <f t="shared" si="122"/>
-        <v>6494.6785689455883</v>
-      </c>
-      <c r="DG34" s="2">
-        <f t="shared" si="122"/>
-        <v>6299.8382118772206</v>
-      </c>
-      <c r="DH34" s="2">
-        <f t="shared" ref="DH34:ES34" si="123">DG34*(1+$AW$37)</f>
-        <v>6110.843065520904</v>
-      </c>
-      <c r="DI34" s="2">
-        <f t="shared" si="123"/>
-        <v>5927.517773555277</v>
-      </c>
-      <c r="DJ34" s="2">
-        <f t="shared" si="123"/>
-        <v>5749.6922403486187</v>
-      </c>
-      <c r="DK34" s="2">
-        <f t="shared" si="123"/>
-        <v>5577.2014731381596</v>
-      </c>
-      <c r="DL34" s="2">
-        <f t="shared" si="123"/>
-        <v>5409.8854289440151</v>
-      </c>
-      <c r="DM34" s="2">
-        <f t="shared" si="123"/>
-        <v>5247.5888660756946</v>
-      </c>
-      <c r="DN34" s="2">
-        <f t="shared" si="123"/>
-        <v>5090.1612000934238</v>
-      </c>
-      <c r="DO34" s="2">
-        <f t="shared" si="123"/>
-        <v>4937.4563640906208</v>
-      </c>
-      <c r="DP34" s="2">
-        <f t="shared" si="123"/>
-        <v>4789.3326731679017</v>
-      </c>
-      <c r="DQ34" s="2">
-        <f t="shared" si="123"/>
-        <v>4645.6526929728643</v>
-      </c>
-      <c r="DR34" s="2">
-        <f t="shared" si="123"/>
-        <v>4506.283112183678</v>
-      </c>
-      <c r="DS34" s="2">
-        <f t="shared" si="123"/>
-        <v>4371.0946188181679</v>
-      </c>
-      <c r="DT34" s="2">
-        <f t="shared" si="123"/>
-        <v>4239.9617802536231</v>
-      </c>
-      <c r="DU34" s="2">
-        <f t="shared" si="123"/>
-        <v>4112.7629268460141</v>
-      </c>
-      <c r="DV34" s="2">
-        <f t="shared" si="123"/>
-        <v>3989.3800390406336</v>
-      </c>
-      <c r="DW34" s="2">
-        <f t="shared" si="123"/>
-        <v>3869.6986378694146</v>
-      </c>
-      <c r="DX34" s="2">
-        <f t="shared" si="123"/>
-        <v>3753.6076787333322</v>
-      </c>
-      <c r="DY34" s="2">
-        <f t="shared" si="123"/>
-        <v>3640.9994483713322</v>
-      </c>
-      <c r="DZ34" s="2">
-        <f t="shared" si="123"/>
-        <v>3531.7694649201921</v>
-      </c>
-      <c r="EA34" s="2">
-        <f t="shared" si="123"/>
-        <v>3425.8163809725861</v>
-      </c>
-      <c r="EB34" s="2">
-        <f t="shared" si="123"/>
-        <v>3323.0418895434086</v>
-      </c>
-      <c r="EC34" s="2">
-        <f t="shared" si="123"/>
-        <v>3223.3506328571061</v>
-      </c>
-      <c r="ED34" s="2">
-        <f t="shared" si="123"/>
-        <v>3126.6501138713929</v>
-      </c>
-      <c r="EE34" s="2">
-        <f t="shared" si="123"/>
-        <v>3032.8506104552512</v>
-      </c>
-      <c r="EF34" s="2">
-        <f t="shared" si="123"/>
-        <v>2941.8650921415938</v>
-      </c>
-      <c r="EG34" s="2">
-        <f t="shared" si="123"/>
-        <v>2853.6091393773459</v>
-      </c>
-      <c r="EH34" s="2">
-        <f t="shared" si="123"/>
-        <v>2768.0008651960252</v>
-      </c>
-      <c r="EI34" s="2">
-        <f t="shared" si="123"/>
-        <v>2684.9608392401442</v>
-      </c>
-      <c r="EJ34" s="2">
-        <f t="shared" si="123"/>
-        <v>2604.4120140629398</v>
-      </c>
-      <c r="EK34" s="2">
-        <f t="shared" si="123"/>
-        <v>2526.2796536410515</v>
-      </c>
-      <c r="EL34" s="2">
-        <f t="shared" si="123"/>
-        <v>2450.4912640318198</v>
-      </c>
-      <c r="EM34" s="2">
-        <f t="shared" si="123"/>
-        <v>2376.9765261108651</v>
-      </c>
-      <c r="EN34" s="2">
-        <f t="shared" si="123"/>
-        <v>2305.6672303275391</v>
-      </c>
-      <c r="EO34" s="2">
-        <f t="shared" si="123"/>
-        <v>2236.4972134177128</v>
-      </c>
-      <c r="EP34" s="2">
-        <f t="shared" si="123"/>
-        <v>2169.4022970151814</v>
-      </c>
-      <c r="EQ34" s="2">
-        <f t="shared" si="123"/>
-        <v>2104.3202281047261</v>
-      </c>
-      <c r="ER34" s="2">
-        <f t="shared" si="123"/>
-        <v>2041.1906212615843</v>
-      </c>
-      <c r="ES34" s="2">
-        <f t="shared" si="123"/>
-        <v>1979.9549026237366</v>
-      </c>
-    </row>
-    <row r="35" spans="2:149" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>38254.098165569842</v>
+      </c>
+      <c r="AV34" s="8">
+        <f t="shared" ref="AV34:DG34" si="128">AU34*(1+$AW$37)</f>
+        <v>37106.475220602748</v>
+      </c>
+      <c r="AW34" s="8">
+        <f t="shared" si="128"/>
+        <v>35993.280963984667</v>
+      </c>
+      <c r="AX34" s="8">
+        <f t="shared" si="128"/>
+        <v>34913.48253506513</v>
+      </c>
+      <c r="AY34" s="8">
+        <f t="shared" si="128"/>
+        <v>33866.078059013176</v>
+      </c>
+      <c r="AZ34" s="8">
+        <f t="shared" si="128"/>
+        <v>32850.095717242781</v>
+      </c>
+      <c r="BA34" s="8">
+        <f t="shared" si="128"/>
+        <v>31864.592845725496</v>
+      </c>
+      <c r="BB34" s="8">
+        <f t="shared" si="128"/>
+        <v>30908.655060353729</v>
+      </c>
+      <c r="BC34" s="8">
+        <f t="shared" si="128"/>
+        <v>29981.395408543118</v>
+      </c>
+      <c r="BD34" s="8">
+        <f t="shared" si="128"/>
+        <v>29081.953546286823</v>
+      </c>
+      <c r="BE34" s="8">
+        <f t="shared" si="128"/>
+        <v>28209.494939898217</v>
+      </c>
+      <c r="BF34" s="8">
+        <f t="shared" si="128"/>
+        <v>27363.210091701269</v>
+      </c>
+      <c r="BG34" s="8">
+        <f t="shared" si="128"/>
+        <v>26542.313788950229</v>
+      </c>
+      <c r="BH34" s="8">
+        <f t="shared" si="128"/>
+        <v>25746.044375281723</v>
+      </c>
+      <c r="BI34" s="8">
+        <f t="shared" si="128"/>
+        <v>24973.663044023269</v>
+      </c>
+      <c r="BJ34" s="8">
+        <f t="shared" si="128"/>
+        <v>24224.453152702572</v>
+      </c>
+      <c r="BK34" s="8">
+        <f t="shared" si="128"/>
+        <v>23497.719558121495</v>
+      </c>
+      <c r="BL34" s="8">
+        <f t="shared" si="128"/>
+        <v>22792.787971377849</v>
+      </c>
+      <c r="BM34" s="8">
+        <f t="shared" si="128"/>
+        <v>22109.004332236513</v>
+      </c>
+      <c r="BN34" s="8">
+        <f t="shared" si="128"/>
+        <v>21445.734202269417</v>
+      </c>
+      <c r="BO34" s="8">
+        <f t="shared" si="128"/>
+        <v>20802.362176201335</v>
+      </c>
+      <c r="BP34" s="8">
+        <f t="shared" si="128"/>
+        <v>20178.291310915294</v>
+      </c>
+      <c r="BQ34" s="8">
+        <f t="shared" si="128"/>
+        <v>19572.942571587835</v>
+      </c>
+      <c r="BR34" s="8">
+        <f t="shared" si="128"/>
+        <v>18985.754294440201</v>
+      </c>
+      <c r="BS34" s="8">
+        <f t="shared" si="128"/>
+        <v>18416.181665606993</v>
+      </c>
+      <c r="BT34" s="8">
+        <f t="shared" si="128"/>
+        <v>17863.696215638782</v>
+      </c>
+      <c r="BU34" s="8">
+        <f t="shared" si="128"/>
+        <v>17327.785329169619</v>
+      </c>
+      <c r="BV34" s="8">
+        <f t="shared" si="128"/>
+        <v>16807.95176929453</v>
+      </c>
+      <c r="BW34" s="8">
+        <f t="shared" si="128"/>
+        <v>16303.713216215694</v>
+      </c>
+      <c r="BX34" s="8">
+        <f t="shared" si="128"/>
+        <v>15814.601819729223</v>
+      </c>
+      <c r="BY34" s="8">
+        <f t="shared" si="128"/>
+        <v>15340.163765137346</v>
+      </c>
+      <c r="BZ34" s="8">
+        <f t="shared" si="128"/>
+        <v>14879.958852183225</v>
+      </c>
+      <c r="CA34" s="8">
+        <f t="shared" si="128"/>
+        <v>14433.560086617728</v>
+      </c>
+      <c r="CB34" s="8">
+        <f t="shared" si="128"/>
+        <v>14000.553284019195</v>
+      </c>
+      <c r="CC34" s="8">
+        <f t="shared" si="128"/>
+        <v>13580.536685498619</v>
+      </c>
+      <c r="CD34" s="8">
+        <f t="shared" si="128"/>
+        <v>13173.12058493366</v>
+      </c>
+      <c r="CE34" s="8">
+        <f t="shared" si="128"/>
+        <v>12777.926967385651</v>
+      </c>
+      <c r="CF34" s="8">
+        <f t="shared" si="128"/>
+        <v>12394.589158364081</v>
+      </c>
+      <c r="CG34" s="8">
+        <f t="shared" si="128"/>
+        <v>12022.751483613158</v>
+      </c>
+      <c r="CH34" s="8">
+        <f t="shared" si="128"/>
+        <v>11662.068939104762</v>
+      </c>
+      <c r="CI34" s="8">
+        <f t="shared" si="128"/>
+        <v>11312.206870931619</v>
+      </c>
+      <c r="CJ34" s="8">
+        <f t="shared" si="128"/>
+        <v>10972.840664803671</v>
+      </c>
+      <c r="CK34" s="8">
+        <f t="shared" si="128"/>
+        <v>10643.65544485956</v>
+      </c>
+      <c r="CL34" s="8">
+        <f t="shared" si="128"/>
+        <v>10324.345781513774</v>
+      </c>
+      <c r="CM34" s="8">
+        <f t="shared" si="128"/>
+        <v>10014.615408068361</v>
+      </c>
+      <c r="CN34" s="8">
+        <f t="shared" si="128"/>
+        <v>9714.1769458263097</v>
+      </c>
+      <c r="CO34" s="8">
+        <f t="shared" si="128"/>
+        <v>9422.7516374515199</v>
+      </c>
+      <c r="CP34" s="8">
+        <f t="shared" si="128"/>
+        <v>9140.0690883279749</v>
+      </c>
+      <c r="CQ34" s="8">
+        <f t="shared" si="128"/>
+        <v>8865.8670156781354</v>
+      </c>
+      <c r="CR34" s="8">
+        <f t="shared" si="128"/>
+        <v>8599.8910052077917</v>
+      </c>
+      <c r="CS34" s="8">
+        <f t="shared" si="128"/>
+        <v>8341.894275051558</v>
+      </c>
+      <c r="CT34" s="8">
+        <f t="shared" si="128"/>
+        <v>8091.6374468000113</v>
+      </c>
+      <c r="CU34" s="8">
+        <f t="shared" si="128"/>
+        <v>7848.8883233960105</v>
+      </c>
+      <c r="CV34" s="8">
+        <f t="shared" si="128"/>
+        <v>7613.4216736941298</v>
+      </c>
+      <c r="CW34" s="8">
+        <f t="shared" si="128"/>
+        <v>7385.0190234833053</v>
+      </c>
+      <c r="CX34" s="8">
+        <f t="shared" si="128"/>
+        <v>7163.4684527788058</v>
+      </c>
+      <c r="CY34" s="8">
+        <f t="shared" si="128"/>
+        <v>6948.5643991954412</v>
+      </c>
+      <c r="CZ34" s="8">
+        <f t="shared" si="128"/>
+        <v>6740.1074672195782</v>
+      </c>
+      <c r="DA34" s="8">
+        <f t="shared" si="128"/>
+        <v>6537.904243202991</v>
+      </c>
+      <c r="DB34" s="8">
+        <f t="shared" si="128"/>
+        <v>6341.7671159069014</v>
+      </c>
+      <c r="DC34" s="8">
+        <f t="shared" si="128"/>
+        <v>6151.5141024296945</v>
+      </c>
+      <c r="DD34" s="8">
+        <f t="shared" si="128"/>
+        <v>5966.9686793568035</v>
+      </c>
+      <c r="DE34" s="8">
+        <f t="shared" si="128"/>
+        <v>5787.9596189760996</v>
+      </c>
+      <c r="DF34" s="8">
+        <f t="shared" si="128"/>
+        <v>5614.3208304068166</v>
+      </c>
+      <c r="DG34" s="8">
+        <f t="shared" si="128"/>
+        <v>5445.8912054946122</v>
+      </c>
+      <c r="DH34" s="8">
+        <f t="shared" ref="DH34:ES34" si="129">DG34*(1+$AW$37)</f>
+        <v>5282.5144693297734</v>
+      </c>
+      <c r="DI34" s="8">
+        <f t="shared" si="129"/>
+        <v>5124.0390352498798</v>
+      </c>
+      <c r="DJ34" s="8">
+        <f t="shared" si="129"/>
+        <v>4970.3178641923832</v>
+      </c>
+      <c r="DK34" s="8">
+        <f t="shared" si="129"/>
+        <v>4821.2083282666117</v>
+      </c>
+      <c r="DL34" s="8">
+        <f t="shared" si="129"/>
+        <v>4676.5720784186133</v>
+      </c>
+      <c r="DM34" s="8">
+        <f t="shared" si="129"/>
+        <v>4536.2749160660551</v>
+      </c>
+      <c r="DN34" s="8">
+        <f t="shared" si="129"/>
+        <v>4400.1866685840732</v>
+      </c>
+      <c r="DO34" s="8">
+        <f t="shared" si="129"/>
+        <v>4268.1810685265509</v>
+      </c>
+      <c r="DP34" s="8">
+        <f t="shared" si="129"/>
+        <v>4140.1356364707544</v>
+      </c>
+      <c r="DQ34" s="8">
+        <f t="shared" si="129"/>
+        <v>4015.9315673766318</v>
+      </c>
+      <c r="DR34" s="8">
+        <f t="shared" si="129"/>
+        <v>3895.453620355333</v>
+      </c>
+      <c r="DS34" s="8">
+        <f t="shared" si="129"/>
+        <v>3778.5900117446731</v>
+      </c>
+      <c r="DT34" s="8">
+        <f t="shared" si="129"/>
+        <v>3665.232311392333</v>
+      </c>
+      <c r="DU34" s="8">
+        <f t="shared" si="129"/>
+        <v>3555.2753420505628</v>
+      </c>
+      <c r="DV34" s="8">
+        <f t="shared" si="129"/>
+        <v>3448.6170817890456</v>
+      </c>
+      <c r="DW34" s="8">
+        <f t="shared" si="129"/>
+        <v>3345.1585693353741</v>
+      </c>
+      <c r="DX34" s="8">
+        <f t="shared" si="129"/>
+        <v>3244.8038122553126</v>
+      </c>
+      <c r="DY34" s="8">
+        <f t="shared" si="129"/>
+        <v>3147.459697887653</v>
+      </c>
+      <c r="DZ34" s="8">
+        <f t="shared" si="129"/>
+        <v>3053.0359069510232</v>
+      </c>
+      <c r="EA34" s="8">
+        <f t="shared" si="129"/>
+        <v>2961.4448297424924</v>
+      </c>
+      <c r="EB34" s="8">
+        <f t="shared" si="129"/>
+        <v>2872.6014848502177</v>
+      </c>
+      <c r="EC34" s="8">
+        <f t="shared" si="129"/>
+        <v>2786.4234403047112</v>
+      </c>
+      <c r="ED34" s="8">
+        <f t="shared" si="129"/>
+        <v>2702.8307370955699</v>
+      </c>
+      <c r="EE34" s="8">
+        <f t="shared" si="129"/>
+        <v>2621.7458149827025</v>
+      </c>
+      <c r="EF34" s="8">
+        <f t="shared" si="129"/>
+        <v>2543.0934405332214</v>
+      </c>
+      <c r="EG34" s="8">
+        <f t="shared" si="129"/>
+        <v>2466.8006373172248</v>
+      </c>
+      <c r="EH34" s="8">
+        <f t="shared" si="129"/>
+        <v>2392.7966181977081</v>
+      </c>
+      <c r="EI34" s="8">
+        <f t="shared" si="129"/>
+        <v>2321.0127196517769</v>
+      </c>
+      <c r="EJ34" s="8">
+        <f t="shared" si="129"/>
+        <v>2251.3823380622234</v>
+      </c>
+      <c r="EK34" s="8">
+        <f t="shared" si="129"/>
+        <v>2183.8408679203567</v>
+      </c>
+      <c r="EL34" s="8">
+        <f t="shared" si="129"/>
+        <v>2118.3256418827459</v>
+      </c>
+      <c r="EM34" s="8">
+        <f t="shared" si="129"/>
+        <v>2054.7758726262637</v>
+      </c>
+      <c r="EN34" s="8">
+        <f t="shared" si="129"/>
+        <v>1993.1325964474756</v>
+      </c>
+      <c r="EO34" s="8">
+        <f t="shared" si="129"/>
+        <v>1933.3386185540512</v>
+      </c>
+      <c r="EP34" s="8">
+        <f t="shared" si="129"/>
+        <v>1875.3384599974297</v>
+      </c>
+      <c r="EQ34" s="8">
+        <f t="shared" si="129"/>
+        <v>1819.0783061975067</v>
+      </c>
+      <c r="ER34" s="8">
+        <f t="shared" si="129"/>
+        <v>1764.5059570115814</v>
+      </c>
+      <c r="ES34" s="8">
+        <f t="shared" si="129"/>
+        <v>1711.5707783012338</v>
+      </c>
+    </row>
+    <row r="35" spans="2:149" s="2" customFormat="1">
       <c r="B35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+      <c r="C35" s="7">
+        <f t="shared" ref="C35:D35" si="130">C34/C36</f>
+        <v>0.62885238038134073</v>
+      </c>
+      <c r="D35" s="7">
+        <f t="shared" si="130"/>
+        <v>0.78765313475858756</v>
+      </c>
       <c r="E35" s="7">
-        <f t="shared" ref="E35:M35" si="124">E34/E36</f>
+        <f t="shared" ref="E35:M35" si="131">E34/E36</f>
         <v>0.6764670730249791</v>
       </c>
       <c r="F35" s="7">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>0.56788496105452368</v>
       </c>
       <c r="G35" s="7">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>0.68015806490240693</v>
       </c>
       <c r="H35" s="7">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>0.73592864890924425</v>
       </c>
       <c r="I35" s="7">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>0.62826271700861969</v>
       </c>
       <c r="J35" s="7">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>0.65041558119340037</v>
       </c>
       <c r="K35" s="7">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>0.57277460947185721</v>
       </c>
       <c r="L35" s="7">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>0.62257100149476829</v>
       </c>
       <c r="M35" s="7">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>0.66386975579211016</v>
       </c>
       <c r="N35" s="7">
-        <f t="shared" ref="N35" si="125">N34/N36</f>
-        <v>0.55884533500313094</v>
+        <f t="shared" ref="N35" si="132">N34/N36</f>
+        <v>0.53569442705072012</v>
       </c>
       <c r="O35" s="7">
-        <f t="shared" ref="O35" si="126">O34/O36</f>
-        <v>0.56686383681903563</v>
+        <f t="shared" ref="O35" si="133">O34/O36</f>
+        <v>0.54383691133375078</v>
       </c>
       <c r="P35" s="7">
-        <f t="shared" ref="P35" si="127">P34/P36</f>
-        <v>0.73477141991233563</v>
+        <f t="shared" ref="P35" si="134">P34/P36</f>
+        <v>0.71275889643080781</v>
       </c>
       <c r="Q35" s="7">
-        <f t="shared" ref="Q35" si="128">Q34/Q36</f>
-        <v>0.66148736731371305</v>
+        <f t="shared" ref="Q35" si="135">Q34/Q36</f>
+        <v>0.64048924583594224</v>
       </c>
       <c r="R35" s="7">
-        <f t="shared" ref="R35" si="129">R34/R36</f>
-        <v>0.57210092047589223</v>
+        <f t="shared" ref="R35" si="136">R34/R36</f>
+        <v>0.55211720100187855</v>
       </c>
       <c r="V35" s="7">
-        <f t="shared" ref="V35" si="130">V34/V36</f>
+        <f t="shared" ref="V35" si="137">V34/V36</f>
         <v>1.1963726141866868</v>
       </c>
       <c r="W35" s="7">
-        <f t="shared" ref="W35:X35" si="131">W34/W36</f>
+        <f t="shared" ref="W35:X35" si="138">W34/W36</f>
         <v>1.4227189965607931</v>
       </c>
       <c r="X35" s="7">
-        <f t="shared" si="131"/>
+        <f t="shared" si="138"/>
         <v>1.867053854276663</v>
       </c>
       <c r="Y35" s="7">
-        <f t="shared" ref="Y35:Z35" si="132">Y34/Y36</f>
+        <f t="shared" ref="Y35:Z35" si="139">Y34/Y36</f>
         <v>1.6194975544686527</v>
       </c>
       <c r="Z35" s="7">
-        <f t="shared" si="132"/>
+        <f t="shared" si="139"/>
         <v>2.1014898622157498</v>
       </c>
       <c r="AA35" s="7">
-        <f t="shared" ref="AA35:AB35" si="133">AA34/AA36</f>
+        <f t="shared" ref="AA35:AB35" si="140">AA34/AA36</f>
         <v>2.6940532991970207</v>
       </c>
       <c r="AB35" s="7">
-        <f t="shared" si="133"/>
+        <f t="shared" si="140"/>
         <v>2.724077122031507</v>
       </c>
       <c r="AC35" s="7">
-        <f t="shared" ref="AC35:AD35" si="134">AC34/AC36</f>
+        <f t="shared" ref="AC35:AD35" si="141">AC34/AC36</f>
         <v>2.581227863046045</v>
       </c>
       <c r="AD35" s="7">
-        <f t="shared" si="134"/>
+        <f t="shared" si="141"/>
         <v>2.6432908679604714</v>
       </c>
       <c r="AE35" s="7">
-        <f t="shared" ref="AE35:AF35" si="135">AE34/AE36</f>
+        <f t="shared" ref="AE35:AF35" si="142">AE34/AE36</f>
         <v>2.6900896535013326</v>
       </c>
       <c r="AF35" s="7">
-        <f t="shared" si="135"/>
-        <v>2.4178368263473056</v>
+        <f t="shared" si="142"/>
+        <v>2.3947754491017963</v>
       </c>
       <c r="AG35" s="7">
-        <f t="shared" ref="AG35:AH35" si="136">AG34/AG36</f>
-        <v>2.5352235445209752</v>
+        <f t="shared" ref="AG35:AH35" si="143">AG34/AG36</f>
+        <v>2.4492022546023779</v>
       </c>
       <c r="AH35" s="7">
-        <f t="shared" si="136"/>
-        <v>2.8676676757981219</v>
+        <f t="shared" si="143"/>
+        <v>2.6975446150547278</v>
       </c>
       <c r="AI35" s="7">
-        <f t="shared" ref="AI35" si="137">AI34/AI36</f>
-        <v>3.0557936603686873</v>
+        <f t="shared" ref="AI35" si="144">AI34/AI36</f>
+        <v>2.8505780952727422</v>
       </c>
       <c r="AJ35" s="7">
-        <f t="shared" ref="AJ35" si="138">AJ34/AJ36</f>
-        <v>3.2518269670087352</v>
+        <f t="shared" ref="AJ35" si="145">AJ34/AJ36</f>
+        <v>3.0091210157279824</v>
       </c>
       <c r="AK35" s="7">
-        <f t="shared" ref="AK35" si="139">AK34/AK36</f>
-        <v>3.4560473321335046</v>
+        <f t="shared" ref="AK35" si="146">AK34/AK36</f>
+        <v>3.1733486334435241</v>
       </c>
       <c r="AL35" s="7">
-        <f t="shared" ref="AL35" si="140">AL34/AL36</f>
-        <v>3.6687436275194667</v>
+        <f t="shared" ref="AL35" si="147">AL34/AL36</f>
+        <v>3.3434415660491243</v>
       </c>
       <c r="AM35" s="7">
-        <f t="shared" ref="AM35" si="141">AM34/AM36</f>
-        <v>3.890214146887474</v>
+        <f t="shared" ref="AM35" si="148">AM34/AM36</f>
+        <v>3.5195859536410157</v>
       </c>
       <c r="AN35" s="7">
-        <f t="shared" ref="AN35" si="142">AN34/AN36</f>
-        <v>4.1207669012900521</v>
+        <f t="shared" ref="AN35" si="149">AN34/AN36</f>
+        <v>3.7019736255079576</v>
       </c>
       <c r="AO35" s="7">
-        <f t="shared" ref="AO35" si="143">AO34/AO36</f>
-        <v>4.3607199235703398</v>
+        <f t="shared" ref="AO35" si="150">AO34/AO36</f>
+        <v>3.8908022718696373</v>
       </c>
       <c r="AP35" s="7">
-        <f t="shared" ref="AP35" si="144">AP34/AP36</f>
-        <v>4.6104015821682598</v>
+        <f t="shared" ref="AP35" si="151">AP34/AP36</f>
+        <v>4.0862756207779105</v>
       </c>
       <c r="AQ35" s="7">
-        <f t="shared" ref="AQ35" si="145">AQ34/AQ36</f>
-        <v>4.8701509045577813</v>
+        <f t="shared" ref="AQ35" si="152">AQ34/AQ36</f>
+        <v>4.2886036203358522</v>
       </c>
       <c r="AR35" s="7">
-        <f t="shared" ref="AR35" si="146">AR34/AR36</f>
-        <v>5.1403179106077843</v>
+        <f t="shared" ref="AR35" si="153">AR34/AR36</f>
+        <v>4.4980026263942747</v>
       </c>
       <c r="AS35" s="7">
-        <f t="shared" ref="AS35" si="147">AS34/AS36</f>
-        <v>5.4212639561678051</v>
+        <f t="shared" ref="AS35" si="154">AS34/AS36</f>
+        <v>4.7146955958901469</v>
       </c>
       <c r="AT35" s="7">
-        <f t="shared" ref="AT35" si="148">AT34/AT36</f>
-        <v>5.7133620871890569</v>
-      </c>
-    </row>
-    <row r="36" spans="2:149" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AT35" si="155">AT34/AT36</f>
+        <v>4.9389122859962749</v>
+      </c>
+    </row>
+    <row r="36" spans="2:149" s="2" customFormat="1">
       <c r="B36" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+      <c r="C36" s="6">
+        <v>8339</v>
+      </c>
+      <c r="D36" s="6">
+        <v>8326</v>
+      </c>
       <c r="E36" s="6">
         <v>8367</v>
       </c>
@@ -4420,23 +4569,23 @@
         <v>7985</v>
       </c>
       <c r="N36" s="6">
-        <f t="shared" ref="N36:R36" si="149">+M36</f>
+        <f t="shared" ref="N36:R36" si="156">+M36</f>
         <v>7985</v>
       </c>
       <c r="O36" s="6">
-        <f t="shared" si="149"/>
+        <f t="shared" si="156"/>
         <v>7985</v>
       </c>
       <c r="P36" s="6">
-        <f t="shared" si="149"/>
+        <f t="shared" si="156"/>
         <v>7985</v>
       </c>
       <c r="Q36" s="6">
-        <f t="shared" si="149"/>
+        <f t="shared" si="156"/>
         <v>7985</v>
       </c>
       <c r="R36" s="6">
-        <f t="shared" si="149"/>
+        <f t="shared" si="156"/>
         <v>7985</v>
       </c>
       <c r="V36" s="2">
@@ -4482,55 +4631,55 @@
         <v>7985</v>
       </c>
       <c r="AI36" s="2">
-        <f t="shared" ref="AI36:AT36" si="150">+AH36</f>
+        <f t="shared" ref="AI36:AT36" si="157">+AH36</f>
         <v>7985</v>
       </c>
       <c r="AJ36" s="2">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>7985</v>
       </c>
       <c r="AK36" s="2">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>7985</v>
       </c>
       <c r="AL36" s="2">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>7985</v>
       </c>
       <c r="AM36" s="2">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>7985</v>
       </c>
       <c r="AN36" s="2">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>7985</v>
       </c>
       <c r="AO36" s="2">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>7985</v>
       </c>
       <c r="AP36" s="2">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>7985</v>
       </c>
       <c r="AQ36" s="2">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>7985</v>
       </c>
       <c r="AR36" s="2">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>7985</v>
       </c>
       <c r="AS36" s="2">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>7985</v>
       </c>
       <c r="AT36" s="2">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>7985</v>
       </c>
     </row>
-    <row r="37" spans="2:149" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:149">
       <c r="AV37" t="s">
         <v>105</v>
       </c>
@@ -4538,15 +4687,15 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="38" spans="2:149" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:149">
       <c r="AV38" s="2" t="s">
         <v>102</v>
       </c>
       <c r="AW38" s="28">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="39" spans="2:149" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:149" s="10" customFormat="1">
       <c r="B39" s="8" t="s">
         <v>34</v>
       </c>
@@ -4555,7 +4704,10 @@
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
+      <c r="H39" s="14">
+        <f>H23/D23-1</f>
+        <v>7.9570944981443015E-2</v>
+      </c>
       <c r="I39" s="14">
         <f>I23/E23-1</f>
         <v>6.4990442581973173E-2</v>
@@ -4573,75 +4725,75 @@
         <v>-0.10102002266717036</v>
       </c>
       <c r="M39" s="14">
-        <f t="shared" ref="M39:R39" si="151">M23/I23-1</f>
+        <f t="shared" ref="M39:R39" si="158">M23/I23-1</f>
         <v>1.5969441759860148E-2</v>
       </c>
       <c r="N39" s="14">
-        <f t="shared" si="151"/>
+        <f t="shared" si="158"/>
         <v>-1.036970243462576E-2</v>
       </c>
       <c r="O39" s="14">
-        <f t="shared" si="151"/>
+        <f t="shared" si="158"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="P39" s="14">
-        <f t="shared" si="151"/>
+        <f t="shared" si="158"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="Q39" s="14">
-        <f t="shared" si="151"/>
+        <f t="shared" si="158"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="R39" s="14">
-        <f t="shared" si="151"/>
+        <f t="shared" si="158"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="U39" s="26">
-        <f t="shared" ref="U39:AF39" si="152">U23/T23-1</f>
+        <f t="shared" ref="U39:AF39" si="159">U23/T23-1</f>
         <v>8.0168318175648068E-2</v>
       </c>
       <c r="V39" s="26">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>0.11294862772695291</v>
       </c>
       <c r="W39" s="26">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>0.15446456799602548</v>
       </c>
       <c r="X39" s="26">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>0.18187864324556946</v>
       </c>
       <c r="Y39" s="26">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>-3.2820258192651441E-2</v>
       </c>
       <c r="Z39" s="26">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>6.9254068484008391E-2</v>
       </c>
       <c r="AA39" s="26">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>0.11937455988733126</v>
       </c>
       <c r="AB39" s="26">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>5.4044007263057026E-2</v>
       </c>
       <c r="AC39" s="26">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>5.5966252051598442E-2</v>
       </c>
       <c r="AD39" s="26">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>0.11540289534868786</v>
       </c>
       <c r="AE39" s="26">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>7.7700874091647165E-2</v>
       </c>
       <c r="AF39" s="26">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>-5.7480230818551026E-2</v>
       </c>
       <c r="AG39" s="26">
@@ -4649,55 +4801,55 @@
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AH39" s="26">
-        <f t="shared" ref="AH39:AT39" si="153">AH23/AG23-1</f>
+        <f t="shared" ref="AH39:AT39" si="160">AH23/AG23-1</f>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AI39" s="26">
-        <f t="shared" si="153"/>
+        <f t="shared" si="160"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AJ39" s="26">
-        <f t="shared" si="153"/>
+        <f t="shared" si="160"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AK39" s="26">
-        <f t="shared" si="153"/>
+        <f t="shared" si="160"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AL39" s="26">
-        <f t="shared" si="153"/>
+        <f t="shared" si="160"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AM39" s="26">
-        <f t="shared" si="153"/>
+        <f t="shared" si="160"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AN39" s="26">
-        <f t="shared" si="153"/>
+        <f t="shared" si="160"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AO39" s="26">
-        <f t="shared" si="153"/>
+        <f t="shared" si="160"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AP39" s="26">
-        <f t="shared" si="153"/>
+        <f t="shared" si="160"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AQ39" s="26">
-        <f t="shared" si="153"/>
+        <f t="shared" si="160"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AR39" s="26">
-        <f t="shared" si="153"/>
+        <f t="shared" si="160"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AS39" s="26">
-        <f t="shared" si="153"/>
+        <f t="shared" si="160"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AT39" s="26">
-        <f t="shared" si="153"/>
+        <f t="shared" si="160"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AV39" t="s">
@@ -4707,7 +4859,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="40" spans="2:149" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:149" s="10" customFormat="1">
       <c r="B40" s="8" t="s">
         <v>69</v>
       </c>
@@ -4732,176 +4884,180 @@
       </c>
       <c r="AW40" s="8">
         <f>NPV(AW39,AH34:ES34)+AG34</f>
-        <v>615572.33605943655</v>
-      </c>
-    </row>
-    <row r="41" spans="2:149" x14ac:dyDescent="0.2">
+        <v>544693.20527731185</v>
+      </c>
+    </row>
+    <row r="41" spans="2:149">
       <c r="AV41" t="s">
         <v>3</v>
       </c>
       <c r="AW41" s="2">
         <f>Main!K5-Main!K6</f>
-        <v>70473</v>
-      </c>
-    </row>
-    <row r="42" spans="2:149" x14ac:dyDescent="0.2">
+        <v>73369</v>
+      </c>
+    </row>
+    <row r="42" spans="2:149">
       <c r="B42" t="s">
         <v>19</v>
       </c>
+      <c r="D42" s="5">
+        <f t="shared" ref="D42" si="161">D25/D23</f>
+        <v>0.66213956523512374</v>
+      </c>
       <c r="E42" s="5">
-        <f t="shared" ref="E42:L42" si="154">E25/E23</f>
+        <f t="shared" ref="E42:L42" si="162">E25/E23</f>
         <v>0.70700387197961079</v>
       </c>
       <c r="F42" s="5">
-        <f t="shared" si="154"/>
+        <f t="shared" si="162"/>
         <v>0.67355230519202802</v>
       </c>
       <c r="G42" s="5">
-        <f t="shared" si="154"/>
+        <f t="shared" si="162"/>
         <v>0.64342054221800782</v>
       </c>
       <c r="H42" s="5">
-        <f t="shared" si="154"/>
+        <f t="shared" si="162"/>
         <v>0.61707593502077829</v>
       </c>
       <c r="I42" s="5">
-        <f t="shared" si="154"/>
+        <f t="shared" si="162"/>
         <v>0.67044042523816094</v>
       </c>
       <c r="J42" s="5">
-        <f t="shared" si="154"/>
+        <f t="shared" si="162"/>
         <v>0.66330027051397655</v>
       </c>
       <c r="K42" s="5">
-        <f t="shared" si="154"/>
+        <f t="shared" si="162"/>
         <v>0.6463516364885421</v>
       </c>
       <c r="L42" s="5">
-        <f t="shared" si="154"/>
+        <f t="shared" si="162"/>
         <v>0.58514035972432343</v>
       </c>
       <c r="M42" s="5">
-        <f t="shared" ref="M42:R42" si="155">M25/M23</f>
+        <f t="shared" ref="M42:R42" si="163">M25/M23</f>
         <v>0.6502083710817177</v>
       </c>
       <c r="N42" s="5">
-        <f t="shared" si="155"/>
+        <f t="shared" si="163"/>
         <v>0.64</v>
       </c>
       <c r="O42" s="5">
-        <f t="shared" si="155"/>
+        <f t="shared" si="163"/>
         <v>0.63</v>
       </c>
       <c r="P42" s="5">
-        <f t="shared" si="155"/>
+        <f t="shared" si="163"/>
         <v>0.63</v>
       </c>
       <c r="Q42" s="5">
-        <f t="shared" si="155"/>
+        <f t="shared" si="163"/>
         <v>0.63</v>
       </c>
       <c r="R42" s="5">
-        <f t="shared" si="155"/>
+        <f t="shared" si="163"/>
         <v>0.63</v>
       </c>
       <c r="V42" s="5">
-        <f t="shared" ref="V42" si="156">V25/V23</f>
+        <f t="shared" ref="V42" si="164">V25/V23</f>
         <v>0.82724357526760306</v>
       </c>
       <c r="W42" s="5">
-        <f t="shared" ref="W42:X42" si="157">W25/W23</f>
+        <f t="shared" ref="W42:X42" si="165">W25/W23</f>
         <v>0.79083369195258402</v>
       </c>
       <c r="X42" s="5">
-        <f t="shared" si="157"/>
+        <f t="shared" si="165"/>
         <v>0.80804369414101296</v>
       </c>
       <c r="Y42" s="5">
-        <f t="shared" ref="Y42:Z42" si="158">Y25/Y23</f>
+        <f t="shared" ref="Y42:Z42" si="166">Y25/Y23</f>
         <v>0.79199822030562828</v>
       </c>
       <c r="Z42" s="5">
-        <f t="shared" si="158"/>
+        <f t="shared" si="166"/>
         <v>0.80162921707957235</v>
       </c>
       <c r="AA42" s="5">
-        <f t="shared" ref="AA42" si="159">AA25/AA23</f>
+        <f t="shared" ref="AA42" si="167">AA25/AA23</f>
         <v>0.77729007906438097</v>
       </c>
       <c r="AB42" s="5">
-        <f t="shared" ref="AB42" si="160">AB25/AB23</f>
+        <f t="shared" ref="AB42" si="168">AB25/AB23</f>
         <v>0.76221803236439101</v>
       </c>
       <c r="AC42" s="5">
-        <f t="shared" ref="AC42:AE42" si="161">AC25/AC23</f>
+        <f t="shared" ref="AC42:AE42" si="169">AC25/AC23</f>
         <v>0.73814692545825888</v>
       </c>
       <c r="AD42" s="5">
-        <f t="shared" si="161"/>
+        <f t="shared" si="169"/>
         <v>0.68816003132449644</v>
       </c>
       <c r="AE42" s="5">
-        <f t="shared" si="161"/>
+        <f t="shared" si="169"/>
         <v>0.64695447745244705</v>
       </c>
-      <c r="AF42" s="5">
-        <f t="shared" ref="AF42:AT42" si="162">AF25/AF23</f>
+      <c r="AF42" s="30">
+        <f t="shared" ref="AF42:AT42" si="170">AF25/AF23</f>
         <v>0.6292218909082663</v>
       </c>
       <c r="AG42" s="5">
-        <f t="shared" si="162"/>
+        <f t="shared" si="170"/>
         <v>0.62999999999999989</v>
       </c>
       <c r="AH42" s="5">
-        <f t="shared" si="162"/>
+        <f t="shared" si="170"/>
         <v>0.63</v>
       </c>
       <c r="AI42" s="5">
-        <f t="shared" si="162"/>
+        <f t="shared" si="170"/>
         <v>0.63</v>
       </c>
       <c r="AJ42" s="5">
-        <f t="shared" si="162"/>
+        <f t="shared" si="170"/>
         <v>0.63</v>
       </c>
       <c r="AK42" s="5">
-        <f t="shared" si="162"/>
+        <f t="shared" si="170"/>
         <v>0.63</v>
       </c>
       <c r="AL42" s="5">
-        <f t="shared" si="162"/>
+        <f t="shared" si="170"/>
         <v>0.63</v>
       </c>
       <c r="AM42" s="5">
-        <f t="shared" si="162"/>
+        <f t="shared" si="170"/>
         <v>0.63</v>
       </c>
       <c r="AN42" s="5">
-        <f t="shared" si="162"/>
+        <f t="shared" si="170"/>
         <v>0.63</v>
       </c>
       <c r="AO42" s="5">
-        <f t="shared" si="162"/>
+        <f t="shared" si="170"/>
         <v>0.63</v>
       </c>
       <c r="AP42" s="5">
-        <f t="shared" si="162"/>
+        <f t="shared" si="170"/>
         <v>0.63</v>
       </c>
       <c r="AQ42" s="5">
-        <f t="shared" si="162"/>
+        <f t="shared" si="170"/>
         <v>0.63000000000000012</v>
       </c>
       <c r="AR42" s="5">
-        <f t="shared" si="162"/>
+        <f t="shared" si="170"/>
         <v>0.63</v>
       </c>
       <c r="AS42" s="5">
-        <f t="shared" si="162"/>
+        <f t="shared" si="170"/>
         <v>0.63</v>
       </c>
       <c r="AT42" s="5">
-        <f t="shared" si="162"/>
+        <f t="shared" si="170"/>
         <v>0.63</v>
       </c>
       <c r="AV42" s="10" t="s">
@@ -4909,107 +5065,111 @@
       </c>
       <c r="AW42" s="8">
         <f>AW40+AW41</f>
-        <v>686045.33605943655</v>
-      </c>
-    </row>
-    <row r="43" spans="2:149" x14ac:dyDescent="0.2">
+        <v>618062.20527731185</v>
+      </c>
+    </row>
+    <row r="43" spans="2:149">
       <c r="B43" t="s">
         <v>27</v>
       </c>
+      <c r="D43" s="5">
+        <f t="shared" ref="D43" si="171">D30/D23</f>
+        <v>0.32501325502671397</v>
+      </c>
       <c r="E43" s="5">
-        <f t="shared" ref="E43:L43" si="163">E30/E23</f>
+        <f t="shared" ref="E43:L43" si="172">E30/E23</f>
         <v>0.34181247855707492</v>
       </c>
       <c r="F43" s="5">
-        <f t="shared" si="163"/>
+        <f t="shared" si="172"/>
         <v>0.28265332306902746</v>
       </c>
       <c r="G43" s="5">
-        <f t="shared" si="163"/>
+        <f t="shared" si="172"/>
         <v>0.30102150769363389</v>
       </c>
       <c r="H43" s="5">
-        <f t="shared" si="163"/>
+        <f t="shared" si="172"/>
         <v>0.30294673214960333</v>
       </c>
       <c r="I43" s="5">
-        <f t="shared" si="163"/>
+        <f t="shared" si="172"/>
         <v>0.31220948962216394</v>
       </c>
       <c r="J43" s="5">
-        <f t="shared" si="163"/>
+        <f t="shared" si="172"/>
         <v>0.28787195671776378</v>
       </c>
       <c r="K43" s="5">
-        <f t="shared" si="163"/>
+        <f t="shared" si="172"/>
         <v>0.28426321213013395</v>
       </c>
       <c r="L43" s="5">
-        <f t="shared" si="163"/>
+        <f t="shared" si="172"/>
         <v>0.253235837955959</v>
       </c>
       <c r="M43" s="5">
-        <f t="shared" ref="M43:R43" si="164">M30/M23</f>
+        <f t="shared" ref="M43:R43" si="173">M30/M23</f>
         <v>0.30929516216705927</v>
       </c>
       <c r="N43" s="5">
-        <f t="shared" si="164"/>
+        <f t="shared" si="173"/>
         <v>0.26063781321184509</v>
       </c>
       <c r="O43" s="5">
-        <f t="shared" si="164"/>
+        <f t="shared" si="173"/>
         <v>0.27149660954613053</v>
       </c>
       <c r="P43" s="5">
-        <f t="shared" si="164"/>
+        <f t="shared" si="173"/>
         <v>0.3013816616154808</v>
       </c>
       <c r="Q43" s="5">
-        <f t="shared" si="164"/>
+        <f t="shared" si="173"/>
         <v>0.29246216939142722</v>
       </c>
       <c r="R43" s="5">
-        <f t="shared" si="164"/>
+        <f t="shared" si="173"/>
         <v>0.25439387446717338</v>
       </c>
       <c r="V43" s="27">
-        <f t="shared" ref="V43" si="165">V30/V23</f>
+        <f t="shared" ref="V43" si="174">V30/V23</f>
         <v>0.37197958538458065</v>
       </c>
       <c r="W43" s="27">
-        <f t="shared" ref="W43:X43" si="166">W30/W23</f>
+        <f t="shared" ref="W43:X43" si="175">W30/W23</f>
         <v>0.3606666405852666</v>
       </c>
       <c r="X43" s="27">
-        <f t="shared" si="166"/>
+        <f t="shared" si="175"/>
         <v>0.36860311155246606</v>
       </c>
       <c r="Y43" s="27">
-        <f t="shared" ref="Y43:Z43" si="167">Y30/Y23</f>
+        <f t="shared" ref="Y43:Z43" si="176">Y30/Y23</f>
         <v>0.348460735492924</v>
       </c>
       <c r="Z43" s="27">
-        <f t="shared" si="167"/>
+        <f t="shared" si="176"/>
         <v>0.38566673068305485</v>
       </c>
       <c r="AA43" s="27">
-        <f t="shared" ref="AA43" si="168">AA30/AA23</f>
+        <f t="shared" ref="AA43" si="177">AA30/AA23</f>
         <v>0.38833049769097694</v>
       </c>
       <c r="AB43" s="27">
-        <f t="shared" ref="AB43" si="169">AB30/AB23</f>
+        <f t="shared" ref="AB43" si="178">AB30/AB23</f>
         <v>0.37920323372624554</v>
       </c>
       <c r="AC43" s="27">
-        <f t="shared" ref="AC43:AE43" si="170">AC30/AC23</f>
+        <f t="shared" ref="AC43:AE43" si="179">AC30/AC23</f>
         <v>0.34379375457616668</v>
       </c>
       <c r="AD43" s="27">
-        <f t="shared" si="170"/>
+        <f t="shared" si="179"/>
         <v>0.32114518673776099</v>
       </c>
       <c r="AE43" s="27">
-        <f t="shared" si="170"/>
+        <f t="shared" si="179"/>
         <v>0.30104723231459712</v>
       </c>
       <c r="AF43" s="27">
@@ -5021,64 +5181,68 @@
         <v>0.28055064933257184</v>
       </c>
     </row>
-    <row r="44" spans="2:149" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:149">
       <c r="B44" t="s">
         <v>33</v>
       </c>
+      <c r="D44" s="5">
+        <f t="shared" ref="D44" si="180">D33/D32</f>
+        <v>0.16755521706016754</v>
+      </c>
       <c r="E44" s="5">
-        <f t="shared" ref="E44:L44" si="171">E33/E32</f>
+        <f t="shared" ref="E44:L44" si="181">E33/E32</f>
         <v>0.18643093287336496</v>
       </c>
       <c r="F44" s="5">
-        <f t="shared" si="171"/>
+        <f t="shared" si="181"/>
         <v>0.29310859188544153</v>
       </c>
       <c r="G44" s="5">
-        <f t="shared" si="171"/>
+        <f t="shared" si="181"/>
         <v>0.19272313814667424</v>
       </c>
       <c r="H44" s="5">
-        <f t="shared" si="171"/>
+        <f t="shared" si="181"/>
         <v>0.24552082046212775</v>
       </c>
       <c r="I44" s="5">
-        <f t="shared" si="171"/>
+        <f t="shared" si="181"/>
         <v>0.22841807067243178</v>
       </c>
       <c r="J44" s="5">
-        <f t="shared" si="171"/>
+        <f t="shared" si="181"/>
         <v>0.21535468422627957</v>
       </c>
       <c r="K44" s="5">
-        <f t="shared" si="171"/>
+        <f t="shared" si="181"/>
         <v>0.16198077271902775</v>
       </c>
       <c r="L44" s="5">
-        <f t="shared" si="171"/>
+        <f t="shared" si="181"/>
         <v>0.14637062339880444</v>
       </c>
       <c r="M44" s="5">
-        <f t="shared" ref="M44:R44" si="172">M33/M32</f>
+        <f t="shared" ref="M44:R44" si="182">M33/M32</f>
         <v>0.19449931621334143</v>
       </c>
       <c r="N44" s="5">
-        <f t="shared" si="172"/>
-        <v>0.22000000000000003</v>
+        <f t="shared" si="182"/>
+        <v>0.22</v>
       </c>
       <c r="O44" s="5">
-        <f t="shared" si="172"/>
+        <f t="shared" si="182"/>
         <v>0.19</v>
       </c>
       <c r="P44" s="5">
-        <f t="shared" si="172"/>
+        <f t="shared" si="182"/>
         <v>0.19</v>
       </c>
       <c r="Q44" s="5">
-        <f t="shared" si="172"/>
-        <v>0.19</v>
+        <f t="shared" si="182"/>
+        <v>0.19000000000000003</v>
       </c>
       <c r="R44" s="5">
-        <f t="shared" si="172"/>
+        <f t="shared" si="182"/>
         <v>0.19</v>
       </c>
       <c r="AV44" s="10" t="s">
@@ -5086,10 +5250,10 @@
       </c>
       <c r="AW44" s="29">
         <f>AW42/Main!K3</f>
-        <v>88.033534718264661</v>
-      </c>
-    </row>
-    <row r="45" spans="2:149" x14ac:dyDescent="0.2">
+        <v>78.633868355892091</v>
+      </c>
+    </row>
+    <row r="45" spans="2:149">
       <c r="AV45" s="10" t="s">
         <v>113</v>
       </c>
@@ -5098,7 +5262,7 @@
         <v>56.53</v>
       </c>
     </row>
-    <row r="47" spans="2:149" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:149">
       <c r="B47" t="s">
         <v>35</v>
       </c>
@@ -5123,24 +5287,24 @@
         <v>70473</v>
       </c>
       <c r="N47" s="9">
-        <f t="shared" ref="N47:R47" si="173">+M47+N34</f>
-        <v>74935.38</v>
+        <f t="shared" ref="N47:R47" si="183">+M47+N34</f>
+        <v>74750.52</v>
       </c>
       <c r="O47" s="9">
-        <f t="shared" si="173"/>
-        <v>79461.787737000006</v>
+        <f t="shared" si="183"/>
+        <v>79093.05773700001</v>
       </c>
       <c r="P47" s="9">
-        <f t="shared" si="173"/>
-        <v>85328.937525000001</v>
+        <f t="shared" si="183"/>
+        <v>84784.437525000016</v>
       </c>
       <c r="Q47" s="9">
-        <f t="shared" si="173"/>
-        <v>90610.914153000005</v>
+        <f t="shared" si="183"/>
+        <v>89898.744153000007</v>
       </c>
       <c r="R47" s="9">
-        <f t="shared" si="173"/>
-        <v>95179.140003000008</v>
+        <f t="shared" si="183"/>
+        <v>94307.400003000002</v>
       </c>
       <c r="AE47" s="2">
         <f>+AE48-AE59</f>
@@ -5148,70 +5312,70 @@
       </c>
       <c r="AF47" s="2">
         <f>+AE47+AF34</f>
-        <v>92668.38</v>
+        <v>92483.520000000004</v>
       </c>
       <c r="AG47" s="2">
         <f>+AF47+AG34</f>
-        <v>112912.14000299999</v>
+        <v>112040.40000299999</v>
       </c>
       <c r="AH47" s="2">
         <f>+AG47+AH34</f>
-        <v>135810.46639424801</v>
+        <v>133580.29375421198</v>
       </c>
       <c r="AI47" s="2">
         <f>+AH47+AI34</f>
-        <v>160210.97877229197</v>
+        <v>156342.15984496483</v>
       </c>
       <c r="AJ47" s="2">
-        <f t="shared" ref="AJ47:AT47" si="174">+AI47+AJ34</f>
-        <v>186176.81710385671</v>
+        <f t="shared" ref="AJ47:AT47" si="184">+AI47+AJ34</f>
+        <v>180369.99115555277</v>
       </c>
       <c r="AK47" s="2">
-        <f t="shared" si="174"/>
-        <v>213773.35505094274</v>
+        <f t="shared" si="184"/>
+        <v>205709.1799935993</v>
       </c>
       <c r="AL47" s="2">
-        <f t="shared" si="174"/>
-        <v>243068.27291668567</v>
+        <f t="shared" si="184"/>
+        <v>232406.56089850157</v>
       </c>
       <c r="AM47" s="2">
-        <f t="shared" si="174"/>
-        <v>274131.63287958218</v>
+        <f t="shared" si="184"/>
+        <v>260510.45473832509</v>
       </c>
       <c r="AN47" s="2">
-        <f t="shared" si="174"/>
-        <v>307035.95658638322</v>
+        <f t="shared" si="184"/>
+        <v>290070.71413800615</v>
       </c>
       <c r="AO47" s="2">
-        <f t="shared" si="174"/>
-        <v>341856.30517609237</v>
+        <f t="shared" si="184"/>
+        <v>321138.7702788852</v>
       </c>
       <c r="AP47" s="2">
-        <f t="shared" si="174"/>
-        <v>378670.36180970591</v>
+        <f t="shared" si="184"/>
+        <v>353767.68111079681</v>
       </c>
       <c r="AQ47" s="2">
-        <f t="shared" si="174"/>
-        <v>417558.51678259979</v>
+        <f t="shared" si="184"/>
+        <v>388012.18101917859</v>
       </c>
       <c r="AR47" s="2">
-        <f t="shared" si="174"/>
-        <v>458603.95529880293</v>
+        <f t="shared" si="184"/>
+        <v>423928.73199093685</v>
       </c>
       <c r="AS47" s="2">
-        <f t="shared" si="174"/>
-        <v>501892.74798880285</v>
+        <f t="shared" si="184"/>
+        <v>461575.5763241197</v>
       </c>
       <c r="AT47" s="2">
-        <f t="shared" si="174"/>
-        <v>547513.94425500743</v>
+        <f t="shared" si="184"/>
+        <v>501012.79092779994</v>
       </c>
       <c r="AW47" s="27">
         <f>AW44/Main!K2-1</f>
-        <v>0.5572887797322601</v>
-      </c>
-    </row>
-    <row r="48" spans="2:149" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0.39101129233844123</v>
+      </c>
+    </row>
+    <row r="48" spans="2:149" s="2" customFormat="1">
       <c r="B48" s="2" t="s">
         <v>3</v>
       </c>
@@ -5247,7 +5411,7 @@
         <v>108579</v>
       </c>
     </row>
-    <row r="49" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:31" s="2" customFormat="1">
       <c r="B49" s="2" t="s">
         <v>36</v>
       </c>
@@ -5277,7 +5441,7 @@
         <v>17908</v>
       </c>
     </row>
-    <row r="50" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:31" s="2" customFormat="1">
       <c r="B50" s="2" t="s">
         <v>37</v>
       </c>
@@ -5307,7 +5471,7 @@
         <v>2902</v>
       </c>
     </row>
-    <row r="51" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:31" s="2" customFormat="1">
       <c r="B51" s="2" t="s">
         <v>38</v>
       </c>
@@ -5337,7 +5501,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="52" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:31" s="2" customFormat="1">
       <c r="B52" s="2" t="s">
         <v>39</v>
       </c>
@@ -5367,7 +5531,7 @@
         <v>5461</v>
       </c>
     </row>
-    <row r="53" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:31" s="2" customFormat="1">
       <c r="B53" s="12" t="s">
         <v>40</v>
       </c>
@@ -5397,7 +5561,7 @@
         <v>14731</v>
       </c>
     </row>
-    <row r="54" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:31" s="2" customFormat="1">
       <c r="B54" s="12" t="s">
         <v>41</v>
       </c>
@@ -5433,7 +5597,7 @@
         <v>21774</v>
       </c>
     </row>
-    <row r="55" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:31" s="2" customFormat="1">
       <c r="B55" s="12" t="s">
         <v>42</v>
       </c>
@@ -5463,7 +5627,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="56" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:31">
       <c r="B56" s="12" t="s">
         <v>61</v>
       </c>
@@ -5492,7 +5656,7 @@
         <v>176223</v>
       </c>
     </row>
-    <row r="58" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:31" s="2" customFormat="1">
       <c r="B58" s="2" t="s">
         <v>49</v>
       </c>
@@ -5522,7 +5686,7 @@
         <v>6591</v>
       </c>
     </row>
-    <row r="59" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:31" s="2" customFormat="1">
       <c r="B59" s="2" t="s">
         <v>4</v>
       </c>
@@ -5558,7 +5722,7 @@
         <v>35292</v>
       </c>
     </row>
-    <row r="60" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:31" s="2" customFormat="1">
       <c r="B60" s="2" t="s">
         <v>48</v>
       </c>
@@ -5588,7 +5752,7 @@
         <v>5096</v>
       </c>
     </row>
-    <row r="61" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:31" s="2" customFormat="1">
       <c r="B61" s="2" t="s">
         <v>30</v>
       </c>
@@ -5618,7 +5782,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="62" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:31" s="2" customFormat="1">
       <c r="B62" s="2" t="s">
         <v>47</v>
       </c>
@@ -5654,7 +5818,7 @@
         <v>25318</v>
       </c>
     </row>
-    <row r="63" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:31" s="2" customFormat="1">
       <c r="B63" s="2" t="s">
         <v>46</v>
       </c>
@@ -5684,7 +5848,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:31" s="2" customFormat="1">
       <c r="B64" s="2" t="s">
         <v>45</v>
       </c>
@@ -5714,7 +5878,7 @@
         <v>6766</v>
       </c>
     </row>
-    <row r="65" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:31" s="2" customFormat="1">
       <c r="B65" s="2" t="s">
         <v>38</v>
       </c>
@@ -5744,7 +5908,7 @@
         <v>2835</v>
       </c>
     </row>
-    <row r="66" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:31" s="2" customFormat="1">
       <c r="B66" s="2" t="s">
         <v>44</v>
       </c>
@@ -5774,7 +5938,7 @@
         <v>13544</v>
       </c>
     </row>
-    <row r="67" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" s="2" customFormat="1">
       <c r="B67" s="2" t="s">
         <v>50</v>
       </c>
@@ -5804,7 +5968,7 @@
         <v>80083</v>
       </c>
     </row>
-    <row r="68" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:31" s="2" customFormat="1">
       <c r="B68" s="2" t="s">
         <v>43</v>
       </c>
@@ -5840,7 +6004,7 @@
         <v>176223</v>
       </c>
     </row>
-    <row r="70" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:31" s="2" customFormat="1">
       <c r="B70" s="8" t="s">
         <v>51</v>
       </c>
@@ -5869,7 +6033,7 @@
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
     </row>
-    <row r="71" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:31" s="2" customFormat="1">
       <c r="B71" s="2" t="s">
         <v>52</v>
       </c>
@@ -5894,7 +6058,7 @@
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
     </row>
-    <row r="72" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:31" s="2" customFormat="1">
       <c r="B72" s="2" t="s">
         <v>60</v>
       </c>
@@ -5919,7 +6083,7 @@
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
     </row>
-    <row r="73" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" s="2" customFormat="1">
       <c r="B73" s="2" t="s">
         <v>53</v>
       </c>
@@ -5944,7 +6108,7 @@
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
     </row>
-    <row r="74" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:31" s="2" customFormat="1">
       <c r="B74" s="2" t="s">
         <v>54</v>
       </c>
@@ -5969,7 +6133,7 @@
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
     </row>
-    <row r="75" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:31" s="2" customFormat="1">
       <c r="B75" s="2" t="s">
         <v>56</v>
       </c>
@@ -5994,7 +6158,7 @@
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
     </row>
-    <row r="76" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:31" s="2" customFormat="1">
       <c r="B76" s="2" t="s">
         <v>55</v>
       </c>
@@ -6019,7 +6183,7 @@
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
     </row>
-    <row r="77" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" s="2" customFormat="1">
       <c r="B77" s="2" t="s">
         <v>38</v>
       </c>
@@ -6044,7 +6208,7 @@
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
     </row>
-    <row r="78" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:31" s="2" customFormat="1">
       <c r="B78" s="2" t="s">
         <v>47</v>
       </c>
@@ -6073,7 +6237,7 @@
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
     </row>
-    <row r="79" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:31" s="2" customFormat="1">
       <c r="B79" s="2" t="s">
         <v>36</v>
       </c>
@@ -6098,7 +6262,7 @@
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
     </row>
-    <row r="80" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" s="2" customFormat="1">
       <c r="B80" s="2" t="s">
         <v>37</v>
       </c>
@@ -6123,7 +6287,7 @@
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
     </row>
-    <row r="81" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:14" s="2" customFormat="1">
       <c r="B81" s="2" t="s">
         <v>59</v>
       </c>
@@ -6148,7 +6312,7 @@
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
     </row>
-    <row r="82" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:14" s="2" customFormat="1">
       <c r="B82" s="2" t="s">
         <v>42</v>
       </c>
@@ -6173,7 +6337,7 @@
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
     </row>
-    <row r="83" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:14" s="2" customFormat="1">
       <c r="B83" s="2" t="s">
         <v>49</v>
       </c>
@@ -6198,7 +6362,7 @@
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:14">
       <c r="B84" t="s">
         <v>58</v>
       </c>
@@ -6215,7 +6379,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:14">
       <c r="B85" t="s">
         <v>44</v>
       </c>
@@ -6232,7 +6396,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:14">
       <c r="B86" s="10" t="s">
         <v>57</v>
       </c>
@@ -6253,7 +6417,7 @@
         <v>5598</v>
       </c>
     </row>
-    <row r="88" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:14" s="2" customFormat="1">
       <c r="B88" s="2" t="s">
         <v>62</v>
       </c>
@@ -6278,7 +6442,7 @@
       <c r="M88" s="6"/>
       <c r="N88" s="6"/>
     </row>
-    <row r="89" spans="2:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:14" s="10" customFormat="1">
       <c r="B89" s="10" t="s">
         <v>63</v>
       </c>
@@ -6293,21 +6457,21 @@
         <v>8179</v>
       </c>
       <c r="J89" s="9">
-        <f t="shared" ref="J89:L89" si="175">+J86-J88</f>
+        <f t="shared" ref="J89:L89" si="185">+J86-J88</f>
         <v>5035</v>
       </c>
       <c r="K89" s="9">
-        <f t="shared" si="175"/>
+        <f t="shared" si="185"/>
         <v>7238</v>
       </c>
       <c r="L89" s="9">
-        <f t="shared" si="175"/>
+        <f t="shared" si="185"/>
         <v>3574</v>
       </c>
       <c r="M89" s="11"/>
       <c r="N89" s="11"/>
     </row>
-    <row r="90" spans="2:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:14" s="10" customFormat="1">
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
       <c r="E90" s="11"/>
@@ -6321,7 +6485,7 @@
       <c r="M90" s="11"/>
       <c r="N90" s="11"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:14">
       <c r="B91" s="10" t="s">
         <v>67</v>
       </c>
@@ -6333,7 +6497,7 @@
         <v>24026</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:14">
       <c r="B92" s="10" t="s">
         <v>68</v>
       </c>
@@ -6345,13 +6509,13 @@
         <v>20036</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:14">
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
       <c r="L93" s="6"/>
     </row>
-    <row r="95" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:14" s="2" customFormat="1">
       <c r="B95" s="2" t="s">
         <v>64</v>
       </c>
@@ -6376,7 +6540,7 @@
       <c r="M95" s="6"/>
       <c r="N95" s="6"/>
     </row>
-    <row r="96" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:14" s="2" customFormat="1">
       <c r="B96" s="2" t="s">
         <v>65</v>
       </c>
@@ -6405,7 +6569,7 @@
       <c r="M96" s="6"/>
       <c r="N96" s="6"/>
     </row>
-    <row r="97" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:14" s="2" customFormat="1">
       <c r="B97" s="2" t="s">
         <v>66</v>
       </c>
@@ -6430,7 +6594,7 @@
       <c r="M97" s="6"/>
       <c r="N97" s="6"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:14">
       <c r="B101" t="s">
         <v>70</v>
       </c>
@@ -6438,7 +6602,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="102" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:14" s="2" customFormat="1">
       <c r="B102" s="2" t="s">
         <v>75</v>
       </c>
@@ -6459,7 +6623,7 @@
       <c r="M102" s="6"/>
       <c r="N102" s="6"/>
     </row>
-    <row r="103" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:14" s="2" customFormat="1">
       <c r="B103" s="2" t="s">
         <v>84</v>
       </c>
@@ -6480,15 +6644,20 @@
       <c r="M103" s="6"/>
       <c r="N103" s="6"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:14">
       <c r="B105" t="s">
         <v>101</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/investing spreadsheets/MSFT.xlsx
+++ b/investing spreadsheets/MSFT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26004"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16720" yWindow="-20" windowWidth="16800" windowHeight="20540" activeTab="1"/>
+    <workbookView xWindow="16725" yWindow="-15" windowWidth="16800" windowHeight="20535" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1096,7 +1096,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1110,17 +1110,17 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="17" t="s">
         <v>77</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>56.53</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
         <v>76</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="15" t="s">
         <v>80</v>
       </c>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="15" t="s">
         <v>82</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="16"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -1246,7 +1246,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J7" t="s">
         <v>5</v>
       </c>
@@ -1255,13 +1255,13 @@
         <v>370956.79999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L10" s="1"/>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="K14" s="31"/>
     </row>
   </sheetData>
@@ -1279,28 +1279,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:ES105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="R18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="AG42" sqref="AG42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="29.1640625" customWidth="1"/>
-    <col min="3" max="6" width="8.83203125" style="3"/>
-    <col min="7" max="8" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="3"/>
-    <col min="10" max="10" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.83203125" style="3"/>
-    <col min="48" max="48" width="11.33203125" customWidth="1"/>
-    <col min="49" max="49" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.85546875" style="3"/>
+    <col min="7" max="8" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="3"/>
+    <col min="10" max="10" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.85546875" style="3"/>
+    <col min="48" max="48" width="11.28515625" customWidth="1"/>
+    <col min="49" max="49" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:46" ht="13">
+    <row r="1" spans="2:46" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C1" s="32">
         <v>41547</v>
       </c>
@@ -1442,7 +1444,7 @@
         <v>47661</v>
       </c>
     </row>
-    <row r="2" spans="2:46">
+    <row r="2" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1599,7 +1601,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="2:46">
+    <row r="3" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>106</v>
       </c>
@@ -1617,7 +1619,7 @@
         <v>16472</v>
       </c>
     </row>
-    <row r="4" spans="2:46">
+    <row r="4" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>107</v>
       </c>
@@ -1635,7 +1637,7 @@
         <v>13189</v>
       </c>
     </row>
-    <row r="5" spans="2:46">
+    <row r="5" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>108</v>
       </c>
@@ -1653,7 +1655,7 @@
         <v>3214</v>
       </c>
     </row>
-    <row r="6" spans="2:46">
+    <row r="6" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>109</v>
       </c>
@@ -1671,7 +1673,7 @@
         <v>18937</v>
       </c>
     </row>
-    <row r="7" spans="2:46">
+    <row r="7" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>110</v>
       </c>
@@ -1689,7 +1691,7 @@
         <v>8139</v>
       </c>
     </row>
-    <row r="8" spans="2:46">
+    <row r="8" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>94</v>
       </c>
@@ -1707,13 +1709,13 @@
         <v>469</v>
       </c>
     </row>
-    <row r="9" spans="2:46">
+    <row r="9" spans="2:46" x14ac:dyDescent="0.2">
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="2:46" s="2" customFormat="1">
+    <row r="10" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>95</v>
       </c>
@@ -1741,7 +1743,7 @@
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
     </row>
-    <row r="11" spans="2:46" s="2" customFormat="1">
+    <row r="11" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>96</v>
       </c>
@@ -1769,7 +1771,7 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
     </row>
-    <row r="12" spans="2:46" s="2" customFormat="1">
+    <row r="12" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>97</v>
       </c>
@@ -1797,7 +1799,7 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
     </row>
-    <row r="13" spans="2:46" s="2" customFormat="1">
+    <row r="13" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>98</v>
       </c>
@@ -1825,7 +1827,7 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
     </row>
-    <row r="14" spans="2:46" s="2" customFormat="1">
+    <row r="14" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>99</v>
       </c>
@@ -1853,7 +1855,7 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
     </row>
-    <row r="15" spans="2:46" s="2" customFormat="1">
+    <row r="15" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>100</v>
       </c>
@@ -1881,7 +1883,7 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
     </row>
-    <row r="16" spans="2:46" s="2" customFormat="1">
+    <row r="16" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>94</v>
       </c>
@@ -1906,13 +1908,13 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
     </row>
-    <row r="17" spans="2:46">
+    <row r="17" spans="2:46" x14ac:dyDescent="0.2">
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="2:46" s="2" customFormat="1">
+    <row r="18" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>91</v>
       </c>
@@ -1947,7 +1949,7 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
     </row>
-    <row r="19" spans="2:46" s="2" customFormat="1">
+    <row r="19" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>92</v>
       </c>
@@ -1982,7 +1984,7 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
     </row>
-    <row r="20" spans="2:46" s="2" customFormat="1">
+    <row r="20" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>93</v>
       </c>
@@ -2017,7 +2019,7 @@
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
     </row>
-    <row r="21" spans="2:46" s="2" customFormat="1">
+    <row r="21" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>94</v>
       </c>
@@ -2050,14 +2052,14 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
     </row>
-    <row r="22" spans="2:46">
+    <row r="22" spans="2:46" x14ac:dyDescent="0.2">
       <c r="I22" s="6"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="2:46" s="8" customFormat="1">
+    <row r="23" spans="2:46" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="8" t="s">
         <v>7</v>
       </c>
@@ -2217,7 +2219,7 @@
         <v>130821.4034807429</v>
       </c>
     </row>
-    <row r="24" spans="2:46" s="2" customFormat="1">
+    <row r="24" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>21</v>
       </c>
@@ -2365,7 +2367,7 @@
         <v>48403.919287874873</v>
       </c>
     </row>
-    <row r="25" spans="2:46" s="2" customFormat="1">
+    <row r="25" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>20</v>
       </c>
@@ -2534,7 +2536,7 @@
         <v>82417.484192868025</v>
       </c>
     </row>
-    <row r="26" spans="2:46" s="2" customFormat="1">
+    <row r="26" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
@@ -2682,7 +2684,7 @@
         <v>13584.281395251741</v>
       </c>
     </row>
-    <row r="27" spans="2:46" s="2" customFormat="1">
+    <row r="27" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>23</v>
       </c>
@@ -2830,7 +2832,7 @@
         <v>16684.447491152026</v>
       </c>
     </row>
-    <row r="28" spans="2:46" s="2" customFormat="1">
+    <row r="28" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>22</v>
       </c>
@@ -2978,7 +2980,7 @@
         <v>5160.1149334845359</v>
       </c>
     </row>
-    <row r="29" spans="2:46" s="2" customFormat="1">
+    <row r="29" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>25</v>
       </c>
@@ -3147,7 +3149,7 @@
         <v>35428.843819888309</v>
       </c>
     </row>
-    <row r="30" spans="2:46" s="2" customFormat="1">
+    <row r="30" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>26</v>
       </c>
@@ -3316,7 +3318,7 @@
         <v>46988.640372979717</v>
       </c>
     </row>
-    <row r="31" spans="2:46" s="2" customFormat="1">
+    <row r="31" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>32</v>
       </c>
@@ -3464,7 +3466,7 @@
         <v>2307.8778816205986</v>
       </c>
     </row>
-    <row r="32" spans="2:46" s="2" customFormat="1">
+    <row r="32" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>31</v>
       </c>
@@ -3633,7 +3635,7 @@
         <v>49296.518254600313</v>
       </c>
     </row>
-    <row r="33" spans="2:149" s="2" customFormat="1">
+    <row r="33" spans="2:149" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>30</v>
       </c>
@@ -3781,7 +3783,7 @@
         <v>9859.3036509200629</v>
       </c>
     </row>
-    <row r="34" spans="2:149" s="8" customFormat="1">
+    <row r="34" spans="2:149" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="8" t="s">
         <v>29</v>
       </c>
@@ -4362,7 +4364,7 @@
         <v>1711.5707783012338</v>
       </c>
     </row>
-    <row r="35" spans="2:149" s="2" customFormat="1">
+    <row r="35" spans="2:149" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>28</v>
       </c>
@@ -4531,7 +4533,7 @@
         <v>4.9389122859962749</v>
       </c>
     </row>
-    <row r="36" spans="2:149" s="2" customFormat="1">
+    <row r="36" spans="2:149" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>1</v>
       </c>
@@ -4679,7 +4681,7 @@
         <v>7985</v>
       </c>
     </row>
-    <row r="37" spans="2:149">
+    <row r="37" spans="2:149" x14ac:dyDescent="0.2">
       <c r="AV37" t="s">
         <v>105</v>
       </c>
@@ -4687,7 +4689,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="38" spans="2:149">
+    <row r="38" spans="2:149" x14ac:dyDescent="0.2">
       <c r="AV38" s="2" t="s">
         <v>102</v>
       </c>
@@ -4695,7 +4697,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="2:149" s="10" customFormat="1">
+    <row r="39" spans="2:149" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="8" t="s">
         <v>34</v>
       </c>
@@ -4859,7 +4861,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="40" spans="2:149" s="10" customFormat="1">
+    <row r="40" spans="2:149" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="8" t="s">
         <v>69</v>
       </c>
@@ -4887,7 +4889,7 @@
         <v>544693.20527731185</v>
       </c>
     </row>
-    <row r="41" spans="2:149">
+    <row r="41" spans="2:149" x14ac:dyDescent="0.2">
       <c r="AV41" t="s">
         <v>3</v>
       </c>
@@ -4896,7 +4898,7 @@
         <v>73369</v>
       </c>
     </row>
-    <row r="42" spans="2:149">
+    <row r="42" spans="2:149" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>19</v>
       </c>
@@ -5068,7 +5070,7 @@
         <v>618062.20527731185</v>
       </c>
     </row>
-    <row r="43" spans="2:149">
+    <row r="43" spans="2:149" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>27</v>
       </c>
@@ -5181,7 +5183,7 @@
         <v>0.28055064933257184</v>
       </c>
     </row>
-    <row r="44" spans="2:149">
+    <row r="44" spans="2:149" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>33</v>
       </c>
@@ -5253,7 +5255,7 @@
         <v>78.633868355892091</v>
       </c>
     </row>
-    <row r="45" spans="2:149">
+    <row r="45" spans="2:149" x14ac:dyDescent="0.2">
       <c r="AV45" s="10" t="s">
         <v>113</v>
       </c>
@@ -5262,7 +5264,7 @@
         <v>56.53</v>
       </c>
     </row>
-    <row r="47" spans="2:149">
+    <row r="47" spans="2:149" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>35</v>
       </c>
@@ -5375,7 +5377,7 @@
         <v>0.39101129233844123</v>
       </c>
     </row>
-    <row r="48" spans="2:149" s="2" customFormat="1">
+    <row r="48" spans="2:149" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>3</v>
       </c>
@@ -5411,7 +5413,7 @@
         <v>108579</v>
       </c>
     </row>
-    <row r="49" spans="2:31" s="2" customFormat="1">
+    <row r="49" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>36</v>
       </c>
@@ -5441,7 +5443,7 @@
         <v>17908</v>
       </c>
     </row>
-    <row r="50" spans="2:31" s="2" customFormat="1">
+    <row r="50" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>37</v>
       </c>
@@ -5471,7 +5473,7 @@
         <v>2902</v>
       </c>
     </row>
-    <row r="51" spans="2:31" s="2" customFormat="1">
+    <row r="51" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>38</v>
       </c>
@@ -5501,7 +5503,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="52" spans="2:31" s="2" customFormat="1">
+    <row r="52" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>39</v>
       </c>
@@ -5531,7 +5533,7 @@
         <v>5461</v>
       </c>
     </row>
-    <row r="53" spans="2:31" s="2" customFormat="1">
+    <row r="53" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="12" t="s">
         <v>40</v>
       </c>
@@ -5561,7 +5563,7 @@
         <v>14731</v>
       </c>
     </row>
-    <row r="54" spans="2:31" s="2" customFormat="1">
+    <row r="54" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="12" t="s">
         <v>41</v>
       </c>
@@ -5597,7 +5599,7 @@
         <v>21774</v>
       </c>
     </row>
-    <row r="55" spans="2:31" s="2" customFormat="1">
+    <row r="55" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="12" t="s">
         <v>42</v>
       </c>
@@ -5627,7 +5629,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="56" spans="2:31">
+    <row r="56" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B56" s="12" t="s">
         <v>61</v>
       </c>
@@ -5656,7 +5658,7 @@
         <v>176223</v>
       </c>
     </row>
-    <row r="58" spans="2:31" s="2" customFormat="1">
+    <row r="58" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>49</v>
       </c>
@@ -5686,7 +5688,7 @@
         <v>6591</v>
       </c>
     </row>
-    <row r="59" spans="2:31" s="2" customFormat="1">
+    <row r="59" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>4</v>
       </c>
@@ -5722,7 +5724,7 @@
         <v>35292</v>
       </c>
     </row>
-    <row r="60" spans="2:31" s="2" customFormat="1">
+    <row r="60" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
         <v>48</v>
       </c>
@@ -5752,7 +5754,7 @@
         <v>5096</v>
       </c>
     </row>
-    <row r="61" spans="2:31" s="2" customFormat="1">
+    <row r="61" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
         <v>30</v>
       </c>
@@ -5782,7 +5784,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="62" spans="2:31" s="2" customFormat="1">
+    <row r="62" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>47</v>
       </c>
@@ -5818,7 +5820,7 @@
         <v>25318</v>
       </c>
     </row>
-    <row r="63" spans="2:31" s="2" customFormat="1">
+    <row r="63" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
         <v>46</v>
       </c>
@@ -5848,7 +5850,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="2:31" s="2" customFormat="1">
+    <row r="64" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
         <v>45</v>
       </c>
@@ -5878,7 +5880,7 @@
         <v>6766</v>
       </c>
     </row>
-    <row r="65" spans="2:31" s="2" customFormat="1">
+    <row r="65" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
         <v>38</v>
       </c>
@@ -5908,7 +5910,7 @@
         <v>2835</v>
       </c>
     </row>
-    <row r="66" spans="2:31" s="2" customFormat="1">
+    <row r="66" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
         <v>44</v>
       </c>
@@ -5938,7 +5940,7 @@
         <v>13544</v>
       </c>
     </row>
-    <row r="67" spans="2:31" s="2" customFormat="1">
+    <row r="67" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
         <v>50</v>
       </c>
@@ -5968,7 +5970,7 @@
         <v>80083</v>
       </c>
     </row>
-    <row r="68" spans="2:31" s="2" customFormat="1">
+    <row r="68" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>43</v>
       </c>
@@ -6004,7 +6006,7 @@
         <v>176223</v>
       </c>
     </row>
-    <row r="70" spans="2:31" s="2" customFormat="1">
+    <row r="70" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="8" t="s">
         <v>51</v>
       </c>
@@ -6030,10 +6032,13 @@
         <f>L34</f>
         <v>4998</v>
       </c>
-      <c r="M70" s="6"/>
+      <c r="M70" s="9">
+        <f>M34</f>
+        <v>5301</v>
+      </c>
       <c r="N70" s="6"/>
     </row>
-    <row r="71" spans="2:31" s="2" customFormat="1">
+    <row r="71" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
         <v>52</v>
       </c>
@@ -6055,10 +6060,12 @@
       <c r="L71" s="6">
         <v>4998</v>
       </c>
-      <c r="M71" s="6"/>
+      <c r="M71" s="13">
+        <v>3756</v>
+      </c>
       <c r="N71" s="6"/>
     </row>
-    <row r="72" spans="2:31" s="2" customFormat="1">
+    <row r="72" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
         <v>60</v>
       </c>
@@ -6080,10 +6087,12 @@
       <c r="L72" s="6">
         <v>0</v>
       </c>
-      <c r="M72" s="6"/>
+      <c r="M72" s="6">
+        <v>0</v>
+      </c>
       <c r="N72" s="6"/>
     </row>
-    <row r="73" spans="2:31" s="2" customFormat="1">
+    <row r="73" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
         <v>53</v>
       </c>
@@ -6105,10 +6114,12 @@
       <c r="L73" s="6">
         <v>1544</v>
       </c>
-      <c r="M73" s="6"/>
+      <c r="M73" s="6">
+        <v>1707</v>
+      </c>
       <c r="N73" s="6"/>
     </row>
-    <row r="74" spans="2:31" s="2" customFormat="1">
+    <row r="74" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
         <v>54</v>
       </c>
@@ -6130,10 +6141,12 @@
       <c r="L74" s="6">
         <v>658</v>
       </c>
-      <c r="M74" s="6"/>
+      <c r="M74" s="6">
+        <v>672</v>
+      </c>
       <c r="N74" s="6"/>
     </row>
-    <row r="75" spans="2:31" s="2" customFormat="1">
+    <row r="75" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
         <v>56</v>
       </c>
@@ -6155,10 +6168,12 @@
       <c r="L75" s="6">
         <v>50</v>
       </c>
-      <c r="M75" s="6"/>
+      <c r="M75" s="6">
+        <v>65</v>
+      </c>
       <c r="N75" s="6"/>
     </row>
-    <row r="76" spans="2:31" s="2" customFormat="1">
+    <row r="76" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
         <v>55</v>
       </c>
@@ -6180,10 +6195,12 @@
       <c r="L76" s="6">
         <v>-20</v>
       </c>
-      <c r="M76" s="6"/>
+      <c r="M76" s="6">
+        <v>0</v>
+      </c>
       <c r="N76" s="6"/>
     </row>
-    <row r="77" spans="2:31" s="2" customFormat="1">
+    <row r="77" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
         <v>38</v>
       </c>
@@ -6205,10 +6222,12 @@
       <c r="L77" s="6">
         <v>-247</v>
       </c>
-      <c r="M77" s="6"/>
+      <c r="M77" s="6">
+        <v>351</v>
+      </c>
       <c r="N77" s="6"/>
     </row>
-    <row r="78" spans="2:31" s="2" customFormat="1">
+    <row r="78" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
         <v>47</v>
       </c>
@@ -6234,10 +6253,13 @@
         <f>12570-11929</f>
         <v>641</v>
       </c>
-      <c r="M78" s="6"/>
+      <c r="M78" s="6">
+        <f>13073-12210</f>
+        <v>863</v>
+      </c>
       <c r="N78" s="6"/>
     </row>
-    <row r="79" spans="2:31" s="2" customFormat="1">
+    <row r="79" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
         <v>36</v>
       </c>
@@ -6259,10 +6281,12 @@
       <c r="L79" s="6">
         <v>-3118</v>
       </c>
-      <c r="M79" s="6"/>
+      <c r="M79" s="6">
+        <v>2288</v>
+      </c>
       <c r="N79" s="6"/>
     </row>
-    <row r="80" spans="2:31" s="2" customFormat="1">
+    <row r="80" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
         <v>37</v>
       </c>
@@ -6284,10 +6308,12 @@
       <c r="L80" s="6">
         <v>1104</v>
       </c>
-      <c r="M80" s="6"/>
+      <c r="M80" s="6">
+        <v>241</v>
+      </c>
       <c r="N80" s="6"/>
     </row>
-    <row r="81" spans="2:14" s="2" customFormat="1">
+    <row r="81" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="2" t="s">
         <v>59</v>
       </c>
@@ -6309,10 +6335,12 @@
       <c r="L81" s="6">
         <v>-912</v>
       </c>
-      <c r="M81" s="6"/>
+      <c r="M81" s="6">
+        <v>-420</v>
+      </c>
       <c r="N81" s="6"/>
     </row>
-    <row r="82" spans="2:14" s="2" customFormat="1">
+    <row r="82" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
         <v>42</v>
       </c>
@@ -6334,10 +6362,12 @@
       <c r="L82" s="6">
         <v>56</v>
       </c>
-      <c r="M82" s="6"/>
+      <c r="M82" s="6">
+        <v>7</v>
+      </c>
       <c r="N82" s="6"/>
     </row>
-    <row r="83" spans="2:14" s="2" customFormat="1">
+    <row r="83" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
         <v>49</v>
       </c>
@@ -6359,10 +6389,12 @@
       <c r="L83" s="6">
         <v>369</v>
       </c>
-      <c r="M83" s="6"/>
+      <c r="M83" s="6">
+        <v>-129</v>
+      </c>
       <c r="N83" s="6"/>
     </row>
-    <row r="84" spans="2:14">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>58</v>
       </c>
@@ -6378,8 +6410,11 @@
       <c r="L84" s="3">
         <v>105</v>
       </c>
-    </row>
-    <row r="85" spans="2:14">
+      <c r="M84" s="3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>44</v>
       </c>
@@ -6395,8 +6430,11 @@
       <c r="L85" s="3">
         <v>370</v>
       </c>
-    </row>
-    <row r="86" spans="2:14">
+      <c r="M85" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B86" s="10" t="s">
         <v>57</v>
       </c>
@@ -6416,8 +6454,12 @@
         <f>SUM(L71:L85)</f>
         <v>5598</v>
       </c>
-    </row>
-    <row r="88" spans="2:14" s="2" customFormat="1">
+      <c r="M86" s="9">
+        <f>SUM(M71:M85)</f>
+        <v>10367</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="2" t="s">
         <v>62</v>
       </c>
@@ -6439,10 +6481,12 @@
       <c r="L88" s="6">
         <v>2024</v>
       </c>
-      <c r="M88" s="6"/>
+      <c r="M88" s="6">
+        <v>2308</v>
+      </c>
       <c r="N88" s="6"/>
     </row>
-    <row r="89" spans="2:14" s="10" customFormat="1">
+    <row r="89" spans="2:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="10" t="s">
         <v>63</v>
       </c>
@@ -6457,7 +6501,7 @@
         <v>8179</v>
       </c>
       <c r="J89" s="9">
-        <f t="shared" ref="J89:L89" si="185">+J86-J88</f>
+        <f t="shared" ref="J89:M89" si="185">+J86-J88</f>
         <v>5035</v>
       </c>
       <c r="K89" s="9">
@@ -6468,10 +6512,13 @@
         <f t="shared" si="185"/>
         <v>3574</v>
       </c>
-      <c r="M89" s="11"/>
+      <c r="M89" s="9">
+        <f t="shared" si="185"/>
+        <v>8059</v>
+      </c>
       <c r="N89" s="11"/>
     </row>
-    <row r="90" spans="2:14" s="10" customFormat="1">
+    <row r="90" spans="2:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
       <c r="E90" s="11"/>
@@ -6485,7 +6532,7 @@
       <c r="M90" s="11"/>
       <c r="N90" s="11"/>
     </row>
-    <row r="91" spans="2:14">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B91" s="10" t="s">
         <v>67</v>
       </c>
@@ -6497,7 +6544,7 @@
         <v>24026</v>
       </c>
     </row>
-    <row r="92" spans="2:14">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B92" s="10" t="s">
         <v>68</v>
       </c>
@@ -6509,13 +6556,13 @@
         <v>20036</v>
       </c>
     </row>
-    <row r="93" spans="2:14">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
       <c r="L93" s="6"/>
     </row>
-    <row r="95" spans="2:14" s="2" customFormat="1">
+    <row r="95" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
         <v>64</v>
       </c>
@@ -6537,10 +6584,12 @@
       <c r="L95" s="6">
         <v>-381</v>
       </c>
-      <c r="M95" s="6"/>
+      <c r="M95" s="6">
+        <v>-559</v>
+      </c>
       <c r="N95" s="6"/>
     </row>
-    <row r="96" spans="2:14" s="2" customFormat="1">
+    <row r="96" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="2" t="s">
         <v>65</v>
       </c>
@@ -6566,10 +6615,13 @@
         <f>-3678+117</f>
         <v>-3561</v>
       </c>
-      <c r="M96" s="6"/>
+      <c r="M96" s="6">
+        <f>-3857+159</f>
+        <v>-3698</v>
+      </c>
       <c r="N96" s="6"/>
     </row>
-    <row r="97" spans="2:14" s="2" customFormat="1">
+    <row r="97" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B97" s="2" t="s">
         <v>66</v>
       </c>
@@ -6591,10 +6643,12 @@
       <c r="L97" s="6">
         <v>-2868</v>
       </c>
-      <c r="M97" s="6"/>
+      <c r="M97" s="6">
+        <v>-2842</v>
+      </c>
       <c r="N97" s="6"/>
     </row>
-    <row r="101" spans="2:14">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>70</v>
       </c>
@@ -6602,7 +6656,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="102" spans="2:14" s="2" customFormat="1">
+    <row r="102" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B102" s="2" t="s">
         <v>75</v>
       </c>
@@ -6623,7 +6677,7 @@
       <c r="M102" s="6"/>
       <c r="N102" s="6"/>
     </row>
-    <row r="103" spans="2:14" s="2" customFormat="1">
+    <row r="103" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B103" s="2" t="s">
         <v>84</v>
       </c>
@@ -6644,16 +6698,16 @@
       <c r="M103" s="6"/>
       <c r="N103" s="6"/>
     </row>
-    <row r="105" spans="2:14">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>101</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/investing spreadsheets/MSFT.xlsx
+++ b/investing spreadsheets/MSFT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16725" yWindow="-15" windowWidth="16800" windowHeight="20535" activeTab="1"/>
+    <workbookView xWindow="16725" yWindow="-15" windowWidth="16800" windowHeight="20535"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
--13% cc</t>
+-13% constant currency</t>
         </r>
       </text>
     </comment>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="115">
   <si>
     <t>Price</t>
   </si>
@@ -423,6 +423,9 @@
   </si>
   <si>
     <t>Current</t>
+  </si>
+  <si>
+    <t>Net Margin</t>
   </si>
 </sst>
 </file>
@@ -432,7 +435,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -477,6 +480,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -607,7 +616,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -675,6 +684,7 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -718,15 +728,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -736,8 +746,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9648825" y="0"/>
-          <a:ext cx="0" cy="14573250"/>
+          <a:off x="10391775" y="0"/>
+          <a:ext cx="0" cy="15725775"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -770,7 +780,7 @@
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -780,8 +790,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19402425" y="104775"/>
-          <a:ext cx="0" cy="14573250"/>
+          <a:off x="20421600" y="104775"/>
+          <a:ext cx="0" cy="15725775"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1096,7 +1106,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1106,9 +1116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1149,8 +1157,8 @@
         <v>76</v>
       </c>
       <c r="C3" s="20">
-        <f>6.7/25.6</f>
-        <v>0.26171875</v>
+        <f>7/22.6</f>
+        <v>0.30973451327433627</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>86</v>
@@ -1166,10 +1174,10 @@
         <v>1</v>
       </c>
       <c r="K3" s="2">
-        <v>7860</v>
+        <v>7842</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -1177,14 +1185,14 @@
         <v>80</v>
       </c>
       <c r="C4" s="20">
-        <f>6.3/25.6</f>
-        <v>0.24609374999999997</v>
+        <f>6.7/22.6</f>
+        <v>0.29646017699115046</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>81</v>
       </c>
       <c r="E4" s="20">
-        <v>0.11</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F4" s="21" t="s">
         <v>88</v>
@@ -1195,7 +1203,7 @@
       </c>
       <c r="K4" s="2">
         <f>+K3*K2</f>
-        <v>444325.8</v>
+        <v>443308.26</v>
       </c>
       <c r="L4" s="3"/>
     </row>
@@ -1204,14 +1212,14 @@
         <v>82</v>
       </c>
       <c r="C5" s="20">
-        <f>12.7/25.6</f>
-        <v>0.49609374999999994</v>
+        <f>8.9/22.6</f>
+        <v>0.39380530973451328</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>85</v>
       </c>
       <c r="E5" s="20">
-        <v>-0.02</v>
+        <v>-0.04</v>
       </c>
       <c r="F5" s="21" t="s">
         <v>90</v>
@@ -1220,12 +1228,12 @@
       <c r="J5" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="2">
-        <f>7170+98383+2895+11315</f>
-        <v>119763</v>
+      <c r="K5" s="6">
+        <f>6510+106730+10431</f>
+        <v>123671</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
@@ -1238,12 +1246,12 @@
       <c r="J6" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="2">
-        <f>5498+40896</f>
-        <v>46394</v>
+      <c r="K6" s="6">
+        <f>12904+0+40783</f>
+        <v>53687</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
@@ -1252,7 +1260,7 @@
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>370956.79999999999</v>
+        <v>373324.26</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
@@ -1277,13 +1285,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:ES105"/>
+  <dimension ref="B1:ES106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="R18" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AC10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AG42" sqref="AG42"/>
+      <selection pane="bottomRight" activeCell="AH33" sqref="AH33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1297,7 +1305,8 @@
     <col min="10" max="10" width="10.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.42578125" style="3" customWidth="1"/>
     <col min="12" max="12" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.85546875" style="3"/>
+    <col min="13" max="13" width="8.85546875" style="3"/>
+    <col min="14" max="14" width="8.85546875" style="3" customWidth="1"/>
     <col min="48" max="48" width="11.28515625" customWidth="1"/>
     <col min="49" max="49" width="10.42578125" customWidth="1"/>
   </cols>
@@ -1336,6 +1345,9 @@
       <c r="M1" s="4">
         <v>42460</v>
       </c>
+      <c r="N1" s="33">
+        <v>42551</v>
+      </c>
       <c r="T1" s="25">
         <f t="shared" ref="T1" si="0">+U1-365</f>
         <v>38168</v>
@@ -1848,7 +1860,7 @@
         <v>-6.9616309089290507E-2</v>
       </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="M14" s="5"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
@@ -1942,7 +1954,8 @@
         <v>6522</v>
       </c>
       <c r="N18" s="6">
-        <v>6600</v>
+        <f>26487-M18-L18-K18</f>
+        <v>6969</v>
       </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
@@ -1977,7 +1990,8 @@
         <v>6096</v>
       </c>
       <c r="N19" s="6">
-        <v>6600</v>
+        <f>25042-M19-L19-K19</f>
+        <v>6711</v>
       </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -2012,7 +2026,8 @@
         <v>9458</v>
       </c>
       <c r="N20" s="6">
-        <v>8750</v>
+        <f>40460-M20-L20-K20</f>
+        <v>8961</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -2046,7 +2061,10 @@
       <c r="M21" s="6">
         <v>-1545</v>
       </c>
-      <c r="N21" s="6"/>
+      <c r="N21" s="6">
+        <f>-6669-M21-L21-K21</f>
+        <v>-2027</v>
+      </c>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
@@ -2104,7 +2122,7 @@
       </c>
       <c r="N23" s="9">
         <f>SUM(N18:N21)</f>
-        <v>21950</v>
+        <v>20614</v>
       </c>
       <c r="O23" s="9">
         <f t="shared" ref="O23:R23" si="10">+K23*1.01</f>
@@ -2120,7 +2138,7 @@
       </c>
       <c r="R23" s="9">
         <f t="shared" si="10"/>
-        <v>22169.5</v>
+        <v>20820.14</v>
       </c>
       <c r="T23" s="8">
         <v>36835</v>
@@ -2160,63 +2178,63 @@
       </c>
       <c r="AF23" s="8">
         <f>SUM(K23:N23)</f>
-        <v>88201</v>
+        <v>86865</v>
       </c>
       <c r="AG23" s="8">
         <f>SUM(O23:R23)</f>
-        <v>89083.01</v>
+        <v>87733.65</v>
       </c>
       <c r="AH23" s="8">
-        <f>+AG23*1.03</f>
-        <v>91755.5003</v>
+        <f>+AG23*1.02</f>
+        <v>89488.322999999989</v>
       </c>
       <c r="AI23" s="8">
-        <f t="shared" ref="AI23:AT23" si="11">+AH23*1.03</f>
-        <v>94508.165309000004</v>
+        <f t="shared" ref="AI23:AT23" si="11">+AH23*1.02</f>
+        <v>91278.089459999988</v>
       </c>
       <c r="AJ23" s="8">
         <f t="shared" si="11"/>
-        <v>97343.410268270003</v>
+        <v>93103.651249199989</v>
       </c>
       <c r="AK23" s="8">
         <f t="shared" si="11"/>
-        <v>100263.71257631811</v>
+        <v>94965.724274183987</v>
       </c>
       <c r="AL23" s="8">
         <f t="shared" si="11"/>
-        <v>103271.62395360766</v>
+        <v>96865.038759667674</v>
       </c>
       <c r="AM23" s="8">
         <f t="shared" si="11"/>
-        <v>106369.7726722159</v>
+        <v>98802.339534861036</v>
       </c>
       <c r="AN23" s="8">
         <f t="shared" si="11"/>
-        <v>109560.86585238238</v>
+        <v>100778.38632555825</v>
       </c>
       <c r="AO23" s="8">
         <f t="shared" si="11"/>
-        <v>112847.69182795385</v>
+        <v>102793.95405206943</v>
       </c>
       <c r="AP23" s="8">
         <f t="shared" si="11"/>
-        <v>116233.12258279246</v>
+        <v>104849.83313311082</v>
       </c>
       <c r="AQ23" s="8">
         <f t="shared" si="11"/>
-        <v>119720.11626027625</v>
+        <v>106946.82979577304</v>
       </c>
       <c r="AR23" s="8">
         <f t="shared" si="11"/>
-        <v>123311.71974808454</v>
+        <v>109085.76639168851</v>
       </c>
       <c r="AS23" s="8">
         <f t="shared" si="11"/>
-        <v>127011.07134052708</v>
+        <v>111267.48171952229</v>
       </c>
       <c r="AT23" s="8">
         <f t="shared" si="11"/>
-        <v>130821.4034807429</v>
+        <v>113492.83135391273</v>
       </c>
     </row>
     <row r="24" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2257,11 +2275,10 @@
         <v>7722</v>
       </c>
       <c r="N24" s="6">
-        <f t="shared" ref="N24:R24" si="12">+N23-N25</f>
-        <v>7902</v>
+        <v>7979</v>
       </c>
       <c r="O24" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="O24:R24" si="12">+O23-O25</f>
         <v>7615.6323000000011</v>
       </c>
       <c r="P24" s="6">
@@ -2274,7 +2291,7 @@
       </c>
       <c r="R24" s="6">
         <f t="shared" si="12"/>
-        <v>8202.7150000000001</v>
+        <v>7703.4517999999989</v>
       </c>
       <c r="V24" s="12">
         <v>7650</v>
@@ -2308,63 +2325,63 @@
       </c>
       <c r="AF24" s="12">
         <f>SUM(K24:N24)</f>
-        <v>32703</v>
+        <v>32780</v>
       </c>
       <c r="AG24" s="12">
         <f>SUM(O24:R24)</f>
-        <v>32960.713700000008</v>
+        <v>32461.450500000003</v>
       </c>
       <c r="AH24" s="2">
         <f>+AH23-AH25</f>
-        <v>33949.535110999997</v>
+        <v>33110.679509999994</v>
       </c>
       <c r="AI24" s="2">
         <f t="shared" ref="AI24:AT24" si="13">+AI23-AI25</f>
-        <v>34968.021164329999</v>
+        <v>33772.893100199995</v>
       </c>
       <c r="AJ24" s="2">
         <f t="shared" si="13"/>
-        <v>36017.0617992599</v>
+        <v>34448.350962203993</v>
       </c>
       <c r="AK24" s="2">
         <f t="shared" si="13"/>
-        <v>37097.573653237698</v>
+        <v>35137.317981448075</v>
       </c>
       <c r="AL24" s="2">
         <f t="shared" si="13"/>
-        <v>38210.500862834837</v>
+        <v>35840.064341077035</v>
       </c>
       <c r="AM24" s="2">
         <f t="shared" si="13"/>
-        <v>39356.815888719881</v>
+        <v>36556.86562789858</v>
       </c>
       <c r="AN24" s="2">
         <f t="shared" si="13"/>
-        <v>40537.520365381482</v>
+        <v>37288.00294045655</v>
       </c>
       <c r="AO24" s="2">
         <f t="shared" si="13"/>
-        <v>41753.64597634293</v>
+        <v>38033.762999265688</v>
       </c>
       <c r="AP24" s="2">
         <f t="shared" si="13"/>
-        <v>43006.255355633213</v>
+        <v>38794.438259251008</v>
       </c>
       <c r="AQ24" s="2">
         <f t="shared" si="13"/>
-        <v>44296.443016302204</v>
+        <v>39570.327024436017</v>
       </c>
       <c r="AR24" s="2">
         <f t="shared" si="13"/>
-        <v>45625.336306791272</v>
+        <v>40361.73356492474</v>
       </c>
       <c r="AS24" s="2">
         <f t="shared" si="13"/>
-        <v>46994.096395995017</v>
+        <v>41168.968236223242</v>
       </c>
       <c r="AT24" s="2">
         <f t="shared" si="13"/>
-        <v>48403.919287874873</v>
+        <v>41992.347600947702</v>
       </c>
     </row>
     <row r="25" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2416,8 +2433,8 @@
         <v>14354</v>
       </c>
       <c r="N25" s="6">
-        <f>+N23*0.64</f>
-        <v>14048</v>
+        <f>+N23-N24</f>
+        <v>12635</v>
       </c>
       <c r="O25" s="6">
         <f t="shared" ref="O25:R25" si="16">+O23*0.63</f>
@@ -2433,7 +2450,7 @@
       </c>
       <c r="R25" s="6">
         <f t="shared" si="16"/>
-        <v>13966.785</v>
+        <v>13116.688200000001</v>
       </c>
       <c r="V25" s="2">
         <f t="shared" ref="V25:AF25" si="17">V23-V24</f>
@@ -2477,63 +2494,63 @@
       </c>
       <c r="AF25" s="2">
         <f t="shared" si="17"/>
-        <v>55498</v>
+        <v>54085</v>
       </c>
       <c r="AG25" s="2">
         <f t="shared" ref="AG25" si="18">AG23-AG24</f>
-        <v>56122.296299999987</v>
+        <v>55272.199499999988</v>
       </c>
       <c r="AH25" s="2">
         <f>+AH23*0.63</f>
-        <v>57805.965189000002</v>
+        <v>56377.643489999995</v>
       </c>
       <c r="AI25" s="2">
         <f t="shared" ref="AI25:AT25" si="19">+AI23*0.63</f>
-        <v>59540.144144670005</v>
+        <v>57505.196359799993</v>
       </c>
       <c r="AJ25" s="2">
         <f t="shared" si="19"/>
-        <v>61326.348469010103</v>
+        <v>58655.300286995996</v>
       </c>
       <c r="AK25" s="2">
         <f t="shared" si="19"/>
-        <v>63166.138923080412</v>
+        <v>59828.406292735912</v>
       </c>
       <c r="AL25" s="2">
         <f t="shared" si="19"/>
-        <v>65061.123090772824</v>
+        <v>61024.974418590638</v>
       </c>
       <c r="AM25" s="2">
         <f t="shared" si="19"/>
-        <v>67012.956783496018</v>
+        <v>62245.473906962456</v>
       </c>
       <c r="AN25" s="2">
         <f t="shared" si="19"/>
-        <v>69023.345487000901</v>
+        <v>63490.383385101704</v>
       </c>
       <c r="AO25" s="2">
         <f t="shared" si="19"/>
-        <v>71094.045851610921</v>
+        <v>64760.191052803741</v>
       </c>
       <c r="AP25" s="2">
         <f t="shared" si="19"/>
-        <v>73226.867227159251</v>
+        <v>66055.394873859812</v>
       </c>
       <c r="AQ25" s="2">
         <f t="shared" si="19"/>
-        <v>75423.673243974044</v>
+        <v>67376.502771337022</v>
       </c>
       <c r="AR25" s="2">
         <f t="shared" si="19"/>
-        <v>77686.383441293263</v>
+        <v>68724.032826763767</v>
       </c>
       <c r="AS25" s="2">
         <f t="shared" si="19"/>
-        <v>80016.974944532063</v>
+        <v>70098.513483299044</v>
       </c>
       <c r="AT25" s="2">
         <f t="shared" si="19"/>
-        <v>82417.484192868025</v>
+        <v>71500.483752965025</v>
       </c>
     </row>
     <row r="26" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2574,11 +2591,10 @@
         <v>2980</v>
       </c>
       <c r="N26" s="6">
-        <f t="shared" ref="N26:R28" si="20">+J26</f>
-        <v>3094</v>
+        <v>3146</v>
       </c>
       <c r="O26" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="O26:R28" si="20">+K26</f>
         <v>2962</v>
       </c>
       <c r="P26" s="6">
@@ -2591,7 +2607,7 @@
       </c>
       <c r="R26" s="6">
         <f t="shared" si="20"/>
-        <v>3094</v>
+        <v>3146</v>
       </c>
       <c r="V26" s="12">
         <v>6584</v>
@@ -2625,63 +2641,63 @@
       </c>
       <c r="AF26" s="12">
         <f>SUM(K26:N26)</f>
-        <v>11936</v>
+        <v>11988</v>
       </c>
       <c r="AG26" s="12">
         <f>SUM(O26:R26)</f>
-        <v>11936</v>
+        <v>11988</v>
       </c>
       <c r="AH26" s="2">
         <f>+AG26*1.01</f>
-        <v>12055.36</v>
+        <v>12107.88</v>
       </c>
       <c r="AI26" s="2">
         <f t="shared" ref="AI26:AT26" si="21">+AH26*1.01</f>
-        <v>12175.9136</v>
+        <v>12228.958799999999</v>
       </c>
       <c r="AJ26" s="2">
         <f t="shared" si="21"/>
-        <v>12297.672736</v>
+        <v>12351.248387999998</v>
       </c>
       <c r="AK26" s="2">
         <f t="shared" si="21"/>
-        <v>12420.649463360001</v>
+        <v>12474.760871879998</v>
       </c>
       <c r="AL26" s="2">
         <f t="shared" si="21"/>
-        <v>12544.855957993601</v>
+        <v>12599.508480598799</v>
       </c>
       <c r="AM26" s="2">
         <f t="shared" si="21"/>
-        <v>12670.304517573537</v>
+        <v>12725.503565404788</v>
       </c>
       <c r="AN26" s="2">
         <f t="shared" si="21"/>
-        <v>12797.007562749272</v>
+        <v>12852.758601058837</v>
       </c>
       <c r="AO26" s="2">
         <f t="shared" si="21"/>
-        <v>12924.977638376764</v>
+        <v>12981.286187069425</v>
       </c>
       <c r="AP26" s="2">
         <f t="shared" si="21"/>
-        <v>13054.227414760531</v>
+        <v>13111.099048940119</v>
       </c>
       <c r="AQ26" s="2">
         <f t="shared" si="21"/>
-        <v>13184.769688908136</v>
+        <v>13242.210039429521</v>
       </c>
       <c r="AR26" s="2">
         <f t="shared" si="21"/>
-        <v>13316.617385797217</v>
+        <v>13374.632139823816</v>
       </c>
       <c r="AS26" s="2">
         <f t="shared" si="21"/>
-        <v>13449.783559655189</v>
+        <v>13508.378461222055</v>
       </c>
       <c r="AT26" s="2">
         <f t="shared" si="21"/>
-        <v>13584.281395251741</v>
+        <v>13643.462245834276</v>
       </c>
     </row>
     <row r="27" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2722,8 +2738,7 @@
         <v>3406</v>
       </c>
       <c r="N27" s="6">
-        <f t="shared" si="20"/>
-        <v>3961</v>
+        <v>3998</v>
       </c>
       <c r="O27" s="6">
         <f t="shared" si="20"/>
@@ -2739,7 +2754,7 @@
       </c>
       <c r="R27" s="6">
         <f t="shared" si="20"/>
-        <v>3961</v>
+        <v>3998</v>
       </c>
       <c r="V27" s="12">
         <v>9818</v>
@@ -2773,63 +2788,63 @@
       </c>
       <c r="AF27" s="12">
         <f>SUM(K27:N27)</f>
-        <v>14660</v>
+        <v>14697</v>
       </c>
       <c r="AG27" s="12">
         <f>SUM(O27:R27)</f>
-        <v>14660</v>
+        <v>14697</v>
       </c>
       <c r="AH27" s="2">
         <f t="shared" ref="AH27:AT27" si="22">+AG27*1.01</f>
-        <v>14806.6</v>
+        <v>14843.97</v>
       </c>
       <c r="AI27" s="2">
         <f t="shared" si="22"/>
-        <v>14954.666000000001</v>
+        <v>14992.4097</v>
       </c>
       <c r="AJ27" s="2">
         <f t="shared" si="22"/>
-        <v>15104.212660000001</v>
+        <v>15142.333797000001</v>
       </c>
       <c r="AK27" s="2">
         <f t="shared" si="22"/>
-        <v>15255.2547866</v>
+        <v>15293.757134970001</v>
       </c>
       <c r="AL27" s="2">
         <f t="shared" si="22"/>
-        <v>15407.807334466001</v>
+        <v>15446.6947063197</v>
       </c>
       <c r="AM27" s="2">
         <f t="shared" si="22"/>
-        <v>15561.885407810661</v>
+        <v>15601.161653382898</v>
       </c>
       <c r="AN27" s="2">
         <f t="shared" si="22"/>
-        <v>15717.504261888767</v>
+        <v>15757.173269916728</v>
       </c>
       <c r="AO27" s="2">
         <f t="shared" si="22"/>
-        <v>15874.679304507656</v>
+        <v>15914.745002615895</v>
       </c>
       <c r="AP27" s="2">
         <f t="shared" si="22"/>
-        <v>16033.426097552732</v>
+        <v>16073.892452642054</v>
       </c>
       <c r="AQ27" s="2">
         <f t="shared" si="22"/>
-        <v>16193.76035852826</v>
+        <v>16234.631377168475</v>
       </c>
       <c r="AR27" s="2">
         <f t="shared" si="22"/>
-        <v>16355.697962113542</v>
+        <v>16396.977690940159</v>
       </c>
       <c r="AS27" s="2">
         <f t="shared" si="22"/>
-        <v>16519.254941734678</v>
+        <v>16560.947467849561</v>
       </c>
       <c r="AT27" s="2">
         <f t="shared" si="22"/>
-        <v>16684.447491152026</v>
+        <v>16726.556942528056</v>
       </c>
     </row>
     <row r="28" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2870,8 +2885,7 @@
         <v>1140</v>
       </c>
       <c r="N28" s="6">
-        <f t="shared" si="20"/>
-        <v>1272</v>
+        <v>1301</v>
       </c>
       <c r="O28" s="6">
         <f t="shared" si="20"/>
@@ -2887,7 +2901,7 @@
       </c>
       <c r="R28" s="6">
         <f t="shared" si="20"/>
-        <v>1272</v>
+        <v>1301</v>
       </c>
       <c r="V28" s="12">
         <v>3758</v>
@@ -2921,63 +2935,63 @@
       </c>
       <c r="AF28" s="12">
         <f>SUM(K28:N28)</f>
-        <v>4534</v>
+        <v>4563</v>
       </c>
       <c r="AG28" s="12">
         <f>SUM(O28:R28)</f>
-        <v>4534</v>
+        <v>4563</v>
       </c>
       <c r="AH28" s="2">
         <f t="shared" ref="AH28:AT28" si="23">+AG28*1.01</f>
-        <v>4579.34</v>
+        <v>4608.63</v>
       </c>
       <c r="AI28" s="2">
         <f t="shared" si="23"/>
-        <v>4625.1334000000006</v>
+        <v>4654.7163</v>
       </c>
       <c r="AJ28" s="2">
         <f t="shared" si="23"/>
-        <v>4671.3847340000011</v>
+        <v>4701.2634630000002</v>
       </c>
       <c r="AK28" s="2">
         <f t="shared" si="23"/>
-        <v>4718.0985813400011</v>
+        <v>4748.2760976300005</v>
       </c>
       <c r="AL28" s="2">
         <f t="shared" si="23"/>
-        <v>4765.2795671534013</v>
+        <v>4795.7588586063002</v>
       </c>
       <c r="AM28" s="2">
         <f t="shared" si="23"/>
-        <v>4812.9323628249358</v>
+        <v>4843.7164471923634</v>
       </c>
       <c r="AN28" s="2">
         <f t="shared" si="23"/>
-        <v>4861.0616864531848</v>
+        <v>4892.1536116642874</v>
       </c>
       <c r="AO28" s="2">
         <f t="shared" si="23"/>
-        <v>4909.6723033177168</v>
+        <v>4941.0751477809299</v>
       </c>
       <c r="AP28" s="2">
         <f t="shared" si="23"/>
-        <v>4958.7690263508939</v>
+        <v>4990.4858992587397</v>
       </c>
       <c r="AQ28" s="2">
         <f t="shared" si="23"/>
-        <v>5008.356716614403</v>
+        <v>5040.3907582513275</v>
       </c>
       <c r="AR28" s="2">
         <f t="shared" si="23"/>
-        <v>5058.4402837805474</v>
+        <v>5090.7946658338406</v>
       </c>
       <c r="AS28" s="2">
         <f t="shared" si="23"/>
-        <v>5109.0246866183525</v>
+        <v>5141.7026124921786</v>
       </c>
       <c r="AT28" s="2">
         <f t="shared" si="23"/>
-        <v>5160.1149334845359</v>
+        <v>5193.1196386171005</v>
       </c>
     </row>
     <row r="29" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3025,128 +3039,128 @@
         <v>7898</v>
       </c>
       <c r="M29" s="6">
-        <f t="shared" ref="M29" si="26">SUM(M26:M28)</f>
+        <f t="shared" ref="M29:N29" si="26">SUM(M26:M28)</f>
         <v>7526</v>
       </c>
       <c r="N29" s="6">
-        <f t="shared" ref="N29" si="27">SUM(N26:N28)</f>
-        <v>8327</v>
+        <f t="shared" si="26"/>
+        <v>8445</v>
       </c>
       <c r="O29" s="6">
-        <f t="shared" ref="O29" si="28">SUM(O26:O28)</f>
+        <f t="shared" ref="O29" si="27">SUM(O26:O28)</f>
         <v>7379</v>
       </c>
       <c r="P29" s="6">
-        <f t="shared" ref="P29" si="29">SUM(P26:P28)</f>
+        <f t="shared" ref="P29" si="28">SUM(P26:P28)</f>
         <v>7898</v>
       </c>
       <c r="Q29" s="6">
-        <f t="shared" ref="Q29" si="30">SUM(Q26:Q28)</f>
+        <f t="shared" ref="Q29" si="29">SUM(Q26:Q28)</f>
         <v>7526</v>
       </c>
       <c r="R29" s="6">
-        <f t="shared" ref="R29" si="31">SUM(R26:R28)</f>
-        <v>8327</v>
+        <f t="shared" ref="R29" si="30">SUM(R26:R28)</f>
+        <v>8445</v>
       </c>
       <c r="V29" s="6">
-        <f t="shared" ref="V29:AE29" si="32">SUM(V26:V28)</f>
+        <f t="shared" ref="V29:AE29" si="31">SUM(V26:V28)</f>
         <v>20160</v>
       </c>
       <c r="W29" s="6">
+        <f t="shared" si="31"/>
+        <v>21991</v>
+      </c>
+      <c r="X29" s="6">
+        <f t="shared" si="31"/>
+        <v>26551</v>
+      </c>
+      <c r="Y29" s="6">
+        <f t="shared" si="31"/>
+        <v>25919</v>
+      </c>
+      <c r="Z29" s="6">
+        <f t="shared" si="31"/>
+        <v>25991</v>
+      </c>
+      <c r="AA29" s="6">
+        <f t="shared" si="31"/>
+        <v>27205</v>
+      </c>
+      <c r="AB29" s="6">
+        <f t="shared" si="31"/>
+        <v>28237</v>
+      </c>
+      <c r="AC29" s="6">
+        <f t="shared" si="31"/>
+        <v>30700</v>
+      </c>
+      <c r="AD29" s="6">
+        <f t="shared" si="31"/>
+        <v>31869</v>
+      </c>
+      <c r="AE29" s="6">
+        <f t="shared" si="31"/>
+        <v>32370</v>
+      </c>
+      <c r="AF29" s="6">
+        <f t="shared" ref="AF29:AG29" si="32">SUM(AF26:AF28)</f>
+        <v>31248</v>
+      </c>
+      <c r="AG29" s="6">
         <f t="shared" si="32"/>
-        <v>21991</v>
-      </c>
-      <c r="X29" s="6">
-        <f t="shared" si="32"/>
-        <v>26551</v>
-      </c>
-      <c r="Y29" s="6">
-        <f t="shared" si="32"/>
-        <v>25919</v>
-      </c>
-      <c r="Z29" s="6">
-        <f t="shared" si="32"/>
-        <v>25991</v>
-      </c>
-      <c r="AA29" s="6">
-        <f t="shared" si="32"/>
-        <v>27205</v>
-      </c>
-      <c r="AB29" s="6">
-        <f t="shared" si="32"/>
-        <v>28237</v>
-      </c>
-      <c r="AC29" s="6">
-        <f t="shared" si="32"/>
-        <v>30700</v>
-      </c>
-      <c r="AD29" s="6">
-        <f t="shared" si="32"/>
-        <v>31869</v>
-      </c>
-      <c r="AE29" s="6">
-        <f t="shared" si="32"/>
-        <v>32370</v>
-      </c>
-      <c r="AF29" s="6">
-        <f t="shared" ref="AF29:AG29" si="33">SUM(AF26:AF28)</f>
-        <v>31130</v>
-      </c>
-      <c r="AG29" s="6">
-        <f t="shared" si="33"/>
-        <v>31130</v>
+        <v>31248</v>
       </c>
       <c r="AH29" s="6">
-        <f t="shared" ref="AH29" si="34">SUM(AH26:AH28)</f>
-        <v>31441.3</v>
+        <f t="shared" ref="AH29" si="33">SUM(AH26:AH28)</f>
+        <v>31560.48</v>
       </c>
       <c r="AI29" s="6">
-        <f t="shared" ref="AI29" si="35">SUM(AI26:AI28)</f>
-        <v>31755.713000000003</v>
+        <f t="shared" ref="AI29" si="34">SUM(AI26:AI28)</f>
+        <v>31876.084799999997</v>
       </c>
       <c r="AJ29" s="6">
-        <f t="shared" ref="AJ29" si="36">SUM(AJ26:AJ28)</f>
-        <v>32073.270130000004</v>
+        <f t="shared" ref="AJ29" si="35">SUM(AJ26:AJ28)</f>
+        <v>32194.845647999999</v>
       </c>
       <c r="AK29" s="6">
-        <f t="shared" ref="AK29" si="37">SUM(AK26:AK28)</f>
-        <v>32394.002831300004</v>
+        <f t="shared" ref="AK29" si="36">SUM(AK26:AK28)</f>
+        <v>32516.794104479999</v>
       </c>
       <c r="AL29" s="6">
-        <f t="shared" ref="AL29" si="38">SUM(AL26:AL28)</f>
-        <v>32717.942859613002</v>
+        <f t="shared" ref="AL29" si="37">SUM(AL26:AL28)</f>
+        <v>32841.9620455248</v>
       </c>
       <c r="AM29" s="6">
-        <f t="shared" ref="AM29" si="39">SUM(AM26:AM28)</f>
-        <v>33045.122288209132</v>
+        <f t="shared" ref="AM29" si="38">SUM(AM26:AM28)</f>
+        <v>33170.38166598005</v>
       </c>
       <c r="AN29" s="6">
-        <f t="shared" ref="AN29" si="40">SUM(AN26:AN28)</f>
-        <v>33375.573511091221</v>
+        <f t="shared" ref="AN29" si="39">SUM(AN26:AN28)</f>
+        <v>33502.08548263985</v>
       </c>
       <c r="AO29" s="6">
-        <f t="shared" ref="AO29" si="41">SUM(AO26:AO28)</f>
-        <v>33709.329246202135</v>
+        <f t="shared" ref="AO29" si="40">SUM(AO26:AO28)</f>
+        <v>33837.106337466248</v>
       </c>
       <c r="AP29" s="6">
-        <f t="shared" ref="AP29" si="42">SUM(AP26:AP28)</f>
-        <v>34046.422538664156</v>
+        <f t="shared" ref="AP29" si="41">SUM(AP26:AP28)</f>
+        <v>34175.477400840915</v>
       </c>
       <c r="AQ29" s="6">
-        <f t="shared" ref="AQ29" si="43">SUM(AQ26:AQ28)</f>
-        <v>34386.886764050803</v>
+        <f t="shared" ref="AQ29" si="42">SUM(AQ26:AQ28)</f>
+        <v>34517.232174849327</v>
       </c>
       <c r="AR29" s="6">
-        <f t="shared" ref="AR29" si="44">SUM(AR26:AR28)</f>
-        <v>34730.755631691303</v>
+        <f t="shared" ref="AR29" si="43">SUM(AR26:AR28)</f>
+        <v>34862.404496597817</v>
       </c>
       <c r="AS29" s="6">
-        <f t="shared" ref="AS29" si="45">SUM(AS26:AS28)</f>
-        <v>35078.063188008222</v>
+        <f t="shared" ref="AS29" si="44">SUM(AS26:AS28)</f>
+        <v>35211.028541563792</v>
       </c>
       <c r="AT29" s="6">
-        <f t="shared" ref="AT29" si="46">SUM(AT26:AT28)</f>
-        <v>35428.843819888309</v>
+        <f t="shared" ref="AT29" si="45">SUM(AT26:AT28)</f>
+        <v>35563.138826979433</v>
       </c>
     </row>
     <row r="30" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3154,168 +3168,168 @@
         <v>26</v>
       </c>
       <c r="C30" s="6">
-        <f t="shared" ref="C30:D30" si="47">C25-C29</f>
+        <f t="shared" ref="C30:D30" si="46">C25-C29</f>
         <v>6334</v>
       </c>
       <c r="D30" s="6">
+        <f t="shared" si="46"/>
+        <v>7969</v>
+      </c>
+      <c r="E30" s="6">
+        <f t="shared" ref="E30:L30" si="47">E25-E29</f>
+        <v>6974</v>
+      </c>
+      <c r="F30" s="6">
         <f t="shared" si="47"/>
-        <v>7969</v>
-      </c>
-      <c r="E30" s="6">
-        <f t="shared" ref="E30:L30" si="48">E25-E29</f>
-        <v>6974</v>
-      </c>
-      <c r="F30" s="6">
+        <v>6609</v>
+      </c>
+      <c r="G30" s="6">
+        <f t="shared" si="47"/>
+        <v>6984</v>
+      </c>
+      <c r="H30" s="6">
+        <f t="shared" si="47"/>
+        <v>8019</v>
+      </c>
+      <c r="I30" s="6">
+        <f t="shared" si="47"/>
+        <v>6784</v>
+      </c>
+      <c r="J30" s="6">
+        <f t="shared" si="47"/>
+        <v>6385</v>
+      </c>
+      <c r="K30" s="6">
+        <f t="shared" si="47"/>
+        <v>5793</v>
+      </c>
+      <c r="L30" s="6">
+        <f t="shared" si="47"/>
+        <v>6026</v>
+      </c>
+      <c r="M30" s="6">
+        <f t="shared" ref="M30:N30" si="48">M25-M29</f>
+        <v>6828</v>
+      </c>
+      <c r="N30" s="6">
         <f t="shared" si="48"/>
-        <v>6609</v>
-      </c>
-      <c r="G30" s="6">
-        <f t="shared" si="48"/>
-        <v>6984</v>
-      </c>
-      <c r="H30" s="6">
-        <f t="shared" si="48"/>
-        <v>8019</v>
-      </c>
-      <c r="I30" s="6">
-        <f t="shared" si="48"/>
-        <v>6784</v>
-      </c>
-      <c r="J30" s="6">
-        <f t="shared" si="48"/>
-        <v>6385</v>
-      </c>
-      <c r="K30" s="6">
-        <f t="shared" si="48"/>
-        <v>5793</v>
-      </c>
-      <c r="L30" s="6">
-        <f t="shared" si="48"/>
-        <v>6026</v>
-      </c>
-      <c r="M30" s="6">
-        <f t="shared" ref="M30" si="49">M25-M29</f>
-        <v>6828</v>
-      </c>
-      <c r="N30" s="6">
-        <f t="shared" ref="N30" si="50">N25-N29</f>
-        <v>5721</v>
+        <v>4190</v>
       </c>
       <c r="O30" s="6">
-        <f t="shared" ref="O30" si="51">O25-O29</f>
+        <f t="shared" ref="O30" si="49">O25-O29</f>
         <v>5588.1576999999997</v>
       </c>
       <c r="P30" s="6">
-        <f t="shared" ref="P30" si="52">P25-P29</f>
+        <f t="shared" ref="P30" si="50">P25-P29</f>
         <v>7243.3948</v>
       </c>
       <c r="Q30" s="6">
-        <f t="shared" ref="Q30" si="53">Q25-Q29</f>
+        <f t="shared" ref="Q30" si="51">Q25-Q29</f>
         <v>6520.9587999999985</v>
       </c>
       <c r="R30" s="6">
-        <f t="shared" ref="R30" si="54">R25-R29</f>
-        <v>5639.7849999999999</v>
+        <f t="shared" ref="R30" si="52">R25-R29</f>
+        <v>4671.6882000000005</v>
       </c>
       <c r="V30" s="6">
-        <f t="shared" ref="V30:AE30" si="55">V25-V29</f>
+        <f t="shared" ref="V30:AE30" si="53">V25-V29</f>
         <v>16472</v>
       </c>
       <c r="W30" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>18438</v>
       </c>
       <c r="X30" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>22271</v>
       </c>
       <c r="Y30" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>20363</v>
       </c>
       <c r="Z30" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>24098</v>
       </c>
       <c r="AA30" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>27161</v>
       </c>
       <c r="AB30" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>27956</v>
       </c>
       <c r="AC30" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>26764</v>
       </c>
       <c r="AD30" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>27886</v>
       </c>
       <c r="AE30" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>28172</v>
       </c>
       <c r="AF30" s="6">
-        <f t="shared" ref="AF30:AG30" si="56">AF25-AF29</f>
-        <v>24368</v>
+        <f t="shared" ref="AF30:AG30" si="54">AF25-AF29</f>
+        <v>22837</v>
       </c>
       <c r="AG30" s="6">
-        <f t="shared" si="56"/>
-        <v>24992.296299999987</v>
+        <f t="shared" si="54"/>
+        <v>24024.199499999988</v>
       </c>
       <c r="AH30" s="6">
-        <f t="shared" ref="AH30" si="57">AH25-AH29</f>
-        <v>26364.665189000003</v>
+        <f t="shared" ref="AH30" si="55">AH25-AH29</f>
+        <v>24817.163489999995</v>
       </c>
       <c r="AI30" s="6">
-        <f t="shared" ref="AI30" si="58">AI25-AI29</f>
-        <v>27784.431144670001</v>
+        <f t="shared" ref="AI30" si="56">AI25-AI29</f>
+        <v>25629.111559799996</v>
       </c>
       <c r="AJ30" s="6">
-        <f t="shared" ref="AJ30" si="59">AJ25-AJ29</f>
-        <v>29253.078339010099</v>
+        <f t="shared" ref="AJ30" si="57">AJ25-AJ29</f>
+        <v>26460.454638995998</v>
       </c>
       <c r="AK30" s="6">
-        <f t="shared" ref="AK30" si="60">AK25-AK29</f>
-        <v>30772.136091780409</v>
+        <f t="shared" ref="AK30" si="58">AK25-AK29</f>
+        <v>27311.612188255913</v>
       </c>
       <c r="AL30" s="6">
-        <f t="shared" ref="AL30" si="61">AL25-AL29</f>
-        <v>32343.180231159822</v>
+        <f t="shared" ref="AL30" si="59">AL25-AL29</f>
+        <v>28183.012373065838</v>
       </c>
       <c r="AM30" s="6">
-        <f t="shared" ref="AM30" si="62">AM25-AM29</f>
-        <v>33967.834495286887</v>
+        <f t="shared" ref="AM30" si="60">AM25-AM29</f>
+        <v>29075.092240982405</v>
       </c>
       <c r="AN30" s="6">
-        <f t="shared" ref="AN30" si="63">AN25-AN29</f>
-        <v>35647.77197590968</v>
+        <f t="shared" ref="AN30" si="61">AN25-AN29</f>
+        <v>29988.297902461854</v>
       </c>
       <c r="AO30" s="6">
-        <f t="shared" ref="AO30" si="64">AO25-AO29</f>
-        <v>37384.716605408787</v>
+        <f t="shared" ref="AO30" si="62">AO25-AO29</f>
+        <v>30923.084715337493</v>
       </c>
       <c r="AP30" s="6">
-        <f t="shared" ref="AP30" si="65">AP25-AP29</f>
-        <v>39180.444688495096</v>
+        <f t="shared" ref="AP30" si="63">AP25-AP29</f>
+        <v>31879.917473018897</v>
       </c>
       <c r="AQ30" s="6">
-        <f t="shared" ref="AQ30" si="66">AQ25-AQ29</f>
-        <v>41036.786479923241</v>
+        <f t="shared" ref="AQ30" si="64">AQ25-AQ29</f>
+        <v>32859.270596487695</v>
       </c>
       <c r="AR30" s="6">
-        <f t="shared" ref="AR30" si="67">AR25-AR29</f>
-        <v>42955.62780960196</v>
+        <f t="shared" ref="AR30" si="65">AR25-AR29</f>
+        <v>33861.62833016595</v>
       </c>
       <c r="AS30" s="6">
-        <f t="shared" ref="AS30" si="68">AS25-AS29</f>
-        <v>44938.911756523841</v>
+        <f t="shared" ref="AS30" si="66">AS25-AS29</f>
+        <v>34887.484941735253</v>
       </c>
       <c r="AT30" s="6">
-        <f t="shared" ref="AT30" si="69">AT25-AT29</f>
-        <v>46988.640372979717</v>
+        <f t="shared" ref="AT30" si="67">AT25-AT29</f>
+        <v>35937.344925985592</v>
       </c>
     </row>
     <row r="31" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3356,24 +3370,23 @@
         <v>-247</v>
       </c>
       <c r="N31" s="6">
-        <f>M31+10</f>
-        <v>-237</v>
+        <v>267</v>
       </c>
       <c r="O31" s="6">
-        <f t="shared" ref="O31:R31" si="70">N31+10</f>
-        <v>-227</v>
+        <f t="shared" ref="O31:R31" si="68">N31+10</f>
+        <v>277</v>
       </c>
       <c r="P31" s="6">
-        <f t="shared" si="70"/>
-        <v>-217</v>
+        <f t="shared" si="68"/>
+        <v>287</v>
       </c>
       <c r="Q31" s="6">
-        <f t="shared" si="70"/>
-        <v>-207</v>
+        <f t="shared" si="68"/>
+        <v>297</v>
       </c>
       <c r="R31" s="6">
-        <f t="shared" si="70"/>
-        <v>-197</v>
+        <f t="shared" si="68"/>
+        <v>307</v>
       </c>
       <c r="V31" s="12">
         <v>1790</v>
@@ -3407,63 +3420,63 @@
       </c>
       <c r="AF31" s="12">
         <f>SUM(K31:N31)</f>
-        <v>-935</v>
+        <v>-431</v>
       </c>
       <c r="AG31" s="12">
         <f>SUM(O31:R31)</f>
-        <v>-848</v>
+        <v>1168</v>
       </c>
       <c r="AH31" s="2">
-        <f t="shared" ref="AH31:AT31" si="71">+AG47*$AW$38</f>
-        <v>560.20200001499995</v>
+        <f t="shared" ref="AH31:AT31" si="69">+AG48*$AW$38</f>
+        <v>564.21840797499999</v>
       </c>
       <c r="AI31" s="2">
-        <f t="shared" si="71"/>
-        <v>667.90146877105985</v>
+        <f t="shared" si="69"/>
+        <v>665.74393556689995</v>
       </c>
       <c r="AJ31" s="2">
-        <f t="shared" si="71"/>
-        <v>781.7107992248242</v>
+        <f t="shared" si="69"/>
+        <v>770.92335754836756</v>
       </c>
       <c r="AK31" s="2">
-        <f t="shared" si="71"/>
-        <v>901.84995577776385</v>
+        <f t="shared" si="69"/>
+        <v>879.84886953454497</v>
       </c>
       <c r="AL31" s="2">
-        <f t="shared" si="71"/>
-        <v>1028.5458999679965</v>
+        <f t="shared" si="69"/>
+        <v>992.61471376570671</v>
       </c>
       <c r="AM31" s="2">
-        <f t="shared" si="71"/>
-        <v>1162.0328044925079</v>
+        <f t="shared" si="69"/>
+        <v>1109.317222113033</v>
       </c>
       <c r="AN31" s="2">
-        <f t="shared" si="71"/>
-        <v>1302.5522736916255</v>
+        <f t="shared" si="69"/>
+        <v>1230.0548599654146</v>
       </c>
       <c r="AO31" s="2">
-        <f t="shared" si="71"/>
-        <v>1450.3535706900309</v>
+        <f t="shared" si="69"/>
+        <v>1354.9282710151238</v>
       </c>
       <c r="AP31" s="2">
-        <f t="shared" si="71"/>
-        <v>1605.693851394426</v>
+        <f t="shared" si="69"/>
+        <v>1484.0403229605342</v>
       </c>
       <c r="AQ31" s="2">
-        <f t="shared" si="71"/>
-        <v>1768.8384055539841</v>
+        <f t="shared" si="69"/>
+        <v>1617.496154144452</v>
       </c>
       <c r="AR31" s="2">
-        <f t="shared" si="71"/>
-        <v>1940.0609050958931</v>
+        <f t="shared" si="69"/>
+        <v>1755.4032211469807</v>
       </c>
       <c r="AS31" s="2">
-        <f t="shared" si="71"/>
-        <v>2119.6436599546842</v>
+        <f t="shared" si="69"/>
+        <v>1897.8713473522323</v>
       </c>
       <c r="AT31" s="2">
-        <f t="shared" si="71"/>
-        <v>2307.8778816205986</v>
+        <f t="shared" si="69"/>
+        <v>2045.0127725085824</v>
       </c>
     </row>
     <row r="32" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3471,168 +3484,168 @@
         <v>31</v>
       </c>
       <c r="C32" s="6">
-        <f t="shared" ref="C32:D32" si="72">+C31+C30</f>
+        <f t="shared" ref="C32:D32" si="70">+C31+C30</f>
         <v>6408</v>
       </c>
       <c r="D32" s="6">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v>7878</v>
       </c>
       <c r="E32" s="6">
-        <f t="shared" ref="E32:M32" si="73">+E31+E30</f>
+        <f t="shared" ref="E32:M32" si="71">+E31+E30</f>
         <v>6957</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v>6704</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v>7036</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v>8093</v>
       </c>
       <c r="I32" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v>6707</v>
       </c>
       <c r="J32" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v>6682</v>
       </c>
       <c r="K32" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v>5513</v>
       </c>
       <c r="L32" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v>5855</v>
       </c>
       <c r="M32" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v>6581</v>
       </c>
       <c r="N32" s="6">
-        <f t="shared" ref="N32" si="74">+N31+N30</f>
-        <v>5484</v>
+        <f t="shared" ref="N32" si="72">+N31+N30</f>
+        <v>4457</v>
       </c>
       <c r="O32" s="6">
-        <f t="shared" ref="O32" si="75">+O31+O30</f>
-        <v>5361.1576999999997</v>
+        <f t="shared" ref="O32" si="73">+O31+O30</f>
+        <v>5865.1576999999997</v>
       </c>
       <c r="P32" s="6">
-        <f t="shared" ref="P32" si="76">+P31+P30</f>
-        <v>7026.3948</v>
+        <f t="shared" ref="P32" si="74">+P31+P30</f>
+        <v>7530.3948</v>
       </c>
       <c r="Q32" s="6">
-        <f t="shared" ref="Q32" si="77">+Q31+Q30</f>
-        <v>6313.9587999999985</v>
+        <f t="shared" ref="Q32" si="75">+Q31+Q30</f>
+        <v>6817.9587999999985</v>
       </c>
       <c r="R32" s="6">
-        <f t="shared" ref="R32" si="78">+R31+R30</f>
-        <v>5442.7849999999999</v>
+        <f t="shared" ref="R32" si="76">+R31+R30</f>
+        <v>4978.6882000000005</v>
       </c>
       <c r="V32" s="6">
-        <f t="shared" ref="V32" si="79">+V31+V30</f>
+        <f t="shared" ref="V32" si="77">+V31+V30</f>
         <v>18262</v>
       </c>
       <c r="W32" s="6">
-        <f t="shared" ref="W32:X32" si="80">+W31+W30</f>
+        <f t="shared" ref="W32:X32" si="78">+W31+W30</f>
         <v>20101</v>
       </c>
       <c r="X32" s="6">
+        <f t="shared" si="78"/>
+        <v>23814</v>
+      </c>
+      <c r="Y32" s="6">
+        <f t="shared" ref="Y32:Z32" si="79">+Y31+Y30</f>
+        <v>19821</v>
+      </c>
+      <c r="Z32" s="6">
+        <f t="shared" si="79"/>
+        <v>25013</v>
+      </c>
+      <c r="AA32" s="6">
+        <f t="shared" ref="AA32:AB32" si="80">+AA31+AA30</f>
+        <v>28071</v>
+      </c>
+      <c r="AB32" s="6">
         <f t="shared" si="80"/>
-        <v>23814</v>
-      </c>
-      <c r="Y32" s="6">
-        <f t="shared" ref="Y32:Z32" si="81">+Y31+Y30</f>
-        <v>19821</v>
-      </c>
-      <c r="Z32" s="6">
+        <v>28460</v>
+      </c>
+      <c r="AC32" s="6">
+        <f t="shared" ref="AC32:AD32" si="81">+AC31+AC30</f>
+        <v>27052</v>
+      </c>
+      <c r="AD32" s="6">
         <f t="shared" si="81"/>
-        <v>25013</v>
-      </c>
-      <c r="AA32" s="6">
-        <f t="shared" ref="AA32:AB32" si="82">+AA31+AA30</f>
-        <v>28071</v>
-      </c>
-      <c r="AB32" s="6">
+        <v>27947</v>
+      </c>
+      <c r="AE32" s="6">
+        <f t="shared" ref="AE32:AF32" si="82">+AE31+AE30</f>
+        <v>28518</v>
+      </c>
+      <c r="AF32" s="6">
         <f t="shared" si="82"/>
-        <v>28460</v>
-      </c>
-      <c r="AC32" s="6">
-        <f t="shared" ref="AC32:AD32" si="83">+AC31+AC30</f>
-        <v>27052</v>
-      </c>
-      <c r="AD32" s="6">
-        <f t="shared" si="83"/>
-        <v>27947</v>
-      </c>
-      <c r="AE32" s="6">
-        <f t="shared" ref="AE32:AF32" si="84">+AE31+AE30</f>
-        <v>28518</v>
-      </c>
-      <c r="AF32" s="6">
-        <f t="shared" si="84"/>
-        <v>23433</v>
+        <v>22406</v>
       </c>
       <c r="AG32" s="6">
-        <f t="shared" ref="AG32" si="85">+AG31+AG30</f>
-        <v>24144.296299999987</v>
+        <f>+AG31+AG30</f>
+        <v>25192.199499999988</v>
       </c>
       <c r="AH32" s="6">
-        <f t="shared" ref="AH32" si="86">+AH31+AH30</f>
-        <v>26924.867189015004</v>
+        <f t="shared" ref="AH32" si="83">+AH31+AH30</f>
+        <v>25381.381897974996</v>
       </c>
       <c r="AI32" s="6">
-        <f t="shared" ref="AI32" si="87">+AI31+AI30</f>
-        <v>28452.33261344106</v>
+        <f t="shared" ref="AI32" si="84">+AI31+AI30</f>
+        <v>26294.855495366897</v>
       </c>
       <c r="AJ32" s="6">
-        <f t="shared" ref="AJ32" si="88">+AJ31+AJ30</f>
-        <v>30034.789138234923</v>
+        <f t="shared" ref="AJ32" si="85">+AJ31+AJ30</f>
+        <v>27231.377996544365</v>
       </c>
       <c r="AK32" s="6">
-        <f t="shared" ref="AK32" si="89">+AK31+AK30</f>
-        <v>31673.986047558174</v>
+        <f t="shared" ref="AK32" si="86">+AK31+AK30</f>
+        <v>28191.461057790457</v>
       </c>
       <c r="AL32" s="6">
-        <f t="shared" ref="AL32" si="90">+AL31+AL30</f>
-        <v>33371.72613112782</v>
+        <f t="shared" ref="AL32" si="87">+AL31+AL30</f>
+        <v>29175.627086831544</v>
       </c>
       <c r="AM32" s="6">
-        <f t="shared" ref="AM32" si="91">+AM31+AM30</f>
-        <v>35129.867299779391</v>
+        <f t="shared" ref="AM32" si="88">+AM31+AM30</f>
+        <v>30184.409463095439</v>
       </c>
       <c r="AN32" s="6">
-        <f t="shared" ref="AN32" si="92">+AN31+AN30</f>
-        <v>36950.324249601304</v>
+        <f t="shared" ref="AN32" si="89">+AN31+AN30</f>
+        <v>31218.352762427268</v>
       </c>
       <c r="AO32" s="6">
-        <f t="shared" ref="AO32" si="93">+AO31+AO30</f>
-        <v>38835.070176098816</v>
+        <f t="shared" ref="AO32" si="90">+AO31+AO30</f>
+        <v>32278.012986352616</v>
       </c>
       <c r="AP32" s="6">
-        <f t="shared" ref="AP32" si="94">+AP31+AP30</f>
-        <v>40786.138539889522</v>
+        <f t="shared" ref="AP32" si="91">+AP31+AP30</f>
+        <v>33363.957795979433</v>
       </c>
       <c r="AQ32" s="6">
-        <f t="shared" ref="AQ32" si="95">+AQ31+AQ30</f>
-        <v>42805.624885477228</v>
+        <f t="shared" ref="AQ32" si="92">+AQ31+AQ30</f>
+        <v>34476.766750632145</v>
       </c>
       <c r="AR32" s="6">
-        <f t="shared" ref="AR32" si="96">+AR31+AR30</f>
-        <v>44895.688714697855</v>
+        <f t="shared" ref="AR32" si="93">+AR31+AR30</f>
+        <v>35617.031551312932</v>
       </c>
       <c r="AS32" s="6">
-        <f t="shared" ref="AS32" si="97">+AS31+AS30</f>
-        <v>47058.555416478528</v>
+        <f t="shared" ref="AS32" si="94">+AS31+AS30</f>
+        <v>36785.356289087482</v>
       </c>
       <c r="AT32" s="6">
-        <f t="shared" ref="AT32" si="98">+AT31+AT30</f>
-        <v>49296.518254600313</v>
+        <f t="shared" ref="AT32" si="95">+AT31+AT30</f>
+        <v>37982.357698494176</v>
       </c>
     </row>
     <row r="33" spans="2:149" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3673,24 +3686,23 @@
         <v>1280</v>
       </c>
       <c r="N33" s="6">
-        <f>+N32*0.22</f>
-        <v>1206.48</v>
+        <v>225</v>
       </c>
       <c r="O33" s="6">
-        <f t="shared" ref="O33:R33" si="99">+O32*0.19</f>
-        <v>1018.619963</v>
+        <f t="shared" ref="O33:R33" si="96">+O32*0.19</f>
+        <v>1114.3799629999999</v>
       </c>
       <c r="P33" s="6">
-        <f t="shared" si="99"/>
-        <v>1335.0150120000001</v>
+        <f t="shared" si="96"/>
+        <v>1430.7750120000001</v>
       </c>
       <c r="Q33" s="6">
-        <f t="shared" si="99"/>
-        <v>1199.6521719999998</v>
+        <f t="shared" si="96"/>
+        <v>1295.4121719999998</v>
       </c>
       <c r="R33" s="6">
-        <f t="shared" si="99"/>
-        <v>1034.12915</v>
+        <f t="shared" si="96"/>
+        <v>945.95075800000006</v>
       </c>
       <c r="V33" s="12">
         <v>5663</v>
@@ -3724,63 +3736,63 @@
       </c>
       <c r="AF33" s="12">
         <f>SUM(K33:N33)</f>
-        <v>4236.4799999999996</v>
+        <v>3255</v>
       </c>
       <c r="AG33" s="12">
         <f>SUM(O33:R33)</f>
-        <v>4587.4162969999998</v>
+        <v>4786.5179049999997</v>
       </c>
       <c r="AH33" s="2">
         <f>+AH32*0.2</f>
-        <v>5384.9734378030007</v>
+        <v>5076.2763795949995</v>
       </c>
       <c r="AI33" s="2">
-        <f t="shared" ref="AI33:AT33" si="100">+AI32*0.2</f>
-        <v>5690.4665226882125</v>
+        <f t="shared" ref="AI33:AT33" si="97">+AI32*0.2</f>
+        <v>5258.9710990733802</v>
       </c>
       <c r="AJ33" s="2">
-        <f t="shared" si="100"/>
-        <v>6006.9578276469847</v>
+        <f t="shared" si="97"/>
+        <v>5446.2755993088731</v>
       </c>
       <c r="AK33" s="2">
-        <f t="shared" si="100"/>
-        <v>6334.7972095116347</v>
+        <f t="shared" si="97"/>
+        <v>5638.2922115580914</v>
       </c>
       <c r="AL33" s="2">
-        <f t="shared" si="100"/>
-        <v>6674.3452262255641</v>
+        <f t="shared" si="97"/>
+        <v>5835.1254173663092</v>
       </c>
       <c r="AM33" s="2">
-        <f t="shared" si="100"/>
-        <v>7025.9734599558788</v>
+        <f t="shared" si="97"/>
+        <v>6036.8818926190879</v>
       </c>
       <c r="AN33" s="2">
-        <f t="shared" si="100"/>
-        <v>7390.0648499202616</v>
+        <f t="shared" si="97"/>
+        <v>6243.6705524854542</v>
       </c>
       <c r="AO33" s="2">
-        <f t="shared" si="100"/>
-        <v>7767.0140352197632</v>
+        <f t="shared" si="97"/>
+        <v>6455.6025972705238</v>
       </c>
       <c r="AP33" s="2">
-        <f t="shared" si="100"/>
-        <v>8157.2277079779051</v>
+        <f t="shared" si="97"/>
+        <v>6672.7915591958872</v>
       </c>
       <c r="AQ33" s="2">
-        <f t="shared" si="100"/>
-        <v>8561.1249770954455</v>
+        <f t="shared" si="97"/>
+        <v>6895.3533501264292</v>
       </c>
       <c r="AR33" s="2">
-        <f t="shared" si="100"/>
-        <v>8979.1377429395707</v>
+        <f t="shared" si="97"/>
+        <v>7123.4063102625869</v>
       </c>
       <c r="AS33" s="2">
-        <f t="shared" si="100"/>
-        <v>9411.711083295706</v>
+        <f t="shared" si="97"/>
+        <v>7357.0712578174971</v>
       </c>
       <c r="AT33" s="2">
-        <f t="shared" si="100"/>
-        <v>9859.3036509200629</v>
+        <f t="shared" si="97"/>
+        <v>7596.4715396988358</v>
       </c>
     </row>
     <row r="34" spans="2:149" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3788,580 +3800,580 @@
         <v>29</v>
       </c>
       <c r="C34" s="9">
-        <f t="shared" ref="C34:D34" si="101">+C32-C33</f>
+        <f t="shared" ref="C34:D34" si="98">+C32-C33</f>
         <v>5244</v>
       </c>
       <c r="D34" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="98"/>
         <v>6558</v>
       </c>
       <c r="E34" s="9">
-        <f t="shared" ref="E34:M34" si="102">+E32-E33</f>
+        <f t="shared" ref="E34:M34" si="99">+E32-E33</f>
         <v>5660</v>
       </c>
       <c r="F34" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="99"/>
         <v>4739</v>
       </c>
       <c r="G34" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="99"/>
         <v>5680</v>
       </c>
       <c r="H34" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="99"/>
         <v>6106</v>
       </c>
       <c r="I34" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="99"/>
         <v>5175</v>
       </c>
       <c r="J34" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="99"/>
         <v>5243</v>
       </c>
       <c r="K34" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="99"/>
         <v>4620</v>
       </c>
       <c r="L34" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="99"/>
         <v>4998</v>
       </c>
       <c r="M34" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="99"/>
         <v>5301</v>
       </c>
       <c r="N34" s="9">
-        <f t="shared" ref="N34" si="103">+N32-N33</f>
-        <v>4277.5200000000004</v>
+        <f t="shared" ref="N34" si="100">+N32-N33</f>
+        <v>4232</v>
       </c>
       <c r="O34" s="9">
-        <f t="shared" ref="O34" si="104">+O32-O33</f>
-        <v>4342.5377369999997</v>
+        <f t="shared" ref="O34" si="101">+O32-O33</f>
+        <v>4750.7777370000003</v>
       </c>
       <c r="P34" s="9">
-        <f t="shared" ref="P34" si="105">+P32-P33</f>
-        <v>5691.3797880000002</v>
+        <f t="shared" ref="P34" si="102">+P32-P33</f>
+        <v>6099.619788</v>
       </c>
       <c r="Q34" s="9">
-        <f t="shared" ref="Q34" si="106">+Q32-Q33</f>
-        <v>5114.3066279999985</v>
+        <f t="shared" ref="Q34" si="103">+Q32-Q33</f>
+        <v>5522.5466279999982</v>
       </c>
       <c r="R34" s="9">
-        <f t="shared" ref="R34" si="107">+R32-R33</f>
-        <v>4408.6558500000001</v>
+        <f t="shared" ref="R34" si="104">+R32-R33</f>
+        <v>4032.7374420000006</v>
       </c>
       <c r="V34" s="9">
-        <f t="shared" ref="V34" si="108">+V32-V33</f>
+        <f t="shared" ref="V34" si="105">+V32-V33</f>
         <v>12599</v>
       </c>
       <c r="W34" s="9">
-        <f t="shared" ref="W34:X34" si="109">+W32-W33</f>
+        <f t="shared" ref="W34:X34" si="106">+W32-W33</f>
         <v>14065</v>
       </c>
       <c r="X34" s="9">
+        <f t="shared" si="106"/>
+        <v>17681</v>
+      </c>
+      <c r="Y34" s="9">
+        <f t="shared" ref="Y34:Z34" si="107">+Y32-Y33</f>
+        <v>14569</v>
+      </c>
+      <c r="Z34" s="9">
+        <f t="shared" si="107"/>
+        <v>18760</v>
+      </c>
+      <c r="AA34" s="9">
+        <f t="shared" ref="AA34:AB34" si="108">+AA32-AA33</f>
+        <v>23150</v>
+      </c>
+      <c r="AB34" s="9">
+        <f t="shared" si="108"/>
+        <v>23171</v>
+      </c>
+      <c r="AC34" s="9">
+        <f t="shared" ref="AC34:AD34" si="109">+AC32-AC33</f>
+        <v>21863</v>
+      </c>
+      <c r="AD34" s="9">
         <f t="shared" si="109"/>
-        <v>17681</v>
-      </c>
-      <c r="Y34" s="9">
-        <f t="shared" ref="Y34:Z34" si="110">+Y32-Y33</f>
-        <v>14569</v>
-      </c>
-      <c r="Z34" s="9">
+        <v>22201</v>
+      </c>
+      <c r="AE34" s="9">
+        <f t="shared" ref="AE34:AF34" si="110">+AE32-AE33</f>
+        <v>22204</v>
+      </c>
+      <c r="AF34" s="9">
         <f t="shared" si="110"/>
-        <v>18760</v>
-      </c>
-      <c r="AA34" s="9">
-        <f t="shared" ref="AA34:AB34" si="111">+AA32-AA33</f>
-        <v>23150</v>
-      </c>
-      <c r="AB34" s="9">
-        <f t="shared" si="111"/>
-        <v>23171</v>
-      </c>
-      <c r="AC34" s="9">
-        <f t="shared" ref="AC34:AD34" si="112">+AC32-AC33</f>
-        <v>21863</v>
-      </c>
-      <c r="AD34" s="9">
-        <f t="shared" si="112"/>
-        <v>22201</v>
-      </c>
-      <c r="AE34" s="9">
-        <f t="shared" ref="AE34:AF34" si="113">+AE32-AE33</f>
-        <v>22204</v>
-      </c>
-      <c r="AF34" s="9">
-        <f t="shared" si="113"/>
-        <v>19196.52</v>
+        <v>19151</v>
       </c>
       <c r="AG34" s="9">
-        <f t="shared" ref="AG34" si="114">+AG32-AG33</f>
-        <v>19556.880002999987</v>
+        <f t="shared" ref="AG34" si="111">+AG32-AG33</f>
+        <v>20405.681594999987</v>
       </c>
       <c r="AH34" s="9">
-        <f t="shared" ref="AH34" si="115">+AH32-AH33</f>
-        <v>21539.893751212003</v>
+        <f t="shared" ref="AH34" si="112">+AH32-AH33</f>
+        <v>20305.105518379998</v>
       </c>
       <c r="AI34" s="9">
-        <f t="shared" ref="AI34" si="116">+AI32-AI33</f>
-        <v>22761.866090752847</v>
+        <f t="shared" ref="AI34" si="113">+AI32-AI33</f>
+        <v>21035.884396293517</v>
       </c>
       <c r="AJ34" s="9">
-        <f t="shared" ref="AJ34" si="117">+AJ32-AJ33</f>
-        <v>24027.831310587939</v>
+        <f t="shared" ref="AJ34" si="114">+AJ32-AJ33</f>
+        <v>21785.102397235492</v>
       </c>
       <c r="AK34" s="9">
-        <f t="shared" ref="AK34" si="118">+AK32-AK33</f>
-        <v>25339.188838046539</v>
+        <f t="shared" ref="AK34" si="115">+AK32-AK33</f>
+        <v>22553.168846232365</v>
       </c>
       <c r="AL34" s="9">
-        <f t="shared" ref="AL34" si="119">+AL32-AL33</f>
-        <v>26697.380904902257</v>
+        <f t="shared" ref="AL34" si="116">+AL32-AL33</f>
+        <v>23340.501669465237</v>
       </c>
       <c r="AM34" s="9">
-        <f t="shared" ref="AM34" si="120">+AM32-AM33</f>
-        <v>28103.893839823511</v>
+        <f t="shared" ref="AM34" si="117">+AM32-AM33</f>
+        <v>24147.527570476352</v>
       </c>
       <c r="AN34" s="9">
-        <f t="shared" ref="AN34" si="121">+AN32-AN33</f>
-        <v>29560.259399681043</v>
+        <f t="shared" ref="AN34" si="118">+AN32-AN33</f>
+        <v>24974.682209941813</v>
       </c>
       <c r="AO34" s="9">
-        <f t="shared" ref="AO34" si="122">+AO32-AO33</f>
-        <v>31068.056140879053</v>
+        <f t="shared" ref="AO34" si="119">+AO32-AO33</f>
+        <v>25822.410389082092</v>
       </c>
       <c r="AP34" s="9">
-        <f t="shared" ref="AP34" si="123">+AP32-AP33</f>
-        <v>32628.910831911617</v>
+        <f t="shared" ref="AP34" si="120">+AP32-AP33</f>
+        <v>26691.166236783545</v>
       </c>
       <c r="AQ34" s="9">
-        <f t="shared" ref="AQ34" si="124">+AQ32-AQ33</f>
-        <v>34244.499908381782</v>
+        <f t="shared" ref="AQ34" si="121">+AQ32-AQ33</f>
+        <v>27581.413400505717</v>
       </c>
       <c r="AR34" s="9">
-        <f t="shared" ref="AR34" si="125">+AR32-AR33</f>
-        <v>35916.550971758283</v>
+        <f t="shared" ref="AR34" si="122">+AR32-AR33</f>
+        <v>28493.625241050344</v>
       </c>
       <c r="AS34" s="9">
-        <f t="shared" ref="AS34" si="126">+AS32-AS33</f>
-        <v>37646.844333182824</v>
+        <f t="shared" ref="AS34" si="123">+AS32-AS33</f>
+        <v>29428.285031269985</v>
       </c>
       <c r="AT34" s="9">
-        <f t="shared" ref="AT34" si="127">+AT32-AT33</f>
-        <v>39437.214603680251</v>
+        <f t="shared" ref="AT34" si="124">+AT32-AT33</f>
+        <v>30385.88615879534</v>
       </c>
       <c r="AU34" s="8">
         <f>AT34*(1+$AW$37)</f>
-        <v>38254.098165569842</v>
+        <v>29474.309574031478</v>
       </c>
       <c r="AV34" s="8">
-        <f t="shared" ref="AV34:DG34" si="128">AU34*(1+$AW$37)</f>
-        <v>37106.475220602748</v>
+        <f t="shared" ref="AV34:DG34" si="125">AU34*(1+$AW$37)</f>
+        <v>28590.080286810535</v>
       </c>
       <c r="AW34" s="8">
-        <f t="shared" si="128"/>
-        <v>35993.280963984667</v>
+        <f t="shared" si="125"/>
+        <v>27732.377878206218</v>
       </c>
       <c r="AX34" s="8">
-        <f t="shared" si="128"/>
-        <v>34913.48253506513</v>
+        <f t="shared" si="125"/>
+        <v>26900.406541860029</v>
       </c>
       <c r="AY34" s="8">
-        <f t="shared" si="128"/>
-        <v>33866.078059013176</v>
+        <f t="shared" si="125"/>
+        <v>26093.394345604229</v>
       </c>
       <c r="AZ34" s="8">
-        <f t="shared" si="128"/>
-        <v>32850.095717242781</v>
+        <f t="shared" si="125"/>
+        <v>25310.592515236101</v>
       </c>
       <c r="BA34" s="8">
-        <f t="shared" si="128"/>
-        <v>31864.592845725496</v>
+        <f t="shared" si="125"/>
+        <v>24551.274739779019</v>
       </c>
       <c r="BB34" s="8">
-        <f t="shared" si="128"/>
-        <v>30908.655060353729</v>
+        <f t="shared" si="125"/>
+        <v>23814.736497585647</v>
       </c>
       <c r="BC34" s="8">
-        <f t="shared" si="128"/>
-        <v>29981.395408543118</v>
+        <f t="shared" si="125"/>
+        <v>23100.294402658077</v>
       </c>
       <c r="BD34" s="8">
-        <f t="shared" si="128"/>
-        <v>29081.953546286823</v>
+        <f t="shared" si="125"/>
+        <v>22407.285570578333</v>
       </c>
       <c r="BE34" s="8">
-        <f t="shared" si="128"/>
-        <v>28209.494939898217</v>
+        <f t="shared" si="125"/>
+        <v>21735.067003460983</v>
       </c>
       <c r="BF34" s="8">
-        <f t="shared" si="128"/>
-        <v>27363.210091701269</v>
+        <f t="shared" si="125"/>
+        <v>21083.014993357152</v>
       </c>
       <c r="BG34" s="8">
-        <f t="shared" si="128"/>
-        <v>26542.313788950229</v>
+        <f t="shared" si="125"/>
+        <v>20450.524543556436</v>
       </c>
       <c r="BH34" s="8">
-        <f t="shared" si="128"/>
-        <v>25746.044375281723</v>
+        <f t="shared" si="125"/>
+        <v>19837.008807249742</v>
       </c>
       <c r="BI34" s="8">
-        <f t="shared" si="128"/>
-        <v>24973.663044023269</v>
+        <f t="shared" si="125"/>
+        <v>19241.89854303225</v>
       </c>
       <c r="BJ34" s="8">
-        <f t="shared" si="128"/>
-        <v>24224.453152702572</v>
+        <f t="shared" si="125"/>
+        <v>18664.641586741283</v>
       </c>
       <c r="BK34" s="8">
-        <f t="shared" si="128"/>
-        <v>23497.719558121495</v>
+        <f t="shared" si="125"/>
+        <v>18104.702339139043</v>
       </c>
       <c r="BL34" s="8">
-        <f t="shared" si="128"/>
-        <v>22792.787971377849</v>
+        <f t="shared" si="125"/>
+        <v>17561.56126896487</v>
       </c>
       <c r="BM34" s="8">
-        <f t="shared" si="128"/>
-        <v>22109.004332236513</v>
+        <f t="shared" si="125"/>
+        <v>17034.714430895921</v>
       </c>
       <c r="BN34" s="8">
-        <f t="shared" si="128"/>
-        <v>21445.734202269417</v>
+        <f t="shared" si="125"/>
+        <v>16523.672997969043</v>
       </c>
       <c r="BO34" s="8">
-        <f t="shared" si="128"/>
-        <v>20802.362176201335</v>
+        <f t="shared" si="125"/>
+        <v>16027.962808029972</v>
       </c>
       <c r="BP34" s="8">
-        <f t="shared" si="128"/>
-        <v>20178.291310915294</v>
+        <f t="shared" si="125"/>
+        <v>15547.123923789071</v>
       </c>
       <c r="BQ34" s="8">
-        <f t="shared" si="128"/>
-        <v>19572.942571587835</v>
+        <f t="shared" si="125"/>
+        <v>15080.710206075399</v>
       </c>
       <c r="BR34" s="8">
-        <f t="shared" si="128"/>
-        <v>18985.754294440201</v>
+        <f t="shared" si="125"/>
+        <v>14628.288899893136</v>
       </c>
       <c r="BS34" s="8">
-        <f t="shared" si="128"/>
-        <v>18416.181665606993</v>
+        <f t="shared" si="125"/>
+        <v>14189.440232896341</v>
       </c>
       <c r="BT34" s="8">
-        <f t="shared" si="128"/>
-        <v>17863.696215638782</v>
+        <f t="shared" si="125"/>
+        <v>13763.75702590945</v>
       </c>
       <c r="BU34" s="8">
-        <f t="shared" si="128"/>
-        <v>17327.785329169619</v>
+        <f t="shared" si="125"/>
+        <v>13350.844315132166</v>
       </c>
       <c r="BV34" s="8">
-        <f t="shared" si="128"/>
-        <v>16807.95176929453</v>
+        <f t="shared" si="125"/>
+        <v>12950.318985678201</v>
       </c>
       <c r="BW34" s="8">
-        <f t="shared" si="128"/>
-        <v>16303.713216215694</v>
+        <f t="shared" si="125"/>
+        <v>12561.809416107855</v>
       </c>
       <c r="BX34" s="8">
-        <f t="shared" si="128"/>
-        <v>15814.601819729223</v>
+        <f t="shared" si="125"/>
+        <v>12184.955133624619</v>
       </c>
       <c r="BY34" s="8">
-        <f t="shared" si="128"/>
-        <v>15340.163765137346</v>
+        <f t="shared" si="125"/>
+        <v>11819.40647961588</v>
       </c>
       <c r="BZ34" s="8">
-        <f t="shared" si="128"/>
-        <v>14879.958852183225</v>
+        <f t="shared" si="125"/>
+        <v>11464.824285227403</v>
       </c>
       <c r="CA34" s="8">
-        <f t="shared" si="128"/>
-        <v>14433.560086617728</v>
+        <f t="shared" si="125"/>
+        <v>11120.879556670581</v>
       </c>
       <c r="CB34" s="8">
-        <f t="shared" si="128"/>
-        <v>14000.553284019195</v>
+        <f t="shared" si="125"/>
+        <v>10787.253169970463</v>
       </c>
       <c r="CC34" s="8">
-        <f t="shared" si="128"/>
-        <v>13580.536685498619</v>
+        <f t="shared" si="125"/>
+        <v>10463.635574871349</v>
       </c>
       <c r="CD34" s="8">
-        <f t="shared" si="128"/>
-        <v>13173.12058493366</v>
+        <f t="shared" si="125"/>
+        <v>10149.726507625208</v>
       </c>
       <c r="CE34" s="8">
-        <f t="shared" si="128"/>
-        <v>12777.926967385651</v>
+        <f t="shared" si="125"/>
+        <v>9845.2347123964519</v>
       </c>
       <c r="CF34" s="8">
-        <f t="shared" si="128"/>
-        <v>12394.589158364081</v>
+        <f t="shared" si="125"/>
+        <v>9549.8776710245584</v>
       </c>
       <c r="CG34" s="8">
-        <f t="shared" si="128"/>
-        <v>12022.751483613158</v>
+        <f t="shared" si="125"/>
+        <v>9263.3813408938222</v>
       </c>
       <c r="CH34" s="8">
-        <f t="shared" si="128"/>
-        <v>11662.068939104762</v>
+        <f t="shared" si="125"/>
+        <v>8985.4799006670073</v>
       </c>
       <c r="CI34" s="8">
-        <f t="shared" si="128"/>
-        <v>11312.206870931619</v>
+        <f t="shared" si="125"/>
+        <v>8715.9155036469965</v>
       </c>
       <c r="CJ34" s="8">
-        <f t="shared" si="128"/>
-        <v>10972.840664803671</v>
+        <f t="shared" si="125"/>
+        <v>8454.4380385375862</v>
       </c>
       <c r="CK34" s="8">
-        <f t="shared" si="128"/>
-        <v>10643.65544485956</v>
+        <f t="shared" si="125"/>
+        <v>8200.8048973814584</v>
       </c>
       <c r="CL34" s="8">
-        <f t="shared" si="128"/>
-        <v>10324.345781513774</v>
+        <f t="shared" si="125"/>
+        <v>7954.7807504600141</v>
       </c>
       <c r="CM34" s="8">
-        <f t="shared" si="128"/>
-        <v>10014.615408068361</v>
+        <f t="shared" si="125"/>
+        <v>7716.1373279462132</v>
       </c>
       <c r="CN34" s="8">
-        <f t="shared" si="128"/>
-        <v>9714.1769458263097</v>
+        <f t="shared" si="125"/>
+        <v>7484.6532081078267</v>
       </c>
       <c r="CO34" s="8">
-        <f t="shared" si="128"/>
-        <v>9422.7516374515199</v>
+        <f t="shared" si="125"/>
+        <v>7260.1136118645918</v>
       </c>
       <c r="CP34" s="8">
-        <f t="shared" si="128"/>
-        <v>9140.0690883279749</v>
+        <f t="shared" si="125"/>
+        <v>7042.310203508654</v>
       </c>
       <c r="CQ34" s="8">
-        <f t="shared" si="128"/>
-        <v>8865.8670156781354</v>
+        <f t="shared" si="125"/>
+        <v>6831.0408974033944</v>
       </c>
       <c r="CR34" s="8">
-        <f t="shared" si="128"/>
-        <v>8599.8910052077917</v>
+        <f t="shared" si="125"/>
+        <v>6626.1096704812926</v>
       </c>
       <c r="CS34" s="8">
-        <f t="shared" si="128"/>
-        <v>8341.894275051558</v>
+        <f t="shared" si="125"/>
+        <v>6427.3263803668533</v>
       </c>
       <c r="CT34" s="8">
-        <f t="shared" si="128"/>
-        <v>8091.6374468000113</v>
+        <f t="shared" si="125"/>
+        <v>6234.5065889558473</v>
       </c>
       <c r="CU34" s="8">
-        <f t="shared" si="128"/>
-        <v>7848.8883233960105</v>
+        <f t="shared" si="125"/>
+        <v>6047.4713912871721</v>
       </c>
       <c r="CV34" s="8">
-        <f t="shared" si="128"/>
-        <v>7613.4216736941298</v>
+        <f t="shared" si="125"/>
+        <v>5866.0472495485565</v>
       </c>
       <c r="CW34" s="8">
-        <f t="shared" si="128"/>
-        <v>7385.0190234833053</v>
+        <f t="shared" si="125"/>
+        <v>5690.0658320620996</v>
       </c>
       <c r="CX34" s="8">
-        <f t="shared" si="128"/>
-        <v>7163.4684527788058</v>
+        <f t="shared" si="125"/>
+        <v>5519.3638571002366</v>
       </c>
       <c r="CY34" s="8">
-        <f t="shared" si="128"/>
-        <v>6948.5643991954412</v>
+        <f t="shared" si="125"/>
+        <v>5353.7829413872296</v>
       </c>
       <c r="CZ34" s="8">
-        <f t="shared" si="128"/>
-        <v>6740.1074672195782</v>
+        <f t="shared" si="125"/>
+        <v>5193.1694531456124</v>
       </c>
       <c r="DA34" s="8">
-        <f t="shared" si="128"/>
-        <v>6537.904243202991</v>
+        <f t="shared" si="125"/>
+        <v>5037.3743695512439</v>
       </c>
       <c r="DB34" s="8">
-        <f t="shared" si="128"/>
-        <v>6341.7671159069014</v>
+        <f t="shared" si="125"/>
+        <v>4886.2531384647064</v>
       </c>
       <c r="DC34" s="8">
-        <f t="shared" si="128"/>
-        <v>6151.5141024296945</v>
+        <f t="shared" si="125"/>
+        <v>4739.6655443107647</v>
       </c>
       <c r="DD34" s="8">
-        <f t="shared" si="128"/>
-        <v>5966.9686793568035</v>
+        <f t="shared" si="125"/>
+        <v>4597.4755779814413</v>
       </c>
       <c r="DE34" s="8">
-        <f t="shared" si="128"/>
-        <v>5787.9596189760996</v>
+        <f t="shared" si="125"/>
+        <v>4459.5513106419976</v>
       </c>
       <c r="DF34" s="8">
-        <f t="shared" si="128"/>
-        <v>5614.3208304068166</v>
+        <f t="shared" si="125"/>
+        <v>4325.7647713227379</v>
       </c>
       <c r="DG34" s="8">
-        <f t="shared" si="128"/>
-        <v>5445.8912054946122</v>
+        <f t="shared" si="125"/>
+        <v>4195.991828183056</v>
       </c>
       <c r="DH34" s="8">
-        <f t="shared" ref="DH34:ES34" si="129">DG34*(1+$AW$37)</f>
-        <v>5282.5144693297734</v>
+        <f t="shared" ref="DH34:ES34" si="126">DG34*(1+$AW$37)</f>
+        <v>4070.1120733375642</v>
       </c>
       <c r="DI34" s="8">
-        <f t="shared" si="129"/>
-        <v>5124.0390352498798</v>
+        <f t="shared" si="126"/>
+        <v>3948.0087111374373</v>
       </c>
       <c r="DJ34" s="8">
-        <f t="shared" si="129"/>
-        <v>4970.3178641923832</v>
+        <f t="shared" si="126"/>
+        <v>3829.5684498033143</v>
       </c>
       <c r="DK34" s="8">
-        <f t="shared" si="129"/>
-        <v>4821.2083282666117</v>
+        <f t="shared" si="126"/>
+        <v>3714.6813963092145</v>
       </c>
       <c r="DL34" s="8">
-        <f t="shared" si="129"/>
-        <v>4676.5720784186133</v>
+        <f t="shared" si="126"/>
+        <v>3603.2409544199381</v>
       </c>
       <c r="DM34" s="8">
-        <f t="shared" si="129"/>
-        <v>4536.2749160660551</v>
+        <f t="shared" si="126"/>
+        <v>3495.1437257873399</v>
       </c>
       <c r="DN34" s="8">
-        <f t="shared" si="129"/>
-        <v>4400.1866685840732</v>
+        <f t="shared" si="126"/>
+        <v>3390.2894140137196</v>
       </c>
       <c r="DO34" s="8">
-        <f t="shared" si="129"/>
-        <v>4268.1810685265509</v>
+        <f t="shared" si="126"/>
+        <v>3288.580731593308</v>
       </c>
       <c r="DP34" s="8">
-        <f t="shared" si="129"/>
-        <v>4140.1356364707544</v>
+        <f t="shared" si="126"/>
+        <v>3189.9233096455087</v>
       </c>
       <c r="DQ34" s="8">
-        <f t="shared" si="129"/>
-        <v>4015.9315673766318</v>
+        <f t="shared" si="126"/>
+        <v>3094.2256103561435</v>
       </c>
       <c r="DR34" s="8">
-        <f t="shared" si="129"/>
-        <v>3895.453620355333</v>
+        <f t="shared" si="126"/>
+        <v>3001.3988420454593</v>
       </c>
       <c r="DS34" s="8">
-        <f t="shared" si="129"/>
-        <v>3778.5900117446731</v>
+        <f t="shared" si="126"/>
+        <v>2911.3568767840957</v>
       </c>
       <c r="DT34" s="8">
-        <f t="shared" si="129"/>
-        <v>3665.232311392333</v>
+        <f t="shared" si="126"/>
+        <v>2824.0161704805728</v>
       </c>
       <c r="DU34" s="8">
-        <f t="shared" si="129"/>
-        <v>3555.2753420505628</v>
+        <f t="shared" si="126"/>
+        <v>2739.2956853661553</v>
       </c>
       <c r="DV34" s="8">
-        <f t="shared" si="129"/>
-        <v>3448.6170817890456</v>
+        <f t="shared" si="126"/>
+        <v>2657.1168148051706</v>
       </c>
       <c r="DW34" s="8">
-        <f t="shared" si="129"/>
-        <v>3345.1585693353741</v>
+        <f t="shared" si="126"/>
+        <v>2577.4033103610154</v>
       </c>
       <c r="DX34" s="8">
-        <f t="shared" si="129"/>
-        <v>3244.8038122553126</v>
+        <f t="shared" si="126"/>
+        <v>2500.0812110501847</v>
       </c>
       <c r="DY34" s="8">
-        <f t="shared" si="129"/>
-        <v>3147.459697887653</v>
+        <f t="shared" si="126"/>
+        <v>2425.0787747186791</v>
       </c>
       <c r="DZ34" s="8">
-        <f t="shared" si="129"/>
-        <v>3053.0359069510232</v>
+        <f t="shared" si="126"/>
+        <v>2352.3264114771187</v>
       </c>
       <c r="EA34" s="8">
-        <f t="shared" si="129"/>
-        <v>2961.4448297424924</v>
+        <f t="shared" si="126"/>
+        <v>2281.7566191328051</v>
       </c>
       <c r="EB34" s="8">
-        <f t="shared" si="129"/>
-        <v>2872.6014848502177</v>
+        <f t="shared" si="126"/>
+        <v>2213.3039205588207</v>
       </c>
       <c r="EC34" s="8">
-        <f t="shared" si="129"/>
-        <v>2786.4234403047112</v>
+        <f t="shared" si="126"/>
+        <v>2146.904802942056</v>
       </c>
       <c r="ED34" s="8">
-        <f t="shared" si="129"/>
-        <v>2702.8307370955699</v>
+        <f t="shared" si="126"/>
+        <v>2082.4976588537943</v>
       </c>
       <c r="EE34" s="8">
-        <f t="shared" si="129"/>
-        <v>2621.7458149827025</v>
+        <f t="shared" si="126"/>
+        <v>2020.0227290881803</v>
       </c>
       <c r="EF34" s="8">
-        <f t="shared" si="129"/>
-        <v>2543.0934405332214</v>
+        <f t="shared" si="126"/>
+        <v>1959.4220472155348</v>
       </c>
       <c r="EG34" s="8">
-        <f t="shared" si="129"/>
-        <v>2466.8006373172248</v>
+        <f t="shared" si="126"/>
+        <v>1900.6393857990688</v>
       </c>
       <c r="EH34" s="8">
-        <f t="shared" si="129"/>
-        <v>2392.7966181977081</v>
+        <f t="shared" si="126"/>
+        <v>1843.6202042250966</v>
       </c>
       <c r="EI34" s="8">
-        <f t="shared" si="129"/>
-        <v>2321.0127196517769</v>
+        <f t="shared" si="126"/>
+        <v>1788.3115980983437</v>
       </c>
       <c r="EJ34" s="8">
-        <f t="shared" si="129"/>
-        <v>2251.3823380622234</v>
+        <f t="shared" si="126"/>
+        <v>1734.6622501553934</v>
       </c>
       <c r="EK34" s="8">
-        <f t="shared" si="129"/>
-        <v>2183.8408679203567</v>
+        <f t="shared" si="126"/>
+        <v>1682.6223826507317</v>
       </c>
       <c r="EL34" s="8">
-        <f t="shared" si="129"/>
-        <v>2118.3256418827459</v>
+        <f t="shared" si="126"/>
+        <v>1632.1437111712096</v>
       </c>
       <c r="EM34" s="8">
-        <f t="shared" si="129"/>
-        <v>2054.7758726262637</v>
+        <f t="shared" si="126"/>
+        <v>1583.1793998360733</v>
       </c>
       <c r="EN34" s="8">
-        <f t="shared" si="129"/>
-        <v>1993.1325964474756</v>
+        <f t="shared" si="126"/>
+        <v>1535.6840178409911</v>
       </c>
       <c r="EO34" s="8">
-        <f t="shared" si="129"/>
-        <v>1933.3386185540512</v>
+        <f t="shared" si="126"/>
+        <v>1489.6134973057615</v>
       </c>
       <c r="EP34" s="8">
-        <f t="shared" si="129"/>
-        <v>1875.3384599974297</v>
+        <f t="shared" si="126"/>
+        <v>1444.9250923865886</v>
       </c>
       <c r="EQ34" s="8">
-        <f t="shared" si="129"/>
-        <v>1819.0783061975067</v>
+        <f t="shared" si="126"/>
+        <v>1401.5773396149909</v>
       </c>
       <c r="ER34" s="8">
-        <f t="shared" si="129"/>
-        <v>1764.5059570115814</v>
+        <f t="shared" si="126"/>
+        <v>1359.5300194265412</v>
       </c>
       <c r="ES34" s="8">
-        <f t="shared" si="129"/>
-        <v>1711.5707783012338</v>
+        <f t="shared" si="126"/>
+        <v>1318.7441188437449</v>
       </c>
     </row>
     <row r="35" spans="2:149" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4369,168 +4381,168 @@
         <v>28</v>
       </c>
       <c r="C35" s="7">
-        <f t="shared" ref="C35:D35" si="130">C34/C36</f>
+        <f t="shared" ref="C35:D35" si="127">C34/C36</f>
         <v>0.62885238038134073</v>
       </c>
       <c r="D35" s="7">
-        <f t="shared" si="130"/>
+        <f t="shared" si="127"/>
         <v>0.78765313475858756</v>
       </c>
       <c r="E35" s="7">
-        <f t="shared" ref="E35:M35" si="131">E34/E36</f>
+        <f t="shared" ref="E35:M35" si="128">E34/E36</f>
         <v>0.6764670730249791</v>
       </c>
       <c r="F35" s="7">
-        <f t="shared" si="131"/>
+        <f t="shared" si="128"/>
         <v>0.56788496105452368</v>
       </c>
       <c r="G35" s="7">
-        <f t="shared" si="131"/>
+        <f t="shared" si="128"/>
         <v>0.68015806490240693</v>
       </c>
       <c r="H35" s="7">
-        <f t="shared" si="131"/>
+        <f t="shared" si="128"/>
         <v>0.73592864890924425</v>
       </c>
       <c r="I35" s="7">
-        <f t="shared" si="131"/>
+        <f t="shared" si="128"/>
         <v>0.62826271700861969</v>
       </c>
       <c r="J35" s="7">
-        <f t="shared" si="131"/>
+        <f t="shared" si="128"/>
         <v>0.65041558119340037</v>
       </c>
       <c r="K35" s="7">
-        <f t="shared" si="131"/>
+        <f t="shared" si="128"/>
         <v>0.57277460947185721</v>
       </c>
       <c r="L35" s="7">
-        <f t="shared" si="131"/>
+        <f t="shared" si="128"/>
         <v>0.62257100149476829</v>
       </c>
       <c r="M35" s="7">
-        <f t="shared" si="131"/>
+        <f t="shared" si="128"/>
         <v>0.66386975579211016</v>
       </c>
       <c r="N35" s="7">
-        <f t="shared" ref="N35" si="132">N34/N36</f>
-        <v>0.53569442705072012</v>
+        <f t="shared" ref="N35" si="129">N34/N36</f>
+        <v>0.53965825044631477</v>
       </c>
       <c r="O35" s="7">
-        <f t="shared" ref="O35" si="133">O34/O36</f>
-        <v>0.54383691133375078</v>
+        <f t="shared" ref="O35" si="130">O34/O36</f>
+        <v>0.60581200420811021</v>
       </c>
       <c r="P35" s="7">
-        <f t="shared" ref="P35" si="134">P34/P36</f>
-        <v>0.71275889643080781</v>
+        <f t="shared" ref="P35" si="131">P34/P36</f>
+        <v>0.7778143060443764</v>
       </c>
       <c r="Q35" s="7">
-        <f t="shared" ref="Q35" si="135">Q34/Q36</f>
-        <v>0.64048924583594224</v>
+        <f t="shared" ref="Q35" si="132">Q34/Q36</f>
+        <v>0.70422680795715353</v>
       </c>
       <c r="R35" s="7">
-        <f t="shared" ref="R35" si="136">R34/R36</f>
-        <v>0.55211720100187855</v>
+        <f t="shared" ref="R35" si="133">R34/R36</f>
+        <v>0.51424858990053568</v>
       </c>
       <c r="V35" s="7">
-        <f t="shared" ref="V35" si="137">V34/V36</f>
+        <f t="shared" ref="V35" si="134">V34/V36</f>
         <v>1.1963726141866868</v>
       </c>
       <c r="W35" s="7">
-        <f t="shared" ref="W35:X35" si="138">W34/W36</f>
+        <f t="shared" ref="W35:X35" si="135">W34/W36</f>
         <v>1.4227189965607931</v>
       </c>
       <c r="X35" s="7">
+        <f t="shared" si="135"/>
+        <v>1.867053854276663</v>
+      </c>
+      <c r="Y35" s="7">
+        <f t="shared" ref="Y35:Z35" si="136">Y34/Y36</f>
+        <v>1.6194975544686527</v>
+      </c>
+      <c r="Z35" s="7">
+        <f t="shared" si="136"/>
+        <v>2.1014898622157498</v>
+      </c>
+      <c r="AA35" s="7">
+        <f t="shared" ref="AA35:AB35" si="137">AA34/AA36</f>
+        <v>2.6940532991970207</v>
+      </c>
+      <c r="AB35" s="7">
+        <f t="shared" si="137"/>
+        <v>2.724077122031507</v>
+      </c>
+      <c r="AC35" s="7">
+        <f t="shared" ref="AC35:AD35" si="138">AC34/AC36</f>
+        <v>2.581227863046045</v>
+      </c>
+      <c r="AD35" s="7">
         <f t="shared" si="138"/>
-        <v>1.867053854276663</v>
-      </c>
-      <c r="Y35" s="7">
-        <f t="shared" ref="Y35:Z35" si="139">Y34/Y36</f>
-        <v>1.6194975544686527</v>
-      </c>
-      <c r="Z35" s="7">
+        <v>2.6432908679604714</v>
+      </c>
+      <c r="AE35" s="7">
+        <f t="shared" ref="AE35:AF35" si="139">AE34/AE36</f>
+        <v>2.6900896535013326</v>
+      </c>
+      <c r="AF35" s="7">
         <f t="shared" si="139"/>
-        <v>2.1014898622157498</v>
-      </c>
-      <c r="AA35" s="7">
-        <f t="shared" ref="AA35:AB35" si="140">AA34/AA36</f>
-        <v>2.6940532991970207</v>
-      </c>
-      <c r="AB35" s="7">
+        <v>2.3997995050280378</v>
+      </c>
+      <c r="AG35" s="7">
+        <f t="shared" ref="AG35:AH35" si="140">AG34/AG36</f>
+        <v>2.6021017081101743</v>
+      </c>
+      <c r="AH35" s="7">
         <f t="shared" si="140"/>
-        <v>2.724077122031507</v>
-      </c>
-      <c r="AC35" s="7">
-        <f t="shared" ref="AC35:AD35" si="141">AC34/AC36</f>
-        <v>2.581227863046045</v>
-      </c>
-      <c r="AD35" s="7">
-        <f t="shared" si="141"/>
-        <v>2.6432908679604714</v>
-      </c>
-      <c r="AE35" s="7">
-        <f t="shared" ref="AE35:AF35" si="142">AE34/AE36</f>
-        <v>2.6900896535013326</v>
-      </c>
-      <c r="AF35" s="7">
-        <f t="shared" si="142"/>
-        <v>2.3947754491017963</v>
-      </c>
-      <c r="AG35" s="7">
-        <f t="shared" ref="AG35:AH35" si="143">AG34/AG36</f>
-        <v>2.4492022546023779</v>
-      </c>
-      <c r="AH35" s="7">
-        <f t="shared" si="143"/>
-        <v>2.6975446150547278</v>
+        <v>2.5892763986712573</v>
       </c>
       <c r="AI35" s="7">
-        <f t="shared" ref="AI35" si="144">AI34/AI36</f>
-        <v>2.8505780952727422</v>
+        <f t="shared" ref="AI35" si="141">AI34/AI36</f>
+        <v>2.6824642178390099</v>
       </c>
       <c r="AJ35" s="7">
-        <f t="shared" ref="AJ35" si="145">AJ34/AJ36</f>
-        <v>3.0091210157279824</v>
+        <f t="shared" ref="AJ35" si="142">AJ34/AJ36</f>
+        <v>2.7780033661356152</v>
       </c>
       <c r="AK35" s="7">
-        <f t="shared" ref="AK35" si="146">AK34/AK36</f>
-        <v>3.1733486334435241</v>
+        <f t="shared" ref="AK35" si="143">AK34/AK36</f>
+        <v>2.8759460400704366</v>
       </c>
       <c r="AL35" s="7">
-        <f t="shared" ref="AL35" si="147">AL34/AL36</f>
-        <v>3.3434415660491243</v>
+        <f t="shared" ref="AL35" si="144">AL34/AL36</f>
+        <v>2.9763455329590967</v>
       </c>
       <c r="AM35" s="7">
-        <f t="shared" ref="AM35" si="148">AM34/AM36</f>
-        <v>3.5195859536410157</v>
+        <f t="shared" ref="AM35" si="145">AM34/AM36</f>
+        <v>3.0792562573930566</v>
       </c>
       <c r="AN35" s="7">
-        <f t="shared" ref="AN35" si="149">AN34/AN36</f>
-        <v>3.7019736255079576</v>
+        <f t="shared" ref="AN35" si="146">AN34/AN36</f>
+        <v>3.1847337681639649</v>
       </c>
       <c r="AO35" s="7">
-        <f t="shared" ref="AO35" si="150">AO34/AO36</f>
-        <v>3.8908022718696373</v>
+        <f t="shared" ref="AO35" si="147">AO34/AO36</f>
+        <v>3.2928347856518863</v>
       </c>
       <c r="AP35" s="7">
-        <f t="shared" ref="AP35" si="151">AP34/AP36</f>
-        <v>4.0862756207779105</v>
+        <f t="shared" ref="AP35" si="148">AP34/AP36</f>
+        <v>3.4036172196867565</v>
       </c>
       <c r="AQ35" s="7">
-        <f t="shared" ref="AQ35" si="152">AQ34/AQ36</f>
-        <v>4.2886036203358522</v>
+        <f t="shared" ref="AQ35" si="149">AQ34/AQ36</f>
+        <v>3.5171401938925935</v>
       </c>
       <c r="AR35" s="7">
-        <f t="shared" ref="AR35" si="153">AR34/AR36</f>
-        <v>4.4980026263942747</v>
+        <f t="shared" ref="AR35" si="150">AR34/AR36</f>
+        <v>3.6334640705241448</v>
       </c>
       <c r="AS35" s="7">
-        <f t="shared" ref="AS35" si="154">AS34/AS36</f>
-        <v>4.7146955958901469</v>
+        <f t="shared" ref="AS35" si="151">AS34/AS36</f>
+        <v>3.7526504758059147</v>
       </c>
       <c r="AT35" s="7">
-        <f t="shared" ref="AT35" si="155">AT34/AT36</f>
-        <v>4.9389122859962749</v>
+        <f t="shared" ref="AT35" si="152">AT34/AT36</f>
+        <v>3.8747623257836445</v>
       </c>
     </row>
     <row r="36" spans="2:149" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4571,24 +4583,23 @@
         <v>7985</v>
       </c>
       <c r="N36" s="6">
-        <f t="shared" ref="N36:R36" si="156">+M36</f>
-        <v>7985</v>
+        <v>7842</v>
       </c>
       <c r="O36" s="6">
-        <f t="shared" si="156"/>
-        <v>7985</v>
+        <f t="shared" ref="O36:R36" si="153">+N36</f>
+        <v>7842</v>
       </c>
       <c r="P36" s="6">
-        <f t="shared" si="156"/>
-        <v>7985</v>
+        <f t="shared" si="153"/>
+        <v>7842</v>
       </c>
       <c r="Q36" s="6">
-        <f t="shared" si="156"/>
-        <v>7985</v>
+        <f t="shared" si="153"/>
+        <v>7842</v>
       </c>
       <c r="R36" s="6">
-        <f t="shared" si="156"/>
-        <v>7985</v>
+        <f t="shared" si="153"/>
+        <v>7842</v>
       </c>
       <c r="V36" s="2">
         <v>10531</v>
@@ -4622,63 +4633,63 @@
       </c>
       <c r="AF36" s="2">
         <f>AVERAGE(K36:N36)</f>
-        <v>8016</v>
+        <v>7980.25</v>
       </c>
       <c r="AG36" s="2">
         <f>AVERAGE(O36:R36)</f>
-        <v>7985</v>
+        <v>7842</v>
       </c>
       <c r="AH36" s="2">
         <f>+AG36</f>
-        <v>7985</v>
+        <v>7842</v>
       </c>
       <c r="AI36" s="2">
-        <f t="shared" ref="AI36:AT36" si="157">+AH36</f>
-        <v>7985</v>
+        <f t="shared" ref="AI36:AT36" si="154">+AH36</f>
+        <v>7842</v>
       </c>
       <c r="AJ36" s="2">
-        <f t="shared" si="157"/>
-        <v>7985</v>
+        <f t="shared" si="154"/>
+        <v>7842</v>
       </c>
       <c r="AK36" s="2">
-        <f t="shared" si="157"/>
-        <v>7985</v>
+        <f t="shared" si="154"/>
+        <v>7842</v>
       </c>
       <c r="AL36" s="2">
-        <f t="shared" si="157"/>
-        <v>7985</v>
+        <f t="shared" si="154"/>
+        <v>7842</v>
       </c>
       <c r="AM36" s="2">
-        <f t="shared" si="157"/>
-        <v>7985</v>
+        <f t="shared" si="154"/>
+        <v>7842</v>
       </c>
       <c r="AN36" s="2">
-        <f t="shared" si="157"/>
-        <v>7985</v>
+        <f t="shared" si="154"/>
+        <v>7842</v>
       </c>
       <c r="AO36" s="2">
-        <f t="shared" si="157"/>
-        <v>7985</v>
+        <f t="shared" si="154"/>
+        <v>7842</v>
       </c>
       <c r="AP36" s="2">
-        <f t="shared" si="157"/>
-        <v>7985</v>
+        <f t="shared" si="154"/>
+        <v>7842</v>
       </c>
       <c r="AQ36" s="2">
-        <f t="shared" si="157"/>
-        <v>7985</v>
+        <f t="shared" si="154"/>
+        <v>7842</v>
       </c>
       <c r="AR36" s="2">
-        <f t="shared" si="157"/>
-        <v>7985</v>
+        <f t="shared" si="154"/>
+        <v>7842</v>
       </c>
       <c r="AS36" s="2">
-        <f t="shared" si="157"/>
-        <v>7985</v>
+        <f t="shared" si="154"/>
+        <v>7842</v>
       </c>
       <c r="AT36" s="2">
-        <f t="shared" si="157"/>
-        <v>7985</v>
+        <f t="shared" si="154"/>
+        <v>7842</v>
       </c>
     </row>
     <row r="37" spans="2:149" x14ac:dyDescent="0.2">
@@ -4727,132 +4738,132 @@
         <v>-0.10102002266717036</v>
       </c>
       <c r="M39" s="14">
-        <f t="shared" ref="M39:R39" si="158">M23/I23-1</f>
+        <f t="shared" ref="M39:R39" si="155">M23/I23-1</f>
         <v>1.5969441759860148E-2</v>
       </c>
       <c r="N39" s="14">
-        <f t="shared" si="158"/>
-        <v>-1.036970243462576E-2</v>
+        <f t="shared" si="155"/>
+        <v>-7.06041478809738E-2</v>
       </c>
       <c r="O39" s="14">
-        <f t="shared" si="158"/>
+        <f t="shared" si="155"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="P39" s="14">
-        <f t="shared" si="158"/>
+        <f t="shared" si="155"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="Q39" s="14">
-        <f t="shared" si="158"/>
+        <f t="shared" si="155"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="R39" s="14">
-        <f t="shared" si="158"/>
+        <f t="shared" si="155"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="U39" s="26">
-        <f t="shared" ref="U39:AF39" si="159">U23/T23-1</f>
+        <f t="shared" ref="U39:AF39" si="156">U23/T23-1</f>
         <v>8.0168318175648068E-2</v>
       </c>
       <c r="V39" s="26">
-        <f t="shared" si="159"/>
+        <f t="shared" si="156"/>
         <v>0.11294862772695291</v>
       </c>
       <c r="W39" s="26">
-        <f t="shared" si="159"/>
+        <f t="shared" si="156"/>
         <v>0.15446456799602548</v>
       </c>
       <c r="X39" s="26">
-        <f t="shared" si="159"/>
+        <f t="shared" si="156"/>
         <v>0.18187864324556946</v>
       </c>
       <c r="Y39" s="26">
-        <f t="shared" si="159"/>
+        <f t="shared" si="156"/>
         <v>-3.2820258192651441E-2</v>
       </c>
       <c r="Z39" s="26">
-        <f t="shared" si="159"/>
+        <f t="shared" si="156"/>
         <v>6.9254068484008391E-2</v>
       </c>
       <c r="AA39" s="26">
-        <f t="shared" si="159"/>
+        <f t="shared" si="156"/>
         <v>0.11937455988733126</v>
       </c>
       <c r="AB39" s="26">
-        <f t="shared" si="159"/>
+        <f t="shared" si="156"/>
         <v>5.4044007263057026E-2</v>
       </c>
       <c r="AC39" s="26">
-        <f t="shared" si="159"/>
+        <f t="shared" si="156"/>
         <v>5.5966252051598442E-2</v>
       </c>
       <c r="AD39" s="26">
-        <f t="shared" si="159"/>
+        <f t="shared" si="156"/>
         <v>0.11540289534868786</v>
       </c>
       <c r="AE39" s="26">
-        <f t="shared" si="159"/>
+        <f t="shared" si="156"/>
         <v>7.7700874091647165E-2</v>
       </c>
       <c r="AF39" s="26">
-        <f t="shared" si="159"/>
-        <v>-5.7480230818551026E-2</v>
+        <f t="shared" si="156"/>
+        <v>-7.1756785637956844E-2</v>
       </c>
       <c r="AG39" s="26">
         <f>AG23/AF23-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AH39" s="26">
-        <f t="shared" ref="AH39:AT39" si="160">AH23/AG23-1</f>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" ref="AH39:AT39" si="157">AH23/AG23-1</f>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="AI39" s="26">
-        <f t="shared" si="160"/>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" si="157"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="AJ39" s="26">
-        <f t="shared" si="160"/>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" si="157"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="AK39" s="26">
-        <f t="shared" si="160"/>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" si="157"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="AL39" s="26">
-        <f t="shared" si="160"/>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" si="157"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="AM39" s="26">
-        <f t="shared" si="160"/>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" si="157"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="AN39" s="26">
-        <f t="shared" si="160"/>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" si="157"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="AO39" s="26">
-        <f t="shared" si="160"/>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" si="157"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="AP39" s="26">
-        <f t="shared" si="160"/>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" si="157"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="AQ39" s="26">
-        <f t="shared" si="160"/>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" si="157"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="AR39" s="26">
-        <f t="shared" si="160"/>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" si="157"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="AS39" s="26">
-        <f t="shared" si="160"/>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" si="157"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="AT39" s="26">
-        <f t="shared" si="160"/>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" si="157"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="AV39" t="s">
         <v>103</v>
@@ -4886,7 +4897,7 @@
       </c>
       <c r="AW40" s="8">
         <f>NPV(AW39,AH34:ES34)+AG34</f>
-        <v>544693.20527731185</v>
+        <v>446359.83586444124</v>
       </c>
     </row>
     <row r="41" spans="2:149" x14ac:dyDescent="0.2">
@@ -4895,7 +4906,7 @@
       </c>
       <c r="AW41" s="2">
         <f>Main!K5-Main!K6</f>
-        <v>73369</v>
+        <v>69984</v>
       </c>
     </row>
     <row r="42" spans="2:149" x14ac:dyDescent="0.2">
@@ -4903,171 +4914,171 @@
         <v>19</v>
       </c>
       <c r="D42" s="5">
-        <f t="shared" ref="D42" si="161">D25/D23</f>
+        <f t="shared" ref="D42" si="158">D25/D23</f>
         <v>0.66213956523512374</v>
       </c>
       <c r="E42" s="5">
-        <f t="shared" ref="E42:L42" si="162">E25/E23</f>
+        <f t="shared" ref="E42:L42" si="159">E25/E23</f>
         <v>0.70700387197961079</v>
       </c>
       <c r="F42" s="5">
+        <f t="shared" si="159"/>
+        <v>0.67355230519202802</v>
+      </c>
+      <c r="G42" s="5">
+        <f t="shared" si="159"/>
+        <v>0.64342054221800782</v>
+      </c>
+      <c r="H42" s="5">
+        <f t="shared" si="159"/>
+        <v>0.61707593502077829</v>
+      </c>
+      <c r="I42" s="5">
+        <f t="shared" si="159"/>
+        <v>0.67044042523816094</v>
+      </c>
+      <c r="J42" s="5">
+        <f t="shared" si="159"/>
+        <v>0.66330027051397655</v>
+      </c>
+      <c r="K42" s="5">
+        <f t="shared" si="159"/>
+        <v>0.6463516364885421</v>
+      </c>
+      <c r="L42" s="5">
+        <f t="shared" si="159"/>
+        <v>0.58514035972432343</v>
+      </c>
+      <c r="M42" s="5">
+        <f t="shared" ref="M42:R42" si="160">M25/M23</f>
+        <v>0.6502083710817177</v>
+      </c>
+      <c r="N42" s="5">
+        <f t="shared" si="160"/>
+        <v>0.61293295818375859</v>
+      </c>
+      <c r="O42" s="5">
+        <f t="shared" si="160"/>
+        <v>0.63</v>
+      </c>
+      <c r="P42" s="5">
+        <f t="shared" si="160"/>
+        <v>0.63</v>
+      </c>
+      <c r="Q42" s="5">
+        <f t="shared" si="160"/>
+        <v>0.63</v>
+      </c>
+      <c r="R42" s="5">
+        <f t="shared" si="160"/>
+        <v>0.63</v>
+      </c>
+      <c r="V42" s="5">
+        <f t="shared" ref="V42" si="161">V25/V23</f>
+        <v>0.82724357526760306</v>
+      </c>
+      <c r="W42" s="5">
+        <f t="shared" ref="W42:X42" si="162">W25/W23</f>
+        <v>0.79083369195258402</v>
+      </c>
+      <c r="X42" s="5">
         <f t="shared" si="162"/>
-        <v>0.67355230519202802</v>
-      </c>
-      <c r="G42" s="5">
-        <f t="shared" si="162"/>
-        <v>0.64342054221800782</v>
-      </c>
-      <c r="H42" s="5">
-        <f t="shared" si="162"/>
-        <v>0.61707593502077829</v>
-      </c>
-      <c r="I42" s="5">
-        <f t="shared" si="162"/>
-        <v>0.67044042523816094</v>
-      </c>
-      <c r="J42" s="5">
-        <f t="shared" si="162"/>
-        <v>0.66330027051397655</v>
-      </c>
-      <c r="K42" s="5">
-        <f t="shared" si="162"/>
-        <v>0.6463516364885421</v>
-      </c>
-      <c r="L42" s="5">
-        <f t="shared" si="162"/>
-        <v>0.58514035972432343</v>
-      </c>
-      <c r="M42" s="5">
-        <f t="shared" ref="M42:R42" si="163">M25/M23</f>
-        <v>0.6502083710817177</v>
-      </c>
-      <c r="N42" s="5">
+        <v>0.80804369414101296</v>
+      </c>
+      <c r="Y42" s="5">
+        <f t="shared" ref="Y42:Z42" si="163">Y25/Y23</f>
+        <v>0.79199822030562828</v>
+      </c>
+      <c r="Z42" s="5">
         <f t="shared" si="163"/>
-        <v>0.64</v>
-      </c>
-      <c r="O42" s="5">
-        <f t="shared" si="163"/>
+        <v>0.80162921707957235</v>
+      </c>
+      <c r="AA42" s="5">
+        <f t="shared" ref="AA42" si="164">AA25/AA23</f>
+        <v>0.77729007906438097</v>
+      </c>
+      <c r="AB42" s="5">
+        <f t="shared" ref="AB42" si="165">AB25/AB23</f>
+        <v>0.76221803236439101</v>
+      </c>
+      <c r="AC42" s="5">
+        <f t="shared" ref="AC42:AE42" si="166">AC25/AC23</f>
+        <v>0.73814692545825888</v>
+      </c>
+      <c r="AD42" s="5">
+        <f t="shared" si="166"/>
+        <v>0.68816003132449644</v>
+      </c>
+      <c r="AE42" s="5">
+        <f t="shared" si="166"/>
+        <v>0.64695447745244705</v>
+      </c>
+      <c r="AF42" s="30">
+        <f t="shared" ref="AF42:AT42" si="167">AF25/AF23</f>
+        <v>0.62263282104414897</v>
+      </c>
+      <c r="AG42" s="5">
+        <f t="shared" si="167"/>
+        <v>0.62999999999999989</v>
+      </c>
+      <c r="AH42" s="5">
+        <f t="shared" si="167"/>
         <v>0.63</v>
       </c>
-      <c r="P42" s="5">
-        <f t="shared" si="163"/>
+      <c r="AI42" s="5">
+        <f t="shared" si="167"/>
         <v>0.63</v>
       </c>
-      <c r="Q42" s="5">
-        <f t="shared" si="163"/>
+      <c r="AJ42" s="5">
+        <f t="shared" si="167"/>
         <v>0.63</v>
       </c>
-      <c r="R42" s="5">
-        <f t="shared" si="163"/>
+      <c r="AK42" s="5">
+        <f t="shared" si="167"/>
         <v>0.63</v>
       </c>
-      <c r="V42" s="5">
-        <f t="shared" ref="V42" si="164">V25/V23</f>
-        <v>0.82724357526760306</v>
-      </c>
-      <c r="W42" s="5">
-        <f t="shared" ref="W42:X42" si="165">W25/W23</f>
-        <v>0.79083369195258402</v>
-      </c>
-      <c r="X42" s="5">
-        <f t="shared" si="165"/>
-        <v>0.80804369414101296</v>
-      </c>
-      <c r="Y42" s="5">
-        <f t="shared" ref="Y42:Z42" si="166">Y25/Y23</f>
-        <v>0.79199822030562828</v>
-      </c>
-      <c r="Z42" s="5">
-        <f t="shared" si="166"/>
-        <v>0.80162921707957235</v>
-      </c>
-      <c r="AA42" s="5">
-        <f t="shared" ref="AA42" si="167">AA25/AA23</f>
-        <v>0.77729007906438097</v>
-      </c>
-      <c r="AB42" s="5">
-        <f t="shared" ref="AB42" si="168">AB25/AB23</f>
-        <v>0.76221803236439101</v>
-      </c>
-      <c r="AC42" s="5">
-        <f t="shared" ref="AC42:AE42" si="169">AC25/AC23</f>
-        <v>0.73814692545825888</v>
-      </c>
-      <c r="AD42" s="5">
-        <f t="shared" si="169"/>
-        <v>0.68816003132449644</v>
-      </c>
-      <c r="AE42" s="5">
-        <f t="shared" si="169"/>
-        <v>0.64695447745244705</v>
-      </c>
-      <c r="AF42" s="30">
-        <f t="shared" ref="AF42:AT42" si="170">AF25/AF23</f>
-        <v>0.6292218909082663</v>
-      </c>
-      <c r="AG42" s="5">
-        <f t="shared" si="170"/>
-        <v>0.62999999999999989</v>
-      </c>
-      <c r="AH42" s="5">
-        <f t="shared" si="170"/>
+      <c r="AL42" s="5">
+        <f t="shared" si="167"/>
         <v>0.63</v>
       </c>
-      <c r="AI42" s="5">
-        <f t="shared" si="170"/>
+      <c r="AM42" s="5">
+        <f t="shared" si="167"/>
         <v>0.63</v>
       </c>
-      <c r="AJ42" s="5">
-        <f t="shared" si="170"/>
+      <c r="AN42" s="5">
+        <f t="shared" si="167"/>
         <v>0.63</v>
       </c>
-      <c r="AK42" s="5">
-        <f t="shared" si="170"/>
+      <c r="AO42" s="5">
+        <f t="shared" si="167"/>
         <v>0.63</v>
       </c>
-      <c r="AL42" s="5">
-        <f t="shared" si="170"/>
+      <c r="AP42" s="5">
+        <f t="shared" si="167"/>
         <v>0.63</v>
       </c>
-      <c r="AM42" s="5">
-        <f t="shared" si="170"/>
+      <c r="AQ42" s="5">
+        <f t="shared" si="167"/>
+        <v>0.63000000000000012</v>
+      </c>
+      <c r="AR42" s="5">
+        <f t="shared" si="167"/>
+        <v>0.63000000000000012</v>
+      </c>
+      <c r="AS42" s="5">
+        <f t="shared" si="167"/>
         <v>0.63</v>
       </c>
-      <c r="AN42" s="5">
-        <f t="shared" si="170"/>
-        <v>0.63</v>
-      </c>
-      <c r="AO42" s="5">
-        <f t="shared" si="170"/>
-        <v>0.63</v>
-      </c>
-      <c r="AP42" s="5">
-        <f t="shared" si="170"/>
-        <v>0.63</v>
-      </c>
-      <c r="AQ42" s="5">
-        <f t="shared" si="170"/>
+      <c r="AT42" s="5">
+        <f t="shared" si="167"/>
         <v>0.63000000000000012</v>
-      </c>
-      <c r="AR42" s="5">
-        <f t="shared" si="170"/>
-        <v>0.63</v>
-      </c>
-      <c r="AS42" s="5">
-        <f t="shared" si="170"/>
-        <v>0.63</v>
-      </c>
-      <c r="AT42" s="5">
-        <f t="shared" si="170"/>
-        <v>0.63</v>
       </c>
       <c r="AV42" s="10" t="s">
         <v>111</v>
       </c>
       <c r="AW42" s="8">
         <f>AW40+AW41</f>
-        <v>618062.20527731185</v>
+        <v>516343.83586444124</v>
       </c>
     </row>
     <row r="43" spans="2:149" x14ac:dyDescent="0.2">
@@ -5075,347 +5086,628 @@
         <v>27</v>
       </c>
       <c r="D43" s="5">
-        <f t="shared" ref="D43" si="171">D30/D23</f>
+        <f t="shared" ref="D43" si="168">D30/D23</f>
         <v>0.32501325502671397</v>
       </c>
       <c r="E43" s="5">
-        <f t="shared" ref="E43:L43" si="172">E30/E23</f>
+        <f t="shared" ref="E43:L43" si="169">E30/E23</f>
         <v>0.34181247855707492</v>
       </c>
       <c r="F43" s="5">
+        <f t="shared" si="169"/>
+        <v>0.28265332306902746</v>
+      </c>
+      <c r="G43" s="5">
+        <f t="shared" si="169"/>
+        <v>0.30102150769363389</v>
+      </c>
+      <c r="H43" s="5">
+        <f t="shared" si="169"/>
+        <v>0.30294673214960333</v>
+      </c>
+      <c r="I43" s="5">
+        <f t="shared" si="169"/>
+        <v>0.31220948962216394</v>
+      </c>
+      <c r="J43" s="5">
+        <f t="shared" si="169"/>
+        <v>0.28787195671776378</v>
+      </c>
+      <c r="K43" s="5">
+        <f t="shared" si="169"/>
+        <v>0.28426321213013395</v>
+      </c>
+      <c r="L43" s="5">
+        <f t="shared" si="169"/>
+        <v>0.253235837955959</v>
+      </c>
+      <c r="M43" s="5">
+        <f t="shared" ref="M43:R43" si="170">M30/M23</f>
+        <v>0.30929516216705927</v>
+      </c>
+      <c r="N43" s="5">
+        <f t="shared" si="170"/>
+        <v>0.20325992044241778</v>
+      </c>
+      <c r="O43" s="5">
+        <f t="shared" si="170"/>
+        <v>0.27149660954613053</v>
+      </c>
+      <c r="P43" s="5">
+        <f t="shared" si="170"/>
+        <v>0.3013816616154808</v>
+      </c>
+      <c r="Q43" s="5">
+        <f t="shared" si="170"/>
+        <v>0.29246216939142722</v>
+      </c>
+      <c r="R43" s="5">
+        <f t="shared" si="170"/>
+        <v>0.22438313094916751</v>
+      </c>
+      <c r="V43" s="27">
+        <f t="shared" ref="V43" si="171">V30/V23</f>
+        <v>0.37197958538458065</v>
+      </c>
+      <c r="W43" s="27">
+        <f t="shared" ref="W43:X43" si="172">W30/W23</f>
+        <v>0.3606666405852666</v>
+      </c>
+      <c r="X43" s="27">
         <f t="shared" si="172"/>
-        <v>0.28265332306902746</v>
-      </c>
-      <c r="G43" s="5">
-        <f t="shared" si="172"/>
-        <v>0.30102150769363389</v>
-      </c>
-      <c r="H43" s="5">
-        <f t="shared" si="172"/>
-        <v>0.30294673214960333</v>
-      </c>
-      <c r="I43" s="5">
-        <f t="shared" si="172"/>
-        <v>0.31220948962216394</v>
-      </c>
-      <c r="J43" s="5">
-        <f t="shared" si="172"/>
-        <v>0.28787195671776378</v>
-      </c>
-      <c r="K43" s="5">
-        <f t="shared" si="172"/>
-        <v>0.28426321213013395</v>
-      </c>
-      <c r="L43" s="5">
-        <f t="shared" si="172"/>
-        <v>0.253235837955959</v>
-      </c>
-      <c r="M43" s="5">
-        <f t="shared" ref="M43:R43" si="173">M30/M23</f>
-        <v>0.30929516216705927</v>
-      </c>
-      <c r="N43" s="5">
+        <v>0.36860311155246606</v>
+      </c>
+      <c r="Y43" s="27">
+        <f t="shared" ref="Y43:Z43" si="173">Y30/Y23</f>
+        <v>0.348460735492924</v>
+      </c>
+      <c r="Z43" s="27">
         <f t="shared" si="173"/>
-        <v>0.26063781321184509</v>
-      </c>
-      <c r="O43" s="5">
-        <f t="shared" si="173"/>
-        <v>0.27149660954613053</v>
-      </c>
-      <c r="P43" s="5">
-        <f t="shared" si="173"/>
-        <v>0.3013816616154808</v>
-      </c>
-      <c r="Q43" s="5">
-        <f t="shared" si="173"/>
-        <v>0.29246216939142722</v>
-      </c>
-      <c r="R43" s="5">
-        <f t="shared" si="173"/>
-        <v>0.25439387446717338</v>
-      </c>
-      <c r="V43" s="27">
-        <f t="shared" ref="V43" si="174">V30/V23</f>
-        <v>0.37197958538458065</v>
-      </c>
-      <c r="W43" s="27">
-        <f t="shared" ref="W43:X43" si="175">W30/W23</f>
-        <v>0.3606666405852666</v>
-      </c>
-      <c r="X43" s="27">
-        <f t="shared" si="175"/>
-        <v>0.36860311155246606</v>
-      </c>
-      <c r="Y43" s="27">
-        <f t="shared" ref="Y43:Z43" si="176">Y30/Y23</f>
-        <v>0.348460735492924</v>
-      </c>
-      <c r="Z43" s="27">
+        <v>0.38566673068305485</v>
+      </c>
+      <c r="AA43" s="27">
+        <f t="shared" ref="AA43" si="174">AA30/AA23</f>
+        <v>0.38833049769097694</v>
+      </c>
+      <c r="AB43" s="27">
+        <f t="shared" ref="AB43" si="175">AB30/AB23</f>
+        <v>0.37920323372624554</v>
+      </c>
+      <c r="AC43" s="27">
+        <f t="shared" ref="AC43:AE43" si="176">AC30/AC23</f>
+        <v>0.34379375457616668</v>
+      </c>
+      <c r="AD43" s="27">
         <f t="shared" si="176"/>
-        <v>0.38566673068305485</v>
-      </c>
-      <c r="AA43" s="27">
-        <f t="shared" ref="AA43" si="177">AA30/AA23</f>
-        <v>0.38833049769097694</v>
-      </c>
-      <c r="AB43" s="27">
-        <f t="shared" ref="AB43" si="178">AB30/AB23</f>
-        <v>0.37920323372624554</v>
-      </c>
-      <c r="AC43" s="27">
-        <f t="shared" ref="AC43:AE43" si="179">AC30/AC23</f>
-        <v>0.34379375457616668</v>
-      </c>
-      <c r="AD43" s="27">
-        <f t="shared" si="179"/>
         <v>0.32114518673776099</v>
       </c>
       <c r="AE43" s="27">
-        <f t="shared" si="179"/>
+        <f t="shared" si="176"/>
         <v>0.30104723231459712</v>
       </c>
       <c r="AF43" s="27">
         <f>AF30/AF23</f>
-        <v>0.27627804673416401</v>
+        <v>0.26290220457031027</v>
       </c>
       <c r="AG43" s="27">
         <f>AG30/AG23</f>
-        <v>0.28055064933257184</v>
+        <v>0.27383107279817936</v>
+      </c>
+      <c r="AH43" s="27">
+        <f>AH30/AH23</f>
+        <v>0.27732292502564831</v>
+      </c>
+      <c r="AI43" s="27">
+        <f t="shared" ref="AI43:AT43" si="177">AI30/AI23</f>
+        <v>0.28078054340774977</v>
+      </c>
+      <c r="AJ43" s="27">
+        <f t="shared" si="177"/>
+        <v>0.28420426357041895</v>
+      </c>
+      <c r="AK43" s="27">
+        <f t="shared" si="177"/>
+        <v>0.28759441784914025</v>
+      </c>
+      <c r="AL43" s="27">
+        <f t="shared" si="177"/>
+        <v>0.29095133532120759</v>
+      </c>
+      <c r="AM43" s="27">
+        <f t="shared" si="177"/>
+        <v>0.29427534183766635</v>
+      </c>
+      <c r="AN43" s="27">
+        <f t="shared" si="177"/>
+        <v>0.29756676005494409</v>
+      </c>
+      <c r="AO43" s="27">
+        <f t="shared" si="177"/>
+        <v>0.30082590946617016</v>
+      </c>
+      <c r="AP43" s="27">
+        <f t="shared" si="177"/>
+        <v>0.30405310643218803</v>
+      </c>
+      <c r="AQ43" s="27">
+        <f t="shared" si="177"/>
+        <v>0.30724866421226471</v>
+      </c>
+      <c r="AR43" s="27">
+        <f t="shared" si="177"/>
+        <v>0.31041289299449742</v>
+      </c>
+      <c r="AS43" s="27">
+        <f t="shared" si="177"/>
+        <v>0.31354609992592397</v>
+      </c>
+      <c r="AT43" s="27">
+        <f t="shared" si="177"/>
+        <v>0.31664858914233646</v>
       </c>
     </row>
     <row r="44" spans="2:149" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" s="5">
+        <f>D34/D23</f>
+        <v>0.26746604673926344</v>
+      </c>
+      <c r="E44" s="5">
+        <f t="shared" ref="E44:R44" si="178">E34/E23</f>
+        <v>0.2774101847767485</v>
+      </c>
+      <c r="F44" s="5">
+        <f t="shared" si="178"/>
+        <v>0.2026772731160722</v>
+      </c>
+      <c r="G44" s="5">
+        <f t="shared" si="178"/>
+        <v>0.24481703374854533</v>
+      </c>
+      <c r="H44" s="5">
+        <f t="shared" si="178"/>
+        <v>0.23067623724971667</v>
+      </c>
+      <c r="I44" s="5">
+        <f t="shared" si="178"/>
+        <v>0.23816098301808644</v>
+      </c>
+      <c r="J44" s="5">
+        <f t="shared" si="178"/>
+        <v>0.23638412984670876</v>
+      </c>
+      <c r="K44" s="5">
+        <f t="shared" si="178"/>
+        <v>0.22670395995878109</v>
+      </c>
+      <c r="L44" s="5">
+        <f t="shared" si="178"/>
+        <v>0.21003530005042864</v>
+      </c>
+      <c r="M44" s="5">
+        <f t="shared" si="178"/>
+        <v>0.24012502264903063</v>
+      </c>
+      <c r="N44" s="5">
+        <f t="shared" si="178"/>
+        <v>0.2052973707189289</v>
+      </c>
+      <c r="O44" s="5">
+        <f t="shared" si="178"/>
+        <v>0.23081310828123885</v>
+      </c>
+      <c r="P44" s="5">
+        <f t="shared" si="178"/>
+        <v>0.25379170923143751</v>
+      </c>
+      <c r="Q44" s="5">
+        <f t="shared" si="178"/>
+        <v>0.24768381720034655</v>
+      </c>
+      <c r="R44" s="5">
+        <f t="shared" si="178"/>
+        <v>0.19369405979018395</v>
+      </c>
+      <c r="V44" s="5">
+        <f t="shared" ref="V44:AT44" si="179">V34/V23</f>
+        <v>0.28451741113770834</v>
+      </c>
+      <c r="W44" s="5">
+        <f t="shared" si="179"/>
+        <v>0.27512616877273971</v>
+      </c>
+      <c r="X44" s="5">
+        <f t="shared" si="179"/>
+        <v>0.29263488910956637</v>
+      </c>
+      <c r="Y44" s="5">
+        <f t="shared" si="179"/>
+        <v>0.24931122405325393</v>
+      </c>
+      <c r="Z44" s="5">
+        <f t="shared" si="179"/>
+        <v>0.30023686063632288</v>
+      </c>
+      <c r="AA44" s="5">
+        <f t="shared" si="179"/>
+        <v>0.3309838010951775</v>
+      </c>
+      <c r="AB44" s="5">
+        <f t="shared" si="179"/>
+        <v>0.31429811592040474</v>
+      </c>
+      <c r="AC44" s="5">
+        <f t="shared" si="179"/>
+        <v>0.28083854641678119</v>
+      </c>
+      <c r="AD44" s="5">
+        <f t="shared" si="179"/>
+        <v>0.2556746858913086</v>
+      </c>
+      <c r="AE44" s="5">
+        <f t="shared" si="179"/>
+        <v>0.23727292156443686</v>
+      </c>
+      <c r="AF44" s="5">
+        <f t="shared" si="179"/>
+        <v>0.22046854314165659</v>
+      </c>
+      <c r="AG44" s="5">
+        <f t="shared" si="179"/>
+        <v>0.23258671667028544</v>
+      </c>
+      <c r="AH44" s="5">
+        <f t="shared" si="179"/>
+        <v>0.2269022911333359</v>
+      </c>
+      <c r="AI44" s="5">
+        <f t="shared" si="179"/>
+        <v>0.23045929774321022</v>
+      </c>
+      <c r="AJ44" s="5">
+        <f t="shared" si="179"/>
+        <v>0.2339876267465148</v>
+      </c>
+      <c r="AK44" s="5">
+        <f t="shared" si="179"/>
+        <v>0.23748746211967073</v>
+      </c>
+      <c r="AL44" s="5">
+        <f t="shared" si="179"/>
+        <v>0.24095898755974765</v>
+      </c>
+      <c r="AM44" s="5">
+        <f t="shared" si="179"/>
+        <v>0.24440238646329049</v>
+      </c>
+      <c r="AN44" s="5">
+        <f t="shared" si="179"/>
+        <v>0.24781784190573036</v>
+      </c>
+      <c r="AO44" s="5">
+        <f t="shared" si="179"/>
+        <v>0.25120553662136552</v>
+      </c>
+      <c r="AP44" s="5">
+        <f t="shared" si="179"/>
+        <v>0.25456565298390227</v>
+      </c>
+      <c r="AQ44" s="5">
+        <f t="shared" si="179"/>
+        <v>0.25789837298754453</v>
+      </c>
+      <c r="AR44" s="5">
+        <f t="shared" si="179"/>
+        <v>0.26120387822862046</v>
+      </c>
+      <c r="AS44" s="5">
+        <f t="shared" si="179"/>
+        <v>0.26448234988773622</v>
+      </c>
+      <c r="AT44" s="5">
+        <f t="shared" si="179"/>
+        <v>0.26773396871244565</v>
+      </c>
+    </row>
+    <row r="45" spans="2:149" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="5">
-        <f t="shared" ref="D44" si="180">D33/D32</f>
+      <c r="D45" s="5">
+        <f t="shared" ref="D45" si="180">D33/D32</f>
         <v>0.16755521706016754</v>
       </c>
-      <c r="E44" s="5">
-        <f t="shared" ref="E44:L44" si="181">E33/E32</f>
+      <c r="E45" s="5">
+        <f t="shared" ref="E45:L45" si="181">E33/E32</f>
         <v>0.18643093287336496</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F45" s="5">
         <f t="shared" si="181"/>
         <v>0.29310859188544153</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G45" s="5">
         <f t="shared" si="181"/>
         <v>0.19272313814667424</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H45" s="5">
         <f t="shared" si="181"/>
         <v>0.24552082046212775</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I45" s="5">
         <f t="shared" si="181"/>
         <v>0.22841807067243178</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J45" s="5">
         <f t="shared" si="181"/>
         <v>0.21535468422627957</v>
       </c>
-      <c r="K44" s="5">
+      <c r="K45" s="5">
         <f t="shared" si="181"/>
         <v>0.16198077271902775</v>
       </c>
-      <c r="L44" s="5">
+      <c r="L45" s="5">
         <f t="shared" si="181"/>
         <v>0.14637062339880444</v>
       </c>
-      <c r="M44" s="5">
-        <f t="shared" ref="M44:R44" si="182">M33/M32</f>
+      <c r="M45" s="5">
+        <f t="shared" ref="M45:R45" si="182">M33/M32</f>
         <v>0.19449931621334143</v>
       </c>
-      <c r="N44" s="5">
+      <c r="N45" s="5">
         <f t="shared" si="182"/>
-        <v>0.22</v>
-      </c>
-      <c r="O44" s="5">
+        <v>5.0482387256001793E-2</v>
+      </c>
+      <c r="O45" s="5">
+        <f t="shared" si="182"/>
+        <v>0.18999999999999997</v>
+      </c>
+      <c r="P45" s="5">
         <f t="shared" si="182"/>
         <v>0.19</v>
       </c>
-      <c r="P44" s="5">
+      <c r="Q45" s="5">
         <f t="shared" si="182"/>
         <v>0.19</v>
       </c>
-      <c r="Q44" s="5">
-        <f t="shared" si="182"/>
-        <v>0.19000000000000003</v>
-      </c>
-      <c r="R44" s="5">
+      <c r="R45" s="5">
         <f t="shared" si="182"/>
         <v>0.19</v>
       </c>
-      <c r="AV44" s="10" t="s">
+      <c r="V45" s="5">
+        <f t="shared" ref="V45:AT45" si="183">V33/V32</f>
+        <v>0.31009747015660938</v>
+      </c>
+      <c r="W45" s="5">
+        <f t="shared" si="183"/>
+        <v>0.30028356798169248</v>
+      </c>
+      <c r="X45" s="5">
+        <f t="shared" si="183"/>
+        <v>0.25753758293440832</v>
+      </c>
+      <c r="Y45" s="5">
+        <f t="shared" si="183"/>
+        <v>0.26497149487916855</v>
+      </c>
+      <c r="Z45" s="5">
+        <f t="shared" si="183"/>
+        <v>0.24999000519729742</v>
+      </c>
+      <c r="AA45" s="5">
+        <f t="shared" si="183"/>
+        <v>0.17530547540166008</v>
+      </c>
+      <c r="AB45" s="5">
+        <f t="shared" si="183"/>
+        <v>0.18583977512297961</v>
+      </c>
+      <c r="AC45" s="5">
+        <f t="shared" si="183"/>
+        <v>0.19181576223569421</v>
+      </c>
+      <c r="AD45" s="5">
+        <f t="shared" si="183"/>
+        <v>0.20560346369914481</v>
+      </c>
+      <c r="AE45" s="5">
+        <f t="shared" si="183"/>
+        <v>0.22140402552773686</v>
+      </c>
+      <c r="AF45" s="5">
+        <f t="shared" si="183"/>
+        <v>0.14527358743193788</v>
+      </c>
+      <c r="AG45" s="5">
+        <f t="shared" si="183"/>
+        <v>0.19000000000000009</v>
+      </c>
+      <c r="AH45" s="5">
+        <f t="shared" si="183"/>
+        <v>0.2</v>
+      </c>
+      <c r="AI45" s="5">
+        <f t="shared" si="183"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="AJ45" s="5">
+        <f t="shared" si="183"/>
+        <v>0.2</v>
+      </c>
+      <c r="AK45" s="5">
+        <f t="shared" si="183"/>
+        <v>0.2</v>
+      </c>
+      <c r="AL45" s="5">
+        <f t="shared" si="183"/>
+        <v>0.2</v>
+      </c>
+      <c r="AM45" s="5">
+        <f t="shared" si="183"/>
+        <v>0.2</v>
+      </c>
+      <c r="AN45" s="5">
+        <f t="shared" si="183"/>
+        <v>0.2</v>
+      </c>
+      <c r="AO45" s="5">
+        <f t="shared" si="183"/>
+        <v>0.2</v>
+      </c>
+      <c r="AP45" s="5">
+        <f t="shared" si="183"/>
+        <v>0.2</v>
+      </c>
+      <c r="AQ45" s="5">
+        <f t="shared" si="183"/>
+        <v>0.2</v>
+      </c>
+      <c r="AR45" s="5">
+        <f t="shared" si="183"/>
+        <v>0.2</v>
+      </c>
+      <c r="AS45" s="5">
+        <f t="shared" si="183"/>
+        <v>0.2</v>
+      </c>
+      <c r="AT45" s="5">
+        <f t="shared" si="183"/>
+        <v>0.2</v>
+      </c>
+      <c r="AV45" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="AW44" s="29">
+      <c r="AW45" s="29">
         <f>AW42/Main!K3</f>
-        <v>78.633868355892091</v>
-      </c>
-    </row>
-    <row r="45" spans="2:149" x14ac:dyDescent="0.2">
-      <c r="AV45" s="10" t="s">
+        <v>65.843386363739</v>
+      </c>
+    </row>
+    <row r="46" spans="2:149" x14ac:dyDescent="0.2">
+      <c r="AV46" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="AW45" s="29">
+      <c r="AW46" s="29">
         <f>Main!K2</f>
         <v>56.53</v>
       </c>
     </row>
-    <row r="47" spans="2:149" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+    <row r="48" spans="2:149" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>35</v>
       </c>
-      <c r="I47" s="9">
-        <f>I48-I59</f>
+      <c r="I48" s="9">
+        <f>I49-I60</f>
         <v>75589</v>
       </c>
-      <c r="J47" s="9">
-        <f>J48-J59</f>
+      <c r="J48" s="9">
+        <f>J49-J60</f>
         <v>73287</v>
       </c>
-      <c r="K47" s="9">
-        <f>K48-K59</f>
+      <c r="K48" s="9">
+        <f>K49-K60</f>
         <v>72226</v>
       </c>
-      <c r="L47" s="9">
-        <f>L48-L59</f>
+      <c r="L48" s="9">
+        <f>L49-L60</f>
         <v>69725</v>
       </c>
-      <c r="M47" s="9">
-        <f>M48-M59</f>
+      <c r="M48" s="9">
+        <f>M49-M60</f>
         <v>70473</v>
       </c>
-      <c r="N47" s="9">
-        <f t="shared" ref="N47:R47" si="183">+M47+N34</f>
-        <v>74750.52</v>
-      </c>
-      <c r="O47" s="9">
-        <f t="shared" si="183"/>
-        <v>79093.05773700001</v>
-      </c>
-      <c r="P47" s="9">
-        <f t="shared" si="183"/>
-        <v>84784.437525000016</v>
-      </c>
-      <c r="Q47" s="9">
-        <f t="shared" si="183"/>
-        <v>89898.744153000007</v>
-      </c>
-      <c r="R47" s="9">
-        <f t="shared" si="183"/>
-        <v>94307.400003000002</v>
-      </c>
-      <c r="AE47" s="2">
-        <f>+AE48-AE59</f>
+      <c r="N48" s="9">
+        <f>N49-N60</f>
+        <v>69984</v>
+      </c>
+      <c r="O48" s="9">
+        <f>+N48+O34</f>
+        <v>74734.777736999997</v>
+      </c>
+      <c r="P48" s="9">
+        <f>+O48+P34</f>
+        <v>80834.397524999993</v>
+      </c>
+      <c r="Q48" s="9">
+        <f>+P48+Q34</f>
+        <v>86356.944152999989</v>
+      </c>
+      <c r="R48" s="9">
+        <f>+Q48+R34</f>
+        <v>90389.681594999987</v>
+      </c>
+      <c r="AE48" s="2">
+        <f>+AE49-AE60</f>
         <v>73287</v>
       </c>
-      <c r="AF47" s="2">
-        <f>+AE47+AF34</f>
-        <v>92483.520000000004</v>
-      </c>
-      <c r="AG47" s="2">
-        <f>+AF47+AG34</f>
-        <v>112040.40000299999</v>
-      </c>
-      <c r="AH47" s="2">
-        <f>+AG47+AH34</f>
-        <v>133580.29375421198</v>
-      </c>
-      <c r="AI47" s="2">
-        <f>+AH47+AI34</f>
-        <v>156342.15984496483</v>
-      </c>
-      <c r="AJ47" s="2">
-        <f t="shared" ref="AJ47:AT47" si="184">+AI47+AJ34</f>
-        <v>180369.99115555277</v>
-      </c>
-      <c r="AK47" s="2">
+      <c r="AF48" s="2">
+        <f>+AE48+AF34</f>
+        <v>92438</v>
+      </c>
+      <c r="AG48" s="2">
+        <f>+AF48+AG34</f>
+        <v>112843.68159499999</v>
+      </c>
+      <c r="AH48" s="2">
+        <f>+AG48+AH34</f>
+        <v>133148.78711337998</v>
+      </c>
+      <c r="AI48" s="2">
+        <f>+AH48+AI34</f>
+        <v>154184.6715096735</v>
+      </c>
+      <c r="AJ48" s="2">
+        <f t="shared" ref="AJ48:AT48" si="184">+AI48+AJ34</f>
+        <v>175969.77390690899</v>
+      </c>
+      <c r="AK48" s="2">
         <f t="shared" si="184"/>
-        <v>205709.1799935993</v>
-      </c>
-      <c r="AL47" s="2">
+        <v>198522.94275314134</v>
+      </c>
+      <c r="AL48" s="2">
         <f t="shared" si="184"/>
-        <v>232406.56089850157</v>
-      </c>
-      <c r="AM47" s="2">
+        <v>221863.44442260658</v>
+      </c>
+      <c r="AM48" s="2">
         <f t="shared" si="184"/>
-        <v>260510.45473832509</v>
-      </c>
-      <c r="AN47" s="2">
+        <v>246010.97199308293</v>
+      </c>
+      <c r="AN48" s="2">
         <f t="shared" si="184"/>
-        <v>290070.71413800615</v>
-      </c>
-      <c r="AO47" s="2">
+        <v>270985.65420302475</v>
+      </c>
+      <c r="AO48" s="2">
         <f t="shared" si="184"/>
-        <v>321138.7702788852</v>
-      </c>
-      <c r="AP47" s="2">
+        <v>296808.06459210685</v>
+      </c>
+      <c r="AP48" s="2">
         <f t="shared" si="184"/>
-        <v>353767.68111079681</v>
-      </c>
-      <c r="AQ47" s="2">
+        <v>323499.2308288904</v>
+      </c>
+      <c r="AQ48" s="2">
         <f t="shared" si="184"/>
-        <v>388012.18101917859</v>
-      </c>
-      <c r="AR47" s="2">
+        <v>351080.64422939613</v>
+      </c>
+      <c r="AR48" s="2">
         <f t="shared" si="184"/>
-        <v>423928.73199093685</v>
-      </c>
-      <c r="AS47" s="2">
+        <v>379574.26947044645</v>
+      </c>
+      <c r="AS48" s="2">
         <f t="shared" si="184"/>
-        <v>461575.5763241197</v>
-      </c>
-      <c r="AT47" s="2">
+        <v>409002.55450171645</v>
+      </c>
+      <c r="AT48" s="2">
         <f t="shared" si="184"/>
-        <v>501012.79092779994</v>
-      </c>
-      <c r="AW47" s="27">
-        <f>AW44/Main!K2-1</f>
-        <v>0.39101129233844123</v>
-      </c>
-    </row>
-    <row r="48" spans="2:149" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6">
-        <f>7414+88024+12019</f>
-        <v>107457</v>
-      </c>
-      <c r="J48" s="6">
-        <f>96526+12053</f>
-        <v>108579</v>
-      </c>
-      <c r="K48" s="6">
-        <f>5431+93924+11438</f>
-        <v>110793</v>
-      </c>
-      <c r="L48" s="6">
-        <f>102640+11514</f>
-        <v>114154</v>
-      </c>
-      <c r="M48" s="6">
-        <f>7170+98382+11315</f>
-        <v>116867</v>
-      </c>
-      <c r="N48" s="6"/>
-      <c r="AE48" s="2">
-        <f>5595+90931+12053</f>
-        <v>108579</v>
+        <v>439388.44066051178</v>
+      </c>
+      <c r="AW48" s="27">
+        <f>AW45/Main!K2-1</f>
+        <v>0.16475121818041738</v>
       </c>
     </row>
     <row r="49" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -5424,28 +5716,37 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6">
-        <v>12427</v>
+        <f>7414+88024+12019</f>
+        <v>107457</v>
       </c>
       <c r="J49" s="6">
-        <v>17908</v>
+        <f>96526+12053</f>
+        <v>108579</v>
       </c>
       <c r="K49" s="6">
-        <v>11444</v>
+        <f>5431+93924+11438</f>
+        <v>110793</v>
       </c>
       <c r="L49" s="6">
-        <v>14507</v>
+        <f>102640+11514</f>
+        <v>114154</v>
       </c>
       <c r="M49" s="6">
-        <v>12247</v>
-      </c>
-      <c r="N49" s="6"/>
+        <f>7170+98382+11315</f>
+        <v>116867</v>
+      </c>
+      <c r="N49" s="6">
+        <f>6510+106730+10431</f>
+        <v>123671</v>
+      </c>
       <c r="AE49" s="2">
-        <v>17908</v>
+        <f>5595+90931+12053</f>
+        <v>108579</v>
       </c>
     </row>
     <row r="50" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -5454,28 +5755,30 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6">
-        <v>2469</v>
+        <v>12427</v>
       </c>
       <c r="J50" s="6">
-        <v>2902</v>
+        <v>17908</v>
       </c>
       <c r="K50" s="6">
-        <v>3816</v>
+        <v>11444</v>
       </c>
       <c r="L50" s="6">
-        <v>2702</v>
+        <v>14507</v>
       </c>
       <c r="M50" s="6">
-        <v>2450</v>
-      </c>
-      <c r="N50" s="6"/>
+        <v>12247</v>
+      </c>
+      <c r="N50" s="6">
+        <v>18277</v>
+      </c>
       <c r="AE50" s="2">
-        <v>2902</v>
+        <v>17908</v>
       </c>
     </row>
     <row r="51" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -5484,28 +5787,30 @@
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6">
-        <v>1688</v>
+        <v>2469</v>
       </c>
       <c r="J51" s="6">
-        <v>1915</v>
+        <v>2902</v>
       </c>
       <c r="K51" s="6">
-        <v>1447</v>
+        <v>3816</v>
       </c>
       <c r="L51" s="6">
-        <v>1618</v>
+        <v>2702</v>
       </c>
       <c r="M51" s="6">
-        <v>1574</v>
-      </c>
-      <c r="N51" s="6"/>
+        <v>2450</v>
+      </c>
+      <c r="N51" s="6">
+        <v>2251</v>
+      </c>
       <c r="AE51" s="2">
-        <v>1915</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="52" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -5514,94 +5819,94 @@
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6">
+        <v>1688</v>
+      </c>
+      <c r="J52" s="6">
+        <v>1915</v>
+      </c>
+      <c r="K52" s="6">
+        <v>1447</v>
+      </c>
+      <c r="L52" s="6">
+        <v>1618</v>
+      </c>
+      <c r="M52" s="6">
+        <v>1574</v>
+      </c>
+      <c r="N52" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="2">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="53" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6">
         <v>6376</v>
       </c>
-      <c r="J52" s="6">
+      <c r="J53" s="6">
         <v>5461</v>
       </c>
-      <c r="K52" s="6">
+      <c r="K53" s="6">
         <v>5594</v>
       </c>
-      <c r="L52" s="6">
+      <c r="L53" s="6">
         <v>6345</v>
       </c>
-      <c r="M52" s="6">
+      <c r="M53" s="6">
         <v>6598</v>
       </c>
-      <c r="N52" s="6"/>
-      <c r="AE52" s="2">
+      <c r="N53" s="6">
+        <v>5892</v>
+      </c>
+      <c r="AE53" s="2">
         <v>5461</v>
-      </c>
-    </row>
-    <row r="53" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13">
-        <v>14375</v>
-      </c>
-      <c r="J53" s="13">
-        <v>14731</v>
-      </c>
-      <c r="K53" s="13">
-        <v>15046</v>
-      </c>
-      <c r="L53" s="13">
-        <v>15789</v>
-      </c>
-      <c r="M53" s="6">
-        <v>16831</v>
-      </c>
-      <c r="N53" s="6"/>
-      <c r="AE53" s="2">
-        <v>14731</v>
       </c>
     </row>
     <row r="54" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6">
-        <f>21728+6963</f>
-        <v>28691</v>
-      </c>
-      <c r="J54" s="6">
-        <f>16939+4835</f>
-        <v>21774</v>
-      </c>
-      <c r="K54" s="6">
-        <f>17142+4745</f>
-        <v>21887</v>
-      </c>
-      <c r="L54" s="6">
-        <f>17436+4619</f>
-        <v>22055</v>
+        <v>40</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13">
+        <v>14375</v>
+      </c>
+      <c r="J54" s="13">
+        <v>14731</v>
+      </c>
+      <c r="K54" s="13">
+        <v>15046</v>
+      </c>
+      <c r="L54" s="13">
+        <v>15789</v>
       </c>
       <c r="M54" s="6">
-        <f>17948+4459</f>
-        <v>22407</v>
-      </c>
-      <c r="N54" s="6"/>
+        <v>16831</v>
+      </c>
+      <c r="N54" s="6">
+        <v>18356</v>
+      </c>
       <c r="AE54" s="2">
-        <f>16939+4835</f>
-        <v>21774</v>
+        <v>14731</v>
       </c>
     </row>
     <row r="55" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -5610,87 +5915,102 @@
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6">
+        <f>21728+6963</f>
+        <v>28691</v>
+      </c>
+      <c r="J55" s="6">
+        <f>16939+4835</f>
+        <v>21774</v>
+      </c>
+      <c r="K55" s="6">
+        <f>17142+4745</f>
+        <v>21887</v>
+      </c>
+      <c r="L55" s="6">
+        <f>17436+4619</f>
+        <v>22055</v>
+      </c>
+      <c r="M55" s="6">
+        <f>17948+4459</f>
+        <v>22407</v>
+      </c>
+      <c r="N55" s="6">
+        <f>17872+3733</f>
+        <v>21605</v>
+      </c>
+      <c r="AE55" s="2">
+        <f>16939+4835</f>
+        <v>21774</v>
+      </c>
+    </row>
+    <row r="56" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6">
         <v>3200</v>
       </c>
-      <c r="J55" s="6">
+      <c r="J56" s="6">
         <v>2953</v>
       </c>
-      <c r="K55" s="6">
+      <c r="K56" s="6">
         <v>2869</v>
       </c>
-      <c r="L55" s="6">
+      <c r="L56" s="6">
         <v>2928</v>
       </c>
-      <c r="M55" s="6">
+      <c r="M56" s="6">
         <v>2895</v>
       </c>
-      <c r="N55" s="6"/>
-      <c r="AE55" s="2">
+      <c r="N56" s="6">
+        <v>3642</v>
+      </c>
+      <c r="AE56" s="2">
         <v>2953</v>
       </c>
     </row>
-    <row r="56" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B56" s="12" t="s">
+    <row r="57" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B57" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="I56" s="6">
-        <f>SUM(I48:I55)</f>
+      <c r="I57" s="6">
+        <f>SUM(I49:I56)</f>
         <v>176683</v>
       </c>
-      <c r="J56" s="6">
-        <f>SUM(J48:J55)</f>
+      <c r="J57" s="6">
+        <f>SUM(J49:J56)</f>
         <v>176223</v>
       </c>
-      <c r="K56" s="6">
-        <f>SUM(K48:K55)</f>
+      <c r="K57" s="6">
+        <f>SUM(K49:K56)</f>
         <v>172896</v>
       </c>
-      <c r="L56" s="6">
-        <f>SUM(L48:L55)</f>
+      <c r="L57" s="6">
+        <f>SUM(L49:L56)</f>
         <v>180098</v>
       </c>
-      <c r="M56" s="6">
-        <f>SUM(M48:M55)</f>
+      <c r="M57" s="6">
+        <f>SUM(M49:M56)</f>
         <v>181869</v>
       </c>
-      <c r="AE56" s="6">
-        <f>SUM(AE48:AE55)</f>
+      <c r="N57" s="6">
+        <f>SUM(N49:N56)</f>
+        <v>193694</v>
+      </c>
+      <c r="AE57" s="6">
+        <f>SUM(AE49:AE56)</f>
         <v>176223</v>
-      </c>
-    </row>
-    <row r="58" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6">
-        <v>6690</v>
-      </c>
-      <c r="J58" s="6">
-        <v>6591</v>
-      </c>
-      <c r="K58" s="6">
-        <v>6630</v>
-      </c>
-      <c r="L58" s="6">
-        <v>6936</v>
-      </c>
-      <c r="M58" s="6">
-        <v>6759</v>
-      </c>
-      <c r="N58" s="6"/>
-      <c r="AE58" s="2">
-        <v>6591</v>
       </c>
     </row>
     <row r="59" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -5699,34 +6019,30 @@
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6">
-        <f>1725+2499+27644</f>
-        <v>31868</v>
+        <v>6690</v>
       </c>
       <c r="J59" s="6">
-        <f>4985+27808+2499</f>
-        <v>35292</v>
+        <v>6591</v>
       </c>
       <c r="K59" s="6">
-        <f>9998+27819+750</f>
-        <v>38567</v>
+        <v>6630</v>
       </c>
       <c r="L59" s="6">
-        <f>3750+40679</f>
-        <v>44429</v>
+        <v>6936</v>
       </c>
       <c r="M59" s="6">
-        <f>40896+5498</f>
-        <v>46394</v>
-      </c>
-      <c r="N59" s="6"/>
+        <v>6759</v>
+      </c>
+      <c r="N59" s="6">
+        <v>6898</v>
+      </c>
       <c r="AE59" s="2">
-        <f>4985+2499+27808</f>
-        <v>35292</v>
+        <v>6591</v>
       </c>
     </row>
     <row r="60" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -5735,28 +6051,37 @@
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6">
-        <v>3902</v>
+        <f>1725+2499+27644</f>
+        <v>31868</v>
       </c>
       <c r="J60" s="6">
-        <v>5096</v>
+        <f>4985+27808+2499</f>
+        <v>35292</v>
       </c>
       <c r="K60" s="6">
-        <v>3450</v>
+        <f>9998+27819+750</f>
+        <v>38567</v>
       </c>
       <c r="L60" s="6">
-        <v>3649</v>
+        <f>3750+40679</f>
+        <v>44429</v>
       </c>
       <c r="M60" s="6">
-        <v>4276</v>
-      </c>
-      <c r="N60" s="6"/>
+        <f>40896+5498</f>
+        <v>46394</v>
+      </c>
+      <c r="N60" s="6">
+        <f>12904+0+40783</f>
+        <v>53687</v>
+      </c>
       <c r="AE60" s="2">
-        <v>5096</v>
+        <f>4985+2499+27808</f>
+        <v>35292</v>
       </c>
     </row>
     <row r="61" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -5765,28 +6090,30 @@
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6">
-        <v>758</v>
+        <v>3902</v>
       </c>
       <c r="J61" s="6">
-        <v>606</v>
+        <v>5096</v>
       </c>
       <c r="K61" s="6">
-        <v>607</v>
+        <v>3450</v>
       </c>
       <c r="L61" s="6">
-        <v>493</v>
+        <v>3649</v>
       </c>
       <c r="M61" s="6">
-        <v>685</v>
-      </c>
-      <c r="N61" s="6"/>
+        <v>4276</v>
+      </c>
+      <c r="N61" s="6">
+        <v>5264</v>
+      </c>
       <c r="AE61" s="2">
-        <v>606</v>
+        <v>5096</v>
       </c>
     </row>
     <row r="62" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -5795,34 +6122,30 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6">
-        <f>18232+1966</f>
-        <v>20198</v>
+        <v>758</v>
       </c>
       <c r="J62" s="6">
-        <f>23223+2095</f>
-        <v>25318</v>
+        <v>606</v>
       </c>
       <c r="K62" s="6">
-        <f>21603+2784</f>
-        <v>24387</v>
+        <v>607</v>
       </c>
       <c r="L62" s="6">
-        <f>20929+4102</f>
-        <v>25031</v>
+        <v>493</v>
       </c>
       <c r="M62" s="6">
-        <f>20876+5017</f>
-        <v>25893</v>
-      </c>
-      <c r="N62" s="6"/>
+        <v>685</v>
+      </c>
+      <c r="N62" s="6">
+        <v>580</v>
+      </c>
       <c r="AE62" s="2">
-        <f>23223+2095</f>
-        <v>25318</v>
+        <v>606</v>
       </c>
     </row>
     <row r="63" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -5831,28 +6154,37 @@
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="I63" s="6">
-        <v>96</v>
+        <f>18232+1966</f>
+        <v>20198</v>
       </c>
       <c r="J63" s="6">
-        <v>92</v>
+        <f>23223+2095</f>
+        <v>25318</v>
       </c>
       <c r="K63" s="6">
-        <v>154</v>
+        <f>21603+2784</f>
+        <v>24387</v>
       </c>
       <c r="L63" s="6">
-        <v>439</v>
+        <f>20929+4102</f>
+        <v>25031</v>
       </c>
       <c r="M63" s="6">
-        <v>373</v>
-      </c>
-      <c r="N63" s="6"/>
+        <f>20876+5017</f>
+        <v>25893</v>
+      </c>
+      <c r="N63" s="6">
+        <f>27468+6441</f>
+        <v>33909</v>
+      </c>
       <c r="AE63" s="2">
-        <v>92</v>
+        <f>23223+2095</f>
+        <v>25318</v>
       </c>
     </row>
     <row r="64" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -5861,28 +6193,30 @@
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6">
-        <v>6846</v>
+        <v>96</v>
       </c>
       <c r="J64" s="6">
-        <v>6766</v>
+        <v>92</v>
       </c>
       <c r="K64" s="6">
-        <v>6207</v>
+        <v>154</v>
       </c>
       <c r="L64" s="6">
-        <v>6447</v>
+        <v>439</v>
       </c>
       <c r="M64" s="6">
-        <v>5887</v>
-      </c>
-      <c r="N64" s="6"/>
+        <v>373</v>
+      </c>
+      <c r="N64" s="6">
+        <v>294</v>
+      </c>
       <c r="AE64" s="2">
-        <v>6766</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -5891,28 +6225,31 @@
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6">
-        <v>2919</v>
+        <v>6846</v>
       </c>
       <c r="J65" s="6">
-        <v>2835</v>
+        <v>6766</v>
       </c>
       <c r="K65" s="6">
-        <v>2169</v>
+        <v>6207</v>
       </c>
       <c r="L65" s="6">
-        <v>2194</v>
+        <v>6447</v>
       </c>
       <c r="M65" s="6">
-        <v>2674</v>
-      </c>
-      <c r="N65" s="6"/>
+        <v>5887</v>
+      </c>
+      <c r="N65" s="6">
+        <f>193694-187745</f>
+        <v>5949</v>
+      </c>
       <c r="AE65" s="2">
-        <v>2835</v>
+        <v>6766</v>
       </c>
     </row>
     <row r="66" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -5921,28 +6258,30 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6">
-        <v>13274</v>
+        <v>2919</v>
       </c>
       <c r="J66" s="6">
-        <v>13544</v>
+        <v>2835</v>
       </c>
       <c r="K66" s="6">
-        <v>13280</v>
+        <v>2169</v>
       </c>
       <c r="L66" s="6">
-        <v>13700</v>
+        <v>2194</v>
       </c>
       <c r="M66" s="6">
-        <v>14122</v>
-      </c>
-      <c r="N66" s="6"/>
+        <v>2674</v>
+      </c>
+      <c r="N66" s="6">
+        <v>696</v>
+      </c>
       <c r="AE66" s="2">
-        <v>13544</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="67" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -5951,28 +6290,30 @@
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6">
-        <v>90132</v>
+        <v>13274</v>
       </c>
       <c r="J67" s="6">
-        <v>80083</v>
+        <v>13544</v>
       </c>
       <c r="K67" s="6">
-        <v>77445</v>
+        <v>13280</v>
       </c>
       <c r="L67" s="6">
-        <v>76780</v>
+        <v>13700</v>
       </c>
       <c r="M67" s="6">
-        <v>74806</v>
-      </c>
-      <c r="N67" s="6"/>
+        <v>14122</v>
+      </c>
+      <c r="N67" s="6">
+        <v>14420</v>
+      </c>
       <c r="AE67" s="2">
-        <v>80083</v>
+        <v>13544</v>
       </c>
     </row>
     <row r="68" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -5981,93 +6322,104 @@
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6">
-        <f>SUM(I58:I67)</f>
+        <v>90132</v>
+      </c>
+      <c r="J68" s="6">
+        <v>80083</v>
+      </c>
+      <c r="K68" s="6">
+        <v>77445</v>
+      </c>
+      <c r="L68" s="6">
+        <v>76780</v>
+      </c>
+      <c r="M68" s="6">
+        <v>74806</v>
+      </c>
+      <c r="N68" s="6">
+        <v>71997</v>
+      </c>
+      <c r="AE68" s="2">
+        <v>80083</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6">
+        <f>SUM(I59:I68)</f>
         <v>176683</v>
       </c>
-      <c r="J68" s="6">
-        <f>SUM(J58:J67)</f>
+      <c r="J69" s="6">
+        <f>SUM(J59:J68)</f>
         <v>176223</v>
       </c>
-      <c r="K68" s="6">
-        <f>SUM(K58:K67)</f>
+      <c r="K69" s="6">
+        <f>SUM(K59:K68)</f>
         <v>172896</v>
       </c>
-      <c r="L68" s="6">
-        <f>SUM(L58:L67)</f>
+      <c r="L69" s="6">
+        <f>SUM(L59:L68)</f>
         <v>180098</v>
       </c>
-      <c r="M68" s="6">
-        <f>SUM(M58:M67)</f>
+      <c r="M69" s="6">
+        <f>SUM(M59:M68)</f>
         <v>181869</v>
       </c>
-      <c r="N68" s="6"/>
-      <c r="AE68" s="2">
-        <f>SUM(AE58:AE67)</f>
+      <c r="N69" s="6">
+        <f>SUM(N59:N68)</f>
+        <v>193694</v>
+      </c>
+      <c r="AE69" s="2">
+        <f>SUM(AE59:AE68)</f>
         <v>176223</v>
       </c>
     </row>
-    <row r="70" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="8" t="s">
+    <row r="71" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9">
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9">
         <f>I34</f>
         <v>5175</v>
       </c>
-      <c r="J70" s="9">
+      <c r="J71" s="9">
         <f>J34</f>
         <v>5243</v>
       </c>
-      <c r="K70" s="9">
+      <c r="K71" s="9">
         <f>K34</f>
         <v>4620</v>
       </c>
-      <c r="L70" s="9">
+      <c r="L71" s="9">
         <f>L34</f>
         <v>4998</v>
       </c>
-      <c r="M70" s="9">
+      <c r="M71" s="9">
         <f>M34</f>
         <v>5301</v>
       </c>
-      <c r="N70" s="6"/>
-    </row>
-    <row r="71" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6">
-        <v>4985</v>
-      </c>
-      <c r="J71" s="6">
-        <v>-3195</v>
-      </c>
-      <c r="K71" s="6">
-        <v>4620</v>
-      </c>
-      <c r="L71" s="6">
-        <v>4998</v>
-      </c>
-      <c r="M71" s="13">
-        <v>3756</v>
-      </c>
-      <c r="N71" s="6"/>
+      <c r="N71" s="9">
+        <f>N34</f>
+        <v>4232</v>
+      </c>
     </row>
     <row r="72" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -6076,25 +6428,27 @@
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
       <c r="I72" s="6">
-        <v>0</v>
+        <v>4985</v>
       </c>
       <c r="J72" s="6">
-        <v>7498</v>
+        <v>-3195</v>
       </c>
       <c r="K72" s="6">
-        <v>0</v>
+        <v>4620</v>
       </c>
       <c r="L72" s="6">
-        <v>0</v>
-      </c>
-      <c r="M72" s="6">
-        <v>0</v>
-      </c>
-      <c r="N72" s="6"/>
+        <v>4998</v>
+      </c>
+      <c r="M72" s="13">
+        <v>3756</v>
+      </c>
+      <c r="N72" s="13">
+        <v>3122</v>
+      </c>
     </row>
     <row r="73" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -6103,25 +6457,27 @@
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
       <c r="I73" s="6">
-        <v>1515</v>
+        <v>0</v>
       </c>
       <c r="J73" s="6">
-        <v>1493</v>
+        <v>7498</v>
       </c>
       <c r="K73" s="6">
-        <v>1461</v>
+        <v>0</v>
       </c>
       <c r="L73" s="6">
-        <v>1544</v>
+        <v>0</v>
       </c>
       <c r="M73" s="6">
-        <v>1707</v>
-      </c>
-      <c r="N73" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="N73" s="6">
+        <v>630</v>
+      </c>
     </row>
     <row r="74" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -6130,25 +6486,27 @@
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
       <c r="I74" s="6">
-        <v>641</v>
+        <v>1515</v>
       </c>
       <c r="J74" s="6">
-        <v>654</v>
+        <v>1493</v>
       </c>
       <c r="K74" s="6">
-        <v>674</v>
+        <v>1461</v>
       </c>
       <c r="L74" s="6">
-        <v>658</v>
+        <v>1544</v>
       </c>
       <c r="M74" s="6">
-        <v>672</v>
-      </c>
-      <c r="N74" s="6"/>
+        <v>1707</v>
+      </c>
+      <c r="N74" s="6">
+        <v>1910</v>
+      </c>
     </row>
     <row r="75" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -6157,25 +6515,27 @@
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
       <c r="I75" s="6">
-        <v>-55</v>
+        <v>641</v>
       </c>
       <c r="J75" s="6">
-        <v>-264</v>
+        <v>654</v>
       </c>
       <c r="K75" s="6">
-        <v>101</v>
+        <v>674</v>
       </c>
       <c r="L75" s="6">
-        <v>50</v>
+        <v>658</v>
       </c>
       <c r="M75" s="6">
-        <v>65</v>
-      </c>
-      <c r="N75" s="6"/>
+        <v>672</v>
+      </c>
+      <c r="N75" s="6">
+        <v>664</v>
+      </c>
     </row>
     <row r="76" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -6184,25 +6544,27 @@
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
       <c r="I76" s="6">
-        <v>-31</v>
+        <v>-55</v>
       </c>
       <c r="J76" s="6">
-        <v>-33</v>
+        <v>-264</v>
       </c>
       <c r="K76" s="6">
-        <v>-282</v>
+        <v>101</v>
       </c>
       <c r="L76" s="6">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="M76" s="6">
-        <v>0</v>
-      </c>
-      <c r="N76" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="N76" s="6">
+        <v>-439</v>
+      </c>
     </row>
     <row r="77" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -6211,25 +6573,27 @@
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
       <c r="I77" s="6">
-        <v>253</v>
+        <v>-31</v>
       </c>
       <c r="J77" s="6">
-        <v>-644</v>
+        <v>-33</v>
       </c>
       <c r="K77" s="6">
-        <v>73</v>
+        <v>-282</v>
       </c>
       <c r="L77" s="6">
-        <v>-247</v>
+        <v>-20</v>
       </c>
       <c r="M77" s="6">
-        <v>351</v>
-      </c>
-      <c r="N77" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="N77" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -6238,30 +6602,27 @@
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6">
-        <f>10163-11209</f>
-        <v>-1046</v>
+        <v>253</v>
       </c>
       <c r="J78" s="6">
-        <f>16687-11573</f>
-        <v>5114</v>
+        <v>-644</v>
       </c>
       <c r="K78" s="6">
-        <f>10423-11355</f>
-        <v>-932</v>
+        <v>73</v>
       </c>
       <c r="L78" s="6">
-        <f>12570-11929</f>
-        <v>641</v>
+        <v>-247</v>
       </c>
       <c r="M78" s="6">
-        <f>13073-12210</f>
-        <v>863</v>
-      </c>
-      <c r="N78" s="6"/>
+        <v>351</v>
+      </c>
+      <c r="N78" s="6">
+        <v>-625</v>
+      </c>
     </row>
     <row r="79" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -6269,26 +6630,34 @@
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
-      <c r="I79" s="13">
-        <v>3655</v>
-      </c>
-      <c r="J79" s="13">
-        <v>-5448</v>
-      </c>
-      <c r="K79" s="13">
-        <v>6376</v>
+      <c r="I79" s="6">
+        <f>10163-11209</f>
+        <v>-1046</v>
+      </c>
+      <c r="J79" s="6">
+        <f>16687-11573</f>
+        <v>5114</v>
+      </c>
+      <c r="K79" s="6">
+        <f>10423-11355</f>
+        <v>-932</v>
       </c>
       <c r="L79" s="6">
-        <v>-3118</v>
+        <f>12570-11929</f>
+        <v>641</v>
       </c>
       <c r="M79" s="6">
-        <v>2288</v>
-      </c>
-      <c r="N79" s="6"/>
+        <f>13073-12210</f>
+        <v>863</v>
+      </c>
+      <c r="N79" s="6">
+        <f>21006-13004</f>
+        <v>8002</v>
+      </c>
     </row>
     <row r="80" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -6296,26 +6665,28 @@
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
-      <c r="I80" s="6">
-        <v>-430</v>
-      </c>
-      <c r="J80" s="6">
-        <v>-429</v>
-      </c>
-      <c r="K80" s="6">
-        <v>-937</v>
+      <c r="I80" s="13">
+        <v>3655</v>
+      </c>
+      <c r="J80" s="13">
+        <v>-5448</v>
+      </c>
+      <c r="K80" s="13">
+        <v>6376</v>
       </c>
       <c r="L80" s="6">
-        <v>1104</v>
+        <v>-3118</v>
       </c>
       <c r="M80" s="6">
-        <v>241</v>
-      </c>
-      <c r="N80" s="6"/>
+        <v>2288</v>
+      </c>
+      <c r="N80" s="6">
+        <v>-6076</v>
+      </c>
     </row>
     <row r="81" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="2" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -6324,25 +6695,27 @@
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
       <c r="I81" s="6">
-        <v>-111</v>
+        <v>-430</v>
       </c>
       <c r="J81" s="6">
-        <v>612</v>
+        <v>-429</v>
       </c>
       <c r="K81" s="6">
-        <v>-280</v>
+        <v>-937</v>
       </c>
       <c r="L81" s="6">
-        <v>-912</v>
+        <v>1104</v>
       </c>
       <c r="M81" s="6">
-        <v>-420</v>
-      </c>
-      <c r="N81" s="6"/>
+        <v>241</v>
+      </c>
+      <c r="N81" s="6">
+        <v>192</v>
+      </c>
     </row>
     <row r="82" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -6351,25 +6724,27 @@
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
       <c r="I82" s="6">
-        <v>-108</v>
+        <v>-111</v>
       </c>
       <c r="J82" s="6">
-        <v>5</v>
+        <v>612</v>
       </c>
       <c r="K82" s="6">
-        <v>-5</v>
+        <v>-280</v>
       </c>
       <c r="L82" s="6">
-        <v>56</v>
+        <v>-912</v>
       </c>
       <c r="M82" s="6">
-        <v>7</v>
-      </c>
-      <c r="N82" s="6"/>
+        <v>-420</v>
+      </c>
+      <c r="N82" s="6">
+        <v>747</v>
+      </c>
     </row>
     <row r="83" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -6378,220 +6753,239 @@
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
       <c r="I83" s="6">
+        <v>-108</v>
+      </c>
+      <c r="J83" s="6">
+        <v>5</v>
+      </c>
+      <c r="K83" s="6">
+        <v>-5</v>
+      </c>
+      <c r="L83" s="6">
+        <v>56</v>
+      </c>
+      <c r="M83" s="6">
+        <v>7</v>
+      </c>
+      <c r="N83" s="6">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6">
         <v>-390</v>
       </c>
-      <c r="J83" s="6">
+      <c r="J84" s="6">
         <v>-142</v>
       </c>
-      <c r="K83" s="6">
+      <c r="K84" s="6">
         <v>-135</v>
       </c>
-      <c r="L83" s="6">
+      <c r="L84" s="6">
         <v>369</v>
       </c>
-      <c r="M83" s="6">
+      <c r="M84" s="6">
         <v>-129</v>
       </c>
-      <c r="N83" s="6"/>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
-        <v>58</v>
-      </c>
-      <c r="I84" s="3">
-        <v>200</v>
-      </c>
-      <c r="J84" s="3">
-        <v>1328</v>
-      </c>
-      <c r="K84" s="3">
-        <v>-2024</v>
-      </c>
-      <c r="L84" s="3">
-        <v>105</v>
-      </c>
-      <c r="M84" s="3">
-        <v>626</v>
+      <c r="N84" s="6">
+        <v>-17</v>
       </c>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
+        <v>58</v>
+      </c>
+      <c r="I85" s="3">
+        <v>200</v>
+      </c>
+      <c r="J85" s="3">
+        <v>1328</v>
+      </c>
+      <c r="K85" s="3">
+        <v>-2024</v>
+      </c>
+      <c r="L85" s="3">
+        <v>105</v>
+      </c>
+      <c r="M85" s="3">
+        <v>626</v>
+      </c>
+      <c r="N85" s="3">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
         <v>44</v>
       </c>
-      <c r="I85" s="3">
+      <c r="I86" s="3">
         <v>492</v>
       </c>
-      <c r="J85" s="3">
+      <c r="J86" s="3">
         <v>267</v>
       </c>
-      <c r="K85" s="3">
+      <c r="K86" s="3">
         <v>-116</v>
       </c>
-      <c r="L85" s="3">
+      <c r="L86" s="3">
         <v>370</v>
       </c>
-      <c r="M85" s="3">
+      <c r="M86" s="3">
         <v>340</v>
       </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B86" s="10" t="s">
+      <c r="N86" s="3">
+        <v>-580</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B87" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="I86" s="9">
-        <f>SUM(I71:I85)</f>
+      <c r="I87" s="9">
+        <f>SUM(I72:I86)</f>
         <v>9570</v>
       </c>
-      <c r="J86" s="9">
-        <f>SUM(J71:J85)</f>
+      <c r="J87" s="9">
+        <f>SUM(J72:J86)</f>
         <v>6816</v>
       </c>
-      <c r="K86" s="9">
-        <f>SUM(K71:K85)</f>
+      <c r="K87" s="9">
+        <f>SUM(K72:K86)</f>
         <v>8594</v>
       </c>
-      <c r="L86" s="9">
-        <f>SUM(L71:L85)</f>
+      <c r="L87" s="9">
+        <f>SUM(L72:L86)</f>
         <v>5598</v>
       </c>
-      <c r="M86" s="9">
-        <f>SUM(M71:M85)</f>
+      <c r="M87" s="9">
+        <f>SUM(M72:M86)</f>
         <v>10367</v>
       </c>
-    </row>
-    <row r="88" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="2" t="s">
+      <c r="N87" s="9">
+        <f>SUM(N72:N86)</f>
+        <v>8464</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6">
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6">
         <v>1391</v>
       </c>
-      <c r="J88" s="6">
+      <c r="J89" s="6">
         <v>1781</v>
       </c>
-      <c r="K88" s="6">
+      <c r="K89" s="6">
         <v>1356</v>
       </c>
-      <c r="L88" s="6">
+      <c r="L89" s="6">
         <v>2024</v>
       </c>
-      <c r="M88" s="6">
+      <c r="M89" s="6">
         <v>2308</v>
       </c>
-      <c r="N88" s="6"/>
-    </row>
-    <row r="89" spans="2:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="10" t="s">
+      <c r="N89" s="6">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="9">
-        <f>+I86-I88</f>
-        <v>8179</v>
-      </c>
-      <c r="J89" s="9">
-        <f t="shared" ref="J89:M89" si="185">+J86-J88</f>
-        <v>5035</v>
-      </c>
-      <c r="K89" s="9">
-        <f t="shared" si="185"/>
-        <v>7238</v>
-      </c>
-      <c r="L89" s="9">
-        <f t="shared" si="185"/>
-        <v>3574</v>
-      </c>
-      <c r="M89" s="9">
-        <f t="shared" si="185"/>
-        <v>8059</v>
-      </c>
-      <c r="N89" s="11"/>
-    </row>
-    <row r="90" spans="2:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
       <c r="E90" s="11"/>
       <c r="F90" s="11"/>
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
-      <c r="I90" s="9"/>
-      <c r="J90" s="9"/>
-      <c r="K90" s="9"/>
-      <c r="L90" s="9"/>
-      <c r="M90" s="11"/>
-      <c r="N90" s="11"/>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B91" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
-      <c r="L91" s="9">
-        <f>SUM(I89:L89)</f>
-        <v>24026</v>
-      </c>
+      <c r="I90" s="9">
+        <f>+I87-I89</f>
+        <v>8179</v>
+      </c>
+      <c r="J90" s="9">
+        <f t="shared" ref="J90:M90" si="185">+J87-J89</f>
+        <v>5035</v>
+      </c>
+      <c r="K90" s="9">
+        <f t="shared" si="185"/>
+        <v>7238</v>
+      </c>
+      <c r="L90" s="9">
+        <f t="shared" si="185"/>
+        <v>3574</v>
+      </c>
+      <c r="M90" s="9">
+        <f t="shared" si="185"/>
+        <v>8059</v>
+      </c>
+      <c r="N90" s="9">
+        <f t="shared" ref="N90" si="186">+N87-N89</f>
+        <v>5809</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="11"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B92" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
       <c r="L92" s="9">
-        <f>SUM(I70:L70)</f>
-        <v>20036</v>
+        <f>SUM(I90:L90)</f>
+        <v>24026</v>
       </c>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B93" s="10" t="s">
+        <v>68</v>
+      </c>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
-      <c r="L93" s="6"/>
-    </row>
-    <row r="95" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6">
-        <v>-162</v>
-      </c>
-      <c r="J95" s="6">
-        <v>-626</v>
-      </c>
-      <c r="K95" s="6">
-        <v>-390</v>
-      </c>
-      <c r="L95" s="6">
-        <v>-381</v>
-      </c>
-      <c r="M95" s="6">
-        <v>-559</v>
-      </c>
-      <c r="N95" s="6"/>
+      <c r="L93" s="9">
+        <f>SUM(I71:L71)</f>
+        <v>20036</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
     </row>
     <row r="96" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -6600,30 +6994,27 @@
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
       <c r="I96" s="6">
-        <f>-5131+146</f>
-        <v>-4985</v>
+        <v>-162</v>
       </c>
       <c r="J96" s="6">
-        <f>-4279+151</f>
-        <v>-4128</v>
+        <v>-626</v>
       </c>
       <c r="K96" s="6">
-        <f>-4757+219</f>
-        <v>-4538</v>
+        <v>-390</v>
       </c>
       <c r="L96" s="6">
-        <f>-3678+117</f>
-        <v>-3561</v>
+        <v>-381</v>
       </c>
       <c r="M96" s="6">
-        <f>-3857+159</f>
-        <v>-3698</v>
-      </c>
-      <c r="N96" s="6"/>
+        <v>-559</v>
+      </c>
+      <c r="N96" s="6">
+        <v>-63</v>
+      </c>
     </row>
     <row r="97" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B97" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -6632,54 +7023,70 @@
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
       <c r="I97" s="6">
+        <f>-5131+146</f>
+        <v>-4985</v>
+      </c>
+      <c r="J97" s="6">
+        <f>-4279+151</f>
+        <v>-4128</v>
+      </c>
+      <c r="K97" s="6">
+        <f>-4757+219</f>
+        <v>-4538</v>
+      </c>
+      <c r="L97" s="6">
+        <f>-3678+117</f>
+        <v>-3561</v>
+      </c>
+      <c r="M97" s="6">
+        <f>-3857+159</f>
+        <v>-3698</v>
+      </c>
+      <c r="N97" s="6">
+        <f>-4279+151</f>
+        <v>-4128</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6">
         <v>-2532</v>
       </c>
-      <c r="J97" s="6">
+      <c r="J98" s="6">
         <v>-2496</v>
       </c>
-      <c r="K97" s="6">
+      <c r="K98" s="6">
         <v>-2475</v>
       </c>
-      <c r="L97" s="6">
+      <c r="L98" s="6">
         <v>-2868</v>
       </c>
-      <c r="M97" s="6">
+      <c r="M98" s="6">
         <v>-2842</v>
       </c>
-      <c r="N97" s="6"/>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B101" t="s">
+      <c r="N98" s="6">
+        <v>-2821</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
         <v>70</v>
       </c>
-      <c r="L101" s="6">
+      <c r="L102" s="6">
         <v>200000</v>
       </c>
-    </row>
-    <row r="102" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
-      <c r="K102" s="6">
-        <v>18200</v>
-      </c>
-      <c r="L102" s="6">
-        <v>20600</v>
-      </c>
-      <c r="M102" s="6"/>
-      <c r="N102" s="6"/>
     </row>
     <row r="103" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B103" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -6690,16 +7097,41 @@
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
       <c r="K103" s="6">
+        <v>18200</v>
+      </c>
+      <c r="L103" s="6">
+        <v>20600</v>
+      </c>
+      <c r="M103" s="6"/>
+      <c r="N103" s="6">
+        <v>23100</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6">
         <v>39000</v>
       </c>
-      <c r="L103" s="6">
+      <c r="L104" s="6">
         <v>48000</v>
       </c>
-      <c r="M103" s="6"/>
-      <c r="N103" s="6"/>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B105" t="s">
+      <c r="M104" s="6"/>
+      <c r="N104" s="6">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
         <v>101</v>
       </c>
     </row>

--- a/investing spreadsheets/MSFT.xlsx
+++ b/investing spreadsheets/MSFT.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/billymbp/stock-exchange-berkeley/investing spreadsheets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16725" yWindow="-15" windowWidth="16800" windowHeight="20535"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24280" windowHeight="20540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +33,7 @@
     <author>Martin Shkreli</author>
   </authors>
   <commentList>
-    <comment ref="K20" authorId="0">
+    <comment ref="K21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M23" authorId="0">
+    <comment ref="M25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="118">
   <si>
     <t>Price</t>
   </si>
@@ -426,16 +431,26 @@
   </si>
   <si>
     <t>Net Margin</t>
+  </si>
+  <si>
+    <t>EV/E</t>
+  </si>
+  <si>
+    <t>E 2016</t>
+  </si>
+  <si>
+    <t>Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0&quot;x&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -477,12 +492,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -616,23 +626,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -674,17 +675,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -736,7 +747,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -772,16 +783,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>40017</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>13243</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>40017</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>13243</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -790,8 +801,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20421600" y="104775"/>
-          <a:ext cx="0" cy="15725775"/>
+          <a:off x="24055603" y="13243"/>
+          <a:ext cx="0" cy="15697658"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1106,7 +1117,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1116,35 +1127,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="19"/>
+      <c r="G2" s="16"/>
       <c r="J2" t="s">
         <v>0</v>
       </c>
@@ -1152,24 +1165,24 @@
         <v>56.53</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="17">
         <f>7/22.6</f>
         <v>0.30973451327433627</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="17">
         <v>0.05</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="22"/>
+      <c r="G3" s="19"/>
       <c r="J3" t="s">
         <v>1</v>
       </c>
@@ -1180,24 +1193,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="17">
         <f>6.7/22.6</f>
         <v>0.29646017699115046</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="22"/>
+      <c r="G4" s="19"/>
       <c r="J4" t="s">
         <v>2</v>
       </c>
@@ -1207,28 +1220,28 @@
       </c>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="15" t="s">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="17">
         <f>8.9/22.6</f>
         <v>0.39380530973451328</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="17">
         <v>-0.04</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="22"/>
+      <c r="G5" s="19"/>
       <c r="J5" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="4">
         <f>6510+106730+10431</f>
         <v>123671</v>
       </c>
@@ -1236,17 +1249,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="16"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24"/>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B6" s="13"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
       <c r="J6" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="4">
         <f>12904+0+40783</f>
         <v>53687</v>
       </c>
@@ -1254,7 +1267,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
       <c r="J7" t="s">
         <v>5</v>
       </c>
@@ -1263,5192 +1276,5222 @@
         <v>373324.26</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
       <c r="L10" s="1"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="K14" s="31"/>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K14" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:ES106"/>
+  <dimension ref="B1:ES108"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AC10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AH33" sqref="AH33"/>
+      <selection pane="bottomRight" activeCell="AF22" sqref="AF22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.85546875" style="3"/>
-    <col min="7" max="8" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="3"/>
-    <col min="10" max="10" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="3"/>
-    <col min="14" max="14" width="8.85546875" style="3" customWidth="1"/>
-    <col min="48" max="48" width="11.28515625" customWidth="1"/>
-    <col min="49" max="49" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="26"/>
+    <col min="2" max="2" width="29.1640625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.83203125" style="30"/>
+    <col min="7" max="8" width="10.1640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="30"/>
+    <col min="10" max="10" width="10.1640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="30" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="30"/>
+    <col min="14" max="14" width="8.83203125" style="30" customWidth="1"/>
+    <col min="15" max="47" width="8.83203125" style="26"/>
+    <col min="48" max="48" width="11.33203125" style="26" customWidth="1"/>
+    <col min="49" max="49" width="10.5" style="26" customWidth="1"/>
+    <col min="50" max="16384" width="8.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:46" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C1" s="32">
+    <row r="1" spans="2:46" x14ac:dyDescent="0.15">
+      <c r="C1" s="27">
         <v>41547</v>
       </c>
-      <c r="D1" s="32">
+      <c r="D1" s="27">
         <v>41639</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="28">
         <v>41729</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="28">
         <v>41820</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="28">
         <v>41912</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="28">
         <v>42004</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="28">
         <v>42094</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="28">
         <v>42185</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="28">
         <v>42277</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1" s="28">
         <v>42369</v>
       </c>
-      <c r="M1" s="4">
+      <c r="M1" s="28">
         <v>42460</v>
       </c>
-      <c r="N1" s="33">
+      <c r="N1" s="27">
         <v>42551</v>
       </c>
-      <c r="T1" s="25">
+      <c r="T1" s="29">
         <f t="shared" ref="T1" si="0">+U1-365</f>
         <v>38168</v>
       </c>
-      <c r="U1" s="25">
+      <c r="U1" s="29">
         <f t="shared" ref="U1" si="1">+V1-365</f>
         <v>38533</v>
       </c>
-      <c r="V1" s="25">
+      <c r="V1" s="29">
         <f t="shared" ref="V1:AD1" si="2">+W1-365</f>
         <v>38898</v>
       </c>
-      <c r="W1" s="25">
+      <c r="W1" s="29">
         <f>+X1-366</f>
         <v>39263</v>
       </c>
-      <c r="X1" s="25">
+      <c r="X1" s="29">
         <f t="shared" si="2"/>
         <v>39629</v>
       </c>
-      <c r="Y1" s="25">
+      <c r="Y1" s="29">
         <f t="shared" si="2"/>
         <v>39994</v>
       </c>
-      <c r="Z1" s="25">
+      <c r="Z1" s="29">
         <f t="shared" si="2"/>
         <v>40359</v>
       </c>
-      <c r="AA1" s="25">
+      <c r="AA1" s="29">
         <f>+AB1-366</f>
         <v>40724</v>
       </c>
-      <c r="AB1" s="25">
+      <c r="AB1" s="29">
         <f t="shared" si="2"/>
         <v>41090</v>
       </c>
-      <c r="AC1" s="25">
+      <c r="AC1" s="29">
         <f t="shared" si="2"/>
         <v>41455</v>
       </c>
-      <c r="AD1" s="25">
+      <c r="AD1" s="29">
         <f t="shared" si="2"/>
         <v>41820</v>
       </c>
-      <c r="AE1" s="25">
+      <c r="AE1" s="29">
         <f>+AF1-366</f>
         <v>42185</v>
       </c>
-      <c r="AF1" s="25">
+      <c r="AF1" s="29">
         <v>42551</v>
       </c>
-      <c r="AG1" s="25">
+      <c r="AG1" s="29">
         <f>+AF1+365</f>
         <v>42916</v>
       </c>
-      <c r="AH1" s="25">
+      <c r="AH1" s="29">
         <f t="shared" ref="AH1:AT1" si="3">+AG1+365</f>
         <v>43281</v>
       </c>
-      <c r="AI1" s="25">
+      <c r="AI1" s="29">
         <f t="shared" si="3"/>
         <v>43646</v>
       </c>
-      <c r="AJ1" s="25">
+      <c r="AJ1" s="29">
         <f t="shared" si="3"/>
         <v>44011</v>
       </c>
-      <c r="AK1" s="25">
+      <c r="AK1" s="29">
         <f t="shared" si="3"/>
         <v>44376</v>
       </c>
-      <c r="AL1" s="25">
+      <c r="AL1" s="29">
         <f t="shared" si="3"/>
         <v>44741</v>
       </c>
-      <c r="AM1" s="25">
+      <c r="AM1" s="29">
         <f t="shared" si="3"/>
         <v>45106</v>
       </c>
-      <c r="AN1" s="25">
+      <c r="AN1" s="29">
         <f t="shared" si="3"/>
         <v>45471</v>
       </c>
-      <c r="AO1" s="25">
+      <c r="AO1" s="29">
         <f t="shared" si="3"/>
         <v>45836</v>
       </c>
-      <c r="AP1" s="25">
+      <c r="AP1" s="29">
         <f t="shared" si="3"/>
         <v>46201</v>
       </c>
-      <c r="AQ1" s="25">
+      <c r="AQ1" s="29">
         <f t="shared" si="3"/>
         <v>46566</v>
       </c>
-      <c r="AR1" s="25">
+      <c r="AR1" s="29">
         <f t="shared" si="3"/>
         <v>46931</v>
       </c>
-      <c r="AS1" s="25">
+      <c r="AS1" s="29">
         <f t="shared" si="3"/>
         <v>47296</v>
       </c>
-      <c r="AT1" s="25">
+      <c r="AT1" s="29">
         <f t="shared" si="3"/>
         <v>47661</v>
       </c>
     </row>
-    <row r="2" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="2:46" x14ac:dyDescent="0.15">
+      <c r="C2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="26">
         <f t="shared" ref="T2" si="4">+U2-1</f>
         <v>2004</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="26">
         <f t="shared" ref="U2" si="5">+V2-1</f>
         <v>2005</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="26">
         <f t="shared" ref="V2:Z2" si="6">+W2-1</f>
         <v>2006</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="26">
         <f t="shared" si="6"/>
         <v>2007</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="26">
         <f t="shared" si="6"/>
         <v>2008</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="26">
         <f t="shared" si="6"/>
         <v>2009</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="26">
         <f t="shared" si="6"/>
         <v>2010</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="26">
         <f t="shared" ref="AA2:AD2" si="7">+AB2-1</f>
         <v>2011</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="26">
         <f t="shared" si="7"/>
         <v>2012</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="26">
         <f t="shared" si="7"/>
         <v>2013</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="26">
         <f t="shared" si="7"/>
         <v>2014</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="26">
         <f>+AF2-1</f>
         <v>2015</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" s="26">
         <v>2016</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="26">
         <f>+AF2+1</f>
         <v>2017</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="26">
         <f t="shared" ref="AH2:AT2" si="8">+AG2+1</f>
         <v>2018</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" s="26">
         <f t="shared" si="8"/>
         <v>2019</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" s="26">
         <f t="shared" si="8"/>
         <v>2020</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" s="26">
         <f t="shared" si="8"/>
         <v>2021</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" s="26">
         <f t="shared" si="8"/>
         <v>2022</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" s="26">
         <f t="shared" si="8"/>
         <v>2023</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" s="26">
         <f t="shared" si="8"/>
         <v>2024</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" s="26">
         <f t="shared" si="8"/>
         <v>2025</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" s="26">
         <f t="shared" si="8"/>
         <v>2026</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" s="26">
         <f t="shared" si="8"/>
         <v>2027</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" s="26">
         <f t="shared" si="8"/>
         <v>2028</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" s="26">
         <f t="shared" si="8"/>
         <v>2029</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" s="26">
         <f t="shared" si="8"/>
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="3" spans="2:46" x14ac:dyDescent="0.15">
+      <c r="B3" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="V3" s="2">
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="V3" s="9">
         <v>13077</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="9">
         <v>14844</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="9">
         <v>16472</v>
       </c>
     </row>
-    <row r="4" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="4" spans="2:46" x14ac:dyDescent="0.15">
+      <c r="B4" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="V4" s="2">
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="V4" s="9">
         <v>9670</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4" s="9">
         <v>11184</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="9">
         <v>13189</v>
       </c>
     </row>
-    <row r="5" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="5" spans="2:46" x14ac:dyDescent="0.15">
+      <c r="B5" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="V5" s="2">
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="V5" s="9">
         <v>2303</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5" s="9">
         <v>2441</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5" s="9">
         <v>3214</v>
       </c>
     </row>
-    <row r="6" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="6" spans="2:46" x14ac:dyDescent="0.15">
+      <c r="B6" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="V6" s="2">
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="V6" s="9">
         <v>14461</v>
       </c>
-      <c r="W6" s="2">
+      <c r="W6" s="9">
         <v>16404</v>
       </c>
-      <c r="X6" s="2">
+      <c r="X6" s="9">
         <v>18937</v>
       </c>
     </row>
-    <row r="7" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="7" spans="2:46" x14ac:dyDescent="0.15">
+      <c r="B7" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="V7" s="2">
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="V7" s="9">
         <v>4761</v>
       </c>
-      <c r="W7" s="2">
+      <c r="W7" s="9">
         <v>6066</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X7" s="9">
         <v>8139</v>
       </c>
     </row>
-    <row r="8" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="8" spans="2:46" x14ac:dyDescent="0.15">
+      <c r="B8" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="V8" s="2">
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="V8" s="9">
         <v>10</v>
       </c>
-      <c r="W8" s="2">
+      <c r="W8" s="9">
         <v>183</v>
       </c>
-      <c r="X8" s="2">
+      <c r="X8" s="9">
         <v>469</v>
       </c>
     </row>
-    <row r="9" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+    <row r="9" spans="2:46" x14ac:dyDescent="0.15">
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+    </row>
+    <row r="10" spans="2:46" x14ac:dyDescent="0.15">
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+    </row>
+    <row r="11" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10">
         <v>4903</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6">
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10">
         <v>3233</v>
       </c>
-      <c r="K10" s="5">
-        <f t="shared" ref="K10:K15" si="9">J10/F10-1</f>
+      <c r="K11" s="24">
+        <f t="shared" ref="K11:K16" si="9">J11/F11-1</f>
         <v>-0.34060779114827655</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-    </row>
-    <row r="11" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+    </row>
+    <row r="12" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10">
         <v>1342</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6">
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10">
         <v>1933</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K12" s="24">
         <f t="shared" si="9"/>
         <v>0.44038748137108796</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+    </row>
+    <row r="13" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10">
         <v>1982</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6">
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10">
         <v>1234</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K13" s="24">
         <f t="shared" si="9"/>
         <v>-0.37739656912209885</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-    </row>
-    <row r="13" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+    </row>
+    <row r="14" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10">
         <v>1762</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6">
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10">
         <v>2300</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K14" s="24">
         <f t="shared" si="9"/>
         <v>0.30533484676503964</v>
       </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-    </row>
-    <row r="14" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+    </row>
+    <row r="15" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10">
         <v>11233</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6">
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10">
         <v>10451</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K15" s="24">
         <f t="shared" si="9"/>
         <v>-6.9616309089290507E-2</v>
       </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-    </row>
-    <row r="15" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
+      <c r="L15" s="10"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+    </row>
+    <row r="16" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10">
         <v>2262</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6">
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10">
         <v>3076</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K16" s="24">
         <f t="shared" si="9"/>
         <v>0.35985853227232534</v>
       </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-    </row>
-    <row r="16" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+    </row>
+    <row r="17" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10">
         <v>-102</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6">
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10">
         <v>-47</v>
       </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-    </row>
-    <row r="17" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-    </row>
-    <row r="18" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+    </row>
+    <row r="18" spans="2:46" x14ac:dyDescent="0.15">
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="AD18" s="9"/>
+    </row>
+    <row r="19" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10">
         <v>6490</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H19" s="10">
         <v>6822</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I19" s="10">
         <v>6457</v>
       </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6">
+      <c r="J19" s="10"/>
+      <c r="K19" s="10">
         <v>6306</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L19" s="10">
         <v>6690</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M19" s="10">
         <v>6522</v>
       </c>
-      <c r="N18" s="6">
-        <f>26487-M18-L18-K18</f>
+      <c r="N19" s="10">
+        <f>26487-M19-L19-K19</f>
         <v>6969</v>
       </c>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-    </row>
-    <row r="19" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="AD19" s="9">
+        <v>26976</v>
+      </c>
+      <c r="AE19" s="9">
+        <v>26430</v>
+      </c>
+      <c r="AF19" s="9">
+        <v>26487</v>
+      </c>
+    </row>
+    <row r="20" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10">
         <v>5475</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H20" s="10">
         <v>6041</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I20" s="10">
         <v>5903</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6">
+      <c r="J20" s="10"/>
+      <c r="K20" s="10">
         <v>5892</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L20" s="10">
         <v>6343</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M20" s="10">
         <v>6096</v>
       </c>
-      <c r="N19" s="6">
-        <f>25042-M19-L19-K19</f>
+      <c r="N20" s="10">
+        <f>25042-M20-L20-K20</f>
         <v>6711</v>
       </c>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-    </row>
-    <row r="20" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="AD20" s="9">
+        <v>21735</v>
+      </c>
+      <c r="AE20" s="9">
+        <v>23715</v>
+      </c>
+      <c r="AF20" s="9">
+        <v>25042</v>
+      </c>
+    </row>
+    <row r="21" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10">
         <v>11236</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H21" s="10">
         <v>13282</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I21" s="10">
         <v>9369</v>
       </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6">
+      <c r="J21" s="10"/>
+      <c r="K21" s="10">
         <v>9381</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L21" s="10">
         <v>12660</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M21" s="10">
         <v>9458</v>
       </c>
-      <c r="N20" s="6">
-        <f>40460-M20-L20-K20</f>
+      <c r="N21" s="10">
+        <f>40460-M21-L21-K21</f>
         <v>8961</v>
       </c>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-    </row>
-    <row r="21" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="AD21" s="9">
+        <v>38460</v>
+      </c>
+      <c r="AE21" s="9">
+        <v>43160</v>
+      </c>
+      <c r="AF21" s="9">
+        <v>40460</v>
+      </c>
+    </row>
+    <row r="22" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10">
         <v>0</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H22" s="10">
         <v>325</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I22" s="10">
         <v>0</v>
       </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6">
+      <c r="J22" s="10"/>
+      <c r="K22" s="10">
         <v>-1200</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L22" s="10">
         <v>-1897</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M22" s="10">
         <v>-1545</v>
       </c>
-      <c r="N21" s="6">
-        <f>-6669-M21-L21-K21</f>
+      <c r="N22" s="10">
+        <f>-6669-M22-L22-K22</f>
         <v>-2027</v>
       </c>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-    </row>
-    <row r="22" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="I22" s="6"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-    </row>
-    <row r="23" spans="2:46" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="8" t="s">
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="AD22" s="9">
+        <v>-338</v>
+      </c>
+      <c r="AE22" s="9">
+        <v>275</v>
+      </c>
+      <c r="AF22" s="9">
+        <v>-6669</v>
+      </c>
+    </row>
+    <row r="23" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="AE23" s="33"/>
+      <c r="AF23" s="33"/>
+    </row>
+    <row r="24" spans="2:46" x14ac:dyDescent="0.15">
+      <c r="I24" s="10"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="AE24" s="33"/>
+      <c r="AF24" s="33"/>
+    </row>
+    <row r="25" spans="2:46" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C25" s="6">
         <v>18529</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D25" s="6">
         <v>24519</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E25" s="6">
         <v>20403</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F25" s="6">
         <v>23382</v>
       </c>
-      <c r="G23" s="9">
-        <f>SUM(G18:G21)</f>
+      <c r="G25" s="6">
+        <f>SUM(G19:G22)</f>
         <v>23201</v>
       </c>
-      <c r="H23" s="9">
-        <f>SUM(H18:H21)</f>
+      <c r="H25" s="6">
+        <f>SUM(H19:H22)</f>
         <v>26470</v>
       </c>
-      <c r="I23" s="9">
-        <f>SUM(I18:I21)</f>
+      <c r="I25" s="6">
+        <f>SUM(I19:I22)</f>
         <v>21729</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J25" s="6">
         <v>22180</v>
       </c>
-      <c r="K23" s="9">
-        <f>SUM(K18:K21)</f>
+      <c r="K25" s="6">
+        <f>SUM(K19:K22)</f>
         <v>20379</v>
       </c>
-      <c r="L23" s="9">
-        <f>SUM(L18:L21)</f>
+      <c r="L25" s="6">
+        <f>SUM(L19:L22)</f>
         <v>23796</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M25" s="6">
         <f>20531+1545</f>
         <v>22076</v>
       </c>
-      <c r="N23" s="9">
-        <f>SUM(N18:N21)</f>
+      <c r="N25" s="6">
+        <f>SUM(N19:N22)</f>
         <v>20614</v>
       </c>
-      <c r="O23" s="9">
-        <f t="shared" ref="O23:R23" si="10">+K23*1.01</f>
+      <c r="O25" s="6">
+        <f t="shared" ref="O25:R25" si="10">+K25*1.01</f>
         <v>20582.79</v>
       </c>
-      <c r="P23" s="9">
+      <c r="P25" s="6">
         <f t="shared" si="10"/>
         <v>24033.96</v>
       </c>
-      <c r="Q23" s="9">
+      <c r="Q25" s="6">
         <f t="shared" si="10"/>
         <v>22296.76</v>
       </c>
-      <c r="R23" s="9">
+      <c r="R25" s="6">
         <f t="shared" si="10"/>
         <v>20820.14</v>
       </c>
-      <c r="T23" s="8">
+      <c r="T25" s="5">
         <v>36835</v>
       </c>
-      <c r="U23" s="8">
+      <c r="U25" s="5">
         <v>39788</v>
       </c>
-      <c r="V23" s="8">
+      <c r="V25" s="5">
         <v>44282</v>
       </c>
-      <c r="W23" s="8">
+      <c r="W25" s="5">
         <v>51122</v>
       </c>
-      <c r="X23" s="8">
+      <c r="X25" s="5">
         <v>60420</v>
       </c>
-      <c r="Y23" s="8">
+      <c r="Y25" s="5">
         <v>58437</v>
       </c>
-      <c r="Z23" s="8">
+      <c r="Z25" s="5">
         <v>62484</v>
       </c>
-      <c r="AA23" s="8">
+      <c r="AA25" s="5">
         <v>69943</v>
       </c>
-      <c r="AB23" s="8">
+      <c r="AB25" s="5">
         <v>73723</v>
       </c>
-      <c r="AC23" s="8">
+      <c r="AC25" s="5">
         <v>77849</v>
       </c>
-      <c r="AD23" s="8">
+      <c r="AD25" s="5">
         <v>86833</v>
       </c>
-      <c r="AE23" s="8">
+      <c r="AE25" s="5">
         <v>93580</v>
       </c>
-      <c r="AF23" s="8">
-        <f>SUM(K23:N23)</f>
+      <c r="AF25" s="5">
+        <f>SUM(K25:N25)</f>
         <v>86865</v>
       </c>
-      <c r="AG23" s="8">
-        <f>SUM(O23:R23)</f>
+      <c r="AG25" s="5">
+        <f>SUM(O25:R25)</f>
         <v>87733.65</v>
       </c>
-      <c r="AH23" s="8">
-        <f>+AG23*1.02</f>
+      <c r="AH25" s="5">
+        <f>+AG25*1.02</f>
         <v>89488.322999999989</v>
       </c>
-      <c r="AI23" s="8">
-        <f t="shared" ref="AI23:AT23" si="11">+AH23*1.02</f>
-        <v>91278.089459999988</v>
-      </c>
-      <c r="AJ23" s="8">
+      <c r="AI25" s="5">
+        <f>+AH25*1.03</f>
+        <v>92172.972689999995</v>
+      </c>
+      <c r="AJ25" s="5">
+        <f t="shared" ref="AJ25:AT25" si="11">+AI25*1.03</f>
+        <v>94938.161870700002</v>
+      </c>
+      <c r="AK25" s="5">
         <f t="shared" si="11"/>
-        <v>93103.651249199989</v>
-      </c>
-      <c r="AK23" s="8">
+        <v>97786.306726821</v>
+      </c>
+      <c r="AL25" s="5">
         <f t="shared" si="11"/>
-        <v>94965.724274183987</v>
-      </c>
-      <c r="AL23" s="8">
+        <v>100719.89592862563</v>
+      </c>
+      <c r="AM25" s="5">
         <f t="shared" si="11"/>
-        <v>96865.038759667674</v>
-      </c>
-      <c r="AM23" s="8">
+        <v>103741.4928064844</v>
+      </c>
+      <c r="AN25" s="5">
         <f t="shared" si="11"/>
-        <v>98802.339534861036</v>
-      </c>
-      <c r="AN23" s="8">
+        <v>106853.73759067894</v>
+      </c>
+      <c r="AO25" s="5">
         <f t="shared" si="11"/>
-        <v>100778.38632555825</v>
-      </c>
-      <c r="AO23" s="8">
+        <v>110059.3497183993</v>
+      </c>
+      <c r="AP25" s="5">
         <f t="shared" si="11"/>
-        <v>102793.95405206943</v>
-      </c>
-      <c r="AP23" s="8">
+        <v>113361.13020995128</v>
+      </c>
+      <c r="AQ25" s="5">
         <f t="shared" si="11"/>
-        <v>104849.83313311082</v>
-      </c>
-      <c r="AQ23" s="8">
+        <v>116761.96411624983</v>
+      </c>
+      <c r="AR25" s="5">
         <f t="shared" si="11"/>
-        <v>106946.82979577304</v>
-      </c>
-      <c r="AR23" s="8">
+        <v>120264.82303973733</v>
+      </c>
+      <c r="AS25" s="5">
         <f t="shared" si="11"/>
-        <v>109085.76639168851</v>
-      </c>
-      <c r="AS23" s="8">
+        <v>123872.76773092945</v>
+      </c>
+      <c r="AT25" s="5">
         <f t="shared" si="11"/>
-        <v>111267.48171952229</v>
-      </c>
-      <c r="AT23" s="8">
-        <f t="shared" si="11"/>
-        <v>113492.83135391273</v>
-      </c>
-    </row>
-    <row r="24" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
+        <v>127588.95076285733</v>
+      </c>
+    </row>
+    <row r="26" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C26" s="10">
         <v>5114</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D26" s="10">
         <v>8284</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E26" s="10">
         <v>5978</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F26" s="10">
         <v>7633</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G26" s="10">
         <v>8273</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H26" s="10">
         <v>10136</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I26" s="10">
         <v>7161</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J26" s="10">
         <v>7468</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K26" s="10">
         <v>7207</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L26" s="10">
         <v>9872</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M26" s="10">
         <v>7722</v>
       </c>
-      <c r="N24" s="6">
+      <c r="N26" s="10">
         <v>7979</v>
       </c>
-      <c r="O24" s="6">
-        <f t="shared" ref="O24:R24" si="12">+O23-O25</f>
+      <c r="O26" s="10">
+        <f t="shared" ref="O26:R26" si="12">+O25-O27</f>
         <v>7615.6323000000011</v>
       </c>
-      <c r="P24" s="6">
+      <c r="P26" s="10">
         <f t="shared" si="12"/>
         <v>8892.5651999999991</v>
       </c>
-      <c r="Q24" s="6">
+      <c r="Q26" s="10">
         <f t="shared" si="12"/>
         <v>8249.8011999999999</v>
       </c>
-      <c r="R24" s="6">
+      <c r="R26" s="10">
         <f t="shared" si="12"/>
         <v>7703.4517999999989</v>
       </c>
-      <c r="V24" s="12">
+      <c r="V26" s="9">
         <v>7650</v>
       </c>
-      <c r="W24" s="12">
+      <c r="W26" s="9">
         <v>10693</v>
       </c>
-      <c r="X24" s="12">
+      <c r="X26" s="9">
         <v>11598</v>
       </c>
-      <c r="Y24" s="12">
+      <c r="Y26" s="9">
         <v>12155</v>
       </c>
-      <c r="Z24" s="12">
+      <c r="Z26" s="9">
         <v>12395</v>
       </c>
-      <c r="AA24" s="12">
+      <c r="AA26" s="9">
         <v>15577</v>
       </c>
-      <c r="AB24" s="12">
+      <c r="AB26" s="9">
         <v>17530</v>
       </c>
-      <c r="AC24" s="12">
+      <c r="AC26" s="9">
         <v>20385</v>
       </c>
-      <c r="AD24" s="12">
+      <c r="AD26" s="9">
         <v>27078</v>
       </c>
-      <c r="AE24" s="12">
+      <c r="AE26" s="9">
         <v>33038</v>
       </c>
-      <c r="AF24" s="12">
-        <f>SUM(K24:N24)</f>
+      <c r="AF26" s="9">
+        <f>SUM(K26:N26)</f>
         <v>32780</v>
       </c>
-      <c r="AG24" s="12">
-        <f>SUM(O24:R24)</f>
+      <c r="AG26" s="9">
+        <f>SUM(O26:R26)</f>
         <v>32461.450500000003</v>
       </c>
-      <c r="AH24" s="2">
-        <f>+AH23-AH25</f>
+      <c r="AH26" s="9">
+        <f>+AH25-AH27</f>
         <v>33110.679509999994</v>
       </c>
-      <c r="AI24" s="2">
-        <f t="shared" ref="AI24:AT24" si="13">+AI23-AI25</f>
-        <v>33772.893100199995</v>
-      </c>
-      <c r="AJ24" s="2">
+      <c r="AI26" s="9">
+        <f t="shared" ref="AI26:AT26" si="13">+AI25-AI27</f>
+        <v>34103.999895299996</v>
+      </c>
+      <c r="AJ26" s="9">
         <f t="shared" si="13"/>
-        <v>34448.350962203993</v>
-      </c>
-      <c r="AK24" s="2">
+        <v>35127.119892158997</v>
+      </c>
+      <c r="AK26" s="9">
         <f t="shared" si="13"/>
-        <v>35137.317981448075</v>
-      </c>
-      <c r="AL24" s="2">
+        <v>36180.933488923773</v>
+      </c>
+      <c r="AL26" s="9">
         <f t="shared" si="13"/>
-        <v>35840.064341077035</v>
-      </c>
-      <c r="AM24" s="2">
+        <v>37266.361493591481</v>
+      </c>
+      <c r="AM26" s="9">
         <f t="shared" si="13"/>
-        <v>36556.86562789858</v>
-      </c>
-      <c r="AN24" s="2">
+        <v>38384.352338399229</v>
+      </c>
+      <c r="AN26" s="9">
         <f t="shared" si="13"/>
-        <v>37288.00294045655</v>
-      </c>
-      <c r="AO24" s="2">
+        <v>39535.882908551212</v>
+      </c>
+      <c r="AO26" s="9">
         <f t="shared" si="13"/>
-        <v>38033.762999265688</v>
-      </c>
-      <c r="AP24" s="2">
+        <v>40721.959395807746</v>
+      </c>
+      <c r="AP26" s="9">
         <f t="shared" si="13"/>
-        <v>38794.438259251008</v>
-      </c>
-      <c r="AQ24" s="2">
+        <v>41943.618177681972</v>
+      </c>
+      <c r="AQ26" s="9">
         <f t="shared" si="13"/>
-        <v>39570.327024436017</v>
-      </c>
-      <c r="AR24" s="2">
+        <v>43201.926723012439</v>
+      </c>
+      <c r="AR26" s="9">
         <f t="shared" si="13"/>
-        <v>40361.73356492474</v>
-      </c>
-      <c r="AS24" s="2">
+        <v>44497.984524702813</v>
+      </c>
+      <c r="AS26" s="9">
         <f t="shared" si="13"/>
-        <v>41168.968236223242</v>
-      </c>
-      <c r="AT24" s="2">
+        <v>45832.924060443896</v>
+      </c>
+      <c r="AT26" s="9">
         <f t="shared" si="13"/>
-        <v>41992.347600947702</v>
-      </c>
-    </row>
-    <row r="25" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
+        <v>47207.911782257215</v>
+      </c>
+    </row>
+    <row r="27" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="6">
-        <f t="shared" ref="C25:D25" si="14">+C23-C24</f>
+      <c r="C27" s="10">
+        <f t="shared" ref="C27:D27" si="14">+C25-C26</f>
         <v>13415</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D27" s="10">
         <f t="shared" si="14"/>
         <v>16235</v>
       </c>
-      <c r="E25" s="6">
-        <f t="shared" ref="E25:L25" si="15">+E23-E24</f>
+      <c r="E27" s="10">
+        <f t="shared" ref="E27:L27" si="15">+E25-E26</f>
         <v>14425</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F27" s="10">
         <f t="shared" si="15"/>
         <v>15749</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G27" s="10">
         <f t="shared" si="15"/>
         <v>14928</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H27" s="10">
         <f t="shared" si="15"/>
         <v>16334</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I27" s="10">
         <f t="shared" si="15"/>
         <v>14568</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J27" s="10">
         <f t="shared" si="15"/>
         <v>14712</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K27" s="10">
         <f t="shared" si="15"/>
         <v>13172</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L27" s="10">
         <f t="shared" si="15"/>
         <v>13924</v>
       </c>
-      <c r="M25" s="6">
-        <f>+M23-M24</f>
+      <c r="M27" s="10">
+        <f>+M25-M26</f>
         <v>14354</v>
       </c>
-      <c r="N25" s="6">
-        <f>+N23-N24</f>
+      <c r="N27" s="10">
+        <f>+N25-N26</f>
         <v>12635</v>
       </c>
-      <c r="O25" s="6">
-        <f t="shared" ref="O25:R25" si="16">+O23*0.63</f>
+      <c r="O27" s="10">
+        <f t="shared" ref="O27:R27" si="16">+O25*0.63</f>
         <v>12967.1577</v>
       </c>
-      <c r="P25" s="6">
+      <c r="P27" s="10">
         <f t="shared" si="16"/>
         <v>15141.3948</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="Q27" s="10">
         <f t="shared" si="16"/>
         <v>14046.958799999999</v>
       </c>
-      <c r="R25" s="6">
+      <c r="R27" s="10">
         <f t="shared" si="16"/>
         <v>13116.688200000001</v>
       </c>
-      <c r="V25" s="2">
-        <f t="shared" ref="V25:AF25" si="17">V23-V24</f>
+      <c r="V27" s="9">
+        <f t="shared" ref="V27:AF27" si="17">V25-V26</f>
         <v>36632</v>
       </c>
-      <c r="W25" s="2">
+      <c r="W27" s="9">
         <f t="shared" si="17"/>
         <v>40429</v>
       </c>
-      <c r="X25" s="2">
+      <c r="X27" s="9">
         <f t="shared" si="17"/>
         <v>48822</v>
       </c>
-      <c r="Y25" s="2">
+      <c r="Y27" s="9">
         <f t="shared" si="17"/>
         <v>46282</v>
       </c>
-      <c r="Z25" s="2">
+      <c r="Z27" s="9">
         <f t="shared" si="17"/>
         <v>50089</v>
       </c>
-      <c r="AA25" s="2">
+      <c r="AA27" s="9">
         <f t="shared" si="17"/>
         <v>54366</v>
       </c>
-      <c r="AB25" s="2">
+      <c r="AB27" s="9">
         <f t="shared" si="17"/>
         <v>56193</v>
       </c>
-      <c r="AC25" s="2">
+      <c r="AC27" s="9">
         <f t="shared" si="17"/>
         <v>57464</v>
       </c>
-      <c r="AD25" s="2">
+      <c r="AD27" s="9">
         <f t="shared" si="17"/>
         <v>59755</v>
       </c>
-      <c r="AE25" s="2">
+      <c r="AE27" s="9">
         <f t="shared" si="17"/>
         <v>60542</v>
       </c>
-      <c r="AF25" s="2">
+      <c r="AF27" s="9">
         <f t="shared" si="17"/>
         <v>54085</v>
       </c>
-      <c r="AG25" s="2">
-        <f t="shared" ref="AG25" si="18">AG23-AG24</f>
+      <c r="AG27" s="9">
+        <f t="shared" ref="AG27" si="18">AG25-AG26</f>
         <v>55272.199499999988</v>
       </c>
-      <c r="AH25" s="2">
-        <f>+AH23*0.63</f>
+      <c r="AH27" s="9">
+        <f>+AH25*0.63</f>
         <v>56377.643489999995</v>
       </c>
-      <c r="AI25" s="2">
-        <f t="shared" ref="AI25:AT25" si="19">+AI23*0.63</f>
-        <v>57505.196359799993</v>
-      </c>
-      <c r="AJ25" s="2">
+      <c r="AI27" s="9">
+        <f t="shared" ref="AI27:AT27" si="19">+AI25*0.63</f>
+        <v>58068.972794699999</v>
+      </c>
+      <c r="AJ27" s="9">
         <f t="shared" si="19"/>
-        <v>58655.300286995996</v>
-      </c>
-      <c r="AK25" s="2">
+        <v>59811.041978541005</v>
+      </c>
+      <c r="AK27" s="9">
         <f t="shared" si="19"/>
-        <v>59828.406292735912</v>
-      </c>
-      <c r="AL25" s="2">
+        <v>61605.373237897227</v>
+      </c>
+      <c r="AL27" s="9">
         <f t="shared" si="19"/>
-        <v>61024.974418590638</v>
-      </c>
-      <c r="AM25" s="2">
+        <v>63453.534435034147</v>
+      </c>
+      <c r="AM27" s="9">
         <f t="shared" si="19"/>
-        <v>62245.473906962456</v>
-      </c>
-      <c r="AN25" s="2">
+        <v>65357.14046808517</v>
+      </c>
+      <c r="AN27" s="9">
         <f t="shared" si="19"/>
-        <v>63490.383385101704</v>
-      </c>
-      <c r="AO25" s="2">
+        <v>67317.854682127727</v>
+      </c>
+      <c r="AO27" s="9">
         <f t="shared" si="19"/>
-        <v>64760.191052803741</v>
-      </c>
-      <c r="AP25" s="2">
+        <v>69337.390322591556</v>
+      </c>
+      <c r="AP27" s="9">
         <f t="shared" si="19"/>
-        <v>66055.394873859812</v>
-      </c>
-      <c r="AQ25" s="2">
+        <v>71417.512032269311</v>
+      </c>
+      <c r="AQ27" s="9">
         <f t="shared" si="19"/>
-        <v>67376.502771337022</v>
-      </c>
-      <c r="AR25" s="2">
+        <v>73560.037393237391</v>
+      </c>
+      <c r="AR27" s="9">
         <f t="shared" si="19"/>
-        <v>68724.032826763767</v>
-      </c>
-      <c r="AS25" s="2">
+        <v>75766.838515034513</v>
+      </c>
+      <c r="AS27" s="9">
         <f t="shared" si="19"/>
-        <v>70098.513483299044</v>
-      </c>
-      <c r="AT25" s="2">
+        <v>78039.843670485556</v>
+      </c>
+      <c r="AT27" s="9">
         <f t="shared" si="19"/>
-        <v>71500.483752965025</v>
-      </c>
-    </row>
-    <row r="26" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
+        <v>80381.038980600119</v>
+      </c>
+    </row>
+    <row r="28" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C28" s="10">
         <v>2767</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D28" s="10">
         <v>2748</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E28" s="10">
         <v>2743</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F28" s="10">
         <v>3123</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G28" s="10">
         <v>3065</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H28" s="10">
         <v>2903</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I28" s="10">
         <v>2984</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J28" s="10">
         <v>3094</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K28" s="10">
         <v>2962</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L28" s="10">
         <v>2900</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M28" s="10">
         <v>2980</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N28" s="10">
         <v>3146</v>
       </c>
-      <c r="O26" s="6">
-        <f t="shared" ref="O26:R28" si="20">+K26</f>
+      <c r="O28" s="10">
+        <f t="shared" ref="O28:R30" si="20">+K28</f>
         <v>2962</v>
       </c>
-      <c r="P26" s="6">
+      <c r="P28" s="10">
         <f t="shared" si="20"/>
         <v>2900</v>
       </c>
-      <c r="Q26" s="6">
+      <c r="Q28" s="10">
         <f t="shared" si="20"/>
         <v>2980</v>
       </c>
-      <c r="R26" s="6">
+      <c r="R28" s="10">
         <f t="shared" si="20"/>
         <v>3146</v>
       </c>
-      <c r="V26" s="12">
+      <c r="V28" s="9">
         <v>6584</v>
       </c>
-      <c r="W26" s="12">
+      <c r="W28" s="9">
         <v>7121</v>
       </c>
-      <c r="X26" s="12">
+      <c r="X28" s="9">
         <v>8164</v>
       </c>
-      <c r="Y26" s="12">
+      <c r="Y28" s="9">
         <v>9010</v>
       </c>
-      <c r="Z26" s="12">
+      <c r="Z28" s="9">
         <v>8714</v>
       </c>
-      <c r="AA26" s="12">
+      <c r="AA28" s="9">
         <v>9043</v>
       </c>
-      <c r="AB26" s="12">
+      <c r="AB28" s="9">
         <v>9811</v>
       </c>
-      <c r="AC26" s="12">
+      <c r="AC28" s="9">
         <v>10411</v>
       </c>
-      <c r="AD26" s="12">
+      <c r="AD28" s="9">
         <v>11381</v>
       </c>
-      <c r="AE26" s="12">
+      <c r="AE28" s="9">
         <v>12046</v>
       </c>
-      <c r="AF26" s="12">
-        <f>SUM(K26:N26)</f>
+      <c r="AF28" s="9">
+        <f>SUM(K28:N28)</f>
         <v>11988</v>
       </c>
-      <c r="AG26" s="12">
-        <f>SUM(O26:R26)</f>
+      <c r="AG28" s="9">
+        <f>SUM(O28:R28)</f>
         <v>11988</v>
       </c>
-      <c r="AH26" s="2">
-        <f>+AG26*1.01</f>
+      <c r="AH28" s="9">
+        <f>+AG28*1.01</f>
         <v>12107.88</v>
       </c>
-      <c r="AI26" s="2">
-        <f t="shared" ref="AI26:AT26" si="21">+AH26*1.01</f>
+      <c r="AI28" s="9">
+        <f t="shared" ref="AI28:AT28" si="21">+AH28*1.01</f>
         <v>12228.958799999999</v>
       </c>
-      <c r="AJ26" s="2">
+      <c r="AJ28" s="9">
         <f t="shared" si="21"/>
         <v>12351.248387999998</v>
       </c>
-      <c r="AK26" s="2">
+      <c r="AK28" s="9">
         <f t="shared" si="21"/>
         <v>12474.760871879998</v>
       </c>
-      <c r="AL26" s="2">
+      <c r="AL28" s="9">
         <f t="shared" si="21"/>
         <v>12599.508480598799</v>
       </c>
-      <c r="AM26" s="2">
+      <c r="AM28" s="9">
         <f t="shared" si="21"/>
         <v>12725.503565404788</v>
       </c>
-      <c r="AN26" s="2">
+      <c r="AN28" s="9">
         <f t="shared" si="21"/>
         <v>12852.758601058837</v>
       </c>
-      <c r="AO26" s="2">
+      <c r="AO28" s="9">
         <f t="shared" si="21"/>
         <v>12981.286187069425</v>
       </c>
-      <c r="AP26" s="2">
+      <c r="AP28" s="9">
         <f t="shared" si="21"/>
         <v>13111.099048940119</v>
       </c>
-      <c r="AQ26" s="2">
+      <c r="AQ28" s="9">
         <f t="shared" si="21"/>
         <v>13242.210039429521</v>
       </c>
-      <c r="AR26" s="2">
+      <c r="AR28" s="9">
         <f t="shared" si="21"/>
         <v>13374.632139823816</v>
       </c>
-      <c r="AS26" s="2">
+      <c r="AS28" s="9">
         <f t="shared" si="21"/>
         <v>13508.378461222055</v>
       </c>
-      <c r="AT26" s="2">
+      <c r="AT28" s="9">
         <f t="shared" si="21"/>
         <v>13643.462245834276</v>
       </c>
     </row>
-    <row r="27" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
+    <row r="29" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C29" s="10">
         <v>3304</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D29" s="10">
         <v>4283</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E29" s="10">
         <v>3542</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F29" s="10">
         <v>4682</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G29" s="10">
         <v>3728</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H29" s="10">
         <v>4315</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I29" s="10">
         <v>3709</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J29" s="10">
         <v>3961</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K29" s="10">
         <v>3333</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L29" s="10">
         <v>3960</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M29" s="10">
         <v>3406</v>
       </c>
-      <c r="N27" s="6">
+      <c r="N29" s="10">
         <v>3998</v>
       </c>
-      <c r="O27" s="6">
+      <c r="O29" s="10">
         <f t="shared" si="20"/>
         <v>3333</v>
       </c>
-      <c r="P27" s="6">
+      <c r="P29" s="10">
         <f t="shared" si="20"/>
         <v>3960</v>
       </c>
-      <c r="Q27" s="6">
+      <c r="Q29" s="10">
         <f t="shared" si="20"/>
         <v>3406</v>
       </c>
-      <c r="R27" s="6">
+      <c r="R29" s="10">
         <f t="shared" si="20"/>
         <v>3998</v>
       </c>
-      <c r="V27" s="12">
+      <c r="V29" s="9">
         <v>9818</v>
       </c>
-      <c r="W27" s="12">
+      <c r="W29" s="9">
         <v>11541</v>
       </c>
-      <c r="X27" s="12">
+      <c r="X29" s="9">
         <v>13260</v>
       </c>
-      <c r="Y27" s="12">
+      <c r="Y29" s="9">
         <v>12879</v>
       </c>
-      <c r="Z27" s="12">
+      <c r="Z29" s="9">
         <v>13214</v>
       </c>
-      <c r="AA27" s="12">
+      <c r="AA29" s="9">
         <v>13940</v>
       </c>
-      <c r="AB27" s="12">
+      <c r="AB29" s="9">
         <v>13857</v>
       </c>
-      <c r="AC27" s="12">
+      <c r="AC29" s="9">
         <v>15276</v>
       </c>
-      <c r="AD27" s="12">
+      <c r="AD29" s="9">
         <v>15811</v>
       </c>
-      <c r="AE27" s="12">
+      <c r="AE29" s="9">
         <v>15713</v>
       </c>
-      <c r="AF27" s="12">
-        <f>SUM(K27:N27)</f>
+      <c r="AF29" s="9">
+        <f>SUM(K29:N29)</f>
         <v>14697</v>
       </c>
-      <c r="AG27" s="12">
-        <f>SUM(O27:R27)</f>
+      <c r="AG29" s="9">
+        <f>SUM(O29:R29)</f>
         <v>14697</v>
       </c>
-      <c r="AH27" s="2">
-        <f t="shared" ref="AH27:AT27" si="22">+AG27*1.01</f>
+      <c r="AH29" s="9">
+        <f t="shared" ref="AH29:AT29" si="22">+AG29*1.01</f>
         <v>14843.97</v>
       </c>
-      <c r="AI27" s="2">
+      <c r="AI29" s="9">
         <f t="shared" si="22"/>
         <v>14992.4097</v>
       </c>
-      <c r="AJ27" s="2">
+      <c r="AJ29" s="9">
         <f t="shared" si="22"/>
         <v>15142.333797000001</v>
       </c>
-      <c r="AK27" s="2">
+      <c r="AK29" s="9">
         <f t="shared" si="22"/>
         <v>15293.757134970001</v>
       </c>
-      <c r="AL27" s="2">
+      <c r="AL29" s="9">
         <f t="shared" si="22"/>
         <v>15446.6947063197</v>
       </c>
-      <c r="AM27" s="2">
+      <c r="AM29" s="9">
         <f t="shared" si="22"/>
         <v>15601.161653382898</v>
       </c>
-      <c r="AN27" s="2">
+      <c r="AN29" s="9">
         <f t="shared" si="22"/>
         <v>15757.173269916728</v>
       </c>
-      <c r="AO27" s="2">
+      <c r="AO29" s="9">
         <f t="shared" si="22"/>
         <v>15914.745002615895</v>
       </c>
-      <c r="AP27" s="2">
+      <c r="AP29" s="9">
         <f t="shared" si="22"/>
         <v>16073.892452642054</v>
       </c>
-      <c r="AQ27" s="2">
+      <c r="AQ29" s="9">
         <f t="shared" si="22"/>
         <v>16234.631377168475</v>
       </c>
-      <c r="AR27" s="2">
+      <c r="AR29" s="9">
         <f t="shared" si="22"/>
         <v>16396.977690940159</v>
       </c>
-      <c r="AS27" s="2">
+      <c r="AS29" s="9">
         <f t="shared" si="22"/>
         <v>16560.947467849561</v>
       </c>
-      <c r="AT27" s="2">
+      <c r="AT29" s="9">
         <f t="shared" si="22"/>
         <v>16726.556942528056</v>
       </c>
     </row>
-    <row r="28" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
+    <row r="30" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C30" s="10">
         <v>1010</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D30" s="10">
         <v>1235</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E30" s="10">
         <v>1166</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F30" s="10">
         <v>1335</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G30" s="10">
         <v>1151</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H30" s="10">
         <v>1097</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I30" s="10">
         <v>1091</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J30" s="10">
         <v>1272</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K30" s="10">
         <v>1084</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L30" s="10">
         <v>1038</v>
       </c>
-      <c r="M28" s="6">
+      <c r="M30" s="10">
         <v>1140</v>
       </c>
-      <c r="N28" s="6">
+      <c r="N30" s="10">
         <v>1301</v>
       </c>
-      <c r="O28" s="6">
+      <c r="O30" s="10">
         <f t="shared" si="20"/>
         <v>1084</v>
       </c>
-      <c r="P28" s="6">
+      <c r="P30" s="10">
         <f t="shared" si="20"/>
         <v>1038</v>
       </c>
-      <c r="Q28" s="6">
+      <c r="Q30" s="10">
         <f t="shared" si="20"/>
         <v>1140</v>
       </c>
-      <c r="R28" s="6">
+      <c r="R30" s="10">
         <f t="shared" si="20"/>
         <v>1301</v>
       </c>
-      <c r="V28" s="12">
+      <c r="V30" s="9">
         <v>3758</v>
       </c>
-      <c r="W28" s="12">
+      <c r="W30" s="9">
         <v>3329</v>
       </c>
-      <c r="X28" s="12">
+      <c r="X30" s="9">
         <v>5127</v>
       </c>
-      <c r="Y28" s="12">
+      <c r="Y30" s="9">
         <v>4030</v>
       </c>
-      <c r="Z28" s="12">
+      <c r="Z30" s="9">
         <v>4063</v>
       </c>
-      <c r="AA28" s="12">
+      <c r="AA30" s="9">
         <v>4222</v>
       </c>
-      <c r="AB28" s="12">
+      <c r="AB30" s="9">
         <v>4569</v>
       </c>
-      <c r="AC28" s="12">
+      <c r="AC30" s="9">
         <v>5013</v>
       </c>
-      <c r="AD28" s="12">
+      <c r="AD30" s="9">
         <v>4677</v>
       </c>
-      <c r="AE28" s="12">
+      <c r="AE30" s="9">
         <v>4611</v>
       </c>
-      <c r="AF28" s="12">
-        <f>SUM(K28:N28)</f>
+      <c r="AF30" s="9">
+        <f>SUM(K30:N30)</f>
         <v>4563</v>
       </c>
-      <c r="AG28" s="12">
-        <f>SUM(O28:R28)</f>
+      <c r="AG30" s="9">
+        <f>SUM(O30:R30)</f>
         <v>4563</v>
       </c>
-      <c r="AH28" s="2">
-        <f t="shared" ref="AH28:AT28" si="23">+AG28*1.01</f>
+      <c r="AH30" s="9">
+        <f t="shared" ref="AH30:AT30" si="23">+AG30*1.01</f>
         <v>4608.63</v>
       </c>
-      <c r="AI28" s="2">
+      <c r="AI30" s="9">
         <f t="shared" si="23"/>
         <v>4654.7163</v>
       </c>
-      <c r="AJ28" s="2">
+      <c r="AJ30" s="9">
         <f t="shared" si="23"/>
         <v>4701.2634630000002</v>
       </c>
-      <c r="AK28" s="2">
+      <c r="AK30" s="9">
         <f t="shared" si="23"/>
         <v>4748.2760976300005</v>
       </c>
-      <c r="AL28" s="2">
+      <c r="AL30" s="9">
         <f t="shared" si="23"/>
         <v>4795.7588586063002</v>
       </c>
-      <c r="AM28" s="2">
+      <c r="AM30" s="9">
         <f t="shared" si="23"/>
         <v>4843.7164471923634</v>
       </c>
-      <c r="AN28" s="2">
+      <c r="AN30" s="9">
         <f t="shared" si="23"/>
         <v>4892.1536116642874</v>
       </c>
-      <c r="AO28" s="2">
+      <c r="AO30" s="9">
         <f t="shared" si="23"/>
         <v>4941.0751477809299</v>
       </c>
-      <c r="AP28" s="2">
+      <c r="AP30" s="9">
         <f t="shared" si="23"/>
         <v>4990.4858992587397</v>
       </c>
-      <c r="AQ28" s="2">
+      <c r="AQ30" s="9">
         <f t="shared" si="23"/>
         <v>5040.3907582513275</v>
       </c>
-      <c r="AR28" s="2">
+      <c r="AR30" s="9">
         <f t="shared" si="23"/>
         <v>5090.7946658338406</v>
       </c>
-      <c r="AS28" s="2">
+      <c r="AS30" s="9">
         <f t="shared" si="23"/>
         <v>5141.7026124921786</v>
       </c>
-      <c r="AT28" s="2">
+      <c r="AT30" s="9">
         <f t="shared" si="23"/>
         <v>5193.1196386171005</v>
       </c>
     </row>
-    <row r="29" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
+    <row r="31" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="6">
-        <f t="shared" ref="C29:D29" si="24">SUM(C26:C28)</f>
+      <c r="C31" s="10">
+        <f t="shared" ref="C31:D31" si="24">SUM(C28:C30)</f>
         <v>7081</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D31" s="10">
         <f t="shared" si="24"/>
         <v>8266</v>
       </c>
-      <c r="E29" s="6">
-        <f t="shared" ref="E29:L29" si="25">SUM(E26:E28)</f>
+      <c r="E31" s="10">
+        <f t="shared" ref="E31:L31" si="25">SUM(E28:E30)</f>
         <v>7451</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F31" s="10">
         <f t="shared" si="25"/>
         <v>9140</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G31" s="10">
         <f t="shared" si="25"/>
         <v>7944</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H31" s="10">
         <f t="shared" si="25"/>
         <v>8315</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I31" s="10">
         <f t="shared" si="25"/>
         <v>7784</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J31" s="10">
         <f t="shared" si="25"/>
         <v>8327</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K31" s="10">
         <f t="shared" si="25"/>
         <v>7379</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L31" s="10">
         <f t="shared" si="25"/>
         <v>7898</v>
       </c>
-      <c r="M29" s="6">
-        <f t="shared" ref="M29:N29" si="26">SUM(M26:M28)</f>
+      <c r="M31" s="10">
+        <f t="shared" ref="M31:N31" si="26">SUM(M28:M30)</f>
         <v>7526</v>
       </c>
-      <c r="N29" s="6">
+      <c r="N31" s="10">
         <f t="shared" si="26"/>
         <v>8445</v>
       </c>
-      <c r="O29" s="6">
-        <f t="shared" ref="O29" si="27">SUM(O26:O28)</f>
+      <c r="O31" s="10">
+        <f t="shared" ref="O31" si="27">SUM(O28:O30)</f>
         <v>7379</v>
       </c>
-      <c r="P29" s="6">
-        <f t="shared" ref="P29" si="28">SUM(P26:P28)</f>
+      <c r="P31" s="10">
+        <f t="shared" ref="P31" si="28">SUM(P28:P30)</f>
         <v>7898</v>
       </c>
-      <c r="Q29" s="6">
-        <f t="shared" ref="Q29" si="29">SUM(Q26:Q28)</f>
+      <c r="Q31" s="10">
+        <f t="shared" ref="Q31" si="29">SUM(Q28:Q30)</f>
         <v>7526</v>
       </c>
-      <c r="R29" s="6">
-        <f t="shared" ref="R29" si="30">SUM(R26:R28)</f>
+      <c r="R31" s="10">
+        <f t="shared" ref="R31" si="30">SUM(R28:R30)</f>
         <v>8445</v>
       </c>
-      <c r="V29" s="6">
-        <f t="shared" ref="V29:AE29" si="31">SUM(V26:V28)</f>
+      <c r="V31" s="10">
+        <f t="shared" ref="V31:AE31" si="31">SUM(V28:V30)</f>
         <v>20160</v>
       </c>
-      <c r="W29" s="6">
+      <c r="W31" s="10">
         <f t="shared" si="31"/>
         <v>21991</v>
       </c>
-      <c r="X29" s="6">
+      <c r="X31" s="10">
         <f t="shared" si="31"/>
         <v>26551</v>
       </c>
-      <c r="Y29" s="6">
+      <c r="Y31" s="10">
         <f t="shared" si="31"/>
         <v>25919</v>
       </c>
-      <c r="Z29" s="6">
+      <c r="Z31" s="10">
         <f t="shared" si="31"/>
         <v>25991</v>
       </c>
-      <c r="AA29" s="6">
+      <c r="AA31" s="10">
         <f t="shared" si="31"/>
         <v>27205</v>
       </c>
-      <c r="AB29" s="6">
+      <c r="AB31" s="10">
         <f t="shared" si="31"/>
         <v>28237</v>
       </c>
-      <c r="AC29" s="6">
+      <c r="AC31" s="10">
         <f t="shared" si="31"/>
         <v>30700</v>
       </c>
-      <c r="AD29" s="6">
+      <c r="AD31" s="10">
         <f t="shared" si="31"/>
         <v>31869</v>
       </c>
-      <c r="AE29" s="6">
+      <c r="AE31" s="10">
         <f t="shared" si="31"/>
         <v>32370</v>
       </c>
-      <c r="AF29" s="6">
-        <f t="shared" ref="AF29:AG29" si="32">SUM(AF26:AF28)</f>
+      <c r="AF31" s="10">
+        <f t="shared" ref="AF31:AG31" si="32">SUM(AF28:AF30)</f>
         <v>31248</v>
       </c>
-      <c r="AG29" s="6">
+      <c r="AG31" s="10">
         <f t="shared" si="32"/>
         <v>31248</v>
       </c>
-      <c r="AH29" s="6">
-        <f t="shared" ref="AH29" si="33">SUM(AH26:AH28)</f>
+      <c r="AH31" s="10">
+        <f t="shared" ref="AH31" si="33">SUM(AH28:AH30)</f>
         <v>31560.48</v>
       </c>
-      <c r="AI29" s="6">
-        <f t="shared" ref="AI29" si="34">SUM(AI26:AI28)</f>
+      <c r="AI31" s="10">
+        <f t="shared" ref="AI31" si="34">SUM(AI28:AI30)</f>
         <v>31876.084799999997</v>
       </c>
-      <c r="AJ29" s="6">
-        <f t="shared" ref="AJ29" si="35">SUM(AJ26:AJ28)</f>
+      <c r="AJ31" s="10">
+        <f t="shared" ref="AJ31" si="35">SUM(AJ28:AJ30)</f>
         <v>32194.845647999999</v>
       </c>
-      <c r="AK29" s="6">
-        <f t="shared" ref="AK29" si="36">SUM(AK26:AK28)</f>
+      <c r="AK31" s="10">
+        <f t="shared" ref="AK31" si="36">SUM(AK28:AK30)</f>
         <v>32516.794104479999</v>
       </c>
-      <c r="AL29" s="6">
-        <f t="shared" ref="AL29" si="37">SUM(AL26:AL28)</f>
+      <c r="AL31" s="10">
+        <f t="shared" ref="AL31" si="37">SUM(AL28:AL30)</f>
         <v>32841.9620455248</v>
       </c>
-      <c r="AM29" s="6">
-        <f t="shared" ref="AM29" si="38">SUM(AM26:AM28)</f>
+      <c r="AM31" s="10">
+        <f t="shared" ref="AM31" si="38">SUM(AM28:AM30)</f>
         <v>33170.38166598005</v>
       </c>
-      <c r="AN29" s="6">
-        <f t="shared" ref="AN29" si="39">SUM(AN26:AN28)</f>
+      <c r="AN31" s="10">
+        <f t="shared" ref="AN31" si="39">SUM(AN28:AN30)</f>
         <v>33502.08548263985</v>
       </c>
-      <c r="AO29" s="6">
-        <f t="shared" ref="AO29" si="40">SUM(AO26:AO28)</f>
+      <c r="AO31" s="10">
+        <f t="shared" ref="AO31" si="40">SUM(AO28:AO30)</f>
         <v>33837.106337466248</v>
       </c>
-      <c r="AP29" s="6">
-        <f t="shared" ref="AP29" si="41">SUM(AP26:AP28)</f>
+      <c r="AP31" s="10">
+        <f t="shared" ref="AP31" si="41">SUM(AP28:AP30)</f>
         <v>34175.477400840915</v>
       </c>
-      <c r="AQ29" s="6">
-        <f t="shared" ref="AQ29" si="42">SUM(AQ26:AQ28)</f>
+      <c r="AQ31" s="10">
+        <f t="shared" ref="AQ31" si="42">SUM(AQ28:AQ30)</f>
         <v>34517.232174849327</v>
       </c>
-      <c r="AR29" s="6">
-        <f t="shared" ref="AR29" si="43">SUM(AR26:AR28)</f>
+      <c r="AR31" s="10">
+        <f t="shared" ref="AR31" si="43">SUM(AR28:AR30)</f>
         <v>34862.404496597817</v>
       </c>
-      <c r="AS29" s="6">
-        <f t="shared" ref="AS29" si="44">SUM(AS26:AS28)</f>
+      <c r="AS31" s="10">
+        <f t="shared" ref="AS31" si="44">SUM(AS28:AS30)</f>
         <v>35211.028541563792</v>
       </c>
-      <c r="AT29" s="6">
-        <f t="shared" ref="AT29" si="45">SUM(AT26:AT28)</f>
+      <c r="AT31" s="10">
+        <f t="shared" ref="AT31" si="45">SUM(AT28:AT30)</f>
         <v>35563.138826979433</v>
       </c>
     </row>
-    <row r="30" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
+    <row r="32" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="6">
-        <f t="shared" ref="C30:D30" si="46">C25-C29</f>
+      <c r="C32" s="10">
+        <f t="shared" ref="C32:D32" si="46">C27-C31</f>
         <v>6334</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D32" s="10">
         <f t="shared" si="46"/>
         <v>7969</v>
       </c>
-      <c r="E30" s="6">
-        <f t="shared" ref="E30:L30" si="47">E25-E29</f>
+      <c r="E32" s="10">
+        <f t="shared" ref="E32:L32" si="47">E27-E31</f>
         <v>6974</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F32" s="10">
         <f t="shared" si="47"/>
         <v>6609</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G32" s="10">
         <f t="shared" si="47"/>
         <v>6984</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H32" s="10">
         <f t="shared" si="47"/>
         <v>8019</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I32" s="10">
         <f t="shared" si="47"/>
         <v>6784</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J32" s="10">
         <f t="shared" si="47"/>
         <v>6385</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K32" s="10">
         <f t="shared" si="47"/>
         <v>5793</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L32" s="10">
         <f t="shared" si="47"/>
         <v>6026</v>
       </c>
-      <c r="M30" s="6">
-        <f t="shared" ref="M30:N30" si="48">M25-M29</f>
+      <c r="M32" s="10">
+        <f t="shared" ref="M32:N32" si="48">M27-M31</f>
         <v>6828</v>
       </c>
-      <c r="N30" s="6">
+      <c r="N32" s="10">
         <f t="shared" si="48"/>
         <v>4190</v>
       </c>
-      <c r="O30" s="6">
-        <f t="shared" ref="O30" si="49">O25-O29</f>
+      <c r="O32" s="10">
+        <f t="shared" ref="O32" si="49">O27-O31</f>
         <v>5588.1576999999997</v>
       </c>
-      <c r="P30" s="6">
-        <f t="shared" ref="P30" si="50">P25-P29</f>
+      <c r="P32" s="10">
+        <f t="shared" ref="P32" si="50">P27-P31</f>
         <v>7243.3948</v>
       </c>
-      <c r="Q30" s="6">
-        <f t="shared" ref="Q30" si="51">Q25-Q29</f>
+      <c r="Q32" s="10">
+        <f t="shared" ref="Q32" si="51">Q27-Q31</f>
         <v>6520.9587999999985</v>
       </c>
-      <c r="R30" s="6">
-        <f t="shared" ref="R30" si="52">R25-R29</f>
+      <c r="R32" s="10">
+        <f t="shared" ref="R32" si="52">R27-R31</f>
         <v>4671.6882000000005</v>
       </c>
-      <c r="V30" s="6">
-        <f t="shared" ref="V30:AE30" si="53">V25-V29</f>
+      <c r="V32" s="10">
+        <f t="shared" ref="V32:AE32" si="53">V27-V31</f>
         <v>16472</v>
       </c>
-      <c r="W30" s="6">
+      <c r="W32" s="10">
         <f t="shared" si="53"/>
         <v>18438</v>
       </c>
-      <c r="X30" s="6">
+      <c r="X32" s="10">
         <f t="shared" si="53"/>
         <v>22271</v>
       </c>
-      <c r="Y30" s="6">
+      <c r="Y32" s="10">
         <f t="shared" si="53"/>
         <v>20363</v>
       </c>
-      <c r="Z30" s="6">
+      <c r="Z32" s="10">
         <f t="shared" si="53"/>
         <v>24098</v>
       </c>
-      <c r="AA30" s="6">
+      <c r="AA32" s="10">
         <f t="shared" si="53"/>
         <v>27161</v>
       </c>
-      <c r="AB30" s="6">
+      <c r="AB32" s="10">
         <f t="shared" si="53"/>
         <v>27956</v>
       </c>
-      <c r="AC30" s="6">
+      <c r="AC32" s="10">
         <f t="shared" si="53"/>
         <v>26764</v>
       </c>
-      <c r="AD30" s="6">
+      <c r="AD32" s="10">
         <f t="shared" si="53"/>
         <v>27886</v>
       </c>
-      <c r="AE30" s="6">
+      <c r="AE32" s="10">
         <f t="shared" si="53"/>
         <v>28172</v>
       </c>
-      <c r="AF30" s="6">
-        <f t="shared" ref="AF30:AG30" si="54">AF25-AF29</f>
+      <c r="AF32" s="10">
+        <f t="shared" ref="AF32:AG32" si="54">AF27-AF31</f>
         <v>22837</v>
       </c>
-      <c r="AG30" s="6">
+      <c r="AG32" s="10">
         <f t="shared" si="54"/>
         <v>24024.199499999988</v>
       </c>
-      <c r="AH30" s="6">
-        <f t="shared" ref="AH30" si="55">AH25-AH29</f>
+      <c r="AH32" s="10">
+        <f t="shared" ref="AH32" si="55">AH27-AH31</f>
         <v>24817.163489999995</v>
       </c>
-      <c r="AI30" s="6">
-        <f t="shared" ref="AI30" si="56">AI25-AI29</f>
-        <v>25629.111559799996</v>
-      </c>
-      <c r="AJ30" s="6">
-        <f t="shared" ref="AJ30" si="57">AJ25-AJ29</f>
-        <v>26460.454638995998</v>
-      </c>
-      <c r="AK30" s="6">
-        <f t="shared" ref="AK30" si="58">AK25-AK29</f>
-        <v>27311.612188255913</v>
-      </c>
-      <c r="AL30" s="6">
-        <f t="shared" ref="AL30" si="59">AL25-AL29</f>
-        <v>28183.012373065838</v>
-      </c>
-      <c r="AM30" s="6">
-        <f t="shared" ref="AM30" si="60">AM25-AM29</f>
-        <v>29075.092240982405</v>
-      </c>
-      <c r="AN30" s="6">
-        <f t="shared" ref="AN30" si="61">AN25-AN29</f>
-        <v>29988.297902461854</v>
-      </c>
-      <c r="AO30" s="6">
-        <f t="shared" ref="AO30" si="62">AO25-AO29</f>
-        <v>30923.084715337493</v>
-      </c>
-      <c r="AP30" s="6">
-        <f t="shared" ref="AP30" si="63">AP25-AP29</f>
-        <v>31879.917473018897</v>
-      </c>
-      <c r="AQ30" s="6">
-        <f t="shared" ref="AQ30" si="64">AQ25-AQ29</f>
-        <v>32859.270596487695</v>
-      </c>
-      <c r="AR30" s="6">
-        <f t="shared" ref="AR30" si="65">AR25-AR29</f>
-        <v>33861.62833016595</v>
-      </c>
-      <c r="AS30" s="6">
-        <f t="shared" ref="AS30" si="66">AS25-AS29</f>
-        <v>34887.484941735253</v>
-      </c>
-      <c r="AT30" s="6">
-        <f t="shared" ref="AT30" si="67">AT25-AT29</f>
-        <v>35937.344925985592</v>
-      </c>
-    </row>
-    <row r="31" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
+      <c r="AI32" s="10">
+        <f t="shared" ref="AI32" si="56">AI27-AI31</f>
+        <v>26192.887994700002</v>
+      </c>
+      <c r="AJ32" s="10">
+        <f t="shared" ref="AJ32" si="57">AJ27-AJ31</f>
+        <v>27616.196330541006</v>
+      </c>
+      <c r="AK32" s="10">
+        <f t="shared" ref="AK32" si="58">AK27-AK31</f>
+        <v>29088.579133417228</v>
+      </c>
+      <c r="AL32" s="10">
+        <f t="shared" ref="AL32" si="59">AL27-AL31</f>
+        <v>30611.572389509347</v>
+      </c>
+      <c r="AM32" s="10">
+        <f t="shared" ref="AM32" si="60">AM27-AM31</f>
+        <v>32186.75880210512</v>
+      </c>
+      <c r="AN32" s="10">
+        <f t="shared" ref="AN32" si="61">AN27-AN31</f>
+        <v>33815.769199487877</v>
+      </c>
+      <c r="AO32" s="10">
+        <f t="shared" ref="AO32" si="62">AO27-AO31</f>
+        <v>35500.283985125308</v>
+      </c>
+      <c r="AP32" s="10">
+        <f t="shared" ref="AP32" si="63">AP27-AP31</f>
+        <v>37242.034631428396</v>
+      </c>
+      <c r="AQ32" s="10">
+        <f t="shared" ref="AQ32" si="64">AQ27-AQ31</f>
+        <v>39042.805218388065</v>
+      </c>
+      <c r="AR32" s="10">
+        <f t="shared" ref="AR32" si="65">AR27-AR31</f>
+        <v>40904.434018436696</v>
+      </c>
+      <c r="AS32" s="10">
+        <f t="shared" ref="AS32" si="66">AS27-AS31</f>
+        <v>42828.815128921764</v>
+      </c>
+      <c r="AT32" s="10">
+        <f t="shared" ref="AT32" si="67">AT27-AT31</f>
+        <v>44817.900153620685</v>
+      </c>
+    </row>
+    <row r="33" spans="2:149" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C33" s="10">
         <v>74</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D33" s="10">
         <v>-91</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E33" s="10">
         <v>-17</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F33" s="10">
         <v>95</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G33" s="10">
         <v>52</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H33" s="10">
         <v>74</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I33" s="10">
         <v>-77</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J33" s="10">
         <v>297</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K33" s="10">
         <v>-280</v>
       </c>
-      <c r="L31" s="6">
+      <c r="L33" s="10">
         <v>-171</v>
       </c>
-      <c r="M31" s="6">
+      <c r="M33" s="10">
         <v>-247</v>
       </c>
-      <c r="N31" s="6">
+      <c r="N33" s="10">
         <v>267</v>
       </c>
-      <c r="O31" s="6">
-        <f t="shared" ref="O31:R31" si="68">N31+10</f>
+      <c r="O33" s="10">
+        <f t="shared" ref="O33:R33" si="68">N33+10</f>
         <v>277</v>
       </c>
-      <c r="P31" s="6">
+      <c r="P33" s="10">
         <f t="shared" si="68"/>
         <v>287</v>
       </c>
-      <c r="Q31" s="6">
+      <c r="Q33" s="10">
         <f t="shared" si="68"/>
         <v>297</v>
       </c>
-      <c r="R31" s="6">
+      <c r="R33" s="10">
         <f t="shared" si="68"/>
         <v>307</v>
       </c>
-      <c r="V31" s="12">
+      <c r="V33" s="9">
         <v>1790</v>
       </c>
-      <c r="W31" s="12">
+      <c r="W33" s="9">
         <v>1663</v>
       </c>
-      <c r="X31" s="12">
+      <c r="X33" s="9">
         <v>1543</v>
       </c>
-      <c r="Y31" s="12">
+      <c r="Y33" s="9">
         <v>-542</v>
       </c>
-      <c r="Z31" s="12">
+      <c r="Z33" s="9">
         <v>915</v>
       </c>
-      <c r="AA31" s="12">
+      <c r="AA33" s="9">
         <v>910</v>
       </c>
-      <c r="AB31" s="12">
+      <c r="AB33" s="9">
         <v>504</v>
       </c>
-      <c r="AC31" s="12">
+      <c r="AC33" s="9">
         <v>288</v>
       </c>
-      <c r="AD31" s="12">
+      <c r="AD33" s="9">
         <v>61</v>
       </c>
-      <c r="AE31" s="12">
+      <c r="AE33" s="9">
         <v>346</v>
       </c>
-      <c r="AF31" s="12">
-        <f>SUM(K31:N31)</f>
+      <c r="AF33" s="9">
+        <f>SUM(K33:N33)</f>
         <v>-431</v>
       </c>
-      <c r="AG31" s="12">
-        <f>SUM(O31:R31)</f>
+      <c r="AG33" s="9">
+        <f>SUM(O33:R33)</f>
         <v>1168</v>
       </c>
-      <c r="AH31" s="2">
-        <f t="shared" ref="AH31:AT31" si="69">+AG48*$AW$38</f>
+      <c r="AH33" s="9">
+        <f t="shared" ref="AH33:AT33" si="69">+AG50*$AW$40</f>
         <v>564.21840797499999</v>
       </c>
-      <c r="AI31" s="2">
+      <c r="AI33" s="9">
         <f t="shared" si="69"/>
         <v>665.74393556689995</v>
       </c>
-      <c r="AJ31" s="2">
+      <c r="AJ33" s="9">
         <f t="shared" si="69"/>
-        <v>770.92335754836756</v>
-      </c>
-      <c r="AK31" s="2">
+        <v>773.17846328796747</v>
+      </c>
+      <c r="AK33" s="9">
         <f t="shared" si="69"/>
-        <v>879.84886953454497</v>
-      </c>
-      <c r="AL31" s="2">
+        <v>886.73596246328339</v>
+      </c>
+      <c r="AL33" s="9">
         <f t="shared" si="69"/>
-        <v>992.61471376570671</v>
-      </c>
-      <c r="AM31" s="2">
+        <v>1006.6372228468055</v>
+      </c>
+      <c r="AM33" s="9">
         <f t="shared" si="69"/>
-        <v>1109.317222113033</v>
-      </c>
-      <c r="AN31" s="2">
+        <v>1133.11006129623</v>
+      </c>
+      <c r="AN33" s="9">
         <f t="shared" si="69"/>
-        <v>1230.0548599654146</v>
-      </c>
-      <c r="AO31" s="2">
+        <v>1266.3895367498353</v>
+      </c>
+      <c r="AO33" s="9">
         <f t="shared" si="69"/>
-        <v>1354.9282710151238</v>
-      </c>
-      <c r="AP31" s="2">
+        <v>1406.7181716947864</v>
+      </c>
+      <c r="AP33" s="9">
         <f t="shared" si="69"/>
-        <v>1484.0403229605342</v>
-      </c>
-      <c r="AQ31" s="2">
+        <v>1554.3461803220666</v>
+      </c>
+      <c r="AQ33" s="9">
         <f t="shared" si="69"/>
-        <v>1617.496154144452</v>
-      </c>
-      <c r="AR31" s="2">
+        <v>1709.5317035690684</v>
+      </c>
+      <c r="AR33" s="9">
         <f t="shared" si="69"/>
-        <v>1755.4032211469807</v>
-      </c>
-      <c r="AS31" s="2">
+        <v>1872.5410512568967</v>
+      </c>
+      <c r="AS33" s="9">
         <f t="shared" si="69"/>
-        <v>1897.8713473522323</v>
-      </c>
-      <c r="AT31" s="2">
+        <v>2043.6489515356711</v>
+      </c>
+      <c r="AT33" s="9">
         <f t="shared" si="69"/>
-        <v>2045.0127725085824</v>
-      </c>
-    </row>
-    <row r="32" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
+        <v>2223.138807857501</v>
+      </c>
+    </row>
+    <row r="34" spans="2:149" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="6">
-        <f t="shared" ref="C32:D32" si="70">+C31+C30</f>
+      <c r="C34" s="10">
+        <f t="shared" ref="C34:D34" si="70">+C33+C32</f>
         <v>6408</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D34" s="10">
         <f t="shared" si="70"/>
         <v>7878</v>
       </c>
-      <c r="E32" s="6">
-        <f t="shared" ref="E32:M32" si="71">+E31+E30</f>
+      <c r="E34" s="10">
+        <f t="shared" ref="E34:M34" si="71">+E33+E32</f>
         <v>6957</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F34" s="10">
         <f t="shared" si="71"/>
         <v>6704</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G34" s="10">
         <f t="shared" si="71"/>
         <v>7036</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H34" s="10">
         <f t="shared" si="71"/>
         <v>8093</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I34" s="10">
         <f t="shared" si="71"/>
         <v>6707</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J34" s="10">
         <f t="shared" si="71"/>
         <v>6682</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K34" s="10">
         <f t="shared" si="71"/>
         <v>5513</v>
       </c>
-      <c r="L32" s="6">
+      <c r="L34" s="10">
         <f t="shared" si="71"/>
         <v>5855</v>
       </c>
-      <c r="M32" s="6">
+      <c r="M34" s="10">
         <f t="shared" si="71"/>
         <v>6581</v>
       </c>
-      <c r="N32" s="6">
-        <f t="shared" ref="N32" si="72">+N31+N30</f>
+      <c r="N34" s="10">
+        <f t="shared" ref="N34" si="72">+N33+N32</f>
         <v>4457</v>
       </c>
-      <c r="O32" s="6">
-        <f t="shared" ref="O32" si="73">+O31+O30</f>
+      <c r="O34" s="10">
+        <f t="shared" ref="O34" si="73">+O33+O32</f>
         <v>5865.1576999999997</v>
       </c>
-      <c r="P32" s="6">
-        <f t="shared" ref="P32" si="74">+P31+P30</f>
+      <c r="P34" s="10">
+        <f t="shared" ref="P34" si="74">+P33+P32</f>
         <v>7530.3948</v>
       </c>
-      <c r="Q32" s="6">
-        <f t="shared" ref="Q32" si="75">+Q31+Q30</f>
+      <c r="Q34" s="10">
+        <f t="shared" ref="Q34" si="75">+Q33+Q32</f>
         <v>6817.9587999999985</v>
       </c>
-      <c r="R32" s="6">
-        <f t="shared" ref="R32" si="76">+R31+R30</f>
+      <c r="R34" s="10">
+        <f t="shared" ref="R34" si="76">+R33+R32</f>
         <v>4978.6882000000005</v>
       </c>
-      <c r="V32" s="6">
-        <f t="shared" ref="V32" si="77">+V31+V30</f>
+      <c r="V34" s="10">
+        <f t="shared" ref="V34" si="77">+V33+V32</f>
         <v>18262</v>
       </c>
-      <c r="W32" s="6">
-        <f t="shared" ref="W32:X32" si="78">+W31+W30</f>
+      <c r="W34" s="10">
+        <f t="shared" ref="W34:X34" si="78">+W33+W32</f>
         <v>20101</v>
       </c>
-      <c r="X32" s="6">
+      <c r="X34" s="10">
         <f t="shared" si="78"/>
         <v>23814</v>
       </c>
-      <c r="Y32" s="6">
-        <f t="shared" ref="Y32:Z32" si="79">+Y31+Y30</f>
+      <c r="Y34" s="10">
+        <f t="shared" ref="Y34:Z34" si="79">+Y33+Y32</f>
         <v>19821</v>
       </c>
-      <c r="Z32" s="6">
+      <c r="Z34" s="10">
         <f t="shared" si="79"/>
         <v>25013</v>
       </c>
-      <c r="AA32" s="6">
-        <f t="shared" ref="AA32:AB32" si="80">+AA31+AA30</f>
+      <c r="AA34" s="10">
+        <f t="shared" ref="AA34:AB34" si="80">+AA33+AA32</f>
         <v>28071</v>
       </c>
-      <c r="AB32" s="6">
+      <c r="AB34" s="10">
         <f t="shared" si="80"/>
         <v>28460</v>
       </c>
-      <c r="AC32" s="6">
-        <f t="shared" ref="AC32:AD32" si="81">+AC31+AC30</f>
+      <c r="AC34" s="10">
+        <f t="shared" ref="AC34:AD34" si="81">+AC33+AC32</f>
         <v>27052</v>
       </c>
-      <c r="AD32" s="6">
+      <c r="AD34" s="10">
         <f t="shared" si="81"/>
         <v>27947</v>
       </c>
-      <c r="AE32" s="6">
-        <f t="shared" ref="AE32:AF32" si="82">+AE31+AE30</f>
+      <c r="AE34" s="10">
+        <f t="shared" ref="AE34:AF34" si="82">+AE33+AE32</f>
         <v>28518</v>
       </c>
-      <c r="AF32" s="6">
+      <c r="AF34" s="10">
         <f t="shared" si="82"/>
         <v>22406</v>
       </c>
-      <c r="AG32" s="6">
-        <f>+AG31+AG30</f>
+      <c r="AG34" s="10">
+        <f>+AG33+AG32</f>
         <v>25192.199499999988</v>
       </c>
-      <c r="AH32" s="6">
-        <f t="shared" ref="AH32" si="83">+AH31+AH30</f>
+      <c r="AH34" s="10">
+        <f t="shared" ref="AH34" si="83">+AH33+AH32</f>
         <v>25381.381897974996</v>
       </c>
-      <c r="AI32" s="6">
-        <f t="shared" ref="AI32" si="84">+AI31+AI30</f>
-        <v>26294.855495366897</v>
-      </c>
-      <c r="AJ32" s="6">
-        <f t="shared" ref="AJ32" si="85">+AJ31+AJ30</f>
-        <v>27231.377996544365</v>
-      </c>
-      <c r="AK32" s="6">
-        <f t="shared" ref="AK32" si="86">+AK31+AK30</f>
-        <v>28191.461057790457</v>
-      </c>
-      <c r="AL32" s="6">
-        <f t="shared" ref="AL32" si="87">+AL31+AL30</f>
-        <v>29175.627086831544</v>
-      </c>
-      <c r="AM32" s="6">
-        <f t="shared" ref="AM32" si="88">+AM31+AM30</f>
-        <v>30184.409463095439</v>
-      </c>
-      <c r="AN32" s="6">
-        <f t="shared" ref="AN32" si="89">+AN31+AN30</f>
-        <v>31218.352762427268</v>
-      </c>
-      <c r="AO32" s="6">
-        <f t="shared" ref="AO32" si="90">+AO31+AO30</f>
-        <v>32278.012986352616</v>
-      </c>
-      <c r="AP32" s="6">
-        <f t="shared" ref="AP32" si="91">+AP31+AP30</f>
-        <v>33363.957795979433</v>
-      </c>
-      <c r="AQ32" s="6">
-        <f t="shared" ref="AQ32" si="92">+AQ31+AQ30</f>
-        <v>34476.766750632145</v>
-      </c>
-      <c r="AR32" s="6">
-        <f t="shared" ref="AR32" si="93">+AR31+AR30</f>
-        <v>35617.031551312932</v>
-      </c>
-      <c r="AS32" s="6">
-        <f t="shared" ref="AS32" si="94">+AS31+AS30</f>
-        <v>36785.356289087482</v>
-      </c>
-      <c r="AT32" s="6">
-        <f t="shared" ref="AT32" si="95">+AT31+AT30</f>
-        <v>37982.357698494176</v>
-      </c>
-    </row>
-    <row r="33" spans="2:149" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
+      <c r="AI34" s="10">
+        <f t="shared" ref="AI34" si="84">+AI33+AI32</f>
+        <v>26858.631930266904</v>
+      </c>
+      <c r="AJ34" s="10">
+        <f t="shared" ref="AJ34" si="85">+AJ33+AJ32</f>
+        <v>28389.374793828974</v>
+      </c>
+      <c r="AK34" s="10">
+        <f t="shared" ref="AK34" si="86">+AK33+AK32</f>
+        <v>29975.315095880513</v>
+      </c>
+      <c r="AL34" s="10">
+        <f t="shared" ref="AL34" si="87">+AL33+AL32</f>
+        <v>31618.209612356153</v>
+      </c>
+      <c r="AM34" s="10">
+        <f t="shared" ref="AM34" si="88">+AM33+AM32</f>
+        <v>33319.868863401352</v>
+      </c>
+      <c r="AN34" s="10">
+        <f t="shared" ref="AN34" si="89">+AN33+AN32</f>
+        <v>35082.15873623771</v>
+      </c>
+      <c r="AO34" s="10">
+        <f t="shared" ref="AO34" si="90">+AO33+AO32</f>
+        <v>36907.002156820097</v>
+      </c>
+      <c r="AP34" s="10">
+        <f t="shared" ref="AP34" si="91">+AP33+AP32</f>
+        <v>38796.38081175046</v>
+      </c>
+      <c r="AQ34" s="10">
+        <f t="shared" ref="AQ34" si="92">+AQ33+AQ32</f>
+        <v>40752.336921957132</v>
+      </c>
+      <c r="AR34" s="10">
+        <f t="shared" ref="AR34" si="93">+AR33+AR32</f>
+        <v>42776.975069693595</v>
+      </c>
+      <c r="AS34" s="10">
+        <f t="shared" ref="AS34" si="94">+AS33+AS32</f>
+        <v>44872.464080457437</v>
+      </c>
+      <c r="AT34" s="10">
+        <f t="shared" ref="AT34" si="95">+AT33+AT32</f>
+        <v>47041.038961478189</v>
+      </c>
+    </row>
+    <row r="35" spans="2:149" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C35" s="10">
         <v>1164</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D35" s="10">
         <v>1320</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E35" s="10">
         <v>1297</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F35" s="10">
         <v>1965</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G35" s="10">
         <v>1356</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H35" s="10">
         <v>1987</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I35" s="10">
         <v>1532</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J35" s="10">
         <v>1439</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K35" s="10">
         <v>893</v>
       </c>
-      <c r="L33" s="6">
+      <c r="L35" s="10">
         <v>857</v>
       </c>
-      <c r="M33" s="6">
+      <c r="M35" s="10">
         <v>1280</v>
       </c>
-      <c r="N33" s="6">
+      <c r="N35" s="10">
         <v>225</v>
       </c>
-      <c r="O33" s="6">
-        <f t="shared" ref="O33:R33" si="96">+O32*0.19</f>
+      <c r="O35" s="10">
+        <f t="shared" ref="O35:R35" si="96">+O34*0.19</f>
         <v>1114.3799629999999</v>
       </c>
-      <c r="P33" s="6">
+      <c r="P35" s="10">
         <f t="shared" si="96"/>
         <v>1430.7750120000001</v>
       </c>
-      <c r="Q33" s="6">
+      <c r="Q35" s="10">
         <f t="shared" si="96"/>
         <v>1295.4121719999998</v>
       </c>
-      <c r="R33" s="6">
+      <c r="R35" s="10">
         <f t="shared" si="96"/>
         <v>945.95075800000006</v>
       </c>
-      <c r="V33" s="12">
+      <c r="V35" s="9">
         <v>5663</v>
       </c>
-      <c r="W33" s="12">
+      <c r="W35" s="9">
         <v>6036</v>
       </c>
-      <c r="X33" s="12">
+      <c r="X35" s="9">
         <v>6133</v>
       </c>
-      <c r="Y33" s="12">
+      <c r="Y35" s="9">
         <v>5252</v>
       </c>
-      <c r="Z33" s="12">
+      <c r="Z35" s="9">
         <v>6253</v>
       </c>
-      <c r="AA33" s="12">
+      <c r="AA35" s="9">
         <v>4921</v>
       </c>
-      <c r="AB33" s="12">
+      <c r="AB35" s="9">
         <v>5289</v>
       </c>
-      <c r="AC33" s="12">
+      <c r="AC35" s="9">
         <v>5189</v>
       </c>
-      <c r="AD33" s="12">
+      <c r="AD35" s="9">
         <v>5746</v>
       </c>
-      <c r="AE33" s="12">
+      <c r="AE35" s="9">
         <v>6314</v>
       </c>
-      <c r="AF33" s="12">
-        <f>SUM(K33:N33)</f>
+      <c r="AF35" s="9">
+        <f>SUM(K35:N35)</f>
         <v>3255</v>
       </c>
-      <c r="AG33" s="12">
-        <f>SUM(O33:R33)</f>
+      <c r="AG35" s="9">
+        <f>SUM(O35:R35)</f>
         <v>4786.5179049999997</v>
       </c>
-      <c r="AH33" s="2">
-        <f>+AH32*0.2</f>
+      <c r="AH35" s="9">
+        <f>+AH34*0.2</f>
         <v>5076.2763795949995</v>
       </c>
-      <c r="AI33" s="2">
-        <f t="shared" ref="AI33:AT33" si="97">+AI32*0.2</f>
-        <v>5258.9710990733802</v>
-      </c>
-      <c r="AJ33" s="2">
+      <c r="AI35" s="9">
+        <f t="shared" ref="AI35:AT35" si="97">+AI34*0.2</f>
+        <v>5371.7263860533812</v>
+      </c>
+      <c r="AJ35" s="9">
         <f t="shared" si="97"/>
-        <v>5446.2755993088731</v>
-      </c>
-      <c r="AK33" s="2">
+        <v>5677.8749587657949</v>
+      </c>
+      <c r="AK35" s="9">
         <f t="shared" si="97"/>
-        <v>5638.2922115580914</v>
-      </c>
-      <c r="AL33" s="2">
+        <v>5995.0630191761029</v>
+      </c>
+      <c r="AL35" s="9">
         <f t="shared" si="97"/>
-        <v>5835.1254173663092</v>
-      </c>
-      <c r="AM33" s="2">
+        <v>6323.6419224712308</v>
+      </c>
+      <c r="AM35" s="9">
         <f t="shared" si="97"/>
-        <v>6036.8818926190879</v>
-      </c>
-      <c r="AN33" s="2">
+        <v>6663.9737726802705</v>
+      </c>
+      <c r="AN35" s="9">
         <f t="shared" si="97"/>
-        <v>6243.6705524854542</v>
-      </c>
-      <c r="AO33" s="2">
+        <v>7016.4317472475423</v>
+      </c>
+      <c r="AO35" s="9">
         <f t="shared" si="97"/>
-        <v>6455.6025972705238</v>
-      </c>
-      <c r="AP33" s="2">
+        <v>7381.4004313640198</v>
+      </c>
+      <c r="AP35" s="9">
         <f t="shared" si="97"/>
-        <v>6672.7915591958872</v>
-      </c>
-      <c r="AQ33" s="2">
+        <v>7759.2761623500919</v>
+      </c>
+      <c r="AQ35" s="9">
         <f t="shared" si="97"/>
-        <v>6895.3533501264292</v>
-      </c>
-      <c r="AR33" s="2">
+        <v>8150.467384391427</v>
+      </c>
+      <c r="AR35" s="9">
         <f t="shared" si="97"/>
-        <v>7123.4063102625869</v>
-      </c>
-      <c r="AS33" s="2">
+        <v>8555.3950139387198</v>
+      </c>
+      <c r="AS35" s="9">
         <f t="shared" si="97"/>
-        <v>7357.0712578174971</v>
-      </c>
-      <c r="AT33" s="2">
+        <v>8974.4928160914878</v>
+      </c>
+      <c r="AT35" s="9">
         <f t="shared" si="97"/>
-        <v>7596.4715396988358</v>
-      </c>
-    </row>
-    <row r="34" spans="2:149" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="8" t="s">
+        <v>9408.2077922956378</v>
+      </c>
+    </row>
+    <row r="36" spans="2:149" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="9">
-        <f t="shared" ref="C34:D34" si="98">+C32-C33</f>
+      <c r="C36" s="6">
+        <f t="shared" ref="C36:D36" si="98">+C34-C35</f>
         <v>5244</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D36" s="6">
         <f t="shared" si="98"/>
         <v>6558</v>
       </c>
-      <c r="E34" s="9">
-        <f t="shared" ref="E34:M34" si="99">+E32-E33</f>
+      <c r="E36" s="6">
+        <f t="shared" ref="E36:M36" si="99">+E34-E35</f>
         <v>5660</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F36" s="6">
         <f t="shared" si="99"/>
         <v>4739</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G36" s="6">
         <f t="shared" si="99"/>
         <v>5680</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H36" s="6">
         <f t="shared" si="99"/>
         <v>6106</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I36" s="6">
         <f t="shared" si="99"/>
         <v>5175</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J36" s="6">
         <f t="shared" si="99"/>
         <v>5243</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K36" s="6">
         <f t="shared" si="99"/>
         <v>4620</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L36" s="6">
         <f t="shared" si="99"/>
         <v>4998</v>
       </c>
-      <c r="M34" s="9">
+      <c r="M36" s="6">
         <f t="shared" si="99"/>
         <v>5301</v>
       </c>
-      <c r="N34" s="9">
-        <f t="shared" ref="N34" si="100">+N32-N33</f>
+      <c r="N36" s="6">
+        <f t="shared" ref="N36" si="100">+N34-N35</f>
         <v>4232</v>
       </c>
-      <c r="O34" s="9">
-        <f t="shared" ref="O34" si="101">+O32-O33</f>
+      <c r="O36" s="6">
+        <f t="shared" ref="O36" si="101">+O34-O35</f>
         <v>4750.7777370000003</v>
       </c>
-      <c r="P34" s="9">
-        <f t="shared" ref="P34" si="102">+P32-P33</f>
+      <c r="P36" s="6">
+        <f t="shared" ref="P36" si="102">+P34-P35</f>
         <v>6099.619788</v>
       </c>
-      <c r="Q34" s="9">
-        <f t="shared" ref="Q34" si="103">+Q32-Q33</f>
+      <c r="Q36" s="6">
+        <f t="shared" ref="Q36" si="103">+Q34-Q35</f>
         <v>5522.5466279999982</v>
       </c>
-      <c r="R34" s="9">
-        <f t="shared" ref="R34" si="104">+R32-R33</f>
+      <c r="R36" s="6">
+        <f t="shared" ref="R36" si="104">+R34-R35</f>
         <v>4032.7374420000006</v>
       </c>
-      <c r="V34" s="9">
-        <f t="shared" ref="V34" si="105">+V32-V33</f>
+      <c r="V36" s="6">
+        <f t="shared" ref="V36" si="105">+V34-V35</f>
         <v>12599</v>
       </c>
-      <c r="W34" s="9">
-        <f t="shared" ref="W34:X34" si="106">+W32-W33</f>
+      <c r="W36" s="6">
+        <f t="shared" ref="W36:X36" si="106">+W34-W35</f>
         <v>14065</v>
       </c>
-      <c r="X34" s="9">
+      <c r="X36" s="6">
         <f t="shared" si="106"/>
         <v>17681</v>
       </c>
-      <c r="Y34" s="9">
-        <f t="shared" ref="Y34:Z34" si="107">+Y32-Y33</f>
+      <c r="Y36" s="6">
+        <f t="shared" ref="Y36:Z36" si="107">+Y34-Y35</f>
         <v>14569</v>
       </c>
-      <c r="Z34" s="9">
+      <c r="Z36" s="6">
         <f t="shared" si="107"/>
         <v>18760</v>
       </c>
-      <c r="AA34" s="9">
-        <f t="shared" ref="AA34:AB34" si="108">+AA32-AA33</f>
+      <c r="AA36" s="6">
+        <f t="shared" ref="AA36:AB36" si="108">+AA34-AA35</f>
         <v>23150</v>
       </c>
-      <c r="AB34" s="9">
+      <c r="AB36" s="6">
         <f t="shared" si="108"/>
         <v>23171</v>
       </c>
-      <c r="AC34" s="9">
-        <f t="shared" ref="AC34:AD34" si="109">+AC32-AC33</f>
+      <c r="AC36" s="6">
+        <f t="shared" ref="AC36:AD36" si="109">+AC34-AC35</f>
         <v>21863</v>
       </c>
-      <c r="AD34" s="9">
+      <c r="AD36" s="6">
         <f t="shared" si="109"/>
         <v>22201</v>
       </c>
-      <c r="AE34" s="9">
-        <f t="shared" ref="AE34:AF34" si="110">+AE32-AE33</f>
+      <c r="AE36" s="6">
+        <f t="shared" ref="AE36:AF36" si="110">+AE34-AE35</f>
         <v>22204</v>
       </c>
-      <c r="AF34" s="9">
+      <c r="AF36" s="6">
         <f t="shared" si="110"/>
         <v>19151</v>
       </c>
-      <c r="AG34" s="9">
-        <f t="shared" ref="AG34" si="111">+AG32-AG33</f>
+      <c r="AG36" s="6">
+        <f t="shared" ref="AG36" si="111">+AG34-AG35</f>
         <v>20405.681594999987</v>
       </c>
-      <c r="AH34" s="9">
-        <f t="shared" ref="AH34" si="112">+AH32-AH33</f>
+      <c r="AH36" s="6">
+        <f t="shared" ref="AH36" si="112">+AH34-AH35</f>
         <v>20305.105518379998</v>
       </c>
-      <c r="AI34" s="9">
-        <f t="shared" ref="AI34" si="113">+AI32-AI33</f>
-        <v>21035.884396293517</v>
-      </c>
-      <c r="AJ34" s="9">
-        <f t="shared" ref="AJ34" si="114">+AJ32-AJ33</f>
-        <v>21785.102397235492</v>
-      </c>
-      <c r="AK34" s="9">
-        <f t="shared" ref="AK34" si="115">+AK32-AK33</f>
-        <v>22553.168846232365</v>
-      </c>
-      <c r="AL34" s="9">
-        <f t="shared" ref="AL34" si="116">+AL32-AL33</f>
-        <v>23340.501669465237</v>
-      </c>
-      <c r="AM34" s="9">
-        <f t="shared" ref="AM34" si="117">+AM32-AM33</f>
-        <v>24147.527570476352</v>
-      </c>
-      <c r="AN34" s="9">
-        <f t="shared" ref="AN34" si="118">+AN32-AN33</f>
-        <v>24974.682209941813</v>
-      </c>
-      <c r="AO34" s="9">
-        <f t="shared" ref="AO34" si="119">+AO32-AO33</f>
-        <v>25822.410389082092</v>
-      </c>
-      <c r="AP34" s="9">
-        <f t="shared" ref="AP34" si="120">+AP32-AP33</f>
-        <v>26691.166236783545</v>
-      </c>
-      <c r="AQ34" s="9">
-        <f t="shared" ref="AQ34" si="121">+AQ32-AQ33</f>
-        <v>27581.413400505717</v>
-      </c>
-      <c r="AR34" s="9">
-        <f t="shared" ref="AR34" si="122">+AR32-AR33</f>
-        <v>28493.625241050344</v>
-      </c>
-      <c r="AS34" s="9">
-        <f t="shared" ref="AS34" si="123">+AS32-AS33</f>
-        <v>29428.285031269985</v>
-      </c>
-      <c r="AT34" s="9">
-        <f t="shared" ref="AT34" si="124">+AT32-AT33</f>
-        <v>30385.88615879534</v>
-      </c>
-      <c r="AU34" s="8">
-        <f>AT34*(1+$AW$37)</f>
-        <v>29474.309574031478</v>
-      </c>
-      <c r="AV34" s="8">
-        <f t="shared" ref="AV34:DG34" si="125">AU34*(1+$AW$37)</f>
-        <v>28590.080286810535</v>
-      </c>
-      <c r="AW34" s="8">
+      <c r="AI36" s="6">
+        <f t="shared" ref="AI36" si="113">+AI34-AI35</f>
+        <v>21486.905544213521</v>
+      </c>
+      <c r="AJ36" s="6">
+        <f t="shared" ref="AJ36" si="114">+AJ34-AJ35</f>
+        <v>22711.499835063179</v>
+      </c>
+      <c r="AK36" s="6">
+        <f t="shared" ref="AK36" si="115">+AK34-AK35</f>
+        <v>23980.252076704412</v>
+      </c>
+      <c r="AL36" s="6">
+        <f t="shared" ref="AL36" si="116">+AL34-AL35</f>
+        <v>25294.567689884923</v>
+      </c>
+      <c r="AM36" s="6">
+        <f t="shared" ref="AM36" si="117">+AM34-AM35</f>
+        <v>26655.895090721082</v>
+      </c>
+      <c r="AN36" s="6">
+        <f t="shared" ref="AN36" si="118">+AN34-AN35</f>
+        <v>28065.726988990169</v>
+      </c>
+      <c r="AO36" s="6">
+        <f t="shared" ref="AO36" si="119">+AO34-AO35</f>
+        <v>29525.601725456079</v>
+      </c>
+      <c r="AP36" s="6">
+        <f t="shared" ref="AP36" si="120">+AP34-AP35</f>
+        <v>31037.104649400368</v>
+      </c>
+      <c r="AQ36" s="6">
+        <f t="shared" ref="AQ36" si="121">+AQ34-AQ35</f>
+        <v>32601.869537565704</v>
+      </c>
+      <c r="AR36" s="6">
+        <f t="shared" ref="AR36" si="122">+AR34-AR35</f>
+        <v>34221.580055754879</v>
+      </c>
+      <c r="AS36" s="6">
+        <f t="shared" ref="AS36" si="123">+AS34-AS35</f>
+        <v>35897.971264365951</v>
+      </c>
+      <c r="AT36" s="6">
+        <f t="shared" ref="AT36" si="124">+AT34-AT35</f>
+        <v>37632.831169182551</v>
+      </c>
+      <c r="AU36" s="5">
+        <f>AT36*(1+$AW$39)</f>
+        <v>36503.846234107077</v>
+      </c>
+      <c r="AV36" s="5">
+        <f t="shared" ref="AV36:DG36" si="125">AU36*(1+$AW$39)</f>
+        <v>35408.730847083862</v>
+      </c>
+      <c r="AW36" s="5">
         <f t="shared" si="125"/>
-        <v>27732.377878206218</v>
-      </c>
-      <c r="AX34" s="8">
+        <v>34346.468921671345</v>
+      </c>
+      <c r="AX36" s="5">
         <f t="shared" si="125"/>
-        <v>26900.406541860029</v>
-      </c>
-      <c r="AY34" s="8">
+        <v>33316.074854021201</v>
+      </c>
+      <c r="AY36" s="5">
         <f t="shared" si="125"/>
-        <v>26093.394345604229</v>
-      </c>
-      <c r="AZ34" s="8">
+        <v>32316.592608400562</v>
+      </c>
+      <c r="AZ36" s="5">
         <f t="shared" si="125"/>
-        <v>25310.592515236101</v>
-      </c>
-      <c r="BA34" s="8">
+        <v>31347.094830148544</v>
+      </c>
+      <c r="BA36" s="5">
         <f t="shared" si="125"/>
-        <v>24551.274739779019</v>
-      </c>
-      <c r="BB34" s="8">
+        <v>30406.681985244086</v>
+      </c>
+      <c r="BB36" s="5">
         <f t="shared" si="125"/>
-        <v>23814.736497585647</v>
-      </c>
-      <c r="BC34" s="8">
+        <v>29494.481525686762</v>
+      </c>
+      <c r="BC36" s="5">
         <f t="shared" si="125"/>
-        <v>23100.294402658077</v>
-      </c>
-      <c r="BD34" s="8">
+        <v>28609.647079916158</v>
+      </c>
+      <c r="BD36" s="5">
         <f t="shared" si="125"/>
-        <v>22407.285570578333</v>
-      </c>
-      <c r="BE34" s="8">
+        <v>27751.357667518674</v>
+      </c>
+      <c r="BE36" s="5">
         <f t="shared" si="125"/>
-        <v>21735.067003460983</v>
-      </c>
-      <c r="BF34" s="8">
+        <v>26918.816937493113</v>
+      </c>
+      <c r="BF36" s="5">
         <f t="shared" si="125"/>
-        <v>21083.014993357152</v>
-      </c>
-      <c r="BG34" s="8">
+        <v>26111.25242936832</v>
+      </c>
+      <c r="BG36" s="5">
         <f t="shared" si="125"/>
-        <v>20450.524543556436</v>
-      </c>
-      <c r="BH34" s="8">
+        <v>25327.91485648727</v>
+      </c>
+      <c r="BH36" s="5">
         <f t="shared" si="125"/>
-        <v>19837.008807249742</v>
-      </c>
-      <c r="BI34" s="8">
+        <v>24568.077410792652</v>
+      </c>
+      <c r="BI36" s="5">
         <f t="shared" si="125"/>
-        <v>19241.89854303225</v>
-      </c>
-      <c r="BJ34" s="8">
+        <v>23831.035088468871</v>
+      </c>
+      <c r="BJ36" s="5">
         <f t="shared" si="125"/>
-        <v>18664.641586741283</v>
-      </c>
-      <c r="BK34" s="8">
+        <v>23116.104035814802</v>
+      </c>
+      <c r="BK36" s="5">
         <f t="shared" si="125"/>
-        <v>18104.702339139043</v>
-      </c>
-      <c r="BL34" s="8">
+        <v>22422.620914740357</v>
+      </c>
+      <c r="BL36" s="5">
         <f t="shared" si="125"/>
-        <v>17561.56126896487</v>
-      </c>
-      <c r="BM34" s="8">
+        <v>21749.942287298145</v>
+      </c>
+      <c r="BM36" s="5">
         <f t="shared" si="125"/>
-        <v>17034.714430895921</v>
-      </c>
-      <c r="BN34" s="8">
+        <v>21097.444018679202</v>
+      </c>
+      <c r="BN36" s="5">
         <f t="shared" si="125"/>
-        <v>16523.672997969043</v>
-      </c>
-      <c r="BO34" s="8">
+        <v>20464.520698118824</v>
+      </c>
+      <c r="BO36" s="5">
         <f t="shared" si="125"/>
-        <v>16027.962808029972</v>
-      </c>
-      <c r="BP34" s="8">
+        <v>19850.585077175259</v>
+      </c>
+      <c r="BP36" s="5">
         <f t="shared" si="125"/>
-        <v>15547.123923789071</v>
-      </c>
-      <c r="BQ34" s="8">
+        <v>19255.067524860002</v>
+      </c>
+      <c r="BQ36" s="5">
         <f t="shared" si="125"/>
-        <v>15080.710206075399</v>
-      </c>
-      <c r="BR34" s="8">
+        <v>18677.415499114202</v>
+      </c>
+      <c r="BR36" s="5">
         <f t="shared" si="125"/>
-        <v>14628.288899893136</v>
-      </c>
-      <c r="BS34" s="8">
+        <v>18117.093034140777</v>
+      </c>
+      <c r="BS36" s="5">
         <f t="shared" si="125"/>
-        <v>14189.440232896341</v>
-      </c>
-      <c r="BT34" s="8">
+        <v>17573.580243116554</v>
+      </c>
+      <c r="BT36" s="5">
         <f t="shared" si="125"/>
-        <v>13763.75702590945</v>
-      </c>
-      <c r="BU34" s="8">
+        <v>17046.372835823058</v>
+      </c>
+      <c r="BU36" s="5">
         <f t="shared" si="125"/>
-        <v>13350.844315132166</v>
-      </c>
-      <c r="BV34" s="8">
+        <v>16534.981650748367</v>
+      </c>
+      <c r="BV36" s="5">
         <f t="shared" si="125"/>
-        <v>12950.318985678201</v>
-      </c>
-      <c r="BW34" s="8">
+        <v>16038.932201225914</v>
+      </c>
+      <c r="BW36" s="5">
         <f t="shared" si="125"/>
-        <v>12561.809416107855</v>
-      </c>
-      <c r="BX34" s="8">
+        <v>15557.764235189137</v>
+      </c>
+      <c r="BX36" s="5">
         <f t="shared" si="125"/>
-        <v>12184.955133624619</v>
-      </c>
-      <c r="BY34" s="8">
+        <v>15091.031308133463</v>
+      </c>
+      <c r="BY36" s="5">
         <f t="shared" si="125"/>
-        <v>11819.40647961588</v>
-      </c>
-      <c r="BZ34" s="8">
+        <v>14638.300368889459</v>
+      </c>
+      <c r="BZ36" s="5">
         <f t="shared" si="125"/>
-        <v>11464.824285227403</v>
-      </c>
-      <c r="CA34" s="8">
+        <v>14199.151357822775</v>
+      </c>
+      <c r="CA36" s="5">
         <f t="shared" si="125"/>
-        <v>11120.879556670581</v>
-      </c>
-      <c r="CB34" s="8">
+        <v>13773.176817088091</v>
+      </c>
+      <c r="CB36" s="5">
         <f t="shared" si="125"/>
-        <v>10787.253169970463</v>
-      </c>
-      <c r="CC34" s="8">
+        <v>13359.981512575449</v>
+      </c>
+      <c r="CC36" s="5">
         <f t="shared" si="125"/>
-        <v>10463.635574871349</v>
-      </c>
-      <c r="CD34" s="8">
+        <v>12959.182067198184</v>
+      </c>
+      <c r="CD36" s="5">
         <f t="shared" si="125"/>
-        <v>10149.726507625208</v>
-      </c>
-      <c r="CE34" s="8">
+        <v>12570.406605182237</v>
+      </c>
+      <c r="CE36" s="5">
         <f t="shared" si="125"/>
-        <v>9845.2347123964519</v>
-      </c>
-      <c r="CF34" s="8">
+        <v>12193.294407026769</v>
+      </c>
+      <c r="CF36" s="5">
         <f t="shared" si="125"/>
-        <v>9549.8776710245584</v>
-      </c>
-      <c r="CG34" s="8">
+        <v>11827.495574815966</v>
+      </c>
+      <c r="CG36" s="5">
         <f t="shared" si="125"/>
-        <v>9263.3813408938222</v>
-      </c>
-      <c r="CH34" s="8">
+        <v>11472.670707571488</v>
+      </c>
+      <c r="CH36" s="5">
         <f t="shared" si="125"/>
-        <v>8985.4799006670073</v>
-      </c>
-      <c r="CI34" s="8">
+        <v>11128.490586344342</v>
+      </c>
+      <c r="CI36" s="5">
         <f t="shared" si="125"/>
-        <v>8715.9155036469965</v>
-      </c>
-      <c r="CJ34" s="8">
+        <v>10794.635868754011</v>
+      </c>
+      <c r="CJ36" s="5">
         <f t="shared" si="125"/>
-        <v>8454.4380385375862</v>
-      </c>
-      <c r="CK34" s="8">
+        <v>10470.79679269139</v>
+      </c>
+      <c r="CK36" s="5">
         <f t="shared" si="125"/>
-        <v>8200.8048973814584</v>
-      </c>
-      <c r="CL34" s="8">
+        <v>10156.672888910647</v>
+      </c>
+      <c r="CL36" s="5">
         <f t="shared" si="125"/>
-        <v>7954.7807504600141</v>
-      </c>
-      <c r="CM34" s="8">
+        <v>9851.9727022433271</v>
+      </c>
+      <c r="CM36" s="5">
         <f t="shared" si="125"/>
-        <v>7716.1373279462132</v>
-      </c>
-      <c r="CN34" s="8">
+        <v>9556.4135211760276</v>
+      </c>
+      <c r="CN36" s="5">
         <f t="shared" si="125"/>
-        <v>7484.6532081078267</v>
-      </c>
-      <c r="CO34" s="8">
+        <v>9269.7211155407458</v>
+      </c>
+      <c r="CO36" s="5">
         <f t="shared" si="125"/>
-        <v>7260.1136118645918</v>
-      </c>
-      <c r="CP34" s="8">
+        <v>8991.6294820745225</v>
+      </c>
+      <c r="CP36" s="5">
         <f t="shared" si="125"/>
-        <v>7042.310203508654</v>
-      </c>
-      <c r="CQ34" s="8">
+        <v>8721.8805976122858</v>
+      </c>
+      <c r="CQ36" s="5">
         <f t="shared" si="125"/>
-        <v>6831.0408974033944</v>
-      </c>
-      <c r="CR34" s="8">
+        <v>8460.2241796839171</v>
+      </c>
+      <c r="CR36" s="5">
         <f t="shared" si="125"/>
-        <v>6626.1096704812926</v>
-      </c>
-      <c r="CS34" s="8">
+        <v>8206.4174542933997</v>
+      </c>
+      <c r="CS36" s="5">
         <f t="shared" si="125"/>
-        <v>6427.3263803668533</v>
-      </c>
-      <c r="CT34" s="8">
+        <v>7960.2249306645972</v>
+      </c>
+      <c r="CT36" s="5">
         <f t="shared" si="125"/>
-        <v>6234.5065889558473</v>
-      </c>
-      <c r="CU34" s="8">
+        <v>7721.4181827446591</v>
+      </c>
+      <c r="CU36" s="5">
         <f t="shared" si="125"/>
-        <v>6047.4713912871721</v>
-      </c>
-      <c r="CV34" s="8">
+        <v>7489.7756372623189</v>
+      </c>
+      <c r="CV36" s="5">
         <f t="shared" si="125"/>
-        <v>5866.0472495485565</v>
-      </c>
-      <c r="CW34" s="8">
+        <v>7265.082368144449</v>
+      </c>
+      <c r="CW36" s="5">
         <f t="shared" si="125"/>
-        <v>5690.0658320620996</v>
-      </c>
-      <c r="CX34" s="8">
+        <v>7047.1298971001152</v>
+      </c>
+      <c r="CX36" s="5">
         <f t="shared" si="125"/>
-        <v>5519.3638571002366</v>
-      </c>
-      <c r="CY34" s="8">
+        <v>6835.7160001871116</v>
+      </c>
+      <c r="CY36" s="5">
         <f t="shared" si="125"/>
-        <v>5353.7829413872296</v>
-      </c>
-      <c r="CZ34" s="8">
+        <v>6630.6445201814977</v>
+      </c>
+      <c r="CZ36" s="5">
         <f t="shared" si="125"/>
-        <v>5193.1694531456124</v>
-      </c>
-      <c r="DA34" s="8">
+        <v>6431.7251845760529</v>
+      </c>
+      <c r="DA36" s="5">
         <f t="shared" si="125"/>
-        <v>5037.3743695512439</v>
-      </c>
-      <c r="DB34" s="8">
+        <v>6238.7734290387716</v>
+      </c>
+      <c r="DB36" s="5">
         <f t="shared" si="125"/>
-        <v>4886.2531384647064</v>
-      </c>
-      <c r="DC34" s="8">
+        <v>6051.6102261676087</v>
+      </c>
+      <c r="DC36" s="5">
         <f t="shared" si="125"/>
-        <v>4739.6655443107647</v>
-      </c>
-      <c r="DD34" s="8">
+        <v>5870.0619193825805</v>
+      </c>
+      <c r="DD36" s="5">
         <f t="shared" si="125"/>
-        <v>4597.4755779814413</v>
-      </c>
-      <c r="DE34" s="8">
+        <v>5693.9600618011027</v>
+      </c>
+      <c r="DE36" s="5">
         <f t="shared" si="125"/>
-        <v>4459.5513106419976</v>
-      </c>
-      <c r="DF34" s="8">
+        <v>5523.1412599470696</v>
+      </c>
+      <c r="DF36" s="5">
         <f t="shared" si="125"/>
-        <v>4325.7647713227379</v>
-      </c>
-      <c r="DG34" s="8">
+        <v>5357.4470221486572</v>
+      </c>
+      <c r="DG36" s="5">
         <f t="shared" si="125"/>
-        <v>4195.991828183056</v>
-      </c>
-      <c r="DH34" s="8">
-        <f t="shared" ref="DH34:ES34" si="126">DG34*(1+$AW$37)</f>
-        <v>4070.1120733375642</v>
-      </c>
-      <c r="DI34" s="8">
+        <v>5196.7236114841971</v>
+      </c>
+      <c r="DH36" s="5">
+        <f t="shared" ref="DH36:ES36" si="126">DG36*(1+$AW$39)</f>
+        <v>5040.8219031396711</v>
+      </c>
+      <c r="DI36" s="5">
         <f t="shared" si="126"/>
-        <v>3948.0087111374373</v>
-      </c>
-      <c r="DJ34" s="8">
+        <v>4889.5972460454805</v>
+      </c>
+      <c r="DJ36" s="5">
         <f t="shared" si="126"/>
-        <v>3829.5684498033143</v>
-      </c>
-      <c r="DK34" s="8">
+        <v>4742.9093286641155</v>
+      </c>
+      <c r="DK36" s="5">
         <f t="shared" si="126"/>
-        <v>3714.6813963092145</v>
-      </c>
-      <c r="DL34" s="8">
+        <v>4600.6220488041918</v>
+      </c>
+      <c r="DL36" s="5">
         <f t="shared" si="126"/>
-        <v>3603.2409544199381</v>
-      </c>
-      <c r="DM34" s="8">
+        <v>4462.6033873400656</v>
+      </c>
+      <c r="DM36" s="5">
         <f t="shared" si="126"/>
-        <v>3495.1437257873399</v>
-      </c>
-      <c r="DN34" s="8">
+        <v>4328.7252857198637</v>
+      </c>
+      <c r="DN36" s="5">
         <f t="shared" si="126"/>
-        <v>3390.2894140137196</v>
-      </c>
-      <c r="DO34" s="8">
+        <v>4198.8635271482681</v>
+      </c>
+      <c r="DO36" s="5">
         <f t="shared" si="126"/>
-        <v>3288.580731593308</v>
-      </c>
-      <c r="DP34" s="8">
+        <v>4072.8976213338201</v>
+      </c>
+      <c r="DP36" s="5">
         <f t="shared" si="126"/>
-        <v>3189.9233096455087</v>
-      </c>
-      <c r="DQ34" s="8">
+        <v>3950.7106926938054</v>
+      </c>
+      <c r="DQ36" s="5">
         <f t="shared" si="126"/>
-        <v>3094.2256103561435</v>
-      </c>
-      <c r="DR34" s="8">
+        <v>3832.1893719129912</v>
+      </c>
+      <c r="DR36" s="5">
         <f t="shared" si="126"/>
-        <v>3001.3988420454593</v>
-      </c>
-      <c r="DS34" s="8">
+        <v>3717.2236907556012</v>
+      </c>
+      <c r="DS36" s="5">
         <f t="shared" si="126"/>
-        <v>2911.3568767840957</v>
-      </c>
-      <c r="DT34" s="8">
+        <v>3605.7069800329332</v>
+      </c>
+      <c r="DT36" s="5">
         <f t="shared" si="126"/>
-        <v>2824.0161704805728</v>
-      </c>
-      <c r="DU34" s="8">
+        <v>3497.5357706319451</v>
+      </c>
+      <c r="DU36" s="5">
         <f t="shared" si="126"/>
-        <v>2739.2956853661553</v>
-      </c>
-      <c r="DV34" s="8">
+        <v>3392.6096975129867</v>
+      </c>
+      <c r="DV36" s="5">
         <f t="shared" si="126"/>
-        <v>2657.1168148051706</v>
-      </c>
-      <c r="DW34" s="8">
+        <v>3290.831406587597</v>
+      </c>
+      <c r="DW36" s="5">
         <f t="shared" si="126"/>
-        <v>2577.4033103610154</v>
-      </c>
-      <c r="DX34" s="8">
+        <v>3192.106464389969</v>
+      </c>
+      <c r="DX36" s="5">
         <f t="shared" si="126"/>
-        <v>2500.0812110501847</v>
-      </c>
-      <c r="DY34" s="8">
+        <v>3096.3432704582697</v>
+      </c>
+      <c r="DY36" s="5">
         <f t="shared" si="126"/>
-        <v>2425.0787747186791</v>
-      </c>
-      <c r="DZ34" s="8">
+        <v>3003.4529723445216</v>
+      </c>
+      <c r="DZ36" s="5">
         <f t="shared" si="126"/>
-        <v>2352.3264114771187</v>
-      </c>
-      <c r="EA34" s="8">
+        <v>2913.3493831741857</v>
+      </c>
+      <c r="EA36" s="5">
         <f t="shared" si="126"/>
-        <v>2281.7566191328051</v>
-      </c>
-      <c r="EB34" s="8">
+        <v>2825.9489016789603</v>
+      </c>
+      <c r="EB36" s="5">
         <f t="shared" si="126"/>
-        <v>2213.3039205588207</v>
-      </c>
-      <c r="EC34" s="8">
+        <v>2741.1704346285915</v>
+      </c>
+      <c r="EC36" s="5">
         <f t="shared" si="126"/>
-        <v>2146.904802942056</v>
-      </c>
-      <c r="ED34" s="8">
+        <v>2658.9353215897336</v>
+      </c>
+      <c r="ED36" s="5">
         <f t="shared" si="126"/>
-        <v>2082.4976588537943</v>
-      </c>
-      <c r="EE34" s="8">
+        <v>2579.1672619420415</v>
+      </c>
+      <c r="EE36" s="5">
         <f t="shared" si="126"/>
-        <v>2020.0227290881803</v>
-      </c>
-      <c r="EF34" s="8">
+        <v>2501.7922440837801</v>
+      </c>
+      <c r="EF36" s="5">
         <f t="shared" si="126"/>
-        <v>1959.4220472155348</v>
-      </c>
-      <c r="EG34" s="8">
+        <v>2426.7384767612666</v>
+      </c>
+      <c r="EG36" s="5">
         <f t="shared" si="126"/>
-        <v>1900.6393857990688</v>
-      </c>
-      <c r="EH34" s="8">
+        <v>2353.9363224584285</v>
+      </c>
+      <c r="EH36" s="5">
         <f t="shared" si="126"/>
-        <v>1843.6202042250966</v>
-      </c>
-      <c r="EI34" s="8">
+        <v>2283.3182327846757</v>
+      </c>
+      <c r="EI36" s="5">
         <f t="shared" si="126"/>
-        <v>1788.3115980983437</v>
-      </c>
-      <c r="EJ34" s="8">
+        <v>2214.8186858011354</v>
+      </c>
+      <c r="EJ36" s="5">
         <f t="shared" si="126"/>
-        <v>1734.6622501553934</v>
-      </c>
-      <c r="EK34" s="8">
+        <v>2148.3741252271011</v>
+      </c>
+      <c r="EK36" s="5">
         <f t="shared" si="126"/>
-        <v>1682.6223826507317</v>
-      </c>
-      <c r="EL34" s="8">
+        <v>2083.9229014702878</v>
+      </c>
+      <c r="EL36" s="5">
         <f t="shared" si="126"/>
-        <v>1632.1437111712096</v>
-      </c>
-      <c r="EM34" s="8">
+        <v>2021.4052144261791</v>
+      </c>
+      <c r="EM36" s="5">
         <f t="shared" si="126"/>
-        <v>1583.1793998360733</v>
-      </c>
-      <c r="EN34" s="8">
+        <v>1960.7630579933937</v>
+      </c>
+      <c r="EN36" s="5">
         <f t="shared" si="126"/>
-        <v>1535.6840178409911</v>
-      </c>
-      <c r="EO34" s="8">
+        <v>1901.9401662535918</v>
+      </c>
+      <c r="EO36" s="5">
         <f t="shared" si="126"/>
-        <v>1489.6134973057615</v>
-      </c>
-      <c r="EP34" s="8">
+        <v>1844.881961265984</v>
+      </c>
+      <c r="EP36" s="5">
         <f t="shared" si="126"/>
-        <v>1444.9250923865886</v>
-      </c>
-      <c r="EQ34" s="8">
+        <v>1789.5355024280045</v>
+      </c>
+      <c r="EQ36" s="5">
         <f t="shared" si="126"/>
-        <v>1401.5773396149909</v>
-      </c>
-      <c r="ER34" s="8">
+        <v>1735.8494373551644</v>
+      </c>
+      <c r="ER36" s="5">
         <f t="shared" si="126"/>
-        <v>1359.5300194265412</v>
-      </c>
-      <c r="ES34" s="8">
+        <v>1683.7739542345093</v>
+      </c>
+      <c r="ES36" s="5">
         <f t="shared" si="126"/>
-        <v>1318.7441188437449</v>
-      </c>
-    </row>
-    <row r="35" spans="2:149" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
+        <v>1633.2607356074741</v>
+      </c>
+    </row>
+    <row r="37" spans="2:149" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="7">
-        <f t="shared" ref="C35:D35" si="127">C34/C36</f>
+      <c r="C37" s="31">
+        <f t="shared" ref="C37:D37" si="127">C36/C38</f>
         <v>0.62885238038134073</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D37" s="31">
         <f t="shared" si="127"/>
         <v>0.78765313475858756</v>
       </c>
-      <c r="E35" s="7">
-        <f t="shared" ref="E35:M35" si="128">E34/E36</f>
+      <c r="E37" s="31">
+        <f t="shared" ref="E37:M37" si="128">E36/E38</f>
         <v>0.6764670730249791</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F37" s="31">
         <f t="shared" si="128"/>
         <v>0.56788496105452368</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G37" s="31">
         <f t="shared" si="128"/>
         <v>0.68015806490240693</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H37" s="31">
         <f t="shared" si="128"/>
         <v>0.73592864890924425</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I37" s="31">
         <f t="shared" si="128"/>
         <v>0.62826271700861969</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J37" s="31">
         <f t="shared" si="128"/>
         <v>0.65041558119340037</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K37" s="31">
         <f t="shared" si="128"/>
         <v>0.57277460947185721</v>
       </c>
-      <c r="L35" s="7">
+      <c r="L37" s="31">
         <f t="shared" si="128"/>
         <v>0.62257100149476829</v>
       </c>
-      <c r="M35" s="7">
+      <c r="M37" s="31">
         <f t="shared" si="128"/>
         <v>0.66386975579211016</v>
       </c>
-      <c r="N35" s="7">
-        <f t="shared" ref="N35" si="129">N34/N36</f>
+      <c r="N37" s="31">
+        <f t="shared" ref="N37" si="129">N36/N38</f>
         <v>0.53965825044631477</v>
       </c>
-      <c r="O35" s="7">
-        <f t="shared" ref="O35" si="130">O34/O36</f>
+      <c r="O37" s="31">
+        <f t="shared" ref="O37" si="130">O36/O38</f>
         <v>0.60581200420811021</v>
       </c>
-      <c r="P35" s="7">
-        <f t="shared" ref="P35" si="131">P34/P36</f>
+      <c r="P37" s="31">
+        <f t="shared" ref="P37" si="131">P36/P38</f>
         <v>0.7778143060443764</v>
       </c>
-      <c r="Q35" s="7">
-        <f t="shared" ref="Q35" si="132">Q34/Q36</f>
+      <c r="Q37" s="31">
+        <f t="shared" ref="Q37" si="132">Q36/Q38</f>
         <v>0.70422680795715353</v>
       </c>
-      <c r="R35" s="7">
-        <f t="shared" ref="R35" si="133">R34/R36</f>
+      <c r="R37" s="31">
+        <f t="shared" ref="R37" si="133">R36/R38</f>
         <v>0.51424858990053568</v>
       </c>
-      <c r="V35" s="7">
-        <f t="shared" ref="V35" si="134">V34/V36</f>
+      <c r="V37" s="31">
+        <f t="shared" ref="V37" si="134">V36/V38</f>
         <v>1.1963726141866868</v>
       </c>
-      <c r="W35" s="7">
-        <f t="shared" ref="W35:X35" si="135">W34/W36</f>
+      <c r="W37" s="31">
+        <f t="shared" ref="W37:X37" si="135">W36/W38</f>
         <v>1.4227189965607931</v>
       </c>
-      <c r="X35" s="7">
+      <c r="X37" s="31">
         <f t="shared" si="135"/>
         <v>1.867053854276663</v>
       </c>
-      <c r="Y35" s="7">
-        <f t="shared" ref="Y35:Z35" si="136">Y34/Y36</f>
+      <c r="Y37" s="31">
+        <f t="shared" ref="Y37:Z37" si="136">Y36/Y38</f>
         <v>1.6194975544686527</v>
       </c>
-      <c r="Z35" s="7">
+      <c r="Z37" s="31">
         <f t="shared" si="136"/>
         <v>2.1014898622157498</v>
       </c>
-      <c r="AA35" s="7">
-        <f t="shared" ref="AA35:AB35" si="137">AA34/AA36</f>
+      <c r="AA37" s="31">
+        <f t="shared" ref="AA37:AB37" si="137">AA36/AA38</f>
         <v>2.6940532991970207</v>
       </c>
-      <c r="AB35" s="7">
+      <c r="AB37" s="31">
         <f t="shared" si="137"/>
         <v>2.724077122031507</v>
       </c>
-      <c r="AC35" s="7">
-        <f t="shared" ref="AC35:AD35" si="138">AC34/AC36</f>
+      <c r="AC37" s="31">
+        <f t="shared" ref="AC37:AD37" si="138">AC36/AC38</f>
         <v>2.581227863046045</v>
       </c>
-      <c r="AD35" s="7">
+      <c r="AD37" s="31">
         <f t="shared" si="138"/>
         <v>2.6432908679604714</v>
       </c>
-      <c r="AE35" s="7">
-        <f t="shared" ref="AE35:AF35" si="139">AE34/AE36</f>
+      <c r="AE37" s="31">
+        <f t="shared" ref="AE37:AF37" si="139">AE36/AE38</f>
         <v>2.6900896535013326</v>
       </c>
-      <c r="AF35" s="7">
+      <c r="AF37" s="31">
         <f t="shared" si="139"/>
         <v>2.3997995050280378</v>
       </c>
-      <c r="AG35" s="7">
-        <f t="shared" ref="AG35:AH35" si="140">AG34/AG36</f>
+      <c r="AG37" s="31">
+        <f t="shared" ref="AG37:AH37" si="140">AG36/AG38</f>
         <v>2.6021017081101743</v>
       </c>
-      <c r="AH35" s="7">
+      <c r="AH37" s="31">
         <f t="shared" si="140"/>
         <v>2.5892763986712573</v>
       </c>
-      <c r="AI35" s="7">
-        <f t="shared" ref="AI35" si="141">AI34/AI36</f>
-        <v>2.6824642178390099</v>
-      </c>
-      <c r="AJ35" s="7">
-        <f t="shared" ref="AJ35" si="142">AJ34/AJ36</f>
-        <v>2.7780033661356152</v>
-      </c>
-      <c r="AK35" s="7">
-        <f t="shared" ref="AK35" si="143">AK34/AK36</f>
-        <v>2.8759460400704366</v>
-      </c>
-      <c r="AL35" s="7">
-        <f t="shared" ref="AL35" si="144">AL34/AL36</f>
-        <v>2.9763455329590967</v>
-      </c>
-      <c r="AM35" s="7">
-        <f t="shared" ref="AM35" si="145">AM34/AM36</f>
-        <v>3.0792562573930566</v>
-      </c>
-      <c r="AN35" s="7">
-        <f t="shared" ref="AN35" si="146">AN34/AN36</f>
-        <v>3.1847337681639649</v>
-      </c>
-      <c r="AO35" s="7">
-        <f t="shared" ref="AO35" si="147">AO34/AO36</f>
-        <v>3.2928347856518863</v>
-      </c>
-      <c r="AP35" s="7">
-        <f t="shared" ref="AP35" si="148">AP34/AP36</f>
-        <v>3.4036172196867565</v>
-      </c>
-      <c r="AQ35" s="7">
-        <f t="shared" ref="AQ35" si="149">AQ34/AQ36</f>
-        <v>3.5171401938925935</v>
-      </c>
-      <c r="AR35" s="7">
-        <f t="shared" ref="AR35" si="150">AR34/AR36</f>
-        <v>3.6334640705241448</v>
-      </c>
-      <c r="AS35" s="7">
-        <f t="shared" ref="AS35" si="151">AS34/AS36</f>
-        <v>3.7526504758059147</v>
-      </c>
-      <c r="AT35" s="7">
-        <f t="shared" ref="AT35" si="152">AT34/AT36</f>
-        <v>3.8747623257836445</v>
-      </c>
-    </row>
-    <row r="36" spans="2:149" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
+      <c r="AI37" s="31">
+        <f t="shared" ref="AI37" si="141">AI36/AI38</f>
+        <v>2.7399777536615049</v>
+      </c>
+      <c r="AJ37" s="31">
+        <f t="shared" ref="AJ37" si="142">AJ36/AJ38</f>
+        <v>2.8961361687150191</v>
+      </c>
+      <c r="AK37" s="31">
+        <f t="shared" ref="AK37" si="143">AK36/AK38</f>
+        <v>3.0579255389829649</v>
+      </c>
+      <c r="AL37" s="31">
+        <f t="shared" ref="AL37" si="144">AL36/AL38</f>
+        <v>3.2255250815971594</v>
+      </c>
+      <c r="AM37" s="31">
+        <f t="shared" ref="AM37" si="145">AM36/AM38</f>
+        <v>3.3991194963939151</v>
+      </c>
+      <c r="AN37" s="31">
+        <f t="shared" ref="AN37" si="146">AN36/AN38</f>
+        <v>3.5788991314703096</v>
+      </c>
+      <c r="AO37" s="31">
+        <f t="shared" ref="AO37" si="147">AO36/AO38</f>
+        <v>3.7650601537179393</v>
+      </c>
+      <c r="AP37" s="31">
+        <f t="shared" ref="AP37" si="148">AP36/AP38</f>
+        <v>3.957804724483597</v>
+      </c>
+      <c r="AQ37" s="31">
+        <f t="shared" ref="AQ37" si="149">AQ36/AQ38</f>
+        <v>4.1573411805108016</v>
+      </c>
+      <c r="AR37" s="31">
+        <f t="shared" ref="AR37" si="150">AR36/AR38</f>
+        <v>4.3638842203206938</v>
+      </c>
+      <c r="AS37" s="31">
+        <f t="shared" ref="AS37" si="151">AS36/AS38</f>
+        <v>4.5776550961956071</v>
+      </c>
+      <c r="AT37" s="31">
+        <f t="shared" ref="AT37" si="152">AT36/AT38</f>
+        <v>4.7988818119335059</v>
+      </c>
+    </row>
+    <row r="38" spans="2:149" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C38" s="10">
         <v>8339</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D38" s="10">
         <v>8326</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E38" s="10">
         <v>8367</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F38" s="10">
         <v>8345</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G38" s="10">
         <v>8351</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H38" s="10">
         <v>8297</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I38" s="10">
         <v>8237</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J38" s="10">
         <v>8061</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K38" s="10">
         <v>8066</v>
       </c>
-      <c r="L36" s="6">
+      <c r="L38" s="10">
         <v>8028</v>
       </c>
-      <c r="M36" s="6">
+      <c r="M38" s="10">
         <v>7985</v>
       </c>
-      <c r="N36" s="6">
+      <c r="N38" s="10">
         <v>7842</v>
       </c>
-      <c r="O36" s="6">
-        <f t="shared" ref="O36:R36" si="153">+N36</f>
+      <c r="O38" s="10">
+        <f t="shared" ref="O38:R38" si="153">+N38</f>
         <v>7842</v>
       </c>
-      <c r="P36" s="6">
+      <c r="P38" s="10">
         <f t="shared" si="153"/>
         <v>7842</v>
       </c>
-      <c r="Q36" s="6">
+      <c r="Q38" s="10">
         <f t="shared" si="153"/>
         <v>7842</v>
       </c>
-      <c r="R36" s="6">
+      <c r="R38" s="10">
         <f t="shared" si="153"/>
         <v>7842</v>
       </c>
-      <c r="V36" s="2">
+      <c r="V38" s="9">
         <v>10531</v>
       </c>
-      <c r="W36" s="2">
+      <c r="W38" s="9">
         <v>9886</v>
       </c>
-      <c r="X36" s="2">
+      <c r="X38" s="9">
         <v>9470</v>
       </c>
-      <c r="Y36" s="2">
+      <c r="Y38" s="9">
         <v>8996</v>
       </c>
-      <c r="Z36" s="2">
+      <c r="Z38" s="9">
         <v>8927</v>
       </c>
-      <c r="AA36" s="2">
+      <c r="AA38" s="9">
         <v>8593</v>
       </c>
-      <c r="AB36" s="2">
+      <c r="AB38" s="9">
         <v>8506</v>
       </c>
-      <c r="AC36" s="2">
+      <c r="AC38" s="9">
         <v>8470</v>
       </c>
-      <c r="AD36" s="2">
+      <c r="AD38" s="9">
         <v>8399</v>
       </c>
-      <c r="AE36" s="2">
+      <c r="AE38" s="9">
         <v>8254</v>
       </c>
-      <c r="AF36" s="2">
-        <f>AVERAGE(K36:N36)</f>
+      <c r="AF38" s="9">
+        <f>AVERAGE(K38:N38)</f>
         <v>7980.25</v>
       </c>
-      <c r="AG36" s="2">
-        <f>AVERAGE(O36:R36)</f>
+      <c r="AG38" s="9">
+        <f>AVERAGE(O38:R38)</f>
         <v>7842</v>
       </c>
-      <c r="AH36" s="2">
-        <f>+AG36</f>
+      <c r="AH38" s="9">
+        <f>+AG38</f>
         <v>7842</v>
       </c>
-      <c r="AI36" s="2">
-        <f t="shared" ref="AI36:AT36" si="154">+AH36</f>
+      <c r="AI38" s="9">
+        <f t="shared" ref="AI38:AT38" si="154">+AH38</f>
         <v>7842</v>
       </c>
-      <c r="AJ36" s="2">
+      <c r="AJ38" s="9">
         <f t="shared" si="154"/>
         <v>7842</v>
       </c>
-      <c r="AK36" s="2">
+      <c r="AK38" s="9">
         <f t="shared" si="154"/>
         <v>7842</v>
       </c>
-      <c r="AL36" s="2">
+      <c r="AL38" s="9">
         <f t="shared" si="154"/>
         <v>7842</v>
       </c>
-      <c r="AM36" s="2">
+      <c r="AM38" s="9">
         <f t="shared" si="154"/>
         <v>7842</v>
       </c>
-      <c r="AN36" s="2">
+      <c r="AN38" s="9">
         <f t="shared" si="154"/>
         <v>7842</v>
       </c>
-      <c r="AO36" s="2">
+      <c r="AO38" s="9">
         <f t="shared" si="154"/>
         <v>7842</v>
       </c>
-      <c r="AP36" s="2">
+      <c r="AP38" s="9">
         <f t="shared" si="154"/>
         <v>7842</v>
       </c>
-      <c r="AQ36" s="2">
+      <c r="AQ38" s="9">
         <f t="shared" si="154"/>
         <v>7842</v>
       </c>
-      <c r="AR36" s="2">
+      <c r="AR38" s="9">
         <f t="shared" si="154"/>
         <v>7842</v>
       </c>
-      <c r="AS36" s="2">
+      <c r="AS38" s="9">
         <f t="shared" si="154"/>
         <v>7842</v>
       </c>
-      <c r="AT36" s="2">
+      <c r="AT38" s="9">
         <f t="shared" si="154"/>
         <v>7842</v>
       </c>
     </row>
-    <row r="37" spans="2:149" x14ac:dyDescent="0.2">
-      <c r="AV37" t="s">
+    <row r="39" spans="2:149" x14ac:dyDescent="0.15">
+      <c r="AV39" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="AW37" s="28">
+      <c r="AW39" s="32">
         <v>-0.03</v>
       </c>
-    </row>
-    <row r="38" spans="2:149" x14ac:dyDescent="0.2">
-      <c r="AV38" s="2" t="s">
+      <c r="AY39" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ39" s="9">
+        <f>Main!K7</f>
+        <v>373324.26</v>
+      </c>
+    </row>
+    <row r="40" spans="2:149" x14ac:dyDescent="0.15">
+      <c r="AV40" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AW38" s="28">
+      <c r="AW40" s="32">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="39" spans="2:149" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="8" t="s">
+      <c r="AY40" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="AZ40" s="9">
+        <f>AE36</f>
+        <v>22204</v>
+      </c>
+    </row>
+    <row r="41" spans="2:149" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="14">
-        <f>H23/D23-1</f>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="11">
+        <f>H25/D25-1</f>
         <v>7.9570944981443015E-2</v>
       </c>
-      <c r="I39" s="14">
-        <f>I23/E23-1</f>
+      <c r="I41" s="11">
+        <f>I25/E25-1</f>
         <v>6.4990442581973173E-2</v>
       </c>
-      <c r="J39" s="14">
-        <f>J23/F23-1</f>
+      <c r="J41" s="11">
+        <f>J25/F25-1</f>
         <v>-5.1407065263878171E-2</v>
       </c>
-      <c r="K39" s="14">
-        <f>K23/G23-1</f>
+      <c r="K41" s="11">
+        <f>K25/G25-1</f>
         <v>-0.12163268824619633</v>
       </c>
-      <c r="L39" s="14">
-        <f>L23/H23-1</f>
+      <c r="L41" s="11">
+        <f>L25/H25-1</f>
         <v>-0.10102002266717036</v>
       </c>
-      <c r="M39" s="14">
-        <f t="shared" ref="M39:R39" si="155">M23/I23-1</f>
+      <c r="M41" s="11">
+        <f t="shared" ref="M41:R41" si="155">M25/I25-1</f>
         <v>1.5969441759860148E-2</v>
       </c>
-      <c r="N39" s="14">
+      <c r="N41" s="11">
         <f t="shared" si="155"/>
         <v>-7.06041478809738E-2</v>
       </c>
-      <c r="O39" s="14">
+      <c r="O41" s="11">
         <f t="shared" si="155"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="P39" s="14">
+      <c r="P41" s="11">
         <f t="shared" si="155"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="Q39" s="14">
+      <c r="Q41" s="11">
         <f t="shared" si="155"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="R39" s="14">
+      <c r="R41" s="11">
         <f t="shared" si="155"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="U39" s="26">
-        <f t="shared" ref="U39:AF39" si="156">U23/T23-1</f>
+      <c r="U41" s="22">
+        <f t="shared" ref="U41:AF41" si="156">U25/T25-1</f>
         <v>8.0168318175648068E-2</v>
       </c>
-      <c r="V39" s="26">
+      <c r="V41" s="22">
         <f t="shared" si="156"/>
         <v>0.11294862772695291</v>
       </c>
-      <c r="W39" s="26">
+      <c r="W41" s="22">
         <f t="shared" si="156"/>
         <v>0.15446456799602548</v>
       </c>
-      <c r="X39" s="26">
+      <c r="X41" s="22">
         <f t="shared" si="156"/>
         <v>0.18187864324556946</v>
       </c>
-      <c r="Y39" s="26">
+      <c r="Y41" s="22">
         <f t="shared" si="156"/>
         <v>-3.2820258192651441E-2</v>
       </c>
-      <c r="Z39" s="26">
+      <c r="Z41" s="22">
         <f t="shared" si="156"/>
         <v>6.9254068484008391E-2</v>
       </c>
-      <c r="AA39" s="26">
+      <c r="AA41" s="22">
         <f t="shared" si="156"/>
         <v>0.11937455988733126</v>
       </c>
-      <c r="AB39" s="26">
+      <c r="AB41" s="22">
         <f t="shared" si="156"/>
         <v>5.4044007263057026E-2</v>
       </c>
-      <c r="AC39" s="26">
+      <c r="AC41" s="22">
         <f t="shared" si="156"/>
         <v>5.5966252051598442E-2</v>
       </c>
-      <c r="AD39" s="26">
+      <c r="AD41" s="22">
         <f t="shared" si="156"/>
         <v>0.11540289534868786</v>
       </c>
-      <c r="AE39" s="26">
+      <c r="AE41" s="22">
         <f t="shared" si="156"/>
         <v>7.7700874091647165E-2</v>
       </c>
-      <c r="AF39" s="26">
+      <c r="AF41" s="22">
         <f t="shared" si="156"/>
         <v>-7.1756785637956844E-2</v>
       </c>
-      <c r="AG39" s="26">
-        <f>AG23/AF23-1</f>
+      <c r="AG41" s="22">
+        <f>AG25/AF25-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AH39" s="26">
-        <f t="shared" ref="AH39:AT39" si="157">AH23/AG23-1</f>
+      <c r="AH41" s="22">
+        <f t="shared" ref="AH41:AT41" si="157">AH25/AG25-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="AI39" s="26">
+      <c r="AI41" s="22">
         <f t="shared" si="157"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AJ39" s="26">
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="AJ41" s="22">
         <f t="shared" si="157"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AK39" s="26">
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="AK41" s="22">
         <f t="shared" si="157"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AL39" s="26">
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="AL41" s="22">
         <f t="shared" si="157"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AM39" s="26">
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="AM41" s="22">
         <f t="shared" si="157"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AN39" s="26">
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="AN41" s="22">
         <f t="shared" si="157"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AO39" s="26">
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="AO41" s="22">
         <f t="shared" si="157"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AP39" s="26">
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="AP41" s="22">
         <f t="shared" si="157"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AQ39" s="26">
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="AQ41" s="22">
         <f t="shared" si="157"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AR39" s="26">
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="AR41" s="22">
         <f t="shared" si="157"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AS39" s="26">
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="AS41" s="22">
         <f t="shared" si="157"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AT39" s="26">
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="AT41" s="22">
         <f t="shared" si="157"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AV39" t="s">
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="AV41" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="AW39" s="28">
+      <c r="AW41" s="32">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="40" spans="2:149" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="8" t="s">
+      <c r="AY41" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="AZ41" s="34">
+        <f>AZ39/AZ40</f>
+        <v>16.813378670509817</v>
+      </c>
+    </row>
+    <row r="42" spans="2:149" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14">
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11">
         <v>0.03</v>
       </c>
-      <c r="M40" s="14">
+      <c r="M42" s="11">
         <v>0.05</v>
       </c>
-      <c r="N40" s="11"/>
-      <c r="AV40" s="10" t="s">
+      <c r="N42" s="8"/>
+      <c r="AV42" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="AW40" s="8">
-        <f>NPV(AW39,AH34:ES34)+AG34</f>
-        <v>446359.83586444124</v>
-      </c>
-    </row>
-    <row r="41" spans="2:149" x14ac:dyDescent="0.2">
-      <c r="AV41" t="s">
+      <c r="AW42" s="5">
+        <f>NPV(AW41,AH36:ES36)+AG36</f>
+        <v>520113.28183199966</v>
+      </c>
+      <c r="AY42" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="AZ42" s="33">
+        <f>AZ40/AZ39</f>
+        <v>5.9476445490041281E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:149" x14ac:dyDescent="0.15">
+      <c r="AV43" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AW41" s="2">
+      <c r="AW43" s="9">
         <f>Main!K5-Main!K6</f>
         <v>69984</v>
       </c>
     </row>
-    <row r="42" spans="2:149" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+    <row r="44" spans="2:149" x14ac:dyDescent="0.15">
+      <c r="B44" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="5">
-        <f t="shared" ref="D42" si="158">D25/D23</f>
+      <c r="D44" s="24">
+        <f t="shared" ref="D44" si="158">D27/D25</f>
         <v>0.66213956523512374</v>
       </c>
-      <c r="E42" s="5">
-        <f t="shared" ref="E42:L42" si="159">E25/E23</f>
+      <c r="E44" s="24">
+        <f t="shared" ref="E44:L44" si="159">E27/E25</f>
         <v>0.70700387197961079</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F44" s="24">
         <f t="shared" si="159"/>
         <v>0.67355230519202802</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G44" s="24">
         <f t="shared" si="159"/>
         <v>0.64342054221800782</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H44" s="24">
         <f t="shared" si="159"/>
         <v>0.61707593502077829</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I44" s="24">
         <f t="shared" si="159"/>
         <v>0.67044042523816094</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J44" s="24">
         <f t="shared" si="159"/>
         <v>0.66330027051397655</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K44" s="24">
         <f t="shared" si="159"/>
         <v>0.6463516364885421</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L44" s="24">
         <f t="shared" si="159"/>
         <v>0.58514035972432343</v>
       </c>
-      <c r="M42" s="5">
-        <f t="shared" ref="M42:R42" si="160">M25/M23</f>
+      <c r="M44" s="24">
+        <f t="shared" ref="M44:R44" si="160">M27/M25</f>
         <v>0.6502083710817177</v>
       </c>
-      <c r="N42" s="5">
+      <c r="N44" s="24">
         <f t="shared" si="160"/>
         <v>0.61293295818375859</v>
       </c>
-      <c r="O42" s="5">
+      <c r="O44" s="24">
         <f t="shared" si="160"/>
         <v>0.63</v>
       </c>
-      <c r="P42" s="5">
+      <c r="P44" s="24">
         <f t="shared" si="160"/>
         <v>0.63</v>
       </c>
-      <c r="Q42" s="5">
+      <c r="Q44" s="24">
         <f t="shared" si="160"/>
         <v>0.63</v>
       </c>
-      <c r="R42" s="5">
+      <c r="R44" s="24">
         <f t="shared" si="160"/>
         <v>0.63</v>
       </c>
-      <c r="V42" s="5">
-        <f t="shared" ref="V42" si="161">V25/V23</f>
+      <c r="V44" s="24">
+        <f t="shared" ref="V44" si="161">V27/V25</f>
         <v>0.82724357526760306</v>
       </c>
-      <c r="W42" s="5">
-        <f t="shared" ref="W42:X42" si="162">W25/W23</f>
+      <c r="W44" s="24">
+        <f t="shared" ref="W44:X44" si="162">W27/W25</f>
         <v>0.79083369195258402</v>
       </c>
-      <c r="X42" s="5">
+      <c r="X44" s="24">
         <f t="shared" si="162"/>
         <v>0.80804369414101296</v>
       </c>
-      <c r="Y42" s="5">
-        <f t="shared" ref="Y42:Z42" si="163">Y25/Y23</f>
+      <c r="Y44" s="24">
+        <f t="shared" ref="Y44:Z44" si="163">Y27/Y25</f>
         <v>0.79199822030562828</v>
       </c>
-      <c r="Z42" s="5">
+      <c r="Z44" s="24">
         <f t="shared" si="163"/>
         <v>0.80162921707957235</v>
       </c>
-      <c r="AA42" s="5">
-        <f t="shared" ref="AA42" si="164">AA25/AA23</f>
+      <c r="AA44" s="24">
+        <f t="shared" ref="AA44" si="164">AA27/AA25</f>
         <v>0.77729007906438097</v>
       </c>
-      <c r="AB42" s="5">
-        <f t="shared" ref="AB42" si="165">AB25/AB23</f>
+      <c r="AB44" s="24">
+        <f t="shared" ref="AB44" si="165">AB27/AB25</f>
         <v>0.76221803236439101</v>
       </c>
-      <c r="AC42" s="5">
-        <f t="shared" ref="AC42:AE42" si="166">AC25/AC23</f>
+      <c r="AC44" s="24">
+        <f t="shared" ref="AC44:AE44" si="166">AC27/AC25</f>
         <v>0.73814692545825888</v>
       </c>
-      <c r="AD42" s="5">
+      <c r="AD44" s="24">
         <f t="shared" si="166"/>
         <v>0.68816003132449644</v>
       </c>
-      <c r="AE42" s="5">
+      <c r="AE44" s="24">
         <f t="shared" si="166"/>
         <v>0.64695447745244705</v>
       </c>
-      <c r="AF42" s="30">
-        <f t="shared" ref="AF42:AT42" si="167">AF25/AF23</f>
+      <c r="AF44" s="24">
+        <f t="shared" ref="AF44:AT44" si="167">AF27/AF25</f>
         <v>0.62263282104414897</v>
       </c>
-      <c r="AG42" s="5">
+      <c r="AG44" s="24">
         <f t="shared" si="167"/>
         <v>0.62999999999999989</v>
       </c>
-      <c r="AH42" s="5">
+      <c r="AH44" s="24">
         <f t="shared" si="167"/>
         <v>0.63</v>
       </c>
-      <c r="AI42" s="5">
+      <c r="AI44" s="24">
         <f t="shared" si="167"/>
         <v>0.63</v>
       </c>
-      <c r="AJ42" s="5">
+      <c r="AJ44" s="24">
         <f t="shared" si="167"/>
         <v>0.63</v>
       </c>
-      <c r="AK42" s="5">
+      <c r="AK44" s="24">
         <f t="shared" si="167"/>
         <v>0.63</v>
       </c>
-      <c r="AL42" s="5">
+      <c r="AL44" s="24">
         <f t="shared" si="167"/>
         <v>0.63</v>
       </c>
-      <c r="AM42" s="5">
+      <c r="AM44" s="24">
         <f t="shared" si="167"/>
         <v>0.63</v>
       </c>
-      <c r="AN42" s="5">
+      <c r="AN44" s="24">
         <f t="shared" si="167"/>
         <v>0.63</v>
       </c>
-      <c r="AO42" s="5">
+      <c r="AO44" s="24">
         <f t="shared" si="167"/>
         <v>0.63</v>
       </c>
-      <c r="AP42" s="5">
+      <c r="AP44" s="24">
         <f t="shared" si="167"/>
         <v>0.63</v>
       </c>
-      <c r="AQ42" s="5">
-        <f t="shared" si="167"/>
-        <v>0.63000000000000012</v>
-      </c>
-      <c r="AR42" s="5">
-        <f t="shared" si="167"/>
-        <v>0.63000000000000012</v>
-      </c>
-      <c r="AS42" s="5">
+      <c r="AQ44" s="24">
         <f t="shared" si="167"/>
         <v>0.63</v>
       </c>
-      <c r="AT42" s="5">
+      <c r="AR44" s="24">
         <f t="shared" si="167"/>
-        <v>0.63000000000000012</v>
-      </c>
-      <c r="AV42" s="10" t="s">
+        <v>0.63</v>
+      </c>
+      <c r="AS44" s="24">
+        <f t="shared" si="167"/>
+        <v>0.63</v>
+      </c>
+      <c r="AT44" s="24">
+        <f t="shared" si="167"/>
+        <v>0.63</v>
+      </c>
+      <c r="AV44" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="AW42" s="8">
-        <f>AW40+AW41</f>
-        <v>516343.83586444124</v>
-      </c>
-    </row>
-    <row r="43" spans="2:149" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
+      <c r="AW44" s="5">
+        <f>AW42+AW43</f>
+        <v>590097.28183199966</v>
+      </c>
+    </row>
+    <row r="45" spans="2:149" x14ac:dyDescent="0.15">
+      <c r="B45" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="5">
-        <f t="shared" ref="D43" si="168">D30/D23</f>
+      <c r="D45" s="24">
+        <f t="shared" ref="D45" si="168">D32/D25</f>
         <v>0.32501325502671397</v>
       </c>
-      <c r="E43" s="5">
-        <f t="shared" ref="E43:L43" si="169">E30/E23</f>
+      <c r="E45" s="24">
+        <f t="shared" ref="E45:L45" si="169">E32/E25</f>
         <v>0.34181247855707492</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F45" s="24">
         <f t="shared" si="169"/>
         <v>0.28265332306902746</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G45" s="24">
         <f t="shared" si="169"/>
         <v>0.30102150769363389</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H45" s="24">
         <f t="shared" si="169"/>
         <v>0.30294673214960333</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I45" s="24">
         <f t="shared" si="169"/>
         <v>0.31220948962216394</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J45" s="24">
         <f t="shared" si="169"/>
         <v>0.28787195671776378</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K45" s="24">
         <f t="shared" si="169"/>
         <v>0.28426321213013395</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L45" s="24">
         <f t="shared" si="169"/>
         <v>0.253235837955959</v>
       </c>
-      <c r="M43" s="5">
-        <f t="shared" ref="M43:R43" si="170">M30/M23</f>
+      <c r="M45" s="24">
+        <f t="shared" ref="M45:R45" si="170">M32/M25</f>
         <v>0.30929516216705927</v>
       </c>
-      <c r="N43" s="5">
+      <c r="N45" s="24">
         <f t="shared" si="170"/>
         <v>0.20325992044241778</v>
       </c>
-      <c r="O43" s="5">
+      <c r="O45" s="24">
         <f t="shared" si="170"/>
         <v>0.27149660954613053</v>
       </c>
-      <c r="P43" s="5">
+      <c r="P45" s="24">
         <f t="shared" si="170"/>
         <v>0.3013816616154808</v>
       </c>
-      <c r="Q43" s="5">
+      <c r="Q45" s="24">
         <f t="shared" si="170"/>
         <v>0.29246216939142722</v>
       </c>
-      <c r="R43" s="5">
+      <c r="R45" s="24">
         <f t="shared" si="170"/>
         <v>0.22438313094916751</v>
       </c>
-      <c r="V43" s="27">
-        <f t="shared" ref="V43" si="171">V30/V23</f>
+      <c r="V45" s="33">
+        <f t="shared" ref="V45" si="171">V32/V25</f>
         <v>0.37197958538458065</v>
       </c>
-      <c r="W43" s="27">
-        <f t="shared" ref="W43:X43" si="172">W30/W23</f>
+      <c r="W45" s="33">
+        <f t="shared" ref="W45:X45" si="172">W32/W25</f>
         <v>0.3606666405852666</v>
       </c>
-      <c r="X43" s="27">
+      <c r="X45" s="33">
         <f t="shared" si="172"/>
         <v>0.36860311155246606</v>
       </c>
-      <c r="Y43" s="27">
-        <f t="shared" ref="Y43:Z43" si="173">Y30/Y23</f>
+      <c r="Y45" s="33">
+        <f t="shared" ref="Y45:Z45" si="173">Y32/Y25</f>
         <v>0.348460735492924</v>
       </c>
-      <c r="Z43" s="27">
+      <c r="Z45" s="33">
         <f t="shared" si="173"/>
         <v>0.38566673068305485</v>
       </c>
-      <c r="AA43" s="27">
-        <f t="shared" ref="AA43" si="174">AA30/AA23</f>
+      <c r="AA45" s="33">
+        <f t="shared" ref="AA45" si="174">AA32/AA25</f>
         <v>0.38833049769097694</v>
       </c>
-      <c r="AB43" s="27">
-        <f t="shared" ref="AB43" si="175">AB30/AB23</f>
+      <c r="AB45" s="33">
+        <f t="shared" ref="AB45" si="175">AB32/AB25</f>
         <v>0.37920323372624554</v>
       </c>
-      <c r="AC43" s="27">
-        <f t="shared" ref="AC43:AE43" si="176">AC30/AC23</f>
+      <c r="AC45" s="33">
+        <f t="shared" ref="AC45:AE45" si="176">AC32/AC25</f>
         <v>0.34379375457616668</v>
       </c>
-      <c r="AD43" s="27">
+      <c r="AD45" s="33">
         <f t="shared" si="176"/>
         <v>0.32114518673776099</v>
       </c>
-      <c r="AE43" s="27">
+      <c r="AE45" s="33">
         <f t="shared" si="176"/>
         <v>0.30104723231459712</v>
       </c>
-      <c r="AF43" s="27">
-        <f>AF30/AF23</f>
+      <c r="AF45" s="33">
+        <f>AF32/AF25</f>
         <v>0.26290220457031027</v>
       </c>
-      <c r="AG43" s="27">
-        <f>AG30/AG23</f>
+      <c r="AG45" s="33">
+        <f>AG32/AG25</f>
         <v>0.27383107279817936</v>
       </c>
-      <c r="AH43" s="27">
-        <f>AH30/AH23</f>
+      <c r="AH45" s="33">
+        <f>AH32/AH25</f>
         <v>0.27732292502564831</v>
       </c>
-      <c r="AI43" s="27">
-        <f t="shared" ref="AI43:AT43" si="177">AI30/AI23</f>
-        <v>0.28078054340774977</v>
-      </c>
-      <c r="AJ43" s="27">
+      <c r="AI45" s="33">
+        <f t="shared" ref="AI45:AT45" si="177">AI32/AI25</f>
+        <v>0.28417102356883966</v>
+      </c>
+      <c r="AJ45" s="33">
         <f t="shared" si="177"/>
-        <v>0.28420426357041895</v>
-      </c>
-      <c r="AK43" s="27">
+        <v>0.29088614932478452</v>
+      </c>
+      <c r="AK45" s="33">
         <f t="shared" si="177"/>
-        <v>0.28759441784914025</v>
-      </c>
-      <c r="AL43" s="27">
+        <v>0.29747088428935176</v>
+      </c>
+      <c r="AL45" s="33">
         <f t="shared" si="177"/>
-        <v>0.29095133532120759</v>
-      </c>
-      <c r="AM43" s="27">
+        <v>0.30392776032256824</v>
+      </c>
+      <c r="AM45" s="33">
         <f t="shared" si="177"/>
-        <v>0.29427534183766635</v>
-      </c>
-      <c r="AN43" s="27">
+        <v>0.31025926012213001</v>
+      </c>
+      <c r="AN45" s="33">
         <f t="shared" si="177"/>
-        <v>0.29756676005494409</v>
-      </c>
-      <c r="AO43" s="27">
+        <v>0.31646781817801095</v>
+      </c>
+      <c r="AO45" s="33">
         <f t="shared" si="177"/>
-        <v>0.30082590946617016</v>
-      </c>
-      <c r="AP43" s="27">
+        <v>0.32255582170853503</v>
+      </c>
+      <c r="AP45" s="33">
         <f t="shared" si="177"/>
-        <v>0.30405310643218803</v>
-      </c>
-      <c r="AQ43" s="27">
+        <v>0.3285256115782722</v>
+      </c>
+      <c r="AQ45" s="33">
         <f t="shared" si="177"/>
-        <v>0.30724866421226471</v>
-      </c>
-      <c r="AR43" s="27">
+        <v>0.33437948319811156</v>
+      </c>
+      <c r="AR45" s="33">
         <f t="shared" si="177"/>
-        <v>0.31041289299449742</v>
-      </c>
-      <c r="AS43" s="27">
+        <v>0.34011968740785697</v>
+      </c>
+      <c r="AS45" s="33">
         <f t="shared" si="177"/>
-        <v>0.31354609992592397</v>
-      </c>
-      <c r="AT43" s="27">
+        <v>0.34574843134168509</v>
+      </c>
+      <c r="AT45" s="33">
         <f t="shared" si="177"/>
-        <v>0.31664858914233646</v>
-      </c>
-    </row>
-    <row r="44" spans="2:149" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
+        <v>0.35126787927679792</v>
+      </c>
+    </row>
+    <row r="46" spans="2:149" x14ac:dyDescent="0.15">
+      <c r="B46" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="D44" s="5">
-        <f>D34/D23</f>
+      <c r="D46" s="24">
+        <f>D36/D25</f>
         <v>0.26746604673926344</v>
       </c>
-      <c r="E44" s="5">
-        <f t="shared" ref="E44:R44" si="178">E34/E23</f>
+      <c r="E46" s="24">
+        <f t="shared" ref="E46:R46" si="178">E36/E25</f>
         <v>0.2774101847767485</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F46" s="24">
         <f t="shared" si="178"/>
         <v>0.2026772731160722</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G46" s="24">
         <f t="shared" si="178"/>
         <v>0.24481703374854533</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H46" s="24">
         <f t="shared" si="178"/>
         <v>0.23067623724971667</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I46" s="24">
         <f t="shared" si="178"/>
         <v>0.23816098301808644</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J46" s="24">
         <f t="shared" si="178"/>
         <v>0.23638412984670876</v>
       </c>
-      <c r="K44" s="5">
+      <c r="K46" s="24">
         <f t="shared" si="178"/>
         <v>0.22670395995878109</v>
       </c>
-      <c r="L44" s="5">
+      <c r="L46" s="24">
         <f t="shared" si="178"/>
         <v>0.21003530005042864</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M46" s="24">
         <f t="shared" si="178"/>
         <v>0.24012502264903063</v>
       </c>
-      <c r="N44" s="5">
+      <c r="N46" s="24">
         <f t="shared" si="178"/>
         <v>0.2052973707189289</v>
       </c>
-      <c r="O44" s="5">
+      <c r="O46" s="24">
         <f t="shared" si="178"/>
         <v>0.23081310828123885</v>
       </c>
-      <c r="P44" s="5">
+      <c r="P46" s="24">
         <f t="shared" si="178"/>
         <v>0.25379170923143751</v>
       </c>
-      <c r="Q44" s="5">
+      <c r="Q46" s="24">
         <f t="shared" si="178"/>
         <v>0.24768381720034655</v>
       </c>
-      <c r="R44" s="5">
+      <c r="R46" s="24">
         <f t="shared" si="178"/>
         <v>0.19369405979018395</v>
       </c>
-      <c r="V44" s="5">
-        <f t="shared" ref="V44:AT44" si="179">V34/V23</f>
+      <c r="V46" s="24">
+        <f t="shared" ref="V46:AT46" si="179">V36/V25</f>
         <v>0.28451741113770834</v>
       </c>
-      <c r="W44" s="5">
+      <c r="W46" s="24">
         <f t="shared" si="179"/>
         <v>0.27512616877273971</v>
       </c>
-      <c r="X44" s="5">
+      <c r="X46" s="24">
         <f t="shared" si="179"/>
         <v>0.29263488910956637</v>
       </c>
-      <c r="Y44" s="5">
+      <c r="Y46" s="24">
         <f t="shared" si="179"/>
         <v>0.24931122405325393</v>
       </c>
-      <c r="Z44" s="5">
+      <c r="Z46" s="24">
         <f t="shared" si="179"/>
         <v>0.30023686063632288</v>
       </c>
-      <c r="AA44" s="5">
+      <c r="AA46" s="24">
         <f t="shared" si="179"/>
         <v>0.3309838010951775</v>
       </c>
-      <c r="AB44" s="5">
+      <c r="AB46" s="24">
         <f t="shared" si="179"/>
         <v>0.31429811592040474</v>
       </c>
-      <c r="AC44" s="5">
+      <c r="AC46" s="24">
         <f t="shared" si="179"/>
         <v>0.28083854641678119</v>
       </c>
-      <c r="AD44" s="5">
+      <c r="AD46" s="24">
         <f t="shared" si="179"/>
         <v>0.2556746858913086</v>
       </c>
-      <c r="AE44" s="5">
+      <c r="AE46" s="24">
         <f t="shared" si="179"/>
         <v>0.23727292156443686</v>
       </c>
-      <c r="AF44" s="5">
+      <c r="AF46" s="24">
         <f t="shared" si="179"/>
         <v>0.22046854314165659</v>
       </c>
-      <c r="AG44" s="5">
+      <c r="AG46" s="24">
         <f t="shared" si="179"/>
         <v>0.23258671667028544</v>
       </c>
-      <c r="AH44" s="5">
+      <c r="AH46" s="24">
         <f t="shared" si="179"/>
         <v>0.2269022911333359</v>
       </c>
-      <c r="AI44" s="5">
+      <c r="AI46" s="24">
         <f t="shared" si="179"/>
-        <v>0.23045929774321022</v>
-      </c>
-      <c r="AJ44" s="5">
+        <v>0.23311503271657716</v>
+      </c>
+      <c r="AJ46" s="24">
         <f t="shared" si="179"/>
-        <v>0.2339876267465148</v>
-      </c>
-      <c r="AK44" s="5">
+        <v>0.23922413692814973</v>
+      </c>
+      <c r="AK46" s="24">
         <f t="shared" si="179"/>
-        <v>0.23748746211967073</v>
-      </c>
-      <c r="AL44" s="5">
+        <v>0.24523118705869956</v>
+      </c>
+      <c r="AL46" s="24">
         <f t="shared" si="179"/>
-        <v>0.24095898755974765</v>
-      </c>
-      <c r="AM44" s="5">
+        <v>0.25113774648664972</v>
+      </c>
+      <c r="AM46" s="24">
         <f t="shared" si="179"/>
-        <v>0.24440238646329049</v>
-      </c>
-      <c r="AN44" s="5">
+        <v>0.25694535879143382</v>
+      </c>
+      <c r="AN46" s="24">
         <f t="shared" si="179"/>
-        <v>0.24781784190573036</v>
-      </c>
-      <c r="AO44" s="5">
+        <v>0.26265554787143353</v>
+      </c>
+      <c r="AO46" s="24">
         <f t="shared" si="179"/>
-        <v>0.25120553662136552</v>
-      </c>
-      <c r="AP44" s="5">
+        <v>0.26826981806635281</v>
+      </c>
+      <c r="AP46" s="24">
         <f t="shared" si="179"/>
-        <v>0.25456565298390227</v>
-      </c>
-      <c r="AQ44" s="5">
+        <v>0.27378965428377328</v>
+      </c>
+      <c r="AQ46" s="24">
         <f t="shared" si="179"/>
-        <v>0.25789837298754453</v>
-      </c>
-      <c r="AR44" s="5">
+        <v>0.27921652212964515</v>
+      </c>
+      <c r="AR46" s="24">
         <f t="shared" si="179"/>
-        <v>0.26120387822862046</v>
-      </c>
-      <c r="AS44" s="5">
+        <v>0.28455186804247445</v>
+      </c>
+      <c r="AS46" s="24">
         <f t="shared" si="179"/>
-        <v>0.26448234988773622</v>
-      </c>
-      <c r="AT44" s="5">
+        <v>0.28979711943097791</v>
+      </c>
+      <c r="AT46" s="24">
         <f t="shared" si="179"/>
-        <v>0.26773396871244565</v>
-      </c>
-    </row>
-    <row r="45" spans="2:149" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
+        <v>0.29495368481498568</v>
+      </c>
+    </row>
+    <row r="47" spans="2:149" x14ac:dyDescent="0.15">
+      <c r="B47" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="5">
-        <f t="shared" ref="D45" si="180">D33/D32</f>
+      <c r="D47" s="24">
+        <f t="shared" ref="D47" si="180">D35/D34</f>
         <v>0.16755521706016754</v>
       </c>
-      <c r="E45" s="5">
-        <f t="shared" ref="E45:L45" si="181">E33/E32</f>
+      <c r="E47" s="24">
+        <f t="shared" ref="E47:L47" si="181">E35/E34</f>
         <v>0.18643093287336496</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F47" s="24">
         <f t="shared" si="181"/>
         <v>0.29310859188544153</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G47" s="24">
         <f t="shared" si="181"/>
         <v>0.19272313814667424</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H47" s="24">
         <f t="shared" si="181"/>
         <v>0.24552082046212775</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I47" s="24">
         <f t="shared" si="181"/>
         <v>0.22841807067243178</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J47" s="24">
         <f t="shared" si="181"/>
         <v>0.21535468422627957</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K47" s="24">
         <f t="shared" si="181"/>
         <v>0.16198077271902775</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L47" s="24">
         <f t="shared" si="181"/>
         <v>0.14637062339880444</v>
       </c>
-      <c r="M45" s="5">
-        <f t="shared" ref="M45:R45" si="182">M33/M32</f>
+      <c r="M47" s="24">
+        <f t="shared" ref="M47:R47" si="182">M35/M34</f>
         <v>0.19449931621334143</v>
       </c>
-      <c r="N45" s="5">
+      <c r="N47" s="24">
         <f t="shared" si="182"/>
         <v>5.0482387256001793E-2</v>
       </c>
-      <c r="O45" s="5">
+      <c r="O47" s="24">
         <f t="shared" si="182"/>
         <v>0.18999999999999997</v>
       </c>
-      <c r="P45" s="5">
+      <c r="P47" s="24">
         <f t="shared" si="182"/>
         <v>0.19</v>
       </c>
-      <c r="Q45" s="5">
+      <c r="Q47" s="24">
         <f t="shared" si="182"/>
         <v>0.19</v>
       </c>
-      <c r="R45" s="5">
+      <c r="R47" s="24">
         <f t="shared" si="182"/>
         <v>0.19</v>
       </c>
-      <c r="V45" s="5">
-        <f t="shared" ref="V45:AT45" si="183">V33/V32</f>
+      <c r="V47" s="24">
+        <f t="shared" ref="V47:AT47" si="183">V35/V34</f>
         <v>0.31009747015660938</v>
       </c>
-      <c r="W45" s="5">
+      <c r="W47" s="24">
         <f t="shared" si="183"/>
         <v>0.30028356798169248</v>
       </c>
-      <c r="X45" s="5">
+      <c r="X47" s="24">
         <f t="shared" si="183"/>
         <v>0.25753758293440832</v>
       </c>
-      <c r="Y45" s="5">
+      <c r="Y47" s="24">
         <f t="shared" si="183"/>
         <v>0.26497149487916855</v>
       </c>
-      <c r="Z45" s="5">
+      <c r="Z47" s="24">
         <f t="shared" si="183"/>
         <v>0.24999000519729742</v>
       </c>
-      <c r="AA45" s="5">
+      <c r="AA47" s="24">
         <f t="shared" si="183"/>
         <v>0.17530547540166008</v>
       </c>
-      <c r="AB45" s="5">
+      <c r="AB47" s="24">
         <f t="shared" si="183"/>
         <v>0.18583977512297961</v>
       </c>
-      <c r="AC45" s="5">
+      <c r="AC47" s="24">
         <f t="shared" si="183"/>
         <v>0.19181576223569421</v>
       </c>
-      <c r="AD45" s="5">
+      <c r="AD47" s="24">
         <f t="shared" si="183"/>
         <v>0.20560346369914481</v>
       </c>
-      <c r="AE45" s="5">
+      <c r="AE47" s="24">
         <f t="shared" si="183"/>
         <v>0.22140402552773686</v>
       </c>
-      <c r="AF45" s="5">
+      <c r="AF47" s="24">
         <f t="shared" si="183"/>
         <v>0.14527358743193788</v>
       </c>
-      <c r="AG45" s="5">
+      <c r="AG47" s="24">
         <f t="shared" si="183"/>
         <v>0.19000000000000009</v>
       </c>
-      <c r="AH45" s="5">
+      <c r="AH47" s="24">
         <f t="shared" si="183"/>
         <v>0.2</v>
       </c>
-      <c r="AI45" s="5">
-        <f t="shared" si="183"/>
-        <v>0.20000000000000004</v>
-      </c>
-      <c r="AJ45" s="5">
+      <c r="AI47" s="24">
         <f t="shared" si="183"/>
         <v>0.2</v>
       </c>
-      <c r="AK45" s="5">
+      <c r="AJ47" s="24">
         <f t="shared" si="183"/>
         <v>0.2</v>
       </c>
-      <c r="AL45" s="5">
+      <c r="AK47" s="24">
         <f t="shared" si="183"/>
         <v>0.2</v>
       </c>
-      <c r="AM45" s="5">
+      <c r="AL47" s="24">
         <f t="shared" si="183"/>
         <v>0.2</v>
       </c>
-      <c r="AN45" s="5">
+      <c r="AM47" s="24">
         <f t="shared" si="183"/>
         <v>0.2</v>
       </c>
-      <c r="AO45" s="5">
+      <c r="AN47" s="24">
         <f t="shared" si="183"/>
         <v>0.2</v>
       </c>
-      <c r="AP45" s="5">
+      <c r="AO47" s="24">
         <f t="shared" si="183"/>
         <v>0.2</v>
       </c>
-      <c r="AQ45" s="5">
+      <c r="AP47" s="24">
         <f t="shared" si="183"/>
         <v>0.2</v>
       </c>
-      <c r="AR45" s="5">
+      <c r="AQ47" s="24">
         <f t="shared" si="183"/>
         <v>0.2</v>
       </c>
-      <c r="AS45" s="5">
+      <c r="AR47" s="24">
         <f t="shared" si="183"/>
         <v>0.2</v>
       </c>
-      <c r="AT45" s="5">
+      <c r="AS47" s="24">
         <f t="shared" si="183"/>
         <v>0.2</v>
       </c>
-      <c r="AV45" s="10" t="s">
+      <c r="AT47" s="24">
+        <f t="shared" si="183"/>
+        <v>0.2</v>
+      </c>
+      <c r="AV47" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="AW45" s="29">
-        <f>AW42/Main!K3</f>
-        <v>65.843386363739</v>
-      </c>
-    </row>
-    <row r="46" spans="2:149" x14ac:dyDescent="0.2">
-      <c r="AV46" s="10" t="s">
+      <c r="AW47" s="23">
+        <f>AW44/Main!K3</f>
+        <v>75.24831443917364</v>
+      </c>
+    </row>
+    <row r="48" spans="2:149" x14ac:dyDescent="0.15">
+      <c r="AV48" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="AW46" s="29">
+      <c r="AW48" s="23">
         <f>Main!K2</f>
         <v>56.53</v>
       </c>
     </row>
-    <row r="48" spans="2:149" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
+    <row r="50" spans="2:49" x14ac:dyDescent="0.15">
+      <c r="B50" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="I48" s="9">
-        <f>I49-I60</f>
+      <c r="I50" s="6">
+        <f t="shared" ref="I50:N50" si="184">I51-I62</f>
         <v>75589</v>
       </c>
-      <c r="J48" s="9">
-        <f>J49-J60</f>
+      <c r="J50" s="6">
+        <f t="shared" si="184"/>
         <v>73287</v>
       </c>
-      <c r="K48" s="9">
-        <f>K49-K60</f>
+      <c r="K50" s="6">
+        <f t="shared" si="184"/>
         <v>72226</v>
       </c>
-      <c r="L48" s="9">
-        <f>L49-L60</f>
+      <c r="L50" s="6">
+        <f t="shared" si="184"/>
         <v>69725</v>
       </c>
-      <c r="M48" s="9">
-        <f>M49-M60</f>
+      <c r="M50" s="6">
+        <f t="shared" si="184"/>
         <v>70473</v>
       </c>
-      <c r="N48" s="9">
-        <f>N49-N60</f>
+      <c r="N50" s="6">
+        <f t="shared" si="184"/>
         <v>69984</v>
       </c>
-      <c r="O48" s="9">
-        <f>+N48+O34</f>
+      <c r="O50" s="6">
+        <f>+N50+O36</f>
         <v>74734.777736999997</v>
       </c>
-      <c r="P48" s="9">
-        <f>+O48+P34</f>
+      <c r="P50" s="6">
+        <f>+O50+P36</f>
         <v>80834.397524999993</v>
       </c>
-      <c r="Q48" s="9">
-        <f>+P48+Q34</f>
+      <c r="Q50" s="6">
+        <f>+P50+Q36</f>
         <v>86356.944152999989</v>
       </c>
-      <c r="R48" s="9">
-        <f>+Q48+R34</f>
+      <c r="R50" s="6">
+        <f>+Q50+R36</f>
         <v>90389.681594999987</v>
       </c>
-      <c r="AE48" s="2">
-        <f>+AE49-AE60</f>
+      <c r="AE50" s="9">
+        <f>+AE51-AE62</f>
         <v>73287</v>
       </c>
-      <c r="AF48" s="2">
-        <f>+AE48+AF34</f>
+      <c r="AF50" s="9">
+        <f>+AE50+AF36</f>
         <v>92438</v>
       </c>
-      <c r="AG48" s="2">
-        <f>+AF48+AG34</f>
+      <c r="AG50" s="9">
+        <f>+AF50+AG36</f>
         <v>112843.68159499999</v>
       </c>
-      <c r="AH48" s="2">
-        <f>+AG48+AH34</f>
+      <c r="AH50" s="9">
+        <f>+AG50+AH36</f>
         <v>133148.78711337998</v>
       </c>
-      <c r="AI48" s="2">
-        <f>+AH48+AI34</f>
-        <v>154184.6715096735</v>
-      </c>
-      <c r="AJ48" s="2">
-        <f t="shared" ref="AJ48:AT48" si="184">+AI48+AJ34</f>
-        <v>175969.77390690899</v>
-      </c>
-      <c r="AK48" s="2">
-        <f t="shared" si="184"/>
-        <v>198522.94275314134</v>
-      </c>
-      <c r="AL48" s="2">
-        <f t="shared" si="184"/>
-        <v>221863.44442260658</v>
-      </c>
-      <c r="AM48" s="2">
-        <f t="shared" si="184"/>
-        <v>246010.97199308293</v>
-      </c>
-      <c r="AN48" s="2">
-        <f t="shared" si="184"/>
-        <v>270985.65420302475</v>
-      </c>
-      <c r="AO48" s="2">
-        <f t="shared" si="184"/>
-        <v>296808.06459210685</v>
-      </c>
-      <c r="AP48" s="2">
-        <f t="shared" si="184"/>
-        <v>323499.2308288904</v>
-      </c>
-      <c r="AQ48" s="2">
-        <f t="shared" si="184"/>
-        <v>351080.64422939613</v>
-      </c>
-      <c r="AR48" s="2">
-        <f t="shared" si="184"/>
-        <v>379574.26947044645</v>
-      </c>
-      <c r="AS48" s="2">
-        <f t="shared" si="184"/>
-        <v>409002.55450171645</v>
-      </c>
-      <c r="AT48" s="2">
-        <f t="shared" si="184"/>
-        <v>439388.44066051178</v>
-      </c>
-      <c r="AW48" s="27">
-        <f>AW45/Main!K2-1</f>
-        <v>0.16475121818041738</v>
-      </c>
-    </row>
-    <row r="49" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="2" t="s">
+      <c r="AI50" s="9">
+        <f>+AH50+AI36</f>
+        <v>154635.69265759349</v>
+      </c>
+      <c r="AJ50" s="9">
+        <f t="shared" ref="AJ50:AT50" si="185">+AI50+AJ36</f>
+        <v>177347.19249265667</v>
+      </c>
+      <c r="AK50" s="9">
+        <f t="shared" si="185"/>
+        <v>201327.44456936108</v>
+      </c>
+      <c r="AL50" s="9">
+        <f t="shared" si="185"/>
+        <v>226622.012259246</v>
+      </c>
+      <c r="AM50" s="9">
+        <f t="shared" si="185"/>
+        <v>253277.90734996708</v>
+      </c>
+      <c r="AN50" s="9">
+        <f t="shared" si="185"/>
+        <v>281343.63433895726</v>
+      </c>
+      <c r="AO50" s="9">
+        <f t="shared" si="185"/>
+        <v>310869.23606441333</v>
+      </c>
+      <c r="AP50" s="9">
+        <f t="shared" si="185"/>
+        <v>341906.34071381367</v>
+      </c>
+      <c r="AQ50" s="9">
+        <f t="shared" si="185"/>
+        <v>374508.21025137935</v>
+      </c>
+      <c r="AR50" s="9">
+        <f t="shared" si="185"/>
+        <v>408729.79030713422</v>
+      </c>
+      <c r="AS50" s="9">
+        <f t="shared" si="185"/>
+        <v>444627.76157150016</v>
+      </c>
+      <c r="AT50" s="9">
+        <f t="shared" si="185"/>
+        <v>482260.59274068271</v>
+      </c>
+      <c r="AW50" s="33">
+        <f>AW47/Main!K2-1</f>
+        <v>0.33112178381697577</v>
+      </c>
+    </row>
+    <row r="51" spans="2:49" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6">
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10">
         <f>7414+88024+12019</f>
         <v>107457</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J51" s="10">
         <f>96526+12053</f>
         <v>108579</v>
       </c>
-      <c r="K49" s="6">
+      <c r="K51" s="10">
         <f>5431+93924+11438</f>
         <v>110793</v>
       </c>
-      <c r="L49" s="6">
+      <c r="L51" s="10">
         <f>102640+11514</f>
         <v>114154</v>
       </c>
-      <c r="M49" s="6">
+      <c r="M51" s="10">
         <f>7170+98382+11315</f>
         <v>116867</v>
       </c>
-      <c r="N49" s="6">
+      <c r="N51" s="10">
         <f>6510+106730+10431</f>
         <v>123671</v>
       </c>
-      <c r="AE49" s="2">
+      <c r="AE51" s="9">
         <f>5595+90931+12053</f>
         <v>108579</v>
       </c>
     </row>
-    <row r="50" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="2" t="s">
+    <row r="52" spans="2:49" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6">
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10">
         <v>12427</v>
       </c>
-      <c r="J50" s="6">
+      <c r="J52" s="10">
         <v>17908</v>
       </c>
-      <c r="K50" s="6">
+      <c r="K52" s="10">
         <v>11444</v>
       </c>
-      <c r="L50" s="6">
+      <c r="L52" s="10">
         <v>14507</v>
       </c>
-      <c r="M50" s="6">
+      <c r="M52" s="10">
         <v>12247</v>
       </c>
-      <c r="N50" s="6">
+      <c r="N52" s="10">
         <v>18277</v>
       </c>
-      <c r="AE50" s="2">
+      <c r="AE52" s="9">
         <v>17908</v>
       </c>
     </row>
-    <row r="51" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="2" t="s">
+    <row r="53" spans="2:49" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6">
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10">
         <v>2469</v>
       </c>
-      <c r="J51" s="6">
+      <c r="J53" s="10">
         <v>2902</v>
       </c>
-      <c r="K51" s="6">
+      <c r="K53" s="10">
         <v>3816</v>
       </c>
-      <c r="L51" s="6">
+      <c r="L53" s="10">
         <v>2702</v>
       </c>
-      <c r="M51" s="6">
+      <c r="M53" s="10">
         <v>2450</v>
       </c>
-      <c r="N51" s="6">
+      <c r="N53" s="10">
         <v>2251</v>
       </c>
-      <c r="AE51" s="2">
+      <c r="AE53" s="9">
         <v>2902</v>
       </c>
     </row>
-    <row r="52" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="2" t="s">
+    <row r="54" spans="2:49" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6">
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10">
         <v>1688</v>
       </c>
-      <c r="J52" s="6">
+      <c r="J54" s="10">
         <v>1915</v>
       </c>
-      <c r="K52" s="6">
+      <c r="K54" s="10">
         <v>1447</v>
       </c>
-      <c r="L52" s="6">
+      <c r="L54" s="10">
         <v>1618</v>
       </c>
-      <c r="M52" s="6">
+      <c r="M54" s="10">
         <v>1574</v>
       </c>
-      <c r="N52" s="6">
+      <c r="N54" s="10">
         <v>0</v>
       </c>
-      <c r="AE52" s="2">
+      <c r="AE54" s="9">
         <v>1915</v>
       </c>
     </row>
-    <row r="53" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="2" t="s">
+    <row r="55" spans="2:49" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6">
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10">
         <v>6376</v>
       </c>
-      <c r="J53" s="6">
+      <c r="J55" s="10">
         <v>5461</v>
       </c>
-      <c r="K53" s="6">
+      <c r="K55" s="10">
         <v>5594</v>
       </c>
-      <c r="L53" s="6">
+      <c r="L55" s="10">
         <v>6345</v>
       </c>
-      <c r="M53" s="6">
+      <c r="M55" s="10">
         <v>6598</v>
       </c>
-      <c r="N53" s="6">
+      <c r="N55" s="10">
         <v>5892</v>
       </c>
-      <c r="AE53" s="2">
+      <c r="AE55" s="9">
         <v>5461</v>
       </c>
     </row>
-    <row r="54" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="12" t="s">
+    <row r="56" spans="2:49" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13">
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10">
         <v>14375</v>
       </c>
-      <c r="J54" s="13">
+      <c r="J56" s="10">
         <v>14731</v>
       </c>
-      <c r="K54" s="13">
+      <c r="K56" s="10">
         <v>15046</v>
       </c>
-      <c r="L54" s="13">
+      <c r="L56" s="10">
         <v>15789</v>
       </c>
-      <c r="M54" s="6">
+      <c r="M56" s="10">
         <v>16831</v>
       </c>
-      <c r="N54" s="6">
+      <c r="N56" s="10">
         <v>18356</v>
       </c>
-      <c r="AE54" s="2">
+      <c r="AE56" s="9">
         <v>14731</v>
       </c>
     </row>
-    <row r="55" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="12" t="s">
+    <row r="57" spans="2:49" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6">
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10">
         <f>21728+6963</f>
         <v>28691</v>
       </c>
-      <c r="J55" s="6">
+      <c r="J57" s="10">
         <f>16939+4835</f>
         <v>21774</v>
       </c>
-      <c r="K55" s="6">
+      <c r="K57" s="10">
         <f>17142+4745</f>
         <v>21887</v>
       </c>
-      <c r="L55" s="6">
+      <c r="L57" s="10">
         <f>17436+4619</f>
         <v>22055</v>
       </c>
-      <c r="M55" s="6">
+      <c r="M57" s="10">
         <f>17948+4459</f>
         <v>22407</v>
       </c>
-      <c r="N55" s="6">
+      <c r="N57" s="10">
         <f>17872+3733</f>
         <v>21605</v>
       </c>
-      <c r="AE55" s="2">
+      <c r="AE57" s="9">
         <f>16939+4835</f>
         <v>21774</v>
       </c>
     </row>
-    <row r="56" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="12" t="s">
+    <row r="58" spans="2:49" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6">
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10">
         <v>3200</v>
       </c>
-      <c r="J56" s="6">
+      <c r="J58" s="10">
         <v>2953</v>
       </c>
-      <c r="K56" s="6">
+      <c r="K58" s="10">
         <v>2869</v>
       </c>
-      <c r="L56" s="6">
+      <c r="L58" s="10">
         <v>2928</v>
       </c>
-      <c r="M56" s="6">
+      <c r="M58" s="10">
         <v>2895</v>
       </c>
-      <c r="N56" s="6">
+      <c r="N58" s="10">
         <v>3642</v>
       </c>
-      <c r="AE56" s="2">
+      <c r="AE58" s="9">
         <v>2953</v>
       </c>
     </row>
-    <row r="57" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B57" s="12" t="s">
+    <row r="59" spans="2:49" x14ac:dyDescent="0.15">
+      <c r="B59" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I57" s="6">
-        <f>SUM(I49:I56)</f>
+      <c r="I59" s="10">
+        <f t="shared" ref="I59:N59" si="186">SUM(I51:I58)</f>
         <v>176683</v>
       </c>
-      <c r="J57" s="6">
-        <f>SUM(J49:J56)</f>
+      <c r="J59" s="10">
+        <f t="shared" si="186"/>
         <v>176223</v>
       </c>
-      <c r="K57" s="6">
-        <f>SUM(K49:K56)</f>
+      <c r="K59" s="10">
+        <f t="shared" si="186"/>
         <v>172896</v>
       </c>
-      <c r="L57" s="6">
-        <f>SUM(L49:L56)</f>
+      <c r="L59" s="10">
+        <f t="shared" si="186"/>
         <v>180098</v>
       </c>
-      <c r="M57" s="6">
-        <f>SUM(M49:M56)</f>
+      <c r="M59" s="10">
+        <f t="shared" si="186"/>
         <v>181869</v>
       </c>
-      <c r="N57" s="6">
-        <f>SUM(N49:N56)</f>
+      <c r="N59" s="10">
+        <f t="shared" si="186"/>
         <v>193694</v>
       </c>
-      <c r="AE57" s="6">
-        <f>SUM(AE49:AE56)</f>
+      <c r="AE59" s="10">
+        <f>SUM(AE51:AE58)</f>
         <v>176223</v>
       </c>
     </row>
-    <row r="59" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="2" t="s">
+    <row r="61" spans="2:49" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6">
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10">
         <v>6690</v>
       </c>
-      <c r="J59" s="6">
+      <c r="J61" s="10">
         <v>6591</v>
       </c>
-      <c r="K59" s="6">
+      <c r="K61" s="10">
         <v>6630</v>
       </c>
-      <c r="L59" s="6">
+      <c r="L61" s="10">
         <v>6936</v>
       </c>
-      <c r="M59" s="6">
+      <c r="M61" s="10">
         <v>6759</v>
       </c>
-      <c r="N59" s="6">
+      <c r="N61" s="10">
         <v>6898</v>
       </c>
-      <c r="AE59" s="2">
+      <c r="AE61" s="9">
         <v>6591</v>
       </c>
     </row>
-    <row r="60" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="2" t="s">
+    <row r="62" spans="2:49" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6">
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10">
         <f>1725+2499+27644</f>
         <v>31868</v>
       </c>
-      <c r="J60" s="6">
+      <c r="J62" s="10">
         <f>4985+27808+2499</f>
         <v>35292</v>
       </c>
-      <c r="K60" s="6">
+      <c r="K62" s="10">
         <f>9998+27819+750</f>
         <v>38567</v>
       </c>
-      <c r="L60" s="6">
+      <c r="L62" s="10">
         <f>3750+40679</f>
         <v>44429</v>
       </c>
-      <c r="M60" s="6">
+      <c r="M62" s="10">
         <f>40896+5498</f>
         <v>46394</v>
       </c>
-      <c r="N60" s="6">
+      <c r="N62" s="10">
         <f>12904+0+40783</f>
         <v>53687</v>
       </c>
-      <c r="AE60" s="2">
+      <c r="AE62" s="9">
         <f>4985+2499+27808</f>
         <v>35292</v>
       </c>
     </row>
-    <row r="61" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="2" t="s">
+    <row r="63" spans="2:49" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6">
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10">
         <v>3902</v>
       </c>
-      <c r="J61" s="6">
+      <c r="J63" s="10">
         <v>5096</v>
       </c>
-      <c r="K61" s="6">
+      <c r="K63" s="10">
         <v>3450</v>
       </c>
-      <c r="L61" s="6">
+      <c r="L63" s="10">
         <v>3649</v>
       </c>
-      <c r="M61" s="6">
+      <c r="M63" s="10">
         <v>4276</v>
       </c>
-      <c r="N61" s="6">
+      <c r="N63" s="10">
         <v>5264</v>
       </c>
-      <c r="AE61" s="2">
+      <c r="AE63" s="9">
         <v>5096</v>
       </c>
     </row>
-    <row r="62" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="2" t="s">
+    <row r="64" spans="2:49" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6">
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10">
         <v>758</v>
       </c>
-      <c r="J62" s="6">
+      <c r="J64" s="10">
         <v>606</v>
       </c>
-      <c r="K62" s="6">
+      <c r="K64" s="10">
         <v>607</v>
       </c>
-      <c r="L62" s="6">
+      <c r="L64" s="10">
         <v>493</v>
       </c>
-      <c r="M62" s="6">
+      <c r="M64" s="10">
         <v>685</v>
       </c>
-      <c r="N62" s="6">
+      <c r="N64" s="10">
         <v>580</v>
       </c>
-      <c r="AE62" s="2">
+      <c r="AE64" s="9">
         <v>606</v>
       </c>
     </row>
-    <row r="63" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="2" t="s">
+    <row r="65" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6">
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10">
         <f>18232+1966</f>
         <v>20198</v>
       </c>
-      <c r="J63" s="6">
+      <c r="J65" s="10">
         <f>23223+2095</f>
         <v>25318</v>
       </c>
-      <c r="K63" s="6">
+      <c r="K65" s="10">
         <f>21603+2784</f>
         <v>24387</v>
       </c>
-      <c r="L63" s="6">
+      <c r="L65" s="10">
         <f>20929+4102</f>
         <v>25031</v>
       </c>
-      <c r="M63" s="6">
+      <c r="M65" s="10">
         <f>20876+5017</f>
         <v>25893</v>
       </c>
-      <c r="N63" s="6">
+      <c r="N65" s="10">
         <f>27468+6441</f>
         <v>33909</v>
       </c>
-      <c r="AE63" s="2">
+      <c r="AE65" s="9">
         <f>23223+2095</f>
         <v>25318</v>
       </c>
     </row>
-    <row r="64" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="2" t="s">
+    <row r="66" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6">
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10">
         <v>96</v>
       </c>
-      <c r="J64" s="6">
+      <c r="J66" s="10">
         <v>92</v>
       </c>
-      <c r="K64" s="6">
+      <c r="K66" s="10">
         <v>154</v>
       </c>
-      <c r="L64" s="6">
+      <c r="L66" s="10">
         <v>439</v>
       </c>
-      <c r="M64" s="6">
+      <c r="M66" s="10">
         <v>373</v>
       </c>
-      <c r="N64" s="6">
+      <c r="N66" s="10">
         <v>294</v>
       </c>
-      <c r="AE64" s="2">
+      <c r="AE66" s="9">
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="2" t="s">
+    <row r="67" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6">
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10">
         <v>6846</v>
       </c>
-      <c r="J65" s="6">
+      <c r="J67" s="10">
         <v>6766</v>
       </c>
-      <c r="K65" s="6">
+      <c r="K67" s="10">
         <v>6207</v>
       </c>
-      <c r="L65" s="6">
+      <c r="L67" s="10">
         <v>6447</v>
       </c>
-      <c r="M65" s="6">
+      <c r="M67" s="10">
         <v>5887</v>
       </c>
-      <c r="N65" s="6">
+      <c r="N67" s="10">
         <f>193694-187745</f>
         <v>5949</v>
       </c>
-      <c r="AE65" s="2">
+      <c r="AE67" s="9">
         <v>6766</v>
       </c>
     </row>
-    <row r="66" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="2" t="s">
+    <row r="68" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6">
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10">
         <v>2919</v>
       </c>
-      <c r="J66" s="6">
+      <c r="J68" s="10">
         <v>2835</v>
       </c>
-      <c r="K66" s="6">
+      <c r="K68" s="10">
         <v>2169</v>
       </c>
-      <c r="L66" s="6">
+      <c r="L68" s="10">
         <v>2194</v>
       </c>
-      <c r="M66" s="6">
+      <c r="M68" s="10">
         <v>2674</v>
       </c>
-      <c r="N66" s="6">
+      <c r="N68" s="10">
         <v>696</v>
       </c>
-      <c r="AE66" s="2">
+      <c r="AE68" s="9">
         <v>2835</v>
       </c>
     </row>
-    <row r="67" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="2" t="s">
+    <row r="69" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6">
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10">
         <v>13274</v>
       </c>
-      <c r="J67" s="6">
+      <c r="J69" s="10">
         <v>13544</v>
       </c>
-      <c r="K67" s="6">
+      <c r="K69" s="10">
         <v>13280</v>
       </c>
-      <c r="L67" s="6">
+      <c r="L69" s="10">
         <v>13700</v>
       </c>
-      <c r="M67" s="6">
+      <c r="M69" s="10">
         <v>14122</v>
       </c>
-      <c r="N67" s="6">
+      <c r="N69" s="10">
         <v>14420</v>
       </c>
-      <c r="AE67" s="2">
+      <c r="AE69" s="9">
         <v>13544</v>
       </c>
     </row>
-    <row r="68" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="2" t="s">
+    <row r="70" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6">
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10">
         <v>90132</v>
       </c>
-      <c r="J68" s="6">
+      <c r="J70" s="10">
         <v>80083</v>
       </c>
-      <c r="K68" s="6">
+      <c r="K70" s="10">
         <v>77445</v>
       </c>
-      <c r="L68" s="6">
+      <c r="L70" s="10">
         <v>76780</v>
       </c>
-      <c r="M68" s="6">
+      <c r="M70" s="10">
         <v>74806</v>
       </c>
-      <c r="N68" s="6">
+      <c r="N70" s="10">
         <v>71997</v>
       </c>
-      <c r="AE68" s="2">
+      <c r="AE70" s="9">
         <v>80083</v>
       </c>
     </row>
-    <row r="69" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="2" t="s">
+    <row r="71" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6">
-        <f>SUM(I59:I68)</f>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10">
+        <f t="shared" ref="I71:N71" si="187">SUM(I61:I70)</f>
         <v>176683</v>
       </c>
-      <c r="J69" s="6">
-        <f>SUM(J59:J68)</f>
+      <c r="J71" s="10">
+        <f t="shared" si="187"/>
         <v>176223</v>
       </c>
-      <c r="K69" s="6">
-        <f>SUM(K59:K68)</f>
+      <c r="K71" s="10">
+        <f t="shared" si="187"/>
         <v>172896</v>
       </c>
-      <c r="L69" s="6">
-        <f>SUM(L59:L68)</f>
+      <c r="L71" s="10">
+        <f t="shared" si="187"/>
         <v>180098</v>
       </c>
-      <c r="M69" s="6">
-        <f>SUM(M59:M68)</f>
+      <c r="M71" s="10">
+        <f t="shared" si="187"/>
         <v>181869</v>
       </c>
-      <c r="N69" s="6">
-        <f>SUM(N59:N68)</f>
+      <c r="N71" s="10">
+        <f t="shared" si="187"/>
         <v>193694</v>
       </c>
-      <c r="AE69" s="2">
-        <f>SUM(AE59:AE68)</f>
+      <c r="AE71" s="9">
+        <f>SUM(AE61:AE70)</f>
         <v>176223</v>
       </c>
     </row>
-    <row r="71" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="8" t="s">
+    <row r="73" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B73" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9">
-        <f>I34</f>
-        <v>5175</v>
-      </c>
-      <c r="J71" s="9">
-        <f>J34</f>
-        <v>5243</v>
-      </c>
-      <c r="K71" s="9">
-        <f>K34</f>
-        <v>4620</v>
-      </c>
-      <c r="L71" s="9">
-        <f>L34</f>
-        <v>4998</v>
-      </c>
-      <c r="M71" s="9">
-        <f>M34</f>
-        <v>5301</v>
-      </c>
-      <c r="N71" s="9">
-        <f>N34</f>
-        <v>4232</v>
-      </c>
-    </row>
-    <row r="72" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6">
-        <v>4985</v>
-      </c>
-      <c r="J72" s="6">
-        <v>-3195</v>
-      </c>
-      <c r="K72" s="6">
-        <v>4620</v>
-      </c>
-      <c r="L72" s="6">
-        <v>4998</v>
-      </c>
-      <c r="M72" s="13">
-        <v>3756</v>
-      </c>
-      <c r="N72" s="13">
-        <v>3122</v>
-      </c>
-    </row>
-    <row r="73" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -6457,681 +6500,745 @@
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
       <c r="I73" s="6">
+        <f t="shared" ref="I73:N73" si="188">I36</f>
+        <v>5175</v>
+      </c>
+      <c r="J73" s="6">
+        <f t="shared" si="188"/>
+        <v>5243</v>
+      </c>
+      <c r="K73" s="6">
+        <f t="shared" si="188"/>
+        <v>4620</v>
+      </c>
+      <c r="L73" s="6">
+        <f t="shared" si="188"/>
+        <v>4998</v>
+      </c>
+      <c r="M73" s="6">
+        <f t="shared" si="188"/>
+        <v>5301</v>
+      </c>
+      <c r="N73" s="6">
+        <f t="shared" si="188"/>
+        <v>4232</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B74" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10">
+        <v>4985</v>
+      </c>
+      <c r="J74" s="10">
+        <v>-3195</v>
+      </c>
+      <c r="K74" s="10">
+        <v>4620</v>
+      </c>
+      <c r="L74" s="10">
+        <v>4998</v>
+      </c>
+      <c r="M74" s="10">
+        <v>3756</v>
+      </c>
+      <c r="N74" s="10">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10">
         <v>0</v>
       </c>
-      <c r="J73" s="6">
+      <c r="J75" s="10">
         <v>7498</v>
       </c>
-      <c r="K73" s="6">
+      <c r="K75" s="10">
         <v>0</v>
       </c>
-      <c r="L73" s="6">
+      <c r="L75" s="10">
         <v>0</v>
       </c>
-      <c r="M73" s="6">
+      <c r="M75" s="10">
         <v>0</v>
       </c>
-      <c r="N73" s="6">
+      <c r="N75" s="10">
         <v>630</v>
       </c>
     </row>
-    <row r="74" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="2" t="s">
+    <row r="76" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6">
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10">
         <v>1515</v>
       </c>
-      <c r="J74" s="6">
+      <c r="J76" s="10">
         <v>1493</v>
       </c>
-      <c r="K74" s="6">
+      <c r="K76" s="10">
         <v>1461</v>
       </c>
-      <c r="L74" s="6">
+      <c r="L76" s="10">
         <v>1544</v>
       </c>
-      <c r="M74" s="6">
+      <c r="M76" s="10">
         <v>1707</v>
       </c>
-      <c r="N74" s="6">
+      <c r="N76" s="10">
         <v>1910</v>
       </c>
     </row>
-    <row r="75" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="2" t="s">
+    <row r="77" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B77" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6">
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10">
         <v>641</v>
       </c>
-      <c r="J75" s="6">
+      <c r="J77" s="10">
         <v>654</v>
       </c>
-      <c r="K75" s="6">
+      <c r="K77" s="10">
         <v>674</v>
       </c>
-      <c r="L75" s="6">
+      <c r="L77" s="10">
         <v>658</v>
       </c>
-      <c r="M75" s="6">
+      <c r="M77" s="10">
         <v>672</v>
       </c>
-      <c r="N75" s="6">
+      <c r="N77" s="10">
         <v>664</v>
       </c>
     </row>
-    <row r="76" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="2" t="s">
+    <row r="78" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6">
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10">
         <v>-55</v>
       </c>
-      <c r="J76" s="6">
+      <c r="J78" s="10">
         <v>-264</v>
       </c>
-      <c r="K76" s="6">
+      <c r="K78" s="10">
         <v>101</v>
       </c>
-      <c r="L76" s="6">
+      <c r="L78" s="10">
         <v>50</v>
       </c>
-      <c r="M76" s="6">
+      <c r="M78" s="10">
         <v>65</v>
       </c>
-      <c r="N76" s="6">
+      <c r="N78" s="10">
         <v>-439</v>
       </c>
     </row>
-    <row r="77" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="2" t="s">
+    <row r="79" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B79" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6">
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10">
         <v>-31</v>
       </c>
-      <c r="J77" s="6">
+      <c r="J79" s="10">
         <v>-33</v>
       </c>
-      <c r="K77" s="6">
+      <c r="K79" s="10">
         <v>-282</v>
       </c>
-      <c r="L77" s="6">
+      <c r="L79" s="10">
         <v>-20</v>
       </c>
-      <c r="M77" s="6">
+      <c r="M79" s="10">
         <v>0</v>
       </c>
-      <c r="N77" s="6">
+      <c r="N79" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="2" t="s">
+    <row r="80" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B80" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6">
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10">
         <v>253</v>
       </c>
-      <c r="J78" s="6">
+      <c r="J80" s="10">
         <v>-644</v>
       </c>
-      <c r="K78" s="6">
+      <c r="K80" s="10">
         <v>73</v>
       </c>
-      <c r="L78" s="6">
+      <c r="L80" s="10">
         <v>-247</v>
       </c>
-      <c r="M78" s="6">
+      <c r="M80" s="10">
         <v>351</v>
       </c>
-      <c r="N78" s="6">
+      <c r="N80" s="10">
         <v>-625</v>
       </c>
     </row>
-    <row r="79" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="2" t="s">
+    <row r="81" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6">
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10">
         <f>10163-11209</f>
         <v>-1046</v>
       </c>
-      <c r="J79" s="6">
+      <c r="J81" s="10">
         <f>16687-11573</f>
         <v>5114</v>
       </c>
-      <c r="K79" s="6">
+      <c r="K81" s="10">
         <f>10423-11355</f>
         <v>-932</v>
       </c>
-      <c r="L79" s="6">
+      <c r="L81" s="10">
         <f>12570-11929</f>
         <v>641</v>
       </c>
-      <c r="M79" s="6">
+      <c r="M81" s="10">
         <f>13073-12210</f>
         <v>863</v>
       </c>
-      <c r="N79" s="6">
+      <c r="N81" s="10">
         <f>21006-13004</f>
         <v>8002</v>
       </c>
     </row>
-    <row r="80" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="2" t="s">
+    <row r="82" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="13">
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10">
         <v>3655</v>
       </c>
-      <c r="J80" s="13">
+      <c r="J82" s="10">
         <v>-5448</v>
       </c>
-      <c r="K80" s="13">
+      <c r="K82" s="10">
         <v>6376</v>
       </c>
-      <c r="L80" s="6">
+      <c r="L82" s="10">
         <v>-3118</v>
       </c>
-      <c r="M80" s="6">
+      <c r="M82" s="10">
         <v>2288</v>
       </c>
-      <c r="N80" s="6">
+      <c r="N82" s="10">
         <v>-6076</v>
       </c>
     </row>
-    <row r="81" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="2" t="s">
+    <row r="83" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B83" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6">
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10">
         <v>-430</v>
       </c>
-      <c r="J81" s="6">
+      <c r="J83" s="10">
         <v>-429</v>
       </c>
-      <c r="K81" s="6">
+      <c r="K83" s="10">
         <v>-937</v>
       </c>
-      <c r="L81" s="6">
+      <c r="L83" s="10">
         <v>1104</v>
       </c>
-      <c r="M81" s="6">
+      <c r="M83" s="10">
         <v>241</v>
       </c>
-      <c r="N81" s="6">
+      <c r="N83" s="10">
         <v>192</v>
       </c>
     </row>
-    <row r="82" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="2" t="s">
+    <row r="84" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B84" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6">
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10">
         <v>-111</v>
       </c>
-      <c r="J82" s="6">
+      <c r="J84" s="10">
         <v>612</v>
       </c>
-      <c r="K82" s="6">
+      <c r="K84" s="10">
         <v>-280</v>
       </c>
-      <c r="L82" s="6">
+      <c r="L84" s="10">
         <v>-912</v>
       </c>
-      <c r="M82" s="6">
+      <c r="M84" s="10">
         <v>-420</v>
       </c>
-      <c r="N82" s="6">
+      <c r="N84" s="10">
         <v>747</v>
       </c>
     </row>
-    <row r="83" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="2" t="s">
+    <row r="85" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B85" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6">
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10">
         <v>-108</v>
       </c>
-      <c r="J83" s="6">
+      <c r="J85" s="10">
         <v>5</v>
       </c>
-      <c r="K83" s="6">
+      <c r="K85" s="10">
         <v>-5</v>
       </c>
-      <c r="L83" s="6">
+      <c r="L85" s="10">
         <v>56</v>
       </c>
-      <c r="M83" s="6">
+      <c r="M85" s="10">
         <v>7</v>
       </c>
-      <c r="N83" s="6">
+      <c r="N85" s="10">
         <v>-99</v>
       </c>
     </row>
-    <row r="84" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="2" t="s">
+    <row r="86" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B86" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6">
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10">
         <v>-390</v>
       </c>
-      <c r="J84" s="6">
+      <c r="J86" s="10">
         <v>-142</v>
       </c>
-      <c r="K84" s="6">
+      <c r="K86" s="10">
         <v>-135</v>
       </c>
-      <c r="L84" s="6">
+      <c r="L86" s="10">
         <v>369</v>
       </c>
-      <c r="M84" s="6">
+      <c r="M86" s="10">
         <v>-129</v>
       </c>
-      <c r="N84" s="6">
+      <c r="N86" s="10">
         <v>-17</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B87" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I85" s="3">
+      <c r="I87" s="30">
         <v>200</v>
       </c>
-      <c r="J85" s="3">
+      <c r="J87" s="30">
         <v>1328</v>
       </c>
-      <c r="K85" s="3">
+      <c r="K87" s="30">
         <v>-2024</v>
       </c>
-      <c r="L85" s="3">
+      <c r="L87" s="30">
         <v>105</v>
       </c>
-      <c r="M85" s="3">
+      <c r="M87" s="30">
         <v>626</v>
       </c>
-      <c r="N85" s="3">
+      <c r="N87" s="30">
         <v>1033</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B86" t="s">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B88" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I86" s="3">
+      <c r="I88" s="30">
         <v>492</v>
       </c>
-      <c r="J86" s="3">
+      <c r="J88" s="30">
         <v>267</v>
       </c>
-      <c r="K86" s="3">
+      <c r="K88" s="30">
         <v>-116</v>
       </c>
-      <c r="L86" s="3">
+      <c r="L88" s="30">
         <v>370</v>
       </c>
-      <c r="M86" s="3">
+      <c r="M88" s="30">
         <v>340</v>
       </c>
-      <c r="N86" s="3">
+      <c r="N88" s="30">
         <v>-580</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B87" s="10" t="s">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B89" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I87" s="9">
-        <f>SUM(I72:I86)</f>
+      <c r="I89" s="6">
+        <f t="shared" ref="I89:N89" si="189">SUM(I74:I88)</f>
         <v>9570</v>
       </c>
-      <c r="J87" s="9">
-        <f>SUM(J72:J86)</f>
+      <c r="J89" s="6">
+        <f t="shared" si="189"/>
         <v>6816</v>
       </c>
-      <c r="K87" s="9">
-        <f>SUM(K72:K86)</f>
+      <c r="K89" s="6">
+        <f t="shared" si="189"/>
         <v>8594</v>
       </c>
-      <c r="L87" s="9">
-        <f>SUM(L72:L86)</f>
+      <c r="L89" s="6">
+        <f t="shared" si="189"/>
         <v>5598</v>
       </c>
-      <c r="M87" s="9">
-        <f>SUM(M72:M86)</f>
+      <c r="M89" s="6">
+        <f t="shared" si="189"/>
         <v>10367</v>
       </c>
-      <c r="N87" s="9">
-        <f>SUM(N72:N86)</f>
+      <c r="N89" s="6">
+        <f t="shared" si="189"/>
         <v>8464</v>
       </c>
     </row>
-    <row r="89" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="2" t="s">
+    <row r="91" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B91" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6">
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10">
         <v>1391</v>
       </c>
-      <c r="J89" s="6">
+      <c r="J91" s="10">
         <v>1781</v>
       </c>
-      <c r="K89" s="6">
+      <c r="K91" s="10">
         <v>1356</v>
       </c>
-      <c r="L89" s="6">
+      <c r="L91" s="10">
         <v>2024</v>
       </c>
-      <c r="M89" s="6">
+      <c r="M91" s="10">
         <v>2308</v>
       </c>
-      <c r="N89" s="6">
+      <c r="N91" s="10">
         <v>2655</v>
       </c>
     </row>
-    <row r="90" spans="2:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="10" t="s">
+    <row r="92" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B92" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="9">
-        <f>+I87-I89</f>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="6">
+        <f>+I89-I91</f>
         <v>8179</v>
       </c>
-      <c r="J90" s="9">
-        <f t="shared" ref="J90:M90" si="185">+J87-J89</f>
+      <c r="J92" s="6">
+        <f t="shared" ref="J92:M92" si="190">+J89-J91</f>
         <v>5035</v>
       </c>
-      <c r="K90" s="9">
-        <f t="shared" si="185"/>
+      <c r="K92" s="6">
+        <f t="shared" si="190"/>
         <v>7238</v>
       </c>
-      <c r="L90" s="9">
-        <f t="shared" si="185"/>
+      <c r="L92" s="6">
+        <f t="shared" si="190"/>
         <v>3574</v>
       </c>
-      <c r="M90" s="9">
-        <f t="shared" si="185"/>
+      <c r="M92" s="6">
+        <f t="shared" si="190"/>
         <v>8059</v>
       </c>
-      <c r="N90" s="9">
-        <f t="shared" ref="N90" si="186">+N87-N89</f>
+      <c r="N92" s="6">
+        <f t="shared" ref="N92" si="191">+N89-N91</f>
         <v>5809</v>
       </c>
     </row>
-    <row r="91" spans="2:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="9"/>
-      <c r="J91" s="9"/>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
-      <c r="M91" s="11"/>
-      <c r="N91" s="11"/>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B92" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="9">
-        <f>SUM(I90:L90)</f>
-        <v>24026</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B93" s="10" t="s">
-        <v>68</v>
-      </c>
+    <row r="93" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
-      <c r="L93" s="9">
-        <f>SUM(I71:L71)</f>
+      <c r="L93" s="6"/>
+      <c r="M93" s="8"/>
+      <c r="N93" s="8"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B94" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="10"/>
+      <c r="L94" s="6">
+        <f>SUM(I92:L92)</f>
+        <v>24026</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B95" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="10"/>
+      <c r="L95" s="6">
+        <f>SUM(I73:L73)</f>
         <v>20036</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
-      <c r="L94" s="6"/>
-    </row>
-    <row r="96" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="2" t="s">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
+      <c r="K96" s="10"/>
+      <c r="L96" s="10"/>
+    </row>
+    <row r="98" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B98" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6">
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10">
         <v>-162</v>
       </c>
-      <c r="J96" s="6">
+      <c r="J98" s="10">
         <v>-626</v>
       </c>
-      <c r="K96" s="6">
+      <c r="K98" s="10">
         <v>-390</v>
       </c>
-      <c r="L96" s="6">
+      <c r="L98" s="10">
         <v>-381</v>
       </c>
-      <c r="M96" s="6">
+      <c r="M98" s="10">
         <v>-559</v>
       </c>
-      <c r="N96" s="6">
+      <c r="N98" s="10">
         <v>-63</v>
       </c>
     </row>
-    <row r="97" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="2" t="s">
+    <row r="99" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B99" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6">
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10">
         <f>-5131+146</f>
         <v>-4985</v>
       </c>
-      <c r="J97" s="6">
+      <c r="J99" s="10">
         <f>-4279+151</f>
         <v>-4128</v>
       </c>
-      <c r="K97" s="6">
+      <c r="K99" s="10">
         <f>-4757+219</f>
         <v>-4538</v>
       </c>
-      <c r="L97" s="6">
+      <c r="L99" s="10">
         <f>-3678+117</f>
         <v>-3561</v>
       </c>
-      <c r="M97" s="6">
+      <c r="M99" s="10">
         <f>-3857+159</f>
         <v>-3698</v>
       </c>
-      <c r="N97" s="6">
+      <c r="N99" s="10">
         <f>-4279+151</f>
         <v>-4128</v>
       </c>
     </row>
-    <row r="98" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="2" t="s">
+    <row r="100" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B100" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6">
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10">
         <v>-2532</v>
       </c>
-      <c r="J98" s="6">
+      <c r="J100" s="10">
         <v>-2496</v>
       </c>
-      <c r="K98" s="6">
+      <c r="K100" s="10">
         <v>-2475</v>
       </c>
-      <c r="L98" s="6">
+      <c r="L100" s="10">
         <v>-2868</v>
       </c>
-      <c r="M98" s="6">
+      <c r="M100" s="10">
         <v>-2842</v>
       </c>
-      <c r="N98" s="6">
+      <c r="N100" s="10">
         <v>-2821</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B102" t="s">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B104" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="L102" s="6">
+      <c r="L104" s="10">
         <v>200000</v>
       </c>
     </row>
-    <row r="103" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="2" t="s">
+    <row r="105" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B105" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="6"/>
-      <c r="K103" s="6">
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="10"/>
+      <c r="K105" s="10">
         <v>18200</v>
       </c>
-      <c r="L103" s="6">
+      <c r="L105" s="10">
         <v>20600</v>
       </c>
-      <c r="M103" s="6"/>
-      <c r="N103" s="6">
+      <c r="M105" s="10"/>
+      <c r="N105" s="10">
         <v>23100</v>
       </c>
     </row>
-    <row r="104" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="2" t="s">
+    <row r="106" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B106" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
-      <c r="K104" s="6">
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="10"/>
+      <c r="J106" s="10"/>
+      <c r="K106" s="10">
         <v>39000</v>
       </c>
-      <c r="L104" s="6">
+      <c r="L106" s="10">
         <v>48000</v>
       </c>
-      <c r="M104" s="6"/>
-      <c r="N104" s="6">
+      <c r="M106" s="10"/>
+      <c r="N106" s="10">
         <v>49000</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B106" t="s">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B108" s="26" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7140,10 +7247,5 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/investing spreadsheets/MSFT.xlsx
+++ b/investing spreadsheets/MSFT.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/billymbp/stock-exchange-berkeley/investing spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOOK\Desktop\stock-exchange-berkeley\investing spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24280" windowHeight="20540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="24285" windowHeight="20535" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -33,7 +33,7 @@
     <author>Martin Shkreli</author>
   </authors>
   <commentList>
-    <comment ref="K21" authorId="0">
+    <comment ref="K21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M25" authorId="0">
+    <comment ref="M23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -445,10 +445,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="0&quot;x&quot;"/>
+    <numFmt numFmtId="165" formatCode="0&quot;x&quot;"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -695,7 +695,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -747,7 +747,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -791,7 +791,7 @@
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>40017</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>13243</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1131,17 +1131,17 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
         <v>77</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>56.53</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
         <v>76</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
         <v>80</v>
       </c>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>82</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="13"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -1267,7 +1267,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J7" t="s">
         <v>5</v>
       </c>
@@ -1276,13 +1276,13 @@
         <v>373324.26</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L10" s="1"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="K14" s="25"/>
     </row>
   </sheetData>
@@ -1293,36 +1293,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:ES108"/>
+  <dimension ref="B1:ES106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AF22" sqref="AF22"/>
+      <selection pane="bottomRight" activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="26"/>
-    <col min="2" max="2" width="29.1640625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.83203125" style="30"/>
-    <col min="7" max="8" width="10.1640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="30"/>
-    <col min="10" max="10" width="10.1640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="30" customWidth="1"/>
-    <col min="12" max="12" width="10.1640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" style="30"/>
-    <col min="14" max="14" width="8.83203125" style="30" customWidth="1"/>
-    <col min="15" max="47" width="8.83203125" style="26"/>
-    <col min="48" max="48" width="11.33203125" style="26" customWidth="1"/>
-    <col min="49" max="49" width="10.5" style="26" customWidth="1"/>
-    <col min="50" max="16384" width="8.83203125" style="26"/>
+    <col min="1" max="1" width="8.85546875" style="26"/>
+    <col min="2" max="2" width="29.140625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.85546875" style="30"/>
+    <col min="7" max="8" width="10.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="30"/>
+    <col min="10" max="10" width="10.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="30" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="30"/>
+    <col min="14" max="14" width="8.85546875" style="30" customWidth="1"/>
+    <col min="15" max="47" width="8.85546875" style="26"/>
+    <col min="48" max="48" width="11.28515625" style="26" customWidth="1"/>
+    <col min="49" max="49" width="10.42578125" style="26" customWidth="1"/>
+    <col min="50" max="16384" width="8.85546875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C1" s="27">
         <v>41547</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>47661</v>
       </c>
     </row>
-    <row r="2" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C2" s="30" t="s">
         <v>8</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B3" s="26" t="s">
         <v>106</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>16472</v>
       </c>
     </row>
-    <row r="4" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B4" s="26" t="s">
         <v>107</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>13189</v>
       </c>
     </row>
-    <row r="5" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B5" s="26" t="s">
         <v>108</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>3214</v>
       </c>
     </row>
-    <row r="6" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B6" s="26" t="s">
         <v>109</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>18937</v>
       </c>
     </row>
-    <row r="7" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B7" s="26" t="s">
         <v>110</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>8139</v>
       </c>
     </row>
-    <row r="8" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B8" s="26" t="s">
         <v>94</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="9" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:46" x14ac:dyDescent="0.2">
       <c r="O9" s="30"/>
       <c r="P9" s="30"/>
       <c r="Q9" s="30"/>
@@ -1741,13 +1741,13 @@
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
     </row>
-    <row r="10" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:46" x14ac:dyDescent="0.2">
       <c r="O10" s="30"/>
       <c r="P10" s="30"/>
       <c r="Q10" s="30"/>
       <c r="R10" s="30"/>
     </row>
-    <row r="11" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>95</v>
       </c>
@@ -1775,7 +1775,7 @@
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
     </row>
-    <row r="12" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>96</v>
       </c>
@@ -1803,7 +1803,7 @@
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
     </row>
-    <row r="13" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
         <v>97</v>
       </c>
@@ -1831,7 +1831,7 @@
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
     </row>
-    <row r="14" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
         <v>98</v>
       </c>
@@ -1859,7 +1859,7 @@
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
     </row>
-    <row r="15" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
         <v>99</v>
       </c>
@@ -1887,7 +1887,7 @@
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
     </row>
-    <row r="16" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
         <v>100</v>
       </c>
@@ -1915,7 +1915,7 @@
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
     </row>
-    <row r="17" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
         <v>94</v>
       </c>
@@ -1940,14 +1940,14 @@
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
     </row>
-    <row r="18" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:46" x14ac:dyDescent="0.2">
       <c r="O18" s="30"/>
       <c r="P18" s="30"/>
       <c r="Q18" s="30"/>
       <c r="R18" s="30"/>
       <c r="AD18" s="9"/>
     </row>
-    <row r="19" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
         <v>91</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>26487</v>
       </c>
     </row>
-    <row r="20" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
         <v>92</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>25042</v>
       </c>
     </row>
-    <row r="21" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="s">
         <v>93</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>40460</v>
       </c>
     </row>
-    <row r="22" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
         <v>94</v>
       </c>
@@ -2127,3694 +2127,3736 @@
         <v>-6669</v>
       </c>
     </row>
-    <row r="23" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="AE23" s="33"/>
-      <c r="AF23" s="33"/>
-    </row>
-    <row r="24" spans="2:46" x14ac:dyDescent="0.15">
-      <c r="I24" s="10"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="AE24" s="33"/>
-      <c r="AF24" s="33"/>
-    </row>
-    <row r="25" spans="2:46" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="5" t="s">
+    <row r="23" spans="2:46" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C23" s="6">
         <v>18529</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D23" s="6">
         <v>24519</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E23" s="6">
         <v>20403</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F23" s="6">
         <v>23382</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G23" s="6">
         <f>SUM(G19:G22)</f>
         <v>23201</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H23" s="6">
         <f>SUM(H19:H22)</f>
         <v>26470</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I23" s="6">
         <f>SUM(I19:I22)</f>
         <v>21729</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J23" s="6">
         <v>22180</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K23" s="6">
         <f>SUM(K19:K22)</f>
         <v>20379</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L23" s="6">
         <f>SUM(L19:L22)</f>
         <v>23796</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M23" s="6">
         <f>20531+1545</f>
         <v>22076</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N23" s="6">
         <f>SUM(N19:N22)</f>
         <v>20614</v>
       </c>
-      <c r="O25" s="6">
-        <f t="shared" ref="O25:R25" si="10">+K25*1.01</f>
+      <c r="O23" s="6">
+        <f t="shared" ref="O23:R23" si="10">+K23*1.01</f>
         <v>20582.79</v>
       </c>
-      <c r="P25" s="6">
+      <c r="P23" s="6">
         <f t="shared" si="10"/>
         <v>24033.96</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="Q23" s="6">
         <f t="shared" si="10"/>
         <v>22296.76</v>
       </c>
-      <c r="R25" s="6">
+      <c r="R23" s="6">
         <f t="shared" si="10"/>
         <v>20820.14</v>
       </c>
-      <c r="T25" s="5">
+      <c r="T23" s="5">
         <v>36835</v>
       </c>
-      <c r="U25" s="5">
+      <c r="U23" s="5">
         <v>39788</v>
       </c>
-      <c r="V25" s="5">
+      <c r="V23" s="5">
         <v>44282</v>
       </c>
-      <c r="W25" s="5">
+      <c r="W23" s="5">
         <v>51122</v>
       </c>
-      <c r="X25" s="5">
+      <c r="X23" s="5">
         <v>60420</v>
       </c>
-      <c r="Y25" s="5">
+      <c r="Y23" s="5">
         <v>58437</v>
       </c>
-      <c r="Z25" s="5">
+      <c r="Z23" s="5">
         <v>62484</v>
       </c>
-      <c r="AA25" s="5">
+      <c r="AA23" s="5">
         <v>69943</v>
       </c>
-      <c r="AB25" s="5">
+      <c r="AB23" s="5">
         <v>73723</v>
       </c>
-      <c r="AC25" s="5">
+      <c r="AC23" s="5">
         <v>77849</v>
       </c>
-      <c r="AD25" s="5">
+      <c r="AD23" s="5">
         <v>86833</v>
       </c>
-      <c r="AE25" s="5">
+      <c r="AE23" s="5">
         <v>93580</v>
       </c>
-      <c r="AF25" s="5">
-        <f>SUM(K25:N25)</f>
+      <c r="AF23" s="5">
+        <f>SUM(K23:N23)</f>
         <v>86865</v>
       </c>
-      <c r="AG25" s="5">
-        <f>SUM(O25:R25)</f>
+      <c r="AG23" s="5">
+        <f>SUM(O23:R23)</f>
         <v>87733.65</v>
       </c>
-      <c r="AH25" s="5">
-        <f>+AG25*1.02</f>
+      <c r="AH23" s="5">
+        <f>+AG23*1.02</f>
         <v>89488.322999999989</v>
       </c>
-      <c r="AI25" s="5">
-        <f>+AH25*1.03</f>
+      <c r="AI23" s="5">
+        <f>+AH23*1.03</f>
         <v>92172.972689999995</v>
       </c>
-      <c r="AJ25" s="5">
-        <f t="shared" ref="AJ25:AT25" si="11">+AI25*1.03</f>
+      <c r="AJ23" s="5">
+        <f t="shared" ref="AJ23:AT23" si="11">+AI23*1.03</f>
         <v>94938.161870700002</v>
       </c>
-      <c r="AK25" s="5">
+      <c r="AK23" s="5">
         <f t="shared" si="11"/>
         <v>97786.306726821</v>
       </c>
-      <c r="AL25" s="5">
+      <c r="AL23" s="5">
         <f t="shared" si="11"/>
         <v>100719.89592862563</v>
       </c>
-      <c r="AM25" s="5">
+      <c r="AM23" s="5">
         <f t="shared" si="11"/>
         <v>103741.4928064844</v>
       </c>
-      <c r="AN25" s="5">
+      <c r="AN23" s="5">
         <f t="shared" si="11"/>
         <v>106853.73759067894</v>
       </c>
-      <c r="AO25" s="5">
+      <c r="AO23" s="5">
         <f t="shared" si="11"/>
         <v>110059.3497183993</v>
       </c>
-      <c r="AP25" s="5">
+      <c r="AP23" s="5">
         <f t="shared" si="11"/>
         <v>113361.13020995128</v>
       </c>
-      <c r="AQ25" s="5">
+      <c r="AQ23" s="5">
         <f t="shared" si="11"/>
         <v>116761.96411624983</v>
       </c>
-      <c r="AR25" s="5">
+      <c r="AR23" s="5">
         <f t="shared" si="11"/>
         <v>120264.82303973733</v>
       </c>
-      <c r="AS25" s="5">
+      <c r="AS23" s="5">
         <f t="shared" si="11"/>
         <v>123872.76773092945</v>
       </c>
-      <c r="AT25" s="5">
+      <c r="AT23" s="5">
         <f t="shared" si="11"/>
         <v>127588.95076285733</v>
       </c>
     </row>
-    <row r="26" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="9" t="s">
+    <row r="24" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C24" s="10">
         <v>5114</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D24" s="10">
         <v>8284</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E24" s="10">
         <v>5978</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F24" s="10">
         <v>7633</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G24" s="10">
         <v>8273</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H24" s="10">
         <v>10136</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I24" s="10">
         <v>7161</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J24" s="10">
         <v>7468</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K24" s="10">
         <v>7207</v>
       </c>
-      <c r="L26" s="10">
+      <c r="L24" s="10">
         <v>9872</v>
       </c>
-      <c r="M26" s="10">
+      <c r="M24" s="10">
         <v>7722</v>
       </c>
-      <c r="N26" s="10">
+      <c r="N24" s="10">
         <v>7979</v>
       </c>
-      <c r="O26" s="10">
-        <f t="shared" ref="O26:R26" si="12">+O25-O27</f>
+      <c r="O24" s="10">
+        <f t="shared" ref="O24:R24" si="12">+O23-O25</f>
         <v>7615.6323000000011</v>
       </c>
-      <c r="P26" s="10">
+      <c r="P24" s="10">
         <f t="shared" si="12"/>
         <v>8892.5651999999991</v>
       </c>
-      <c r="Q26" s="10">
+      <c r="Q24" s="10">
         <f t="shared" si="12"/>
         <v>8249.8011999999999</v>
       </c>
-      <c r="R26" s="10">
+      <c r="R24" s="10">
         <f t="shared" si="12"/>
         <v>7703.4517999999989</v>
       </c>
+      <c r="V24" s="9">
+        <v>7650</v>
+      </c>
+      <c r="W24" s="9">
+        <v>10693</v>
+      </c>
+      <c r="X24" s="9">
+        <v>11598</v>
+      </c>
+      <c r="Y24" s="9">
+        <v>12155</v>
+      </c>
+      <c r="Z24" s="9">
+        <v>12395</v>
+      </c>
+      <c r="AA24" s="9">
+        <v>15577</v>
+      </c>
+      <c r="AB24" s="9">
+        <v>17530</v>
+      </c>
+      <c r="AC24" s="9">
+        <v>20385</v>
+      </c>
+      <c r="AD24" s="9">
+        <v>27078</v>
+      </c>
+      <c r="AE24" s="9">
+        <v>33038</v>
+      </c>
+      <c r="AF24" s="9">
+        <f>SUM(K24:N24)</f>
+        <v>32780</v>
+      </c>
+      <c r="AG24" s="9">
+        <f>SUM(O24:R24)</f>
+        <v>32461.450500000003</v>
+      </c>
+      <c r="AH24" s="9">
+        <f>+AH23-AH25</f>
+        <v>33110.679509999994</v>
+      </c>
+      <c r="AI24" s="9">
+        <f t="shared" ref="AI24:AT24" si="13">+AI23-AI25</f>
+        <v>34103.999895299996</v>
+      </c>
+      <c r="AJ24" s="9">
+        <f t="shared" si="13"/>
+        <v>35127.119892158997</v>
+      </c>
+      <c r="AK24" s="9">
+        <f t="shared" si="13"/>
+        <v>36180.933488923773</v>
+      </c>
+      <c r="AL24" s="9">
+        <f t="shared" si="13"/>
+        <v>37266.361493591481</v>
+      </c>
+      <c r="AM24" s="9">
+        <f t="shared" si="13"/>
+        <v>38384.352338399229</v>
+      </c>
+      <c r="AN24" s="9">
+        <f t="shared" si="13"/>
+        <v>39535.882908551212</v>
+      </c>
+      <c r="AO24" s="9">
+        <f t="shared" si="13"/>
+        <v>40721.959395807746</v>
+      </c>
+      <c r="AP24" s="9">
+        <f t="shared" si="13"/>
+        <v>41943.618177681972</v>
+      </c>
+      <c r="AQ24" s="9">
+        <f t="shared" si="13"/>
+        <v>43201.926723012439</v>
+      </c>
+      <c r="AR24" s="9">
+        <f t="shared" si="13"/>
+        <v>44497.984524702813</v>
+      </c>
+      <c r="AS24" s="9">
+        <f t="shared" si="13"/>
+        <v>45832.924060443896</v>
+      </c>
+      <c r="AT24" s="9">
+        <f t="shared" si="13"/>
+        <v>47207.911782257215</v>
+      </c>
+    </row>
+    <row r="25" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="10">
+        <f t="shared" ref="C25:D25" si="14">+C23-C24</f>
+        <v>13415</v>
+      </c>
+      <c r="D25" s="10">
+        <f t="shared" si="14"/>
+        <v>16235</v>
+      </c>
+      <c r="E25" s="10">
+        <f t="shared" ref="E25:L25" si="15">+E23-E24</f>
+        <v>14425</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" si="15"/>
+        <v>15749</v>
+      </c>
+      <c r="G25" s="10">
+        <f t="shared" si="15"/>
+        <v>14928</v>
+      </c>
+      <c r="H25" s="10">
+        <f t="shared" si="15"/>
+        <v>16334</v>
+      </c>
+      <c r="I25" s="10">
+        <f t="shared" si="15"/>
+        <v>14568</v>
+      </c>
+      <c r="J25" s="10">
+        <f t="shared" si="15"/>
+        <v>14712</v>
+      </c>
+      <c r="K25" s="10">
+        <f t="shared" si="15"/>
+        <v>13172</v>
+      </c>
+      <c r="L25" s="10">
+        <f t="shared" si="15"/>
+        <v>13924</v>
+      </c>
+      <c r="M25" s="10">
+        <f>+M23-M24</f>
+        <v>14354</v>
+      </c>
+      <c r="N25" s="10">
+        <f>+N23-N24</f>
+        <v>12635</v>
+      </c>
+      <c r="O25" s="10">
+        <f t="shared" ref="O25:R25" si="16">+O23*0.63</f>
+        <v>12967.1577</v>
+      </c>
+      <c r="P25" s="10">
+        <f t="shared" si="16"/>
+        <v>15141.3948</v>
+      </c>
+      <c r="Q25" s="10">
+        <f t="shared" si="16"/>
+        <v>14046.958799999999</v>
+      </c>
+      <c r="R25" s="10">
+        <f t="shared" si="16"/>
+        <v>13116.688200000001</v>
+      </c>
+      <c r="V25" s="9">
+        <f t="shared" ref="V25:AF25" si="17">V23-V24</f>
+        <v>36632</v>
+      </c>
+      <c r="W25" s="9">
+        <f t="shared" si="17"/>
+        <v>40429</v>
+      </c>
+      <c r="X25" s="9">
+        <f t="shared" si="17"/>
+        <v>48822</v>
+      </c>
+      <c r="Y25" s="9">
+        <f t="shared" si="17"/>
+        <v>46282</v>
+      </c>
+      <c r="Z25" s="9">
+        <f t="shared" si="17"/>
+        <v>50089</v>
+      </c>
+      <c r="AA25" s="9">
+        <f t="shared" si="17"/>
+        <v>54366</v>
+      </c>
+      <c r="AB25" s="9">
+        <f t="shared" si="17"/>
+        <v>56193</v>
+      </c>
+      <c r="AC25" s="9">
+        <f t="shared" si="17"/>
+        <v>57464</v>
+      </c>
+      <c r="AD25" s="9">
+        <f t="shared" si="17"/>
+        <v>59755</v>
+      </c>
+      <c r="AE25" s="9">
+        <f t="shared" si="17"/>
+        <v>60542</v>
+      </c>
+      <c r="AF25" s="9">
+        <f t="shared" si="17"/>
+        <v>54085</v>
+      </c>
+      <c r="AG25" s="9">
+        <f t="shared" ref="AG25" si="18">AG23-AG24</f>
+        <v>55272.199499999988</v>
+      </c>
+      <c r="AH25" s="9">
+        <f>+AH23*0.63</f>
+        <v>56377.643489999995</v>
+      </c>
+      <c r="AI25" s="9">
+        <f t="shared" ref="AI25:AT25" si="19">+AI23*0.63</f>
+        <v>58068.972794699999</v>
+      </c>
+      <c r="AJ25" s="9">
+        <f t="shared" si="19"/>
+        <v>59811.041978541005</v>
+      </c>
+      <c r="AK25" s="9">
+        <f t="shared" si="19"/>
+        <v>61605.373237897227</v>
+      </c>
+      <c r="AL25" s="9">
+        <f t="shared" si="19"/>
+        <v>63453.534435034147</v>
+      </c>
+      <c r="AM25" s="9">
+        <f t="shared" si="19"/>
+        <v>65357.14046808517</v>
+      </c>
+      <c r="AN25" s="9">
+        <f t="shared" si="19"/>
+        <v>67317.854682127727</v>
+      </c>
+      <c r="AO25" s="9">
+        <f t="shared" si="19"/>
+        <v>69337.390322591556</v>
+      </c>
+      <c r="AP25" s="9">
+        <f t="shared" si="19"/>
+        <v>71417.512032269311</v>
+      </c>
+      <c r="AQ25" s="9">
+        <f t="shared" si="19"/>
+        <v>73560.037393237391</v>
+      </c>
+      <c r="AR25" s="9">
+        <f t="shared" si="19"/>
+        <v>75766.838515034513</v>
+      </c>
+      <c r="AS25" s="9">
+        <f t="shared" si="19"/>
+        <v>78039.843670485556</v>
+      </c>
+      <c r="AT25" s="9">
+        <f t="shared" si="19"/>
+        <v>80381.038980600119</v>
+      </c>
+    </row>
+    <row r="26" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="10">
+        <v>2767</v>
+      </c>
+      <c r="D26" s="10">
+        <v>2748</v>
+      </c>
+      <c r="E26" s="10">
+        <v>2743</v>
+      </c>
+      <c r="F26" s="10">
+        <v>3123</v>
+      </c>
+      <c r="G26" s="10">
+        <v>3065</v>
+      </c>
+      <c r="H26" s="10">
+        <v>2903</v>
+      </c>
+      <c r="I26" s="10">
+        <v>2984</v>
+      </c>
+      <c r="J26" s="10">
+        <v>3094</v>
+      </c>
+      <c r="K26" s="10">
+        <v>2962</v>
+      </c>
+      <c r="L26" s="10">
+        <v>2900</v>
+      </c>
+      <c r="M26" s="10">
+        <v>2980</v>
+      </c>
+      <c r="N26" s="10">
+        <v>3146</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" ref="O26:R28" si="20">+K26</f>
+        <v>2962</v>
+      </c>
+      <c r="P26" s="10">
+        <f t="shared" si="20"/>
+        <v>2900</v>
+      </c>
+      <c r="Q26" s="10">
+        <f t="shared" si="20"/>
+        <v>2980</v>
+      </c>
+      <c r="R26" s="10">
+        <f t="shared" si="20"/>
+        <v>3146</v>
+      </c>
       <c r="V26" s="9">
-        <v>7650</v>
+        <v>6584</v>
       </c>
       <c r="W26" s="9">
-        <v>10693</v>
+        <v>7121</v>
       </c>
       <c r="X26" s="9">
-        <v>11598</v>
+        <v>8164</v>
       </c>
       <c r="Y26" s="9">
-        <v>12155</v>
+        <v>9010</v>
       </c>
       <c r="Z26" s="9">
-        <v>12395</v>
+        <v>8714</v>
       </c>
       <c r="AA26" s="9">
-        <v>15577</v>
+        <v>9043</v>
       </c>
       <c r="AB26" s="9">
-        <v>17530</v>
+        <v>9811</v>
       </c>
       <c r="AC26" s="9">
-        <v>20385</v>
+        <v>10411</v>
       </c>
       <c r="AD26" s="9">
-        <v>27078</v>
+        <v>11381</v>
       </c>
       <c r="AE26" s="9">
-        <v>33038</v>
+        <v>12046</v>
       </c>
       <c r="AF26" s="9">
         <f>SUM(K26:N26)</f>
-        <v>32780</v>
+        <v>11988</v>
       </c>
       <c r="AG26" s="9">
         <f>SUM(O26:R26)</f>
-        <v>32461.450500000003</v>
+        <v>11988</v>
       </c>
       <c r="AH26" s="9">
-        <f>+AH25-AH27</f>
-        <v>33110.679509999994</v>
+        <f>+AG26*1.01</f>
+        <v>12107.88</v>
       </c>
       <c r="AI26" s="9">
-        <f t="shared" ref="AI26:AT26" si="13">+AI25-AI27</f>
-        <v>34103.999895299996</v>
+        <f t="shared" ref="AI26:AT26" si="21">+AH26*1.01</f>
+        <v>12228.958799999999</v>
       </c>
       <c r="AJ26" s="9">
-        <f t="shared" si="13"/>
-        <v>35127.119892158997</v>
+        <f t="shared" si="21"/>
+        <v>12351.248387999998</v>
       </c>
       <c r="AK26" s="9">
-        <f t="shared" si="13"/>
-        <v>36180.933488923773</v>
+        <f t="shared" si="21"/>
+        <v>12474.760871879998</v>
       </c>
       <c r="AL26" s="9">
-        <f t="shared" si="13"/>
-        <v>37266.361493591481</v>
+        <f t="shared" si="21"/>
+        <v>12599.508480598799</v>
       </c>
       <c r="AM26" s="9">
-        <f t="shared" si="13"/>
-        <v>38384.352338399229</v>
+        <f t="shared" si="21"/>
+        <v>12725.503565404788</v>
       </c>
       <c r="AN26" s="9">
-        <f t="shared" si="13"/>
-        <v>39535.882908551212</v>
+        <f t="shared" si="21"/>
+        <v>12852.758601058837</v>
       </c>
       <c r="AO26" s="9">
-        <f t="shared" si="13"/>
-        <v>40721.959395807746</v>
+        <f t="shared" si="21"/>
+        <v>12981.286187069425</v>
       </c>
       <c r="AP26" s="9">
-        <f t="shared" si="13"/>
-        <v>41943.618177681972</v>
+        <f t="shared" si="21"/>
+        <v>13111.099048940119</v>
       </c>
       <c r="AQ26" s="9">
-        <f t="shared" si="13"/>
-        <v>43201.926723012439</v>
+        <f t="shared" si="21"/>
+        <v>13242.210039429521</v>
       </c>
       <c r="AR26" s="9">
-        <f t="shared" si="13"/>
-        <v>44497.984524702813</v>
+        <f t="shared" si="21"/>
+        <v>13374.632139823816</v>
       </c>
       <c r="AS26" s="9">
-        <f t="shared" si="13"/>
-        <v>45832.924060443896</v>
+        <f t="shared" si="21"/>
+        <v>13508.378461222055</v>
       </c>
       <c r="AT26" s="9">
-        <f t="shared" si="13"/>
-        <v>47207.911782257215</v>
-      </c>
-    </row>
-    <row r="27" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v>13643.462245834276</v>
+      </c>
+    </row>
+    <row r="27" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C27" s="10">
-        <f t="shared" ref="C27:D27" si="14">+C25-C26</f>
-        <v>13415</v>
+        <v>3304</v>
       </c>
       <c r="D27" s="10">
-        <f t="shared" si="14"/>
-        <v>16235</v>
+        <v>4283</v>
       </c>
       <c r="E27" s="10">
-        <f t="shared" ref="E27:L27" si="15">+E25-E26</f>
-        <v>14425</v>
+        <v>3542</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" si="15"/>
-        <v>15749</v>
+        <v>4682</v>
       </c>
       <c r="G27" s="10">
-        <f t="shared" si="15"/>
-        <v>14928</v>
+        <v>3728</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" si="15"/>
-        <v>16334</v>
+        <v>4315</v>
       </c>
       <c r="I27" s="10">
-        <f t="shared" si="15"/>
-        <v>14568</v>
+        <v>3709</v>
       </c>
       <c r="J27" s="10">
-        <f t="shared" si="15"/>
-        <v>14712</v>
+        <v>3961</v>
       </c>
       <c r="K27" s="10">
-        <f t="shared" si="15"/>
-        <v>13172</v>
+        <v>3333</v>
       </c>
       <c r="L27" s="10">
-        <f t="shared" si="15"/>
-        <v>13924</v>
+        <v>3960</v>
       </c>
       <c r="M27" s="10">
-        <f>+M25-M26</f>
-        <v>14354</v>
+        <v>3406</v>
       </c>
       <c r="N27" s="10">
-        <f>+N25-N26</f>
-        <v>12635</v>
+        <v>3998</v>
       </c>
       <c r="O27" s="10">
-        <f t="shared" ref="O27:R27" si="16">+O25*0.63</f>
-        <v>12967.1577</v>
+        <f t="shared" si="20"/>
+        <v>3333</v>
       </c>
       <c r="P27" s="10">
-        <f t="shared" si="16"/>
-        <v>15141.3948</v>
+        <f t="shared" si="20"/>
+        <v>3960</v>
       </c>
       <c r="Q27" s="10">
-        <f t="shared" si="16"/>
-        <v>14046.958799999999</v>
+        <f t="shared" si="20"/>
+        <v>3406</v>
       </c>
       <c r="R27" s="10">
-        <f t="shared" si="16"/>
-        <v>13116.688200000001</v>
+        <f t="shared" si="20"/>
+        <v>3998</v>
       </c>
       <c r="V27" s="9">
-        <f t="shared" ref="V27:AF27" si="17">V25-V26</f>
-        <v>36632</v>
+        <v>9818</v>
       </c>
       <c r="W27" s="9">
-        <f t="shared" si="17"/>
-        <v>40429</v>
+        <v>11541</v>
       </c>
       <c r="X27" s="9">
-        <f t="shared" si="17"/>
-        <v>48822</v>
+        <v>13260</v>
       </c>
       <c r="Y27" s="9">
-        <f t="shared" si="17"/>
-        <v>46282</v>
+        <v>12879</v>
       </c>
       <c r="Z27" s="9">
-        <f t="shared" si="17"/>
-        <v>50089</v>
+        <v>13214</v>
       </c>
       <c r="AA27" s="9">
-        <f t="shared" si="17"/>
-        <v>54366</v>
+        <v>13940</v>
       </c>
       <c r="AB27" s="9">
-        <f t="shared" si="17"/>
-        <v>56193</v>
+        <v>13857</v>
       </c>
       <c r="AC27" s="9">
-        <f t="shared" si="17"/>
-        <v>57464</v>
+        <v>15276</v>
       </c>
       <c r="AD27" s="9">
-        <f t="shared" si="17"/>
-        <v>59755</v>
+        <v>15811</v>
       </c>
       <c r="AE27" s="9">
-        <f t="shared" si="17"/>
-        <v>60542</v>
+        <v>15713</v>
       </c>
       <c r="AF27" s="9">
-        <f t="shared" si="17"/>
-        <v>54085</v>
+        <f>SUM(K27:N27)</f>
+        <v>14697</v>
       </c>
       <c r="AG27" s="9">
-        <f t="shared" ref="AG27" si="18">AG25-AG26</f>
-        <v>55272.199499999988</v>
+        <f>SUM(O27:R27)</f>
+        <v>14697</v>
       </c>
       <c r="AH27" s="9">
-        <f>+AH25*0.63</f>
-        <v>56377.643489999995</v>
+        <f t="shared" ref="AH27:AT27" si="22">+AG27*1.01</f>
+        <v>14843.97</v>
       </c>
       <c r="AI27" s="9">
-        <f t="shared" ref="AI27:AT27" si="19">+AI25*0.63</f>
-        <v>58068.972794699999</v>
+        <f t="shared" si="22"/>
+        <v>14992.4097</v>
       </c>
       <c r="AJ27" s="9">
-        <f t="shared" si="19"/>
-        <v>59811.041978541005</v>
+        <f t="shared" si="22"/>
+        <v>15142.333797000001</v>
       </c>
       <c r="AK27" s="9">
-        <f t="shared" si="19"/>
-        <v>61605.373237897227</v>
+        <f t="shared" si="22"/>
+        <v>15293.757134970001</v>
       </c>
       <c r="AL27" s="9">
-        <f t="shared" si="19"/>
-        <v>63453.534435034147</v>
+        <f t="shared" si="22"/>
+        <v>15446.6947063197</v>
       </c>
       <c r="AM27" s="9">
-        <f t="shared" si="19"/>
-        <v>65357.14046808517</v>
+        <f t="shared" si="22"/>
+        <v>15601.161653382898</v>
       </c>
       <c r="AN27" s="9">
-        <f t="shared" si="19"/>
-        <v>67317.854682127727</v>
+        <f t="shared" si="22"/>
+        <v>15757.173269916728</v>
       </c>
       <c r="AO27" s="9">
-        <f t="shared" si="19"/>
-        <v>69337.390322591556</v>
+        <f t="shared" si="22"/>
+        <v>15914.745002615895</v>
       </c>
       <c r="AP27" s="9">
-        <f t="shared" si="19"/>
-        <v>71417.512032269311</v>
+        <f t="shared" si="22"/>
+        <v>16073.892452642054</v>
       </c>
       <c r="AQ27" s="9">
-        <f t="shared" si="19"/>
-        <v>73560.037393237391</v>
+        <f t="shared" si="22"/>
+        <v>16234.631377168475</v>
       </c>
       <c r="AR27" s="9">
-        <f t="shared" si="19"/>
-        <v>75766.838515034513</v>
+        <f t="shared" si="22"/>
+        <v>16396.977690940159</v>
       </c>
       <c r="AS27" s="9">
-        <f t="shared" si="19"/>
-        <v>78039.843670485556</v>
+        <f t="shared" si="22"/>
+        <v>16560.947467849561</v>
       </c>
       <c r="AT27" s="9">
-        <f t="shared" si="19"/>
-        <v>80381.038980600119</v>
-      </c>
-    </row>
-    <row r="28" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="22"/>
+        <v>16726.556942528056</v>
+      </c>
+    </row>
+    <row r="28" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C28" s="10">
-        <v>2767</v>
+        <v>1010</v>
       </c>
       <c r="D28" s="10">
-        <v>2748</v>
+        <v>1235</v>
       </c>
       <c r="E28" s="10">
-        <v>2743</v>
+        <v>1166</v>
       </c>
       <c r="F28" s="10">
-        <v>3123</v>
+        <v>1335</v>
       </c>
       <c r="G28" s="10">
-        <v>3065</v>
+        <v>1151</v>
       </c>
       <c r="H28" s="10">
-        <v>2903</v>
+        <v>1097</v>
       </c>
       <c r="I28" s="10">
-        <v>2984</v>
+        <v>1091</v>
       </c>
       <c r="J28" s="10">
-        <v>3094</v>
+        <v>1272</v>
       </c>
       <c r="K28" s="10">
-        <v>2962</v>
+        <v>1084</v>
       </c>
       <c r="L28" s="10">
-        <v>2900</v>
+        <v>1038</v>
       </c>
       <c r="M28" s="10">
-        <v>2980</v>
+        <v>1140</v>
       </c>
       <c r="N28" s="10">
-        <v>3146</v>
+        <v>1301</v>
       </c>
       <c r="O28" s="10">
-        <f t="shared" ref="O28:R30" si="20">+K28</f>
-        <v>2962</v>
+        <f t="shared" si="20"/>
+        <v>1084</v>
       </c>
       <c r="P28" s="10">
         <f t="shared" si="20"/>
-        <v>2900</v>
+        <v>1038</v>
       </c>
       <c r="Q28" s="10">
         <f t="shared" si="20"/>
-        <v>2980</v>
+        <v>1140</v>
       </c>
       <c r="R28" s="10">
         <f t="shared" si="20"/>
-        <v>3146</v>
+        <v>1301</v>
       </c>
       <c r="V28" s="9">
-        <v>6584</v>
+        <v>3758</v>
       </c>
       <c r="W28" s="9">
-        <v>7121</v>
+        <v>3329</v>
       </c>
       <c r="X28" s="9">
-        <v>8164</v>
+        <v>5127</v>
       </c>
       <c r="Y28" s="9">
-        <v>9010</v>
+        <v>4030</v>
       </c>
       <c r="Z28" s="9">
-        <v>8714</v>
+        <v>4063</v>
       </c>
       <c r="AA28" s="9">
-        <v>9043</v>
+        <v>4222</v>
       </c>
       <c r="AB28" s="9">
-        <v>9811</v>
+        <v>4569</v>
       </c>
       <c r="AC28" s="9">
-        <v>10411</v>
+        <v>5013</v>
       </c>
       <c r="AD28" s="9">
-        <v>11381</v>
+        <v>4677</v>
       </c>
       <c r="AE28" s="9">
-        <v>12046</v>
+        <v>4611</v>
       </c>
       <c r="AF28" s="9">
         <f>SUM(K28:N28)</f>
-        <v>11988</v>
+        <v>4563</v>
       </c>
       <c r="AG28" s="9">
         <f>SUM(O28:R28)</f>
-        <v>11988</v>
+        <v>4563</v>
       </c>
       <c r="AH28" s="9">
-        <f>+AG28*1.01</f>
-        <v>12107.88</v>
+        <f t="shared" ref="AH28:AT28" si="23">+AG28*1.01</f>
+        <v>4608.63</v>
       </c>
       <c r="AI28" s="9">
-        <f t="shared" ref="AI28:AT28" si="21">+AH28*1.01</f>
-        <v>12228.958799999999</v>
-      </c>
-      <c r="AJ28" s="9">
-        <f t="shared" si="21"/>
-        <v>12351.248387999998</v>
-      </c>
-      <c r="AK28" s="9">
-        <f t="shared" si="21"/>
-        <v>12474.760871879998</v>
-      </c>
-      <c r="AL28" s="9">
-        <f t="shared" si="21"/>
-        <v>12599.508480598799</v>
-      </c>
-      <c r="AM28" s="9">
-        <f t="shared" si="21"/>
-        <v>12725.503565404788</v>
-      </c>
-      <c r="AN28" s="9">
-        <f t="shared" si="21"/>
-        <v>12852.758601058837</v>
-      </c>
-      <c r="AO28" s="9">
-        <f t="shared" si="21"/>
-        <v>12981.286187069425</v>
-      </c>
-      <c r="AP28" s="9">
-        <f t="shared" si="21"/>
-        <v>13111.099048940119</v>
-      </c>
-      <c r="AQ28" s="9">
-        <f t="shared" si="21"/>
-        <v>13242.210039429521</v>
-      </c>
-      <c r="AR28" s="9">
-        <f t="shared" si="21"/>
-        <v>13374.632139823816</v>
-      </c>
-      <c r="AS28" s="9">
-        <f t="shared" si="21"/>
-        <v>13508.378461222055</v>
-      </c>
-      <c r="AT28" s="9">
-        <f t="shared" si="21"/>
-        <v>13643.462245834276</v>
-      </c>
-    </row>
-    <row r="29" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="10">
-        <v>3304</v>
-      </c>
-      <c r="D29" s="10">
-        <v>4283</v>
-      </c>
-      <c r="E29" s="10">
-        <v>3542</v>
-      </c>
-      <c r="F29" s="10">
-        <v>4682</v>
-      </c>
-      <c r="G29" s="10">
-        <v>3728</v>
-      </c>
-      <c r="H29" s="10">
-        <v>4315</v>
-      </c>
-      <c r="I29" s="10">
-        <v>3709</v>
-      </c>
-      <c r="J29" s="10">
-        <v>3961</v>
-      </c>
-      <c r="K29" s="10">
-        <v>3333</v>
-      </c>
-      <c r="L29" s="10">
-        <v>3960</v>
-      </c>
-      <c r="M29" s="10">
-        <v>3406</v>
-      </c>
-      <c r="N29" s="10">
-        <v>3998</v>
-      </c>
-      <c r="O29" s="10">
-        <f t="shared" si="20"/>
-        <v>3333</v>
-      </c>
-      <c r="P29" s="10">
-        <f t="shared" si="20"/>
-        <v>3960</v>
-      </c>
-      <c r="Q29" s="10">
-        <f t="shared" si="20"/>
-        <v>3406</v>
-      </c>
-      <c r="R29" s="10">
-        <f t="shared" si="20"/>
-        <v>3998</v>
-      </c>
-      <c r="V29" s="9">
-        <v>9818</v>
-      </c>
-      <c r="W29" s="9">
-        <v>11541</v>
-      </c>
-      <c r="X29" s="9">
-        <v>13260</v>
-      </c>
-      <c r="Y29" s="9">
-        <v>12879</v>
-      </c>
-      <c r="Z29" s="9">
-        <v>13214</v>
-      </c>
-      <c r="AA29" s="9">
-        <v>13940</v>
-      </c>
-      <c r="AB29" s="9">
-        <v>13857</v>
-      </c>
-      <c r="AC29" s="9">
-        <v>15276</v>
-      </c>
-      <c r="AD29" s="9">
-        <v>15811</v>
-      </c>
-      <c r="AE29" s="9">
-        <v>15713</v>
-      </c>
-      <c r="AF29" s="9">
-        <f>SUM(K29:N29)</f>
-        <v>14697</v>
-      </c>
-      <c r="AG29" s="9">
-        <f>SUM(O29:R29)</f>
-        <v>14697</v>
-      </c>
-      <c r="AH29" s="9">
-        <f t="shared" ref="AH29:AT29" si="22">+AG29*1.01</f>
-        <v>14843.97</v>
-      </c>
-      <c r="AI29" s="9">
-        <f t="shared" si="22"/>
-        <v>14992.4097</v>
-      </c>
-      <c r="AJ29" s="9">
-        <f t="shared" si="22"/>
-        <v>15142.333797000001</v>
-      </c>
-      <c r="AK29" s="9">
-        <f t="shared" si="22"/>
-        <v>15293.757134970001</v>
-      </c>
-      <c r="AL29" s="9">
-        <f t="shared" si="22"/>
-        <v>15446.6947063197</v>
-      </c>
-      <c r="AM29" s="9">
-        <f t="shared" si="22"/>
-        <v>15601.161653382898</v>
-      </c>
-      <c r="AN29" s="9">
-        <f t="shared" si="22"/>
-        <v>15757.173269916728</v>
-      </c>
-      <c r="AO29" s="9">
-        <f t="shared" si="22"/>
-        <v>15914.745002615895</v>
-      </c>
-      <c r="AP29" s="9">
-        <f t="shared" si="22"/>
-        <v>16073.892452642054</v>
-      </c>
-      <c r="AQ29" s="9">
-        <f t="shared" si="22"/>
-        <v>16234.631377168475</v>
-      </c>
-      <c r="AR29" s="9">
-        <f t="shared" si="22"/>
-        <v>16396.977690940159</v>
-      </c>
-      <c r="AS29" s="9">
-        <f t="shared" si="22"/>
-        <v>16560.947467849561</v>
-      </c>
-      <c r="AT29" s="9">
-        <f t="shared" si="22"/>
-        <v>16726.556942528056</v>
-      </c>
-    </row>
-    <row r="30" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="10">
-        <v>1010</v>
-      </c>
-      <c r="D30" s="10">
-        <v>1235</v>
-      </c>
-      <c r="E30" s="10">
-        <v>1166</v>
-      </c>
-      <c r="F30" s="10">
-        <v>1335</v>
-      </c>
-      <c r="G30" s="10">
-        <v>1151</v>
-      </c>
-      <c r="H30" s="10">
-        <v>1097</v>
-      </c>
-      <c r="I30" s="10">
-        <v>1091</v>
-      </c>
-      <c r="J30" s="10">
-        <v>1272</v>
-      </c>
-      <c r="K30" s="10">
-        <v>1084</v>
-      </c>
-      <c r="L30" s="10">
-        <v>1038</v>
-      </c>
-      <c r="M30" s="10">
-        <v>1140</v>
-      </c>
-      <c r="N30" s="10">
-        <v>1301</v>
-      </c>
-      <c r="O30" s="10">
-        <f t="shared" si="20"/>
-        <v>1084</v>
-      </c>
-      <c r="P30" s="10">
-        <f t="shared" si="20"/>
-        <v>1038</v>
-      </c>
-      <c r="Q30" s="10">
-        <f t="shared" si="20"/>
-        <v>1140</v>
-      </c>
-      <c r="R30" s="10">
-        <f t="shared" si="20"/>
-        <v>1301</v>
-      </c>
-      <c r="V30" s="9">
-        <v>3758</v>
-      </c>
-      <c r="W30" s="9">
-        <v>3329</v>
-      </c>
-      <c r="X30" s="9">
-        <v>5127</v>
-      </c>
-      <c r="Y30" s="9">
-        <v>4030</v>
-      </c>
-      <c r="Z30" s="9">
-        <v>4063</v>
-      </c>
-      <c r="AA30" s="9">
-        <v>4222</v>
-      </c>
-      <c r="AB30" s="9">
-        <v>4569</v>
-      </c>
-      <c r="AC30" s="9">
-        <v>5013</v>
-      </c>
-      <c r="AD30" s="9">
-        <v>4677</v>
-      </c>
-      <c r="AE30" s="9">
-        <v>4611</v>
-      </c>
-      <c r="AF30" s="9">
-        <f>SUM(K30:N30)</f>
-        <v>4563</v>
-      </c>
-      <c r="AG30" s="9">
-        <f>SUM(O30:R30)</f>
-        <v>4563</v>
-      </c>
-      <c r="AH30" s="9">
-        <f t="shared" ref="AH30:AT30" si="23">+AG30*1.01</f>
-        <v>4608.63</v>
-      </c>
-      <c r="AI30" s="9">
         <f t="shared" si="23"/>
         <v>4654.7163</v>
       </c>
-      <c r="AJ30" s="9">
+      <c r="AJ28" s="9">
         <f t="shared" si="23"/>
         <v>4701.2634630000002</v>
       </c>
-      <c r="AK30" s="9">
+      <c r="AK28" s="9">
         <f t="shared" si="23"/>
         <v>4748.2760976300005</v>
       </c>
-      <c r="AL30" s="9">
+      <c r="AL28" s="9">
         <f t="shared" si="23"/>
         <v>4795.7588586063002</v>
       </c>
-      <c r="AM30" s="9">
+      <c r="AM28" s="9">
         <f t="shared" si="23"/>
         <v>4843.7164471923634</v>
       </c>
-      <c r="AN30" s="9">
+      <c r="AN28" s="9">
         <f t="shared" si="23"/>
         <v>4892.1536116642874</v>
       </c>
-      <c r="AO30" s="9">
+      <c r="AO28" s="9">
         <f t="shared" si="23"/>
         <v>4941.0751477809299</v>
       </c>
-      <c r="AP30" s="9">
+      <c r="AP28" s="9">
         <f t="shared" si="23"/>
         <v>4990.4858992587397</v>
       </c>
-      <c r="AQ30" s="9">
+      <c r="AQ28" s="9">
         <f t="shared" si="23"/>
         <v>5040.3907582513275</v>
       </c>
-      <c r="AR30" s="9">
+      <c r="AR28" s="9">
         <f t="shared" si="23"/>
         <v>5090.7946658338406</v>
       </c>
-      <c r="AS30" s="9">
+      <c r="AS28" s="9">
         <f t="shared" si="23"/>
         <v>5141.7026124921786</v>
       </c>
-      <c r="AT30" s="9">
+      <c r="AT28" s="9">
         <f t="shared" si="23"/>
         <v>5193.1196386171005</v>
       </c>
     </row>
-    <row r="31" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="9" t="s">
+    <row r="29" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="10">
-        <f t="shared" ref="C31:D31" si="24">SUM(C28:C30)</f>
+      <c r="C29" s="10">
+        <f t="shared" ref="C29:D29" si="24">SUM(C26:C28)</f>
         <v>7081</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D29" s="10">
         <f t="shared" si="24"/>
         <v>8266</v>
       </c>
-      <c r="E31" s="10">
-        <f t="shared" ref="E31:L31" si="25">SUM(E28:E30)</f>
+      <c r="E29" s="10">
+        <f t="shared" ref="E29:L29" si="25">SUM(E26:E28)</f>
         <v>7451</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F29" s="10">
         <f t="shared" si="25"/>
         <v>9140</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G29" s="10">
         <f t="shared" si="25"/>
         <v>7944</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H29" s="10">
         <f t="shared" si="25"/>
         <v>8315</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I29" s="10">
         <f t="shared" si="25"/>
         <v>7784</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J29" s="10">
         <f t="shared" si="25"/>
         <v>8327</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K29" s="10">
         <f t="shared" si="25"/>
         <v>7379</v>
       </c>
-      <c r="L31" s="10">
+      <c r="L29" s="10">
         <f t="shared" si="25"/>
         <v>7898</v>
       </c>
-      <c r="M31" s="10">
-        <f t="shared" ref="M31:N31" si="26">SUM(M28:M30)</f>
+      <c r="M29" s="10">
+        <f t="shared" ref="M29:N29" si="26">SUM(M26:M28)</f>
         <v>7526</v>
       </c>
-      <c r="N31" s="10">
+      <c r="N29" s="10">
         <f t="shared" si="26"/>
         <v>8445</v>
       </c>
-      <c r="O31" s="10">
-        <f t="shared" ref="O31" si="27">SUM(O28:O30)</f>
+      <c r="O29" s="10">
+        <f t="shared" ref="O29" si="27">SUM(O26:O28)</f>
         <v>7379</v>
       </c>
-      <c r="P31" s="10">
-        <f t="shared" ref="P31" si="28">SUM(P28:P30)</f>
+      <c r="P29" s="10">
+        <f t="shared" ref="P29" si="28">SUM(P26:P28)</f>
         <v>7898</v>
       </c>
-      <c r="Q31" s="10">
-        <f t="shared" ref="Q31" si="29">SUM(Q28:Q30)</f>
+      <c r="Q29" s="10">
+        <f t="shared" ref="Q29" si="29">SUM(Q26:Q28)</f>
         <v>7526</v>
       </c>
-      <c r="R31" s="10">
-        <f t="shared" ref="R31" si="30">SUM(R28:R30)</f>
+      <c r="R29" s="10">
+        <f t="shared" ref="R29" si="30">SUM(R26:R28)</f>
         <v>8445</v>
       </c>
-      <c r="V31" s="10">
-        <f t="shared" ref="V31:AE31" si="31">SUM(V28:V30)</f>
+      <c r="V29" s="10">
+        <f t="shared" ref="V29:AE29" si="31">SUM(V26:V28)</f>
         <v>20160</v>
       </c>
-      <c r="W31" s="10">
+      <c r="W29" s="10">
         <f t="shared" si="31"/>
         <v>21991</v>
       </c>
-      <c r="X31" s="10">
+      <c r="X29" s="10">
         <f t="shared" si="31"/>
         <v>26551</v>
       </c>
-      <c r="Y31" s="10">
+      <c r="Y29" s="10">
         <f t="shared" si="31"/>
         <v>25919</v>
       </c>
-      <c r="Z31" s="10">
+      <c r="Z29" s="10">
         <f t="shared" si="31"/>
         <v>25991</v>
       </c>
-      <c r="AA31" s="10">
+      <c r="AA29" s="10">
         <f t="shared" si="31"/>
         <v>27205</v>
       </c>
-      <c r="AB31" s="10">
+      <c r="AB29" s="10">
         <f t="shared" si="31"/>
         <v>28237</v>
       </c>
-      <c r="AC31" s="10">
+      <c r="AC29" s="10">
         <f t="shared" si="31"/>
         <v>30700</v>
       </c>
-      <c r="AD31" s="10">
+      <c r="AD29" s="10">
         <f t="shared" si="31"/>
         <v>31869</v>
       </c>
-      <c r="AE31" s="10">
+      <c r="AE29" s="10">
         <f t="shared" si="31"/>
         <v>32370</v>
       </c>
-      <c r="AF31" s="10">
-        <f t="shared" ref="AF31:AG31" si="32">SUM(AF28:AF30)</f>
+      <c r="AF29" s="10">
+        <f t="shared" ref="AF29:AG29" si="32">SUM(AF26:AF28)</f>
         <v>31248</v>
       </c>
-      <c r="AG31" s="10">
+      <c r="AG29" s="10">
         <f t="shared" si="32"/>
         <v>31248</v>
       </c>
-      <c r="AH31" s="10">
-        <f t="shared" ref="AH31" si="33">SUM(AH28:AH30)</f>
+      <c r="AH29" s="10">
+        <f t="shared" ref="AH29" si="33">SUM(AH26:AH28)</f>
         <v>31560.48</v>
       </c>
-      <c r="AI31" s="10">
-        <f t="shared" ref="AI31" si="34">SUM(AI28:AI30)</f>
+      <c r="AI29" s="10">
+        <f t="shared" ref="AI29" si="34">SUM(AI26:AI28)</f>
         <v>31876.084799999997</v>
       </c>
-      <c r="AJ31" s="10">
-        <f t="shared" ref="AJ31" si="35">SUM(AJ28:AJ30)</f>
+      <c r="AJ29" s="10">
+        <f t="shared" ref="AJ29" si="35">SUM(AJ26:AJ28)</f>
         <v>32194.845647999999</v>
       </c>
-      <c r="AK31" s="10">
-        <f t="shared" ref="AK31" si="36">SUM(AK28:AK30)</f>
+      <c r="AK29" s="10">
+        <f t="shared" ref="AK29" si="36">SUM(AK26:AK28)</f>
         <v>32516.794104479999</v>
       </c>
-      <c r="AL31" s="10">
-        <f t="shared" ref="AL31" si="37">SUM(AL28:AL30)</f>
+      <c r="AL29" s="10">
+        <f t="shared" ref="AL29" si="37">SUM(AL26:AL28)</f>
         <v>32841.9620455248</v>
       </c>
-      <c r="AM31" s="10">
-        <f t="shared" ref="AM31" si="38">SUM(AM28:AM30)</f>
+      <c r="AM29" s="10">
+        <f t="shared" ref="AM29" si="38">SUM(AM26:AM28)</f>
         <v>33170.38166598005</v>
       </c>
-      <c r="AN31" s="10">
-        <f t="shared" ref="AN31" si="39">SUM(AN28:AN30)</f>
+      <c r="AN29" s="10">
+        <f t="shared" ref="AN29" si="39">SUM(AN26:AN28)</f>
         <v>33502.08548263985</v>
       </c>
-      <c r="AO31" s="10">
-        <f t="shared" ref="AO31" si="40">SUM(AO28:AO30)</f>
+      <c r="AO29" s="10">
+        <f t="shared" ref="AO29" si="40">SUM(AO26:AO28)</f>
         <v>33837.106337466248</v>
       </c>
-      <c r="AP31" s="10">
-        <f t="shared" ref="AP31" si="41">SUM(AP28:AP30)</f>
+      <c r="AP29" s="10">
+        <f t="shared" ref="AP29" si="41">SUM(AP26:AP28)</f>
         <v>34175.477400840915</v>
       </c>
-      <c r="AQ31" s="10">
-        <f t="shared" ref="AQ31" si="42">SUM(AQ28:AQ30)</f>
+      <c r="AQ29" s="10">
+        <f t="shared" ref="AQ29" si="42">SUM(AQ26:AQ28)</f>
         <v>34517.232174849327</v>
       </c>
-      <c r="AR31" s="10">
-        <f t="shared" ref="AR31" si="43">SUM(AR28:AR30)</f>
+      <c r="AR29" s="10">
+        <f t="shared" ref="AR29" si="43">SUM(AR26:AR28)</f>
         <v>34862.404496597817</v>
       </c>
-      <c r="AS31" s="10">
-        <f t="shared" ref="AS31" si="44">SUM(AS28:AS30)</f>
+      <c r="AS29" s="10">
+        <f t="shared" ref="AS29" si="44">SUM(AS26:AS28)</f>
         <v>35211.028541563792</v>
       </c>
-      <c r="AT31" s="10">
-        <f t="shared" ref="AT31" si="45">SUM(AT28:AT30)</f>
+      <c r="AT29" s="10">
+        <f t="shared" ref="AT29" si="45">SUM(AT26:AT28)</f>
         <v>35563.138826979433</v>
       </c>
     </row>
-    <row r="32" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="9" t="s">
+    <row r="30" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="10">
-        <f t="shared" ref="C32:D32" si="46">C27-C31</f>
+      <c r="C30" s="10">
+        <f t="shared" ref="C30:D30" si="46">C25-C29</f>
         <v>6334</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D30" s="10">
         <f t="shared" si="46"/>
         <v>7969</v>
       </c>
-      <c r="E32" s="10">
-        <f t="shared" ref="E32:L32" si="47">E27-E31</f>
+      <c r="E30" s="10">
+        <f t="shared" ref="E30:L30" si="47">E25-E29</f>
         <v>6974</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F30" s="10">
         <f t="shared" si="47"/>
         <v>6609</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G30" s="10">
         <f t="shared" si="47"/>
         <v>6984</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H30" s="10">
         <f t="shared" si="47"/>
         <v>8019</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I30" s="10">
         <f t="shared" si="47"/>
         <v>6784</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J30" s="10">
         <f t="shared" si="47"/>
         <v>6385</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K30" s="10">
         <f t="shared" si="47"/>
         <v>5793</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L30" s="10">
         <f t="shared" si="47"/>
         <v>6026</v>
       </c>
-      <c r="M32" s="10">
-        <f t="shared" ref="M32:N32" si="48">M27-M31</f>
+      <c r="M30" s="10">
+        <f t="shared" ref="M30:N30" si="48">M25-M29</f>
         <v>6828</v>
       </c>
-      <c r="N32" s="10">
+      <c r="N30" s="10">
         <f t="shared" si="48"/>
         <v>4190</v>
       </c>
-      <c r="O32" s="10">
-        <f t="shared" ref="O32" si="49">O27-O31</f>
+      <c r="O30" s="10">
+        <f t="shared" ref="O30" si="49">O25-O29</f>
         <v>5588.1576999999997</v>
       </c>
-      <c r="P32" s="10">
-        <f t="shared" ref="P32" si="50">P27-P31</f>
+      <c r="P30" s="10">
+        <f t="shared" ref="P30" si="50">P25-P29</f>
         <v>7243.3948</v>
       </c>
-      <c r="Q32" s="10">
-        <f t="shared" ref="Q32" si="51">Q27-Q31</f>
+      <c r="Q30" s="10">
+        <f t="shared" ref="Q30" si="51">Q25-Q29</f>
         <v>6520.9587999999985</v>
       </c>
-      <c r="R32" s="10">
-        <f t="shared" ref="R32" si="52">R27-R31</f>
+      <c r="R30" s="10">
+        <f t="shared" ref="R30" si="52">R25-R29</f>
         <v>4671.6882000000005</v>
       </c>
-      <c r="V32" s="10">
-        <f t="shared" ref="V32:AE32" si="53">V27-V31</f>
+      <c r="V30" s="10">
+        <f t="shared" ref="V30:AE30" si="53">V25-V29</f>
         <v>16472</v>
       </c>
-      <c r="W32" s="10">
+      <c r="W30" s="10">
         <f t="shared" si="53"/>
         <v>18438</v>
       </c>
-      <c r="X32" s="10">
+      <c r="X30" s="10">
         <f t="shared" si="53"/>
         <v>22271</v>
       </c>
-      <c r="Y32" s="10">
+      <c r="Y30" s="10">
         <f t="shared" si="53"/>
         <v>20363</v>
       </c>
-      <c r="Z32" s="10">
+      <c r="Z30" s="10">
         <f t="shared" si="53"/>
         <v>24098</v>
       </c>
-      <c r="AA32" s="10">
+      <c r="AA30" s="10">
         <f t="shared" si="53"/>
         <v>27161</v>
       </c>
-      <c r="AB32" s="10">
+      <c r="AB30" s="10">
         <f t="shared" si="53"/>
         <v>27956</v>
       </c>
-      <c r="AC32" s="10">
+      <c r="AC30" s="10">
         <f t="shared" si="53"/>
         <v>26764</v>
       </c>
-      <c r="AD32" s="10">
+      <c r="AD30" s="10">
         <f t="shared" si="53"/>
         <v>27886</v>
       </c>
-      <c r="AE32" s="10">
+      <c r="AE30" s="10">
         <f t="shared" si="53"/>
         <v>28172</v>
       </c>
-      <c r="AF32" s="10">
-        <f t="shared" ref="AF32:AG32" si="54">AF27-AF31</f>
+      <c r="AF30" s="10">
+        <f t="shared" ref="AF30:AG30" si="54">AF25-AF29</f>
         <v>22837</v>
       </c>
-      <c r="AG32" s="10">
+      <c r="AG30" s="10">
         <f t="shared" si="54"/>
         <v>24024.199499999988</v>
       </c>
-      <c r="AH32" s="10">
-        <f t="shared" ref="AH32" si="55">AH27-AH31</f>
+      <c r="AH30" s="10">
+        <f t="shared" ref="AH30" si="55">AH25-AH29</f>
         <v>24817.163489999995</v>
       </c>
-      <c r="AI32" s="10">
-        <f t="shared" ref="AI32" si="56">AI27-AI31</f>
+      <c r="AI30" s="10">
+        <f t="shared" ref="AI30" si="56">AI25-AI29</f>
         <v>26192.887994700002</v>
       </c>
-      <c r="AJ32" s="10">
-        <f t="shared" ref="AJ32" si="57">AJ27-AJ31</f>
+      <c r="AJ30" s="10">
+        <f t="shared" ref="AJ30" si="57">AJ25-AJ29</f>
         <v>27616.196330541006</v>
       </c>
-      <c r="AK32" s="10">
-        <f t="shared" ref="AK32" si="58">AK27-AK31</f>
+      <c r="AK30" s="10">
+        <f t="shared" ref="AK30" si="58">AK25-AK29</f>
         <v>29088.579133417228</v>
       </c>
-      <c r="AL32" s="10">
-        <f t="shared" ref="AL32" si="59">AL27-AL31</f>
+      <c r="AL30" s="10">
+        <f t="shared" ref="AL30" si="59">AL25-AL29</f>
         <v>30611.572389509347</v>
       </c>
-      <c r="AM32" s="10">
-        <f t="shared" ref="AM32" si="60">AM27-AM31</f>
+      <c r="AM30" s="10">
+        <f t="shared" ref="AM30" si="60">AM25-AM29</f>
         <v>32186.75880210512</v>
       </c>
-      <c r="AN32" s="10">
-        <f t="shared" ref="AN32" si="61">AN27-AN31</f>
+      <c r="AN30" s="10">
+        <f t="shared" ref="AN30" si="61">AN25-AN29</f>
         <v>33815.769199487877</v>
       </c>
-      <c r="AO32" s="10">
-        <f t="shared" ref="AO32" si="62">AO27-AO31</f>
+      <c r="AO30" s="10">
+        <f t="shared" ref="AO30" si="62">AO25-AO29</f>
         <v>35500.283985125308</v>
       </c>
-      <c r="AP32" s="10">
-        <f t="shared" ref="AP32" si="63">AP27-AP31</f>
+      <c r="AP30" s="10">
+        <f t="shared" ref="AP30" si="63">AP25-AP29</f>
         <v>37242.034631428396</v>
       </c>
-      <c r="AQ32" s="10">
-        <f t="shared" ref="AQ32" si="64">AQ27-AQ31</f>
+      <c r="AQ30" s="10">
+        <f t="shared" ref="AQ30" si="64">AQ25-AQ29</f>
         <v>39042.805218388065</v>
       </c>
-      <c r="AR32" s="10">
-        <f t="shared" ref="AR32" si="65">AR27-AR31</f>
+      <c r="AR30" s="10">
+        <f t="shared" ref="AR30" si="65">AR25-AR29</f>
         <v>40904.434018436696</v>
       </c>
-      <c r="AS32" s="10">
-        <f t="shared" ref="AS32" si="66">AS27-AS31</f>
+      <c r="AS30" s="10">
+        <f t="shared" ref="AS30" si="66">AS25-AS29</f>
         <v>42828.815128921764</v>
       </c>
-      <c r="AT32" s="10">
-        <f t="shared" ref="AT32" si="67">AT27-AT31</f>
+      <c r="AT30" s="10">
+        <f t="shared" ref="AT30" si="67">AT25-AT29</f>
         <v>44817.900153620685</v>
       </c>
     </row>
-    <row r="33" spans="2:149" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="9" t="s">
+    <row r="31" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C31" s="10">
         <v>74</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D31" s="10">
         <v>-91</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E31" s="10">
         <v>-17</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F31" s="10">
         <v>95</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G31" s="10">
         <v>52</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H31" s="10">
         <v>74</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I31" s="10">
         <v>-77</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J31" s="10">
         <v>297</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K31" s="10">
         <v>-280</v>
       </c>
-      <c r="L33" s="10">
+      <c r="L31" s="10">
         <v>-171</v>
       </c>
-      <c r="M33" s="10">
+      <c r="M31" s="10">
         <v>-247</v>
       </c>
-      <c r="N33" s="10">
+      <c r="N31" s="10">
         <v>267</v>
       </c>
-      <c r="O33" s="10">
-        <f t="shared" ref="O33:R33" si="68">N33+10</f>
+      <c r="O31" s="10">
+        <f t="shared" ref="O31:R31" si="68">N31+10</f>
         <v>277</v>
       </c>
-      <c r="P33" s="10">
+      <c r="P31" s="10">
         <f t="shared" si="68"/>
         <v>287</v>
       </c>
-      <c r="Q33" s="10">
+      <c r="Q31" s="10">
         <f t="shared" si="68"/>
         <v>297</v>
       </c>
-      <c r="R33" s="10">
+      <c r="R31" s="10">
         <f t="shared" si="68"/>
         <v>307</v>
       </c>
+      <c r="V31" s="9">
+        <v>1790</v>
+      </c>
+      <c r="W31" s="9">
+        <v>1663</v>
+      </c>
+      <c r="X31" s="9">
+        <v>1543</v>
+      </c>
+      <c r="Y31" s="9">
+        <v>-542</v>
+      </c>
+      <c r="Z31" s="9">
+        <v>915</v>
+      </c>
+      <c r="AA31" s="9">
+        <v>910</v>
+      </c>
+      <c r="AB31" s="9">
+        <v>504</v>
+      </c>
+      <c r="AC31" s="9">
+        <v>288</v>
+      </c>
+      <c r="AD31" s="9">
+        <v>61</v>
+      </c>
+      <c r="AE31" s="9">
+        <v>346</v>
+      </c>
+      <c r="AF31" s="9">
+        <f>SUM(K31:N31)</f>
+        <v>-431</v>
+      </c>
+      <c r="AG31" s="9">
+        <f>SUM(O31:R31)</f>
+        <v>1168</v>
+      </c>
+      <c r="AH31" s="9">
+        <f t="shared" ref="AH31:AT31" si="69">+AG48*$AW$38</f>
+        <v>564.21840797499999</v>
+      </c>
+      <c r="AI31" s="9">
+        <f t="shared" si="69"/>
+        <v>665.74393556689995</v>
+      </c>
+      <c r="AJ31" s="9">
+        <f t="shared" si="69"/>
+        <v>773.17846328796747</v>
+      </c>
+      <c r="AK31" s="9">
+        <f t="shared" si="69"/>
+        <v>886.73596246328339</v>
+      </c>
+      <c r="AL31" s="9">
+        <f t="shared" si="69"/>
+        <v>1006.6372228468055</v>
+      </c>
+      <c r="AM31" s="9">
+        <f t="shared" si="69"/>
+        <v>1133.11006129623</v>
+      </c>
+      <c r="AN31" s="9">
+        <f t="shared" si="69"/>
+        <v>1266.3895367498353</v>
+      </c>
+      <c r="AO31" s="9">
+        <f t="shared" si="69"/>
+        <v>1406.7181716947864</v>
+      </c>
+      <c r="AP31" s="9">
+        <f t="shared" si="69"/>
+        <v>1554.3461803220666</v>
+      </c>
+      <c r="AQ31" s="9">
+        <f t="shared" si="69"/>
+        <v>1709.5317035690684</v>
+      </c>
+      <c r="AR31" s="9">
+        <f t="shared" si="69"/>
+        <v>1872.5410512568967</v>
+      </c>
+      <c r="AS31" s="9">
+        <f t="shared" si="69"/>
+        <v>2043.6489515356711</v>
+      </c>
+      <c r="AT31" s="9">
+        <f t="shared" si="69"/>
+        <v>2223.138807857501</v>
+      </c>
+    </row>
+    <row r="32" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="10">
+        <f t="shared" ref="C32:D32" si="70">+C31+C30</f>
+        <v>6408</v>
+      </c>
+      <c r="D32" s="10">
+        <f t="shared" si="70"/>
+        <v>7878</v>
+      </c>
+      <c r="E32" s="10">
+        <f t="shared" ref="E32:M32" si="71">+E31+E30</f>
+        <v>6957</v>
+      </c>
+      <c r="F32" s="10">
+        <f t="shared" si="71"/>
+        <v>6704</v>
+      </c>
+      <c r="G32" s="10">
+        <f t="shared" si="71"/>
+        <v>7036</v>
+      </c>
+      <c r="H32" s="10">
+        <f t="shared" si="71"/>
+        <v>8093</v>
+      </c>
+      <c r="I32" s="10">
+        <f t="shared" si="71"/>
+        <v>6707</v>
+      </c>
+      <c r="J32" s="10">
+        <f t="shared" si="71"/>
+        <v>6682</v>
+      </c>
+      <c r="K32" s="10">
+        <f t="shared" si="71"/>
+        <v>5513</v>
+      </c>
+      <c r="L32" s="10">
+        <f t="shared" si="71"/>
+        <v>5855</v>
+      </c>
+      <c r="M32" s="10">
+        <f t="shared" si="71"/>
+        <v>6581</v>
+      </c>
+      <c r="N32" s="10">
+        <f t="shared" ref="N32" si="72">+N31+N30</f>
+        <v>4457</v>
+      </c>
+      <c r="O32" s="10">
+        <f t="shared" ref="O32" si="73">+O31+O30</f>
+        <v>5865.1576999999997</v>
+      </c>
+      <c r="P32" s="10">
+        <f t="shared" ref="P32" si="74">+P31+P30</f>
+        <v>7530.3948</v>
+      </c>
+      <c r="Q32" s="10">
+        <f t="shared" ref="Q32" si="75">+Q31+Q30</f>
+        <v>6817.9587999999985</v>
+      </c>
+      <c r="R32" s="10">
+        <f t="shared" ref="R32" si="76">+R31+R30</f>
+        <v>4978.6882000000005</v>
+      </c>
+      <c r="V32" s="10">
+        <f t="shared" ref="V32" si="77">+V31+V30</f>
+        <v>18262</v>
+      </c>
+      <c r="W32" s="10">
+        <f t="shared" ref="W32:X32" si="78">+W31+W30</f>
+        <v>20101</v>
+      </c>
+      <c r="X32" s="10">
+        <f t="shared" si="78"/>
+        <v>23814</v>
+      </c>
+      <c r="Y32" s="10">
+        <f t="shared" ref="Y32:Z32" si="79">+Y31+Y30</f>
+        <v>19821</v>
+      </c>
+      <c r="Z32" s="10">
+        <f t="shared" si="79"/>
+        <v>25013</v>
+      </c>
+      <c r="AA32" s="10">
+        <f t="shared" ref="AA32:AB32" si="80">+AA31+AA30</f>
+        <v>28071</v>
+      </c>
+      <c r="AB32" s="10">
+        <f t="shared" si="80"/>
+        <v>28460</v>
+      </c>
+      <c r="AC32" s="10">
+        <f t="shared" ref="AC32:AD32" si="81">+AC31+AC30</f>
+        <v>27052</v>
+      </c>
+      <c r="AD32" s="10">
+        <f t="shared" si="81"/>
+        <v>27947</v>
+      </c>
+      <c r="AE32" s="10">
+        <f t="shared" ref="AE32:AF32" si="82">+AE31+AE30</f>
+        <v>28518</v>
+      </c>
+      <c r="AF32" s="10">
+        <f t="shared" si="82"/>
+        <v>22406</v>
+      </c>
+      <c r="AG32" s="10">
+        <f>+AG31+AG30</f>
+        <v>25192.199499999988</v>
+      </c>
+      <c r="AH32" s="10">
+        <f t="shared" ref="AH32" si="83">+AH31+AH30</f>
+        <v>25381.381897974996</v>
+      </c>
+      <c r="AI32" s="10">
+        <f t="shared" ref="AI32" si="84">+AI31+AI30</f>
+        <v>26858.631930266904</v>
+      </c>
+      <c r="AJ32" s="10">
+        <f t="shared" ref="AJ32" si="85">+AJ31+AJ30</f>
+        <v>28389.374793828974</v>
+      </c>
+      <c r="AK32" s="10">
+        <f t="shared" ref="AK32" si="86">+AK31+AK30</f>
+        <v>29975.315095880513</v>
+      </c>
+      <c r="AL32" s="10">
+        <f t="shared" ref="AL32" si="87">+AL31+AL30</f>
+        <v>31618.209612356153</v>
+      </c>
+      <c r="AM32" s="10">
+        <f t="shared" ref="AM32" si="88">+AM31+AM30</f>
+        <v>33319.868863401352</v>
+      </c>
+      <c r="AN32" s="10">
+        <f t="shared" ref="AN32" si="89">+AN31+AN30</f>
+        <v>35082.15873623771</v>
+      </c>
+      <c r="AO32" s="10">
+        <f t="shared" ref="AO32" si="90">+AO31+AO30</f>
+        <v>36907.002156820097</v>
+      </c>
+      <c r="AP32" s="10">
+        <f t="shared" ref="AP32" si="91">+AP31+AP30</f>
+        <v>38796.38081175046</v>
+      </c>
+      <c r="AQ32" s="10">
+        <f t="shared" ref="AQ32" si="92">+AQ31+AQ30</f>
+        <v>40752.336921957132</v>
+      </c>
+      <c r="AR32" s="10">
+        <f t="shared" ref="AR32" si="93">+AR31+AR30</f>
+        <v>42776.975069693595</v>
+      </c>
+      <c r="AS32" s="10">
+        <f t="shared" ref="AS32" si="94">+AS31+AS30</f>
+        <v>44872.464080457437</v>
+      </c>
+      <c r="AT32" s="10">
+        <f t="shared" ref="AT32" si="95">+AT31+AT30</f>
+        <v>47041.038961478189</v>
+      </c>
+    </row>
+    <row r="33" spans="2:149" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="10">
+        <v>1164</v>
+      </c>
+      <c r="D33" s="10">
+        <v>1320</v>
+      </c>
+      <c r="E33" s="10">
+        <v>1297</v>
+      </c>
+      <c r="F33" s="10">
+        <v>1965</v>
+      </c>
+      <c r="G33" s="10">
+        <v>1356</v>
+      </c>
+      <c r="H33" s="10">
+        <v>1987</v>
+      </c>
+      <c r="I33" s="10">
+        <v>1532</v>
+      </c>
+      <c r="J33" s="10">
+        <v>1439</v>
+      </c>
+      <c r="K33" s="10">
+        <v>893</v>
+      </c>
+      <c r="L33" s="10">
+        <v>857</v>
+      </c>
+      <c r="M33" s="10">
+        <v>1280</v>
+      </c>
+      <c r="N33" s="10">
+        <v>225</v>
+      </c>
+      <c r="O33" s="10">
+        <f t="shared" ref="O33:R33" si="96">+O32*0.19</f>
+        <v>1114.3799629999999</v>
+      </c>
+      <c r="P33" s="10">
+        <f t="shared" si="96"/>
+        <v>1430.7750120000001</v>
+      </c>
+      <c r="Q33" s="10">
+        <f t="shared" si="96"/>
+        <v>1295.4121719999998</v>
+      </c>
+      <c r="R33" s="10">
+        <f t="shared" si="96"/>
+        <v>945.95075800000006</v>
+      </c>
       <c r="V33" s="9">
-        <v>1790</v>
+        <v>5663</v>
       </c>
       <c r="W33" s="9">
-        <v>1663</v>
+        <v>6036</v>
       </c>
       <c r="X33" s="9">
-        <v>1543</v>
+        <v>6133</v>
       </c>
       <c r="Y33" s="9">
-        <v>-542</v>
+        <v>5252</v>
       </c>
       <c r="Z33" s="9">
-        <v>915</v>
+        <v>6253</v>
       </c>
       <c r="AA33" s="9">
-        <v>910</v>
+        <v>4921</v>
       </c>
       <c r="AB33" s="9">
-        <v>504</v>
+        <v>5289</v>
       </c>
       <c r="AC33" s="9">
-        <v>288</v>
+        <v>5189</v>
       </c>
       <c r="AD33" s="9">
-        <v>61</v>
+        <v>5746</v>
       </c>
       <c r="AE33" s="9">
-        <v>346</v>
+        <v>6314</v>
       </c>
       <c r="AF33" s="9">
         <f>SUM(K33:N33)</f>
-        <v>-431</v>
+        <v>3255</v>
       </c>
       <c r="AG33" s="9">
         <f>SUM(O33:R33)</f>
-        <v>1168</v>
+        <v>4786.5179049999997</v>
       </c>
       <c r="AH33" s="9">
-        <f t="shared" ref="AH33:AT33" si="69">+AG50*$AW$40</f>
-        <v>564.21840797499999</v>
+        <f>+AH32*0.2</f>
+        <v>5076.2763795949995</v>
       </c>
       <c r="AI33" s="9">
-        <f t="shared" si="69"/>
-        <v>665.74393556689995</v>
+        <f t="shared" ref="AI33:AT33" si="97">+AI32*0.2</f>
+        <v>5371.7263860533812</v>
       </c>
       <c r="AJ33" s="9">
-        <f t="shared" si="69"/>
-        <v>773.17846328796747</v>
-      </c>
-      <c r="AK33" s="9">
-        <f t="shared" si="69"/>
-        <v>886.73596246328339</v>
-      </c>
-      <c r="AL33" s="9">
-        <f t="shared" si="69"/>
-        <v>1006.6372228468055</v>
-      </c>
-      <c r="AM33" s="9">
-        <f t="shared" si="69"/>
-        <v>1133.11006129623</v>
-      </c>
-      <c r="AN33" s="9">
-        <f t="shared" si="69"/>
-        <v>1266.3895367498353</v>
-      </c>
-      <c r="AO33" s="9">
-        <f t="shared" si="69"/>
-        <v>1406.7181716947864</v>
-      </c>
-      <c r="AP33" s="9">
-        <f t="shared" si="69"/>
-        <v>1554.3461803220666</v>
-      </c>
-      <c r="AQ33" s="9">
-        <f t="shared" si="69"/>
-        <v>1709.5317035690684</v>
-      </c>
-      <c r="AR33" s="9">
-        <f t="shared" si="69"/>
-        <v>1872.5410512568967</v>
-      </c>
-      <c r="AS33" s="9">
-        <f t="shared" si="69"/>
-        <v>2043.6489515356711</v>
-      </c>
-      <c r="AT33" s="9">
-        <f t="shared" si="69"/>
-        <v>2223.138807857501</v>
-      </c>
-    </row>
-    <row r="34" spans="2:149" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="10">
-        <f t="shared" ref="C34:D34" si="70">+C33+C32</f>
-        <v>6408</v>
-      </c>
-      <c r="D34" s="10">
-        <f t="shared" si="70"/>
-        <v>7878</v>
-      </c>
-      <c r="E34" s="10">
-        <f t="shared" ref="E34:M34" si="71">+E33+E32</f>
-        <v>6957</v>
-      </c>
-      <c r="F34" s="10">
-        <f t="shared" si="71"/>
-        <v>6704</v>
-      </c>
-      <c r="G34" s="10">
-        <f t="shared" si="71"/>
-        <v>7036</v>
-      </c>
-      <c r="H34" s="10">
-        <f t="shared" si="71"/>
-        <v>8093</v>
-      </c>
-      <c r="I34" s="10">
-        <f t="shared" si="71"/>
-        <v>6707</v>
-      </c>
-      <c r="J34" s="10">
-        <f t="shared" si="71"/>
-        <v>6682</v>
-      </c>
-      <c r="K34" s="10">
-        <f t="shared" si="71"/>
-        <v>5513</v>
-      </c>
-      <c r="L34" s="10">
-        <f t="shared" si="71"/>
-        <v>5855</v>
-      </c>
-      <c r="M34" s="10">
-        <f t="shared" si="71"/>
-        <v>6581</v>
-      </c>
-      <c r="N34" s="10">
-        <f t="shared" ref="N34" si="72">+N33+N32</f>
-        <v>4457</v>
-      </c>
-      <c r="O34" s="10">
-        <f t="shared" ref="O34" si="73">+O33+O32</f>
-        <v>5865.1576999999997</v>
-      </c>
-      <c r="P34" s="10">
-        <f t="shared" ref="P34" si="74">+P33+P32</f>
-        <v>7530.3948</v>
-      </c>
-      <c r="Q34" s="10">
-        <f t="shared" ref="Q34" si="75">+Q33+Q32</f>
-        <v>6817.9587999999985</v>
-      </c>
-      <c r="R34" s="10">
-        <f t="shared" ref="R34" si="76">+R33+R32</f>
-        <v>4978.6882000000005</v>
-      </c>
-      <c r="V34" s="10">
-        <f t="shared" ref="V34" si="77">+V33+V32</f>
-        <v>18262</v>
-      </c>
-      <c r="W34" s="10">
-        <f t="shared" ref="W34:X34" si="78">+W33+W32</f>
-        <v>20101</v>
-      </c>
-      <c r="X34" s="10">
-        <f t="shared" si="78"/>
-        <v>23814</v>
-      </c>
-      <c r="Y34" s="10">
-        <f t="shared" ref="Y34:Z34" si="79">+Y33+Y32</f>
-        <v>19821</v>
-      </c>
-      <c r="Z34" s="10">
-        <f t="shared" si="79"/>
-        <v>25013</v>
-      </c>
-      <c r="AA34" s="10">
-        <f t="shared" ref="AA34:AB34" si="80">+AA33+AA32</f>
-        <v>28071</v>
-      </c>
-      <c r="AB34" s="10">
-        <f t="shared" si="80"/>
-        <v>28460</v>
-      </c>
-      <c r="AC34" s="10">
-        <f t="shared" ref="AC34:AD34" si="81">+AC33+AC32</f>
-        <v>27052</v>
-      </c>
-      <c r="AD34" s="10">
-        <f t="shared" si="81"/>
-        <v>27947</v>
-      </c>
-      <c r="AE34" s="10">
-        <f t="shared" ref="AE34:AF34" si="82">+AE33+AE32</f>
-        <v>28518</v>
-      </c>
-      <c r="AF34" s="10">
-        <f t="shared" si="82"/>
-        <v>22406</v>
-      </c>
-      <c r="AG34" s="10">
-        <f>+AG33+AG32</f>
-        <v>25192.199499999988</v>
-      </c>
-      <c r="AH34" s="10">
-        <f t="shared" ref="AH34" si="83">+AH33+AH32</f>
-        <v>25381.381897974996</v>
-      </c>
-      <c r="AI34" s="10">
-        <f t="shared" ref="AI34" si="84">+AI33+AI32</f>
-        <v>26858.631930266904</v>
-      </c>
-      <c r="AJ34" s="10">
-        <f t="shared" ref="AJ34" si="85">+AJ33+AJ32</f>
-        <v>28389.374793828974</v>
-      </c>
-      <c r="AK34" s="10">
-        <f t="shared" ref="AK34" si="86">+AK33+AK32</f>
-        <v>29975.315095880513</v>
-      </c>
-      <c r="AL34" s="10">
-        <f t="shared" ref="AL34" si="87">+AL33+AL32</f>
-        <v>31618.209612356153</v>
-      </c>
-      <c r="AM34" s="10">
-        <f t="shared" ref="AM34" si="88">+AM33+AM32</f>
-        <v>33319.868863401352</v>
-      </c>
-      <c r="AN34" s="10">
-        <f t="shared" ref="AN34" si="89">+AN33+AN32</f>
-        <v>35082.15873623771</v>
-      </c>
-      <c r="AO34" s="10">
-        <f t="shared" ref="AO34" si="90">+AO33+AO32</f>
-        <v>36907.002156820097</v>
-      </c>
-      <c r="AP34" s="10">
-        <f t="shared" ref="AP34" si="91">+AP33+AP32</f>
-        <v>38796.38081175046</v>
-      </c>
-      <c r="AQ34" s="10">
-        <f t="shared" ref="AQ34" si="92">+AQ33+AQ32</f>
-        <v>40752.336921957132</v>
-      </c>
-      <c r="AR34" s="10">
-        <f t="shared" ref="AR34" si="93">+AR33+AR32</f>
-        <v>42776.975069693595</v>
-      </c>
-      <c r="AS34" s="10">
-        <f t="shared" ref="AS34" si="94">+AS33+AS32</f>
-        <v>44872.464080457437</v>
-      </c>
-      <c r="AT34" s="10">
-        <f t="shared" ref="AT34" si="95">+AT33+AT32</f>
-        <v>47041.038961478189</v>
-      </c>
-    </row>
-    <row r="35" spans="2:149" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="10">
-        <v>1164</v>
-      </c>
-      <c r="D35" s="10">
-        <v>1320</v>
-      </c>
-      <c r="E35" s="10">
-        <v>1297</v>
-      </c>
-      <c r="F35" s="10">
-        <v>1965</v>
-      </c>
-      <c r="G35" s="10">
-        <v>1356</v>
-      </c>
-      <c r="H35" s="10">
-        <v>1987</v>
-      </c>
-      <c r="I35" s="10">
-        <v>1532</v>
-      </c>
-      <c r="J35" s="10">
-        <v>1439</v>
-      </c>
-      <c r="K35" s="10">
-        <v>893</v>
-      </c>
-      <c r="L35" s="10">
-        <v>857</v>
-      </c>
-      <c r="M35" s="10">
-        <v>1280</v>
-      </c>
-      <c r="N35" s="10">
-        <v>225</v>
-      </c>
-      <c r="O35" s="10">
-        <f t="shared" ref="O35:R35" si="96">+O34*0.19</f>
-        <v>1114.3799629999999</v>
-      </c>
-      <c r="P35" s="10">
-        <f t="shared" si="96"/>
-        <v>1430.7750120000001</v>
-      </c>
-      <c r="Q35" s="10">
-        <f t="shared" si="96"/>
-        <v>1295.4121719999998</v>
-      </c>
-      <c r="R35" s="10">
-        <f t="shared" si="96"/>
-        <v>945.95075800000006</v>
-      </c>
-      <c r="V35" s="9">
-        <v>5663</v>
-      </c>
-      <c r="W35" s="9">
-        <v>6036</v>
-      </c>
-      <c r="X35" s="9">
-        <v>6133</v>
-      </c>
-      <c r="Y35" s="9">
-        <v>5252</v>
-      </c>
-      <c r="Z35" s="9">
-        <v>6253</v>
-      </c>
-      <c r="AA35" s="9">
-        <v>4921</v>
-      </c>
-      <c r="AB35" s="9">
-        <v>5289</v>
-      </c>
-      <c r="AC35" s="9">
-        <v>5189</v>
-      </c>
-      <c r="AD35" s="9">
-        <v>5746</v>
-      </c>
-      <c r="AE35" s="9">
-        <v>6314</v>
-      </c>
-      <c r="AF35" s="9">
-        <f>SUM(K35:N35)</f>
-        <v>3255</v>
-      </c>
-      <c r="AG35" s="9">
-        <f>SUM(O35:R35)</f>
-        <v>4786.5179049999997</v>
-      </c>
-      <c r="AH35" s="9">
-        <f>+AH34*0.2</f>
-        <v>5076.2763795949995</v>
-      </c>
-      <c r="AI35" s="9">
-        <f t="shared" ref="AI35:AT35" si="97">+AI34*0.2</f>
-        <v>5371.7263860533812</v>
-      </c>
-      <c r="AJ35" s="9">
         <f t="shared" si="97"/>
         <v>5677.8749587657949</v>
       </c>
-      <c r="AK35" s="9">
+      <c r="AK33" s="9">
         <f t="shared" si="97"/>
         <v>5995.0630191761029</v>
       </c>
-      <c r="AL35" s="9">
+      <c r="AL33" s="9">
         <f t="shared" si="97"/>
         <v>6323.6419224712308</v>
       </c>
-      <c r="AM35" s="9">
+      <c r="AM33" s="9">
         <f t="shared" si="97"/>
         <v>6663.9737726802705</v>
       </c>
-      <c r="AN35" s="9">
+      <c r="AN33" s="9">
         <f t="shared" si="97"/>
         <v>7016.4317472475423</v>
       </c>
-      <c r="AO35" s="9">
+      <c r="AO33" s="9">
         <f t="shared" si="97"/>
         <v>7381.4004313640198</v>
       </c>
-      <c r="AP35" s="9">
+      <c r="AP33" s="9">
         <f t="shared" si="97"/>
         <v>7759.2761623500919</v>
       </c>
-      <c r="AQ35" s="9">
+      <c r="AQ33" s="9">
         <f t="shared" si="97"/>
         <v>8150.467384391427</v>
       </c>
-      <c r="AR35" s="9">
+      <c r="AR33" s="9">
         <f t="shared" si="97"/>
         <v>8555.3950139387198</v>
       </c>
-      <c r="AS35" s="9">
+      <c r="AS33" s="9">
         <f t="shared" si="97"/>
         <v>8974.4928160914878</v>
       </c>
-      <c r="AT35" s="9">
+      <c r="AT33" s="9">
         <f t="shared" si="97"/>
         <v>9408.2077922956378</v>
       </c>
     </row>
-    <row r="36" spans="2:149" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="5" t="s">
+    <row r="34" spans="2:149" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="6">
-        <f t="shared" ref="C36:D36" si="98">+C34-C35</f>
+      <c r="C34" s="6">
+        <f t="shared" ref="C34:D34" si="98">+C32-C33</f>
         <v>5244</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D34" s="6">
         <f t="shared" si="98"/>
         <v>6558</v>
       </c>
-      <c r="E36" s="6">
-        <f t="shared" ref="E36:M36" si="99">+E34-E35</f>
+      <c r="E34" s="6">
+        <f t="shared" ref="E34:M34" si="99">+E32-E33</f>
         <v>5660</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F34" s="6">
         <f t="shared" si="99"/>
         <v>4739</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G34" s="6">
         <f t="shared" si="99"/>
         <v>5680</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H34" s="6">
         <f t="shared" si="99"/>
         <v>6106</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I34" s="6">
         <f t="shared" si="99"/>
         <v>5175</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J34" s="6">
         <f t="shared" si="99"/>
         <v>5243</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K34" s="6">
         <f t="shared" si="99"/>
         <v>4620</v>
       </c>
-      <c r="L36" s="6">
+      <c r="L34" s="6">
         <f t="shared" si="99"/>
         <v>4998</v>
       </c>
-      <c r="M36" s="6">
+      <c r="M34" s="6">
         <f t="shared" si="99"/>
         <v>5301</v>
       </c>
-      <c r="N36" s="6">
-        <f t="shared" ref="N36" si="100">+N34-N35</f>
+      <c r="N34" s="6">
+        <f t="shared" ref="N34" si="100">+N32-N33</f>
         <v>4232</v>
       </c>
-      <c r="O36" s="6">
-        <f t="shared" ref="O36" si="101">+O34-O35</f>
+      <c r="O34" s="6">
+        <f t="shared" ref="O34" si="101">+O32-O33</f>
         <v>4750.7777370000003</v>
       </c>
-      <c r="P36" s="6">
-        <f t="shared" ref="P36" si="102">+P34-P35</f>
+      <c r="P34" s="6">
+        <f t="shared" ref="P34" si="102">+P32-P33</f>
         <v>6099.619788</v>
       </c>
-      <c r="Q36" s="6">
-        <f t="shared" ref="Q36" si="103">+Q34-Q35</f>
+      <c r="Q34" s="6">
+        <f t="shared" ref="Q34" si="103">+Q32-Q33</f>
         <v>5522.5466279999982</v>
       </c>
-      <c r="R36" s="6">
-        <f t="shared" ref="R36" si="104">+R34-R35</f>
+      <c r="R34" s="6">
+        <f t="shared" ref="R34" si="104">+R32-R33</f>
         <v>4032.7374420000006</v>
       </c>
-      <c r="V36" s="6">
-        <f t="shared" ref="V36" si="105">+V34-V35</f>
+      <c r="V34" s="6">
+        <f t="shared" ref="V34" si="105">+V32-V33</f>
         <v>12599</v>
       </c>
-      <c r="W36" s="6">
-        <f t="shared" ref="W36:X36" si="106">+W34-W35</f>
+      <c r="W34" s="6">
+        <f t="shared" ref="W34:X34" si="106">+W32-W33</f>
         <v>14065</v>
       </c>
-      <c r="X36" s="6">
+      <c r="X34" s="6">
         <f t="shared" si="106"/>
         <v>17681</v>
       </c>
-      <c r="Y36" s="6">
-        <f t="shared" ref="Y36:Z36" si="107">+Y34-Y35</f>
+      <c r="Y34" s="6">
+        <f t="shared" ref="Y34:Z34" si="107">+Y32-Y33</f>
         <v>14569</v>
       </c>
-      <c r="Z36" s="6">
+      <c r="Z34" s="6">
         <f t="shared" si="107"/>
         <v>18760</v>
       </c>
-      <c r="AA36" s="6">
-        <f t="shared" ref="AA36:AB36" si="108">+AA34-AA35</f>
+      <c r="AA34" s="6">
+        <f t="shared" ref="AA34:AB34" si="108">+AA32-AA33</f>
         <v>23150</v>
       </c>
-      <c r="AB36" s="6">
+      <c r="AB34" s="6">
         <f t="shared" si="108"/>
         <v>23171</v>
       </c>
-      <c r="AC36" s="6">
-        <f t="shared" ref="AC36:AD36" si="109">+AC34-AC35</f>
+      <c r="AC34" s="6">
+        <f t="shared" ref="AC34:AD34" si="109">+AC32-AC33</f>
         <v>21863</v>
       </c>
-      <c r="AD36" s="6">
+      <c r="AD34" s="6">
         <f t="shared" si="109"/>
         <v>22201</v>
       </c>
-      <c r="AE36" s="6">
-        <f t="shared" ref="AE36:AF36" si="110">+AE34-AE35</f>
+      <c r="AE34" s="6">
+        <f t="shared" ref="AE34:AF34" si="110">+AE32-AE33</f>
         <v>22204</v>
       </c>
-      <c r="AF36" s="6">
+      <c r="AF34" s="6">
         <f t="shared" si="110"/>
         <v>19151</v>
       </c>
-      <c r="AG36" s="6">
-        <f t="shared" ref="AG36" si="111">+AG34-AG35</f>
+      <c r="AG34" s="6">
+        <f t="shared" ref="AG34" si="111">+AG32-AG33</f>
         <v>20405.681594999987</v>
       </c>
-      <c r="AH36" s="6">
-        <f t="shared" ref="AH36" si="112">+AH34-AH35</f>
+      <c r="AH34" s="6">
+        <f t="shared" ref="AH34" si="112">+AH32-AH33</f>
         <v>20305.105518379998</v>
       </c>
-      <c r="AI36" s="6">
-        <f t="shared" ref="AI36" si="113">+AI34-AI35</f>
+      <c r="AI34" s="6">
+        <f t="shared" ref="AI34" si="113">+AI32-AI33</f>
         <v>21486.905544213521</v>
       </c>
-      <c r="AJ36" s="6">
-        <f t="shared" ref="AJ36" si="114">+AJ34-AJ35</f>
+      <c r="AJ34" s="6">
+        <f t="shared" ref="AJ34" si="114">+AJ32-AJ33</f>
         <v>22711.499835063179</v>
       </c>
-      <c r="AK36" s="6">
-        <f t="shared" ref="AK36" si="115">+AK34-AK35</f>
+      <c r="AK34" s="6">
+        <f t="shared" ref="AK34" si="115">+AK32-AK33</f>
         <v>23980.252076704412</v>
       </c>
-      <c r="AL36" s="6">
-        <f t="shared" ref="AL36" si="116">+AL34-AL35</f>
+      <c r="AL34" s="6">
+        <f t="shared" ref="AL34" si="116">+AL32-AL33</f>
         <v>25294.567689884923</v>
       </c>
-      <c r="AM36" s="6">
-        <f t="shared" ref="AM36" si="117">+AM34-AM35</f>
+      <c r="AM34" s="6">
+        <f t="shared" ref="AM34" si="117">+AM32-AM33</f>
         <v>26655.895090721082</v>
       </c>
-      <c r="AN36" s="6">
-        <f t="shared" ref="AN36" si="118">+AN34-AN35</f>
+      <c r="AN34" s="6">
+        <f t="shared" ref="AN34" si="118">+AN32-AN33</f>
         <v>28065.726988990169</v>
       </c>
-      <c r="AO36" s="6">
-        <f t="shared" ref="AO36" si="119">+AO34-AO35</f>
+      <c r="AO34" s="6">
+        <f t="shared" ref="AO34" si="119">+AO32-AO33</f>
         <v>29525.601725456079</v>
       </c>
-      <c r="AP36" s="6">
-        <f t="shared" ref="AP36" si="120">+AP34-AP35</f>
+      <c r="AP34" s="6">
+        <f t="shared" ref="AP34" si="120">+AP32-AP33</f>
         <v>31037.104649400368</v>
       </c>
-      <c r="AQ36" s="6">
-        <f t="shared" ref="AQ36" si="121">+AQ34-AQ35</f>
+      <c r="AQ34" s="6">
+        <f t="shared" ref="AQ34" si="121">+AQ32-AQ33</f>
         <v>32601.869537565704</v>
       </c>
-      <c r="AR36" s="6">
-        <f t="shared" ref="AR36" si="122">+AR34-AR35</f>
+      <c r="AR34" s="6">
+        <f t="shared" ref="AR34" si="122">+AR32-AR33</f>
         <v>34221.580055754879</v>
       </c>
-      <c r="AS36" s="6">
-        <f t="shared" ref="AS36" si="123">+AS34-AS35</f>
+      <c r="AS34" s="6">
+        <f t="shared" ref="AS34" si="123">+AS32-AS33</f>
         <v>35897.971264365951</v>
       </c>
-      <c r="AT36" s="6">
-        <f t="shared" ref="AT36" si="124">+AT34-AT35</f>
+      <c r="AT34" s="6">
+        <f t="shared" ref="AT34" si="124">+AT32-AT33</f>
         <v>37632.831169182551</v>
       </c>
-      <c r="AU36" s="5">
-        <f>AT36*(1+$AW$39)</f>
+      <c r="AU34" s="5">
+        <f>AT34*(1+$AW$37)</f>
         <v>36503.846234107077</v>
       </c>
-      <c r="AV36" s="5">
-        <f t="shared" ref="AV36:DG36" si="125">AU36*(1+$AW$39)</f>
+      <c r="AV34" s="5">
+        <f t="shared" ref="AV34:DG34" si="125">AU34*(1+$AW$37)</f>
         <v>35408.730847083862</v>
       </c>
-      <c r="AW36" s="5">
+      <c r="AW34" s="5">
         <f t="shared" si="125"/>
         <v>34346.468921671345</v>
       </c>
-      <c r="AX36" s="5">
+      <c r="AX34" s="5">
         <f t="shared" si="125"/>
         <v>33316.074854021201</v>
       </c>
-      <c r="AY36" s="5">
+      <c r="AY34" s="5">
         <f t="shared" si="125"/>
         <v>32316.592608400562</v>
       </c>
-      <c r="AZ36" s="5">
+      <c r="AZ34" s="5">
         <f t="shared" si="125"/>
         <v>31347.094830148544</v>
       </c>
-      <c r="BA36" s="5">
+      <c r="BA34" s="5">
         <f t="shared" si="125"/>
         <v>30406.681985244086</v>
       </c>
-      <c r="BB36" s="5">
+      <c r="BB34" s="5">
         <f t="shared" si="125"/>
         <v>29494.481525686762</v>
       </c>
-      <c r="BC36" s="5">
+      <c r="BC34" s="5">
         <f t="shared" si="125"/>
         <v>28609.647079916158</v>
       </c>
-      <c r="BD36" s="5">
+      <c r="BD34" s="5">
         <f t="shared" si="125"/>
         <v>27751.357667518674</v>
       </c>
-      <c r="BE36" s="5">
+      <c r="BE34" s="5">
         <f t="shared" si="125"/>
         <v>26918.816937493113</v>
       </c>
-      <c r="BF36" s="5">
+      <c r="BF34" s="5">
         <f t="shared" si="125"/>
         <v>26111.25242936832</v>
       </c>
-      <c r="BG36" s="5">
+      <c r="BG34" s="5">
         <f t="shared" si="125"/>
         <v>25327.91485648727</v>
       </c>
-      <c r="BH36" s="5">
+      <c r="BH34" s="5">
         <f t="shared" si="125"/>
         <v>24568.077410792652</v>
       </c>
-      <c r="BI36" s="5">
+      <c r="BI34" s="5">
         <f t="shared" si="125"/>
         <v>23831.035088468871</v>
       </c>
-      <c r="BJ36" s="5">
+      <c r="BJ34" s="5">
         <f t="shared" si="125"/>
         <v>23116.104035814802</v>
       </c>
-      <c r="BK36" s="5">
+      <c r="BK34" s="5">
         <f t="shared" si="125"/>
         <v>22422.620914740357</v>
       </c>
-      <c r="BL36" s="5">
+      <c r="BL34" s="5">
         <f t="shared" si="125"/>
         <v>21749.942287298145</v>
       </c>
-      <c r="BM36" s="5">
+      <c r="BM34" s="5">
         <f t="shared" si="125"/>
         <v>21097.444018679202</v>
       </c>
-      <c r="BN36" s="5">
+      <c r="BN34" s="5">
         <f t="shared" si="125"/>
         <v>20464.520698118824</v>
       </c>
-      <c r="BO36" s="5">
+      <c r="BO34" s="5">
         <f t="shared" si="125"/>
         <v>19850.585077175259</v>
       </c>
-      <c r="BP36" s="5">
+      <c r="BP34" s="5">
         <f t="shared" si="125"/>
         <v>19255.067524860002</v>
       </c>
-      <c r="BQ36" s="5">
+      <c r="BQ34" s="5">
         <f t="shared" si="125"/>
         <v>18677.415499114202</v>
       </c>
-      <c r="BR36" s="5">
+      <c r="BR34" s="5">
         <f t="shared" si="125"/>
         <v>18117.093034140777</v>
       </c>
-      <c r="BS36" s="5">
+      <c r="BS34" s="5">
         <f t="shared" si="125"/>
         <v>17573.580243116554</v>
       </c>
-      <c r="BT36" s="5">
+      <c r="BT34" s="5">
         <f t="shared" si="125"/>
         <v>17046.372835823058</v>
       </c>
-      <c r="BU36" s="5">
+      <c r="BU34" s="5">
         <f t="shared" si="125"/>
         <v>16534.981650748367</v>
       </c>
-      <c r="BV36" s="5">
+      <c r="BV34" s="5">
         <f t="shared" si="125"/>
         <v>16038.932201225914</v>
       </c>
-      <c r="BW36" s="5">
+      <c r="BW34" s="5">
         <f t="shared" si="125"/>
         <v>15557.764235189137</v>
       </c>
-      <c r="BX36" s="5">
+      <c r="BX34" s="5">
         <f t="shared" si="125"/>
         <v>15091.031308133463</v>
       </c>
-      <c r="BY36" s="5">
+      <c r="BY34" s="5">
         <f t="shared" si="125"/>
         <v>14638.300368889459</v>
       </c>
-      <c r="BZ36" s="5">
+      <c r="BZ34" s="5">
         <f t="shared" si="125"/>
         <v>14199.151357822775</v>
       </c>
-      <c r="CA36" s="5">
+      <c r="CA34" s="5">
         <f t="shared" si="125"/>
         <v>13773.176817088091</v>
       </c>
-      <c r="CB36" s="5">
+      <c r="CB34" s="5">
         <f t="shared" si="125"/>
         <v>13359.981512575449</v>
       </c>
-      <c r="CC36" s="5">
+      <c r="CC34" s="5">
         <f t="shared" si="125"/>
         <v>12959.182067198184</v>
       </c>
-      <c r="CD36" s="5">
+      <c r="CD34" s="5">
         <f t="shared" si="125"/>
         <v>12570.406605182237</v>
       </c>
-      <c r="CE36" s="5">
+      <c r="CE34" s="5">
         <f t="shared" si="125"/>
         <v>12193.294407026769</v>
       </c>
-      <c r="CF36" s="5">
+      <c r="CF34" s="5">
         <f t="shared" si="125"/>
         <v>11827.495574815966</v>
       </c>
-      <c r="CG36" s="5">
+      <c r="CG34" s="5">
         <f t="shared" si="125"/>
         <v>11472.670707571488</v>
       </c>
-      <c r="CH36" s="5">
+      <c r="CH34" s="5">
         <f t="shared" si="125"/>
         <v>11128.490586344342</v>
       </c>
-      <c r="CI36" s="5">
+      <c r="CI34" s="5">
         <f t="shared" si="125"/>
         <v>10794.635868754011</v>
       </c>
-      <c r="CJ36" s="5">
+      <c r="CJ34" s="5">
         <f t="shared" si="125"/>
         <v>10470.79679269139</v>
       </c>
-      <c r="CK36" s="5">
+      <c r="CK34" s="5">
         <f t="shared" si="125"/>
         <v>10156.672888910647</v>
       </c>
-      <c r="CL36" s="5">
+      <c r="CL34" s="5">
         <f t="shared" si="125"/>
         <v>9851.9727022433271</v>
       </c>
-      <c r="CM36" s="5">
+      <c r="CM34" s="5">
         <f t="shared" si="125"/>
         <v>9556.4135211760276</v>
       </c>
-      <c r="CN36" s="5">
+      <c r="CN34" s="5">
         <f t="shared" si="125"/>
         <v>9269.7211155407458</v>
       </c>
-      <c r="CO36" s="5">
+      <c r="CO34" s="5">
         <f t="shared" si="125"/>
         <v>8991.6294820745225</v>
       </c>
-      <c r="CP36" s="5">
+      <c r="CP34" s="5">
         <f t="shared" si="125"/>
         <v>8721.8805976122858</v>
       </c>
-      <c r="CQ36" s="5">
+      <c r="CQ34" s="5">
         <f t="shared" si="125"/>
         <v>8460.2241796839171</v>
       </c>
-      <c r="CR36" s="5">
+      <c r="CR34" s="5">
         <f t="shared" si="125"/>
         <v>8206.4174542933997</v>
       </c>
-      <c r="CS36" s="5">
+      <c r="CS34" s="5">
         <f t="shared" si="125"/>
         <v>7960.2249306645972</v>
       </c>
-      <c r="CT36" s="5">
+      <c r="CT34" s="5">
         <f t="shared" si="125"/>
         <v>7721.4181827446591</v>
       </c>
-      <c r="CU36" s="5">
+      <c r="CU34" s="5">
         <f t="shared" si="125"/>
         <v>7489.7756372623189</v>
       </c>
-      <c r="CV36" s="5">
+      <c r="CV34" s="5">
         <f t="shared" si="125"/>
         <v>7265.082368144449</v>
       </c>
-      <c r="CW36" s="5">
+      <c r="CW34" s="5">
         <f t="shared" si="125"/>
         <v>7047.1298971001152</v>
       </c>
-      <c r="CX36" s="5">
+      <c r="CX34" s="5">
         <f t="shared" si="125"/>
         <v>6835.7160001871116</v>
       </c>
-      <c r="CY36" s="5">
+      <c r="CY34" s="5">
         <f t="shared" si="125"/>
         <v>6630.6445201814977</v>
       </c>
-      <c r="CZ36" s="5">
+      <c r="CZ34" s="5">
         <f t="shared" si="125"/>
         <v>6431.7251845760529</v>
       </c>
-      <c r="DA36" s="5">
+      <c r="DA34" s="5">
         <f t="shared" si="125"/>
         <v>6238.7734290387716</v>
       </c>
-      <c r="DB36" s="5">
+      <c r="DB34" s="5">
         <f t="shared" si="125"/>
         <v>6051.6102261676087</v>
       </c>
-      <c r="DC36" s="5">
+      <c r="DC34" s="5">
         <f t="shared" si="125"/>
         <v>5870.0619193825805</v>
       </c>
-      <c r="DD36" s="5">
+      <c r="DD34" s="5">
         <f t="shared" si="125"/>
         <v>5693.9600618011027</v>
       </c>
-      <c r="DE36" s="5">
+      <c r="DE34" s="5">
         <f t="shared" si="125"/>
         <v>5523.1412599470696</v>
       </c>
-      <c r="DF36" s="5">
+      <c r="DF34" s="5">
         <f t="shared" si="125"/>
         <v>5357.4470221486572</v>
       </c>
-      <c r="DG36" s="5">
+      <c r="DG34" s="5">
         <f t="shared" si="125"/>
         <v>5196.7236114841971</v>
       </c>
-      <c r="DH36" s="5">
-        <f t="shared" ref="DH36:ES36" si="126">DG36*(1+$AW$39)</f>
+      <c r="DH34" s="5">
+        <f t="shared" ref="DH34:ES34" si="126">DG34*(1+$AW$37)</f>
         <v>5040.8219031396711</v>
       </c>
-      <c r="DI36" s="5">
+      <c r="DI34" s="5">
         <f t="shared" si="126"/>
         <v>4889.5972460454805</v>
       </c>
-      <c r="DJ36" s="5">
+      <c r="DJ34" s="5">
         <f t="shared" si="126"/>
         <v>4742.9093286641155</v>
       </c>
-      <c r="DK36" s="5">
+      <c r="DK34" s="5">
         <f t="shared" si="126"/>
         <v>4600.6220488041918</v>
       </c>
-      <c r="DL36" s="5">
+      <c r="DL34" s="5">
         <f t="shared" si="126"/>
         <v>4462.6033873400656</v>
       </c>
-      <c r="DM36" s="5">
+      <c r="DM34" s="5">
         <f t="shared" si="126"/>
         <v>4328.7252857198637</v>
       </c>
-      <c r="DN36" s="5">
+      <c r="DN34" s="5">
         <f t="shared" si="126"/>
         <v>4198.8635271482681</v>
       </c>
-      <c r="DO36" s="5">
+      <c r="DO34" s="5">
         <f t="shared" si="126"/>
         <v>4072.8976213338201</v>
       </c>
-      <c r="DP36" s="5">
+      <c r="DP34" s="5">
         <f t="shared" si="126"/>
         <v>3950.7106926938054</v>
       </c>
-      <c r="DQ36" s="5">
+      <c r="DQ34" s="5">
         <f t="shared" si="126"/>
         <v>3832.1893719129912</v>
       </c>
-      <c r="DR36" s="5">
+      <c r="DR34" s="5">
         <f t="shared" si="126"/>
         <v>3717.2236907556012</v>
       </c>
-      <c r="DS36" s="5">
+      <c r="DS34" s="5">
         <f t="shared" si="126"/>
         <v>3605.7069800329332</v>
       </c>
-      <c r="DT36" s="5">
+      <c r="DT34" s="5">
         <f t="shared" si="126"/>
         <v>3497.5357706319451</v>
       </c>
-      <c r="DU36" s="5">
+      <c r="DU34" s="5">
         <f t="shared" si="126"/>
         <v>3392.6096975129867</v>
       </c>
-      <c r="DV36" s="5">
+      <c r="DV34" s="5">
         <f t="shared" si="126"/>
         <v>3290.831406587597</v>
       </c>
-      <c r="DW36" s="5">
+      <c r="DW34" s="5">
         <f t="shared" si="126"/>
         <v>3192.106464389969</v>
       </c>
-      <c r="DX36" s="5">
+      <c r="DX34" s="5">
         <f t="shared" si="126"/>
         <v>3096.3432704582697</v>
       </c>
-      <c r="DY36" s="5">
+      <c r="DY34" s="5">
         <f t="shared" si="126"/>
         <v>3003.4529723445216</v>
       </c>
-      <c r="DZ36" s="5">
+      <c r="DZ34" s="5">
         <f t="shared" si="126"/>
         <v>2913.3493831741857</v>
       </c>
-      <c r="EA36" s="5">
+      <c r="EA34" s="5">
         <f t="shared" si="126"/>
         <v>2825.9489016789603</v>
       </c>
-      <c r="EB36" s="5">
+      <c r="EB34" s="5">
         <f t="shared" si="126"/>
         <v>2741.1704346285915</v>
       </c>
-      <c r="EC36" s="5">
+      <c r="EC34" s="5">
         <f t="shared" si="126"/>
         <v>2658.9353215897336</v>
       </c>
-      <c r="ED36" s="5">
+      <c r="ED34" s="5">
         <f t="shared" si="126"/>
         <v>2579.1672619420415</v>
       </c>
-      <c r="EE36" s="5">
+      <c r="EE34" s="5">
         <f t="shared" si="126"/>
         <v>2501.7922440837801</v>
       </c>
-      <c r="EF36" s="5">
+      <c r="EF34" s="5">
         <f t="shared" si="126"/>
         <v>2426.7384767612666</v>
       </c>
-      <c r="EG36" s="5">
+      <c r="EG34" s="5">
         <f t="shared" si="126"/>
         <v>2353.9363224584285</v>
       </c>
-      <c r="EH36" s="5">
+      <c r="EH34" s="5">
         <f t="shared" si="126"/>
         <v>2283.3182327846757</v>
       </c>
-      <c r="EI36" s="5">
+      <c r="EI34" s="5">
         <f t="shared" si="126"/>
         <v>2214.8186858011354</v>
       </c>
-      <c r="EJ36" s="5">
+      <c r="EJ34" s="5">
         <f t="shared" si="126"/>
         <v>2148.3741252271011</v>
       </c>
-      <c r="EK36" s="5">
+      <c r="EK34" s="5">
         <f t="shared" si="126"/>
         <v>2083.9229014702878</v>
       </c>
-      <c r="EL36" s="5">
+      <c r="EL34" s="5">
         <f t="shared" si="126"/>
         <v>2021.4052144261791</v>
       </c>
-      <c r="EM36" s="5">
+      <c r="EM34" s="5">
         <f t="shared" si="126"/>
         <v>1960.7630579933937</v>
       </c>
-      <c r="EN36" s="5">
+      <c r="EN34" s="5">
         <f t="shared" si="126"/>
         <v>1901.9401662535918</v>
       </c>
-      <c r="EO36" s="5">
+      <c r="EO34" s="5">
         <f t="shared" si="126"/>
         <v>1844.881961265984</v>
       </c>
-      <c r="EP36" s="5">
+      <c r="EP34" s="5">
         <f t="shared" si="126"/>
         <v>1789.5355024280045</v>
       </c>
-      <c r="EQ36" s="5">
+      <c r="EQ34" s="5">
         <f t="shared" si="126"/>
         <v>1735.8494373551644</v>
       </c>
-      <c r="ER36" s="5">
+      <c r="ER34" s="5">
         <f t="shared" si="126"/>
         <v>1683.7739542345093</v>
       </c>
-      <c r="ES36" s="5">
+      <c r="ES34" s="5">
         <f t="shared" si="126"/>
         <v>1633.2607356074741</v>
       </c>
     </row>
-    <row r="37" spans="2:149" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="9" t="s">
+    <row r="35" spans="2:149" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="31">
-        <f t="shared" ref="C37:D37" si="127">C36/C38</f>
+      <c r="C35" s="31">
+        <f t="shared" ref="C35:D35" si="127">C34/C36</f>
         <v>0.62885238038134073</v>
       </c>
-      <c r="D37" s="31">
+      <c r="D35" s="31">
         <f t="shared" si="127"/>
         <v>0.78765313475858756</v>
       </c>
-      <c r="E37" s="31">
-        <f t="shared" ref="E37:M37" si="128">E36/E38</f>
+      <c r="E35" s="31">
+        <f t="shared" ref="E35:M35" si="128">E34/E36</f>
         <v>0.6764670730249791</v>
       </c>
-      <c r="F37" s="31">
+      <c r="F35" s="31">
         <f t="shared" si="128"/>
         <v>0.56788496105452368</v>
       </c>
-      <c r="G37" s="31">
+      <c r="G35" s="31">
         <f t="shared" si="128"/>
         <v>0.68015806490240693</v>
       </c>
-      <c r="H37" s="31">
+      <c r="H35" s="31">
         <f t="shared" si="128"/>
         <v>0.73592864890924425</v>
       </c>
-      <c r="I37" s="31">
+      <c r="I35" s="31">
         <f t="shared" si="128"/>
         <v>0.62826271700861969</v>
       </c>
-      <c r="J37" s="31">
+      <c r="J35" s="31">
         <f t="shared" si="128"/>
         <v>0.65041558119340037</v>
       </c>
-      <c r="K37" s="31">
+      <c r="K35" s="31">
         <f t="shared" si="128"/>
         <v>0.57277460947185721</v>
       </c>
-      <c r="L37" s="31">
+      <c r="L35" s="31">
         <f t="shared" si="128"/>
         <v>0.62257100149476829</v>
       </c>
-      <c r="M37" s="31">
+      <c r="M35" s="31">
         <f t="shared" si="128"/>
         <v>0.66386975579211016</v>
       </c>
-      <c r="N37" s="31">
-        <f t="shared" ref="N37" si="129">N36/N38</f>
+      <c r="N35" s="31">
+        <f t="shared" ref="N35" si="129">N34/N36</f>
         <v>0.53965825044631477</v>
       </c>
-      <c r="O37" s="31">
-        <f t="shared" ref="O37" si="130">O36/O38</f>
+      <c r="O35" s="31">
+        <f t="shared" ref="O35" si="130">O34/O36</f>
         <v>0.60581200420811021</v>
       </c>
-      <c r="P37" s="31">
-        <f t="shared" ref="P37" si="131">P36/P38</f>
+      <c r="P35" s="31">
+        <f t="shared" ref="P35" si="131">P34/P36</f>
         <v>0.7778143060443764</v>
       </c>
-      <c r="Q37" s="31">
-        <f t="shared" ref="Q37" si="132">Q36/Q38</f>
+      <c r="Q35" s="31">
+        <f t="shared" ref="Q35" si="132">Q34/Q36</f>
         <v>0.70422680795715353</v>
       </c>
-      <c r="R37" s="31">
-        <f t="shared" ref="R37" si="133">R36/R38</f>
+      <c r="R35" s="31">
+        <f t="shared" ref="R35" si="133">R34/R36</f>
         <v>0.51424858990053568</v>
       </c>
-      <c r="V37" s="31">
-        <f t="shared" ref="V37" si="134">V36/V38</f>
+      <c r="V35" s="31">
+        <f t="shared" ref="V35" si="134">V34/V36</f>
         <v>1.1963726141866868</v>
       </c>
-      <c r="W37" s="31">
-        <f t="shared" ref="W37:X37" si="135">W36/W38</f>
+      <c r="W35" s="31">
+        <f t="shared" ref="W35:X35" si="135">W34/W36</f>
         <v>1.4227189965607931</v>
       </c>
-      <c r="X37" s="31">
+      <c r="X35" s="31">
         <f t="shared" si="135"/>
         <v>1.867053854276663</v>
       </c>
-      <c r="Y37" s="31">
-        <f t="shared" ref="Y37:Z37" si="136">Y36/Y38</f>
+      <c r="Y35" s="31">
+        <f t="shared" ref="Y35:Z35" si="136">Y34/Y36</f>
         <v>1.6194975544686527</v>
       </c>
-      <c r="Z37" s="31">
+      <c r="Z35" s="31">
         <f t="shared" si="136"/>
         <v>2.1014898622157498</v>
       </c>
-      <c r="AA37" s="31">
-        <f t="shared" ref="AA37:AB37" si="137">AA36/AA38</f>
+      <c r="AA35" s="31">
+        <f t="shared" ref="AA35:AB35" si="137">AA34/AA36</f>
         <v>2.6940532991970207</v>
       </c>
-      <c r="AB37" s="31">
+      <c r="AB35" s="31">
         <f t="shared" si="137"/>
         <v>2.724077122031507</v>
       </c>
-      <c r="AC37" s="31">
-        <f t="shared" ref="AC37:AD37" si="138">AC36/AC38</f>
+      <c r="AC35" s="31">
+        <f t="shared" ref="AC35:AD35" si="138">AC34/AC36</f>
         <v>2.581227863046045</v>
       </c>
-      <c r="AD37" s="31">
+      <c r="AD35" s="31">
         <f t="shared" si="138"/>
         <v>2.6432908679604714</v>
       </c>
-      <c r="AE37" s="31">
-        <f t="shared" ref="AE37:AF37" si="139">AE36/AE38</f>
+      <c r="AE35" s="31">
+        <f t="shared" ref="AE35:AF35" si="139">AE34/AE36</f>
         <v>2.6900896535013326</v>
       </c>
-      <c r="AF37" s="31">
+      <c r="AF35" s="31">
         <f t="shared" si="139"/>
         <v>2.3997995050280378</v>
       </c>
-      <c r="AG37" s="31">
-        <f t="shared" ref="AG37:AH37" si="140">AG36/AG38</f>
+      <c r="AG35" s="31">
+        <f t="shared" ref="AG35:AH35" si="140">AG34/AG36</f>
         <v>2.6021017081101743</v>
       </c>
-      <c r="AH37" s="31">
+      <c r="AH35" s="31">
         <f t="shared" si="140"/>
         <v>2.5892763986712573</v>
       </c>
-      <c r="AI37" s="31">
-        <f t="shared" ref="AI37" si="141">AI36/AI38</f>
+      <c r="AI35" s="31">
+        <f t="shared" ref="AI35" si="141">AI34/AI36</f>
         <v>2.7399777536615049</v>
       </c>
-      <c r="AJ37" s="31">
-        <f t="shared" ref="AJ37" si="142">AJ36/AJ38</f>
+      <c r="AJ35" s="31">
+        <f t="shared" ref="AJ35" si="142">AJ34/AJ36</f>
         <v>2.8961361687150191</v>
       </c>
-      <c r="AK37" s="31">
-        <f t="shared" ref="AK37" si="143">AK36/AK38</f>
+      <c r="AK35" s="31">
+        <f t="shared" ref="AK35" si="143">AK34/AK36</f>
         <v>3.0579255389829649</v>
       </c>
-      <c r="AL37" s="31">
-        <f t="shared" ref="AL37" si="144">AL36/AL38</f>
+      <c r="AL35" s="31">
+        <f t="shared" ref="AL35" si="144">AL34/AL36</f>
         <v>3.2255250815971594</v>
       </c>
-      <c r="AM37" s="31">
-        <f t="shared" ref="AM37" si="145">AM36/AM38</f>
+      <c r="AM35" s="31">
+        <f t="shared" ref="AM35" si="145">AM34/AM36</f>
         <v>3.3991194963939151</v>
       </c>
-      <c r="AN37" s="31">
-        <f t="shared" ref="AN37" si="146">AN36/AN38</f>
+      <c r="AN35" s="31">
+        <f t="shared" ref="AN35" si="146">AN34/AN36</f>
         <v>3.5788991314703096</v>
       </c>
-      <c r="AO37" s="31">
-        <f t="shared" ref="AO37" si="147">AO36/AO38</f>
+      <c r="AO35" s="31">
+        <f t="shared" ref="AO35" si="147">AO34/AO36</f>
         <v>3.7650601537179393</v>
       </c>
-      <c r="AP37" s="31">
-        <f t="shared" ref="AP37" si="148">AP36/AP38</f>
+      <c r="AP35" s="31">
+        <f t="shared" ref="AP35" si="148">AP34/AP36</f>
         <v>3.957804724483597</v>
       </c>
-      <c r="AQ37" s="31">
-        <f t="shared" ref="AQ37" si="149">AQ36/AQ38</f>
+      <c r="AQ35" s="31">
+        <f t="shared" ref="AQ35" si="149">AQ34/AQ36</f>
         <v>4.1573411805108016</v>
       </c>
-      <c r="AR37" s="31">
-        <f t="shared" ref="AR37" si="150">AR36/AR38</f>
+      <c r="AR35" s="31">
+        <f t="shared" ref="AR35" si="150">AR34/AR36</f>
         <v>4.3638842203206938</v>
       </c>
-      <c r="AS37" s="31">
-        <f t="shared" ref="AS37" si="151">AS36/AS38</f>
+      <c r="AS35" s="31">
+        <f t="shared" ref="AS35" si="151">AS34/AS36</f>
         <v>4.5776550961956071</v>
       </c>
-      <c r="AT37" s="31">
-        <f t="shared" ref="AT37" si="152">AT36/AT38</f>
+      <c r="AT35" s="31">
+        <f t="shared" ref="AT35" si="152">AT34/AT36</f>
         <v>4.7988818119335059</v>
       </c>
     </row>
-    <row r="38" spans="2:149" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="9" t="s">
+    <row r="36" spans="2:149" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C36" s="10">
         <v>8339</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D36" s="10">
         <v>8326</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E36" s="10">
         <v>8367</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F36" s="10">
         <v>8345</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G36" s="10">
         <v>8351</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H36" s="10">
         <v>8297</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I36" s="10">
         <v>8237</v>
       </c>
-      <c r="J38" s="10">
+      <c r="J36" s="10">
         <v>8061</v>
       </c>
-      <c r="K38" s="10">
+      <c r="K36" s="10">
         <v>8066</v>
       </c>
-      <c r="L38" s="10">
+      <c r="L36" s="10">
         <v>8028</v>
       </c>
-      <c r="M38" s="10">
+      <c r="M36" s="10">
         <v>7985</v>
       </c>
-      <c r="N38" s="10">
+      <c r="N36" s="10">
         <v>7842</v>
       </c>
-      <c r="O38" s="10">
-        <f t="shared" ref="O38:R38" si="153">+N38</f>
+      <c r="O36" s="10">
+        <f t="shared" ref="O36:R36" si="153">+N36</f>
         <v>7842</v>
       </c>
-      <c r="P38" s="10">
+      <c r="P36" s="10">
         <f t="shared" si="153"/>
         <v>7842</v>
       </c>
-      <c r="Q38" s="10">
+      <c r="Q36" s="10">
         <f t="shared" si="153"/>
         <v>7842</v>
       </c>
-      <c r="R38" s="10">
+      <c r="R36" s="10">
         <f t="shared" si="153"/>
         <v>7842</v>
       </c>
-      <c r="V38" s="9">
+      <c r="V36" s="9">
         <v>10531</v>
       </c>
-      <c r="W38" s="9">
+      <c r="W36" s="9">
         <v>9886</v>
       </c>
-      <c r="X38" s="9">
+      <c r="X36" s="9">
         <v>9470</v>
       </c>
-      <c r="Y38" s="9">
+      <c r="Y36" s="9">
         <v>8996</v>
       </c>
-      <c r="Z38" s="9">
+      <c r="Z36" s="9">
         <v>8927</v>
       </c>
-      <c r="AA38" s="9">
+      <c r="AA36" s="9">
         <v>8593</v>
       </c>
-      <c r="AB38" s="9">
+      <c r="AB36" s="9">
         <v>8506</v>
       </c>
-      <c r="AC38" s="9">
+      <c r="AC36" s="9">
         <v>8470</v>
       </c>
-      <c r="AD38" s="9">
+      <c r="AD36" s="9">
         <v>8399</v>
       </c>
-      <c r="AE38" s="9">
+      <c r="AE36" s="9">
         <v>8254</v>
       </c>
-      <c r="AF38" s="9">
-        <f>AVERAGE(K38:N38)</f>
+      <c r="AF36" s="9">
+        <f>AVERAGE(K36:N36)</f>
         <v>7980.25</v>
       </c>
-      <c r="AG38" s="9">
-        <f>AVERAGE(O38:R38)</f>
+      <c r="AG36" s="9">
+        <f>AVERAGE(O36:R36)</f>
         <v>7842</v>
       </c>
-      <c r="AH38" s="9">
-        <f>+AG38</f>
+      <c r="AH36" s="9">
+        <f>+AG36</f>
         <v>7842</v>
       </c>
-      <c r="AI38" s="9">
-        <f t="shared" ref="AI38:AT38" si="154">+AH38</f>
+      <c r="AI36" s="9">
+        <f t="shared" ref="AI36:AT36" si="154">+AH36</f>
         <v>7842</v>
       </c>
-      <c r="AJ38" s="9">
+      <c r="AJ36" s="9">
         <f t="shared" si="154"/>
         <v>7842</v>
       </c>
-      <c r="AK38" s="9">
+      <c r="AK36" s="9">
         <f t="shared" si="154"/>
         <v>7842</v>
       </c>
-      <c r="AL38" s="9">
+      <c r="AL36" s="9">
         <f t="shared" si="154"/>
         <v>7842</v>
       </c>
-      <c r="AM38" s="9">
+      <c r="AM36" s="9">
         <f t="shared" si="154"/>
         <v>7842</v>
       </c>
-      <c r="AN38" s="9">
+      <c r="AN36" s="9">
         <f t="shared" si="154"/>
         <v>7842</v>
       </c>
-      <c r="AO38" s="9">
+      <c r="AO36" s="9">
         <f t="shared" si="154"/>
         <v>7842</v>
       </c>
-      <c r="AP38" s="9">
+      <c r="AP36" s="9">
         <f t="shared" si="154"/>
         <v>7842</v>
       </c>
-      <c r="AQ38" s="9">
+      <c r="AQ36" s="9">
         <f t="shared" si="154"/>
         <v>7842</v>
       </c>
-      <c r="AR38" s="9">
+      <c r="AR36" s="9">
         <f t="shared" si="154"/>
         <v>7842</v>
       </c>
-      <c r="AS38" s="9">
+      <c r="AS36" s="9">
         <f t="shared" si="154"/>
         <v>7842</v>
       </c>
-      <c r="AT38" s="9">
+      <c r="AT36" s="9">
         <f t="shared" si="154"/>
         <v>7842</v>
       </c>
     </row>
-    <row r="39" spans="2:149" x14ac:dyDescent="0.15">
-      <c r="AV39" s="26" t="s">
+    <row r="37" spans="2:149" x14ac:dyDescent="0.2">
+      <c r="AV37" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="AW39" s="32">
+      <c r="AW37" s="32">
         <v>-0.03</v>
       </c>
-      <c r="AY39" s="26" t="s">
+      <c r="AY37" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="AZ39" s="9">
+      <c r="AZ37" s="9">
         <f>Main!K7</f>
         <v>373324.26</v>
       </c>
     </row>
-    <row r="40" spans="2:149" x14ac:dyDescent="0.15">
-      <c r="AV40" s="9" t="s">
+    <row r="38" spans="2:149" x14ac:dyDescent="0.2">
+      <c r="AV38" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AW40" s="32">
+      <c r="AW38" s="32">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AY40" s="26" t="s">
+      <c r="AY38" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="AZ40" s="9">
-        <f>AE36</f>
+      <c r="AZ38" s="9">
+        <f>AE34</f>
         <v>22204</v>
       </c>
     </row>
-    <row r="41" spans="2:149" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="5" t="s">
+    <row r="39" spans="2:149" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="11">
-        <f>H25/D25-1</f>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="11">
+        <f>H23/D23-1</f>
         <v>7.9570944981443015E-2</v>
       </c>
-      <c r="I41" s="11">
-        <f>I25/E25-1</f>
+      <c r="I39" s="11">
+        <f>I23/E23-1</f>
         <v>6.4990442581973173E-2</v>
       </c>
-      <c r="J41" s="11">
-        <f>J25/F25-1</f>
+      <c r="J39" s="11">
+        <f>J23/F23-1</f>
         <v>-5.1407065263878171E-2</v>
       </c>
-      <c r="K41" s="11">
-        <f>K25/G25-1</f>
+      <c r="K39" s="11">
+        <f>K23/G23-1</f>
         <v>-0.12163268824619633</v>
       </c>
-      <c r="L41" s="11">
-        <f>L25/H25-1</f>
+      <c r="L39" s="11">
+        <f>L23/H23-1</f>
         <v>-0.10102002266717036</v>
       </c>
-      <c r="M41" s="11">
-        <f t="shared" ref="M41:R41" si="155">M25/I25-1</f>
+      <c r="M39" s="11">
+        <f t="shared" ref="M39:R39" si="155">M23/I23-1</f>
         <v>1.5969441759860148E-2</v>
       </c>
-      <c r="N41" s="11">
+      <c r="N39" s="11">
         <f t="shared" si="155"/>
         <v>-7.06041478809738E-2</v>
       </c>
-      <c r="O41" s="11">
+      <c r="O39" s="11">
         <f t="shared" si="155"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="P41" s="11">
+      <c r="P39" s="11">
         <f t="shared" si="155"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="Q41" s="11">
+      <c r="Q39" s="11">
         <f t="shared" si="155"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="R41" s="11">
+      <c r="R39" s="11">
         <f t="shared" si="155"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="U41" s="22">
-        <f t="shared" ref="U41:AF41" si="156">U25/T25-1</f>
+      <c r="U39" s="22">
+        <f t="shared" ref="U39:AF39" si="156">U23/T23-1</f>
         <v>8.0168318175648068E-2</v>
       </c>
-      <c r="V41" s="22">
+      <c r="V39" s="22">
         <f t="shared" si="156"/>
         <v>0.11294862772695291</v>
       </c>
-      <c r="W41" s="22">
+      <c r="W39" s="22">
         <f t="shared" si="156"/>
         <v>0.15446456799602548</v>
       </c>
-      <c r="X41" s="22">
+      <c r="X39" s="22">
         <f t="shared" si="156"/>
         <v>0.18187864324556946</v>
       </c>
-      <c r="Y41" s="22">
+      <c r="Y39" s="22">
         <f t="shared" si="156"/>
         <v>-3.2820258192651441E-2</v>
       </c>
-      <c r="Z41" s="22">
+      <c r="Z39" s="22">
         <f t="shared" si="156"/>
         <v>6.9254068484008391E-2</v>
       </c>
-      <c r="AA41" s="22">
+      <c r="AA39" s="22">
         <f t="shared" si="156"/>
         <v>0.11937455988733126</v>
       </c>
-      <c r="AB41" s="22">
+      <c r="AB39" s="22">
         <f t="shared" si="156"/>
         <v>5.4044007263057026E-2</v>
       </c>
-      <c r="AC41" s="22">
+      <c r="AC39" s="22">
         <f t="shared" si="156"/>
         <v>5.5966252051598442E-2</v>
       </c>
-      <c r="AD41" s="22">
+      <c r="AD39" s="22">
         <f t="shared" si="156"/>
         <v>0.11540289534868786</v>
       </c>
-      <c r="AE41" s="22">
+      <c r="AE39" s="22">
         <f t="shared" si="156"/>
         <v>7.7700874091647165E-2</v>
       </c>
-      <c r="AF41" s="22">
+      <c r="AF39" s="22">
         <f t="shared" si="156"/>
         <v>-7.1756785637956844E-2</v>
       </c>
-      <c r="AG41" s="22">
-        <f>AG25/AF25-1</f>
+      <c r="AG39" s="22">
+        <f>AG23/AF23-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AH41" s="22">
-        <f t="shared" ref="AH41:AT41" si="157">AH25/AG25-1</f>
+      <c r="AH39" s="22">
+        <f t="shared" ref="AH39:AT39" si="157">AH23/AG23-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="AI41" s="22">
+      <c r="AI39" s="22">
         <f t="shared" si="157"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="AJ41" s="22">
+      <c r="AJ39" s="22">
         <f t="shared" si="157"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="AK41" s="22">
+      <c r="AK39" s="22">
         <f t="shared" si="157"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="AL41" s="22">
+      <c r="AL39" s="22">
         <f t="shared" si="157"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="AM41" s="22">
+      <c r="AM39" s="22">
         <f t="shared" si="157"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="AN41" s="22">
+      <c r="AN39" s="22">
         <f t="shared" si="157"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="AO41" s="22">
+      <c r="AO39" s="22">
         <f t="shared" si="157"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="AP41" s="22">
+      <c r="AP39" s="22">
         <f t="shared" si="157"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="AQ41" s="22">
+      <c r="AQ39" s="22">
         <f t="shared" si="157"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="AR41" s="22">
+      <c r="AR39" s="22">
         <f t="shared" si="157"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="AS41" s="22">
+      <c r="AS39" s="22">
         <f t="shared" si="157"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="AT41" s="22">
+      <c r="AT39" s="22">
         <f t="shared" si="157"/>
         <v>3.0000000000000027E-2</v>
       </c>
+      <c r="AV39" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW39" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="AY39" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="AZ39" s="34">
+        <f>AZ37/AZ38</f>
+        <v>16.813378670509817</v>
+      </c>
+    </row>
+    <row r="40" spans="2:149" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="N40" s="8"/>
+      <c r="AV40" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW40" s="5">
+        <f>NPV(AW39,AH34:ES34)+AG34</f>
+        <v>520113.28183199966</v>
+      </c>
+      <c r="AY40" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="AZ40" s="33">
+        <f>AZ38/AZ37</f>
+        <v>5.9476445490041281E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:149" x14ac:dyDescent="0.2">
       <c r="AV41" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="AW41" s="32">
-        <v>0.05</v>
-      </c>
-      <c r="AY41" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="AZ41" s="34">
-        <f>AZ39/AZ40</f>
-        <v>16.813378670509817</v>
-      </c>
-    </row>
-    <row r="42" spans="2:149" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11">
-        <v>0.03</v>
-      </c>
-      <c r="M42" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="N42" s="8"/>
-      <c r="AV42" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="AW42" s="5">
-        <f>NPV(AW41,AH36:ES36)+AG36</f>
-        <v>520113.28183199966</v>
-      </c>
-      <c r="AY42" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="AZ42" s="33">
-        <f>AZ40/AZ39</f>
-        <v>5.9476445490041281E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="2:149" x14ac:dyDescent="0.15">
-      <c r="AV43" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AW43" s="9">
+      <c r="AW41" s="9">
         <f>Main!K5-Main!K6</f>
         <v>69984</v>
       </c>
     </row>
-    <row r="44" spans="2:149" x14ac:dyDescent="0.15">
-      <c r="B44" s="26" t="s">
+    <row r="42" spans="2:149" x14ac:dyDescent="0.2">
+      <c r="B42" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="24">
-        <f t="shared" ref="D44" si="158">D27/D25</f>
+      <c r="D42" s="24">
+        <f t="shared" ref="D42" si="158">D25/D23</f>
         <v>0.66213956523512374</v>
       </c>
-      <c r="E44" s="24">
-        <f t="shared" ref="E44:L44" si="159">E27/E25</f>
+      <c r="E42" s="24">
+        <f t="shared" ref="E42:L42" si="159">E25/E23</f>
         <v>0.70700387197961079</v>
       </c>
-      <c r="F44" s="24">
+      <c r="F42" s="24">
         <f t="shared" si="159"/>
         <v>0.67355230519202802</v>
       </c>
-      <c r="G44" s="24">
+      <c r="G42" s="24">
         <f t="shared" si="159"/>
         <v>0.64342054221800782</v>
       </c>
-      <c r="H44" s="24">
+      <c r="H42" s="24">
         <f t="shared" si="159"/>
         <v>0.61707593502077829</v>
       </c>
-      <c r="I44" s="24">
+      <c r="I42" s="24">
         <f t="shared" si="159"/>
         <v>0.67044042523816094</v>
       </c>
-      <c r="J44" s="24">
+      <c r="J42" s="24">
         <f t="shared" si="159"/>
         <v>0.66330027051397655</v>
       </c>
-      <c r="K44" s="24">
+      <c r="K42" s="24">
         <f t="shared" si="159"/>
         <v>0.6463516364885421</v>
       </c>
-      <c r="L44" s="24">
+      <c r="L42" s="24">
         <f t="shared" si="159"/>
         <v>0.58514035972432343</v>
       </c>
-      <c r="M44" s="24">
-        <f t="shared" ref="M44:R44" si="160">M27/M25</f>
+      <c r="M42" s="24">
+        <f t="shared" ref="M42:R42" si="160">M25/M23</f>
         <v>0.6502083710817177</v>
       </c>
-      <c r="N44" s="24">
+      <c r="N42" s="24">
         <f t="shared" si="160"/>
         <v>0.61293295818375859</v>
       </c>
-      <c r="O44" s="24">
+      <c r="O42" s="24">
         <f t="shared" si="160"/>
         <v>0.63</v>
       </c>
-      <c r="P44" s="24">
+      <c r="P42" s="24">
         <f t="shared" si="160"/>
         <v>0.63</v>
       </c>
-      <c r="Q44" s="24">
+      <c r="Q42" s="24">
         <f t="shared" si="160"/>
         <v>0.63</v>
       </c>
-      <c r="R44" s="24">
+      <c r="R42" s="24">
         <f t="shared" si="160"/>
         <v>0.63</v>
       </c>
-      <c r="V44" s="24">
-        <f t="shared" ref="V44" si="161">V27/V25</f>
+      <c r="V42" s="24">
+        <f t="shared" ref="V42" si="161">V25/V23</f>
         <v>0.82724357526760306</v>
       </c>
-      <c r="W44" s="24">
-        <f t="shared" ref="W44:X44" si="162">W27/W25</f>
+      <c r="W42" s="24">
+        <f t="shared" ref="W42:X42" si="162">W25/W23</f>
         <v>0.79083369195258402</v>
       </c>
-      <c r="X44" s="24">
+      <c r="X42" s="24">
         <f t="shared" si="162"/>
         <v>0.80804369414101296</v>
       </c>
-      <c r="Y44" s="24">
-        <f t="shared" ref="Y44:Z44" si="163">Y27/Y25</f>
+      <c r="Y42" s="24">
+        <f t="shared" ref="Y42:Z42" si="163">Y25/Y23</f>
         <v>0.79199822030562828</v>
       </c>
-      <c r="Z44" s="24">
+      <c r="Z42" s="24">
         <f t="shared" si="163"/>
         <v>0.80162921707957235</v>
       </c>
-      <c r="AA44" s="24">
-        <f t="shared" ref="AA44" si="164">AA27/AA25</f>
+      <c r="AA42" s="24">
+        <f t="shared" ref="AA42" si="164">AA25/AA23</f>
         <v>0.77729007906438097</v>
       </c>
-      <c r="AB44" s="24">
-        <f t="shared" ref="AB44" si="165">AB27/AB25</f>
+      <c r="AB42" s="24">
+        <f t="shared" ref="AB42" si="165">AB25/AB23</f>
         <v>0.76221803236439101</v>
       </c>
-      <c r="AC44" s="24">
-        <f t="shared" ref="AC44:AE44" si="166">AC27/AC25</f>
+      <c r="AC42" s="24">
+        <f t="shared" ref="AC42:AE42" si="166">AC25/AC23</f>
         <v>0.73814692545825888</v>
       </c>
-      <c r="AD44" s="24">
+      <c r="AD42" s="24">
         <f t="shared" si="166"/>
         <v>0.68816003132449644</v>
       </c>
-      <c r="AE44" s="24">
+      <c r="AE42" s="24">
         <f t="shared" si="166"/>
         <v>0.64695447745244705</v>
       </c>
-      <c r="AF44" s="24">
-        <f t="shared" ref="AF44:AT44" si="167">AF27/AF25</f>
+      <c r="AF42" s="24">
+        <f t="shared" ref="AF42:AT42" si="167">AF25/AF23</f>
         <v>0.62263282104414897</v>
       </c>
-      <c r="AG44" s="24">
+      <c r="AG42" s="24">
         <f t="shared" si="167"/>
         <v>0.62999999999999989</v>
       </c>
-      <c r="AH44" s="24">
+      <c r="AH42" s="24">
         <f t="shared" si="167"/>
         <v>0.63</v>
       </c>
-      <c r="AI44" s="24">
+      <c r="AI42" s="24">
         <f t="shared" si="167"/>
         <v>0.63</v>
       </c>
-      <c r="AJ44" s="24">
+      <c r="AJ42" s="24">
         <f t="shared" si="167"/>
         <v>0.63</v>
       </c>
-      <c r="AK44" s="24">
+      <c r="AK42" s="24">
         <f t="shared" si="167"/>
         <v>0.63</v>
       </c>
-      <c r="AL44" s="24">
+      <c r="AL42" s="24">
         <f t="shared" si="167"/>
         <v>0.63</v>
       </c>
-      <c r="AM44" s="24">
+      <c r="AM42" s="24">
         <f t="shared" si="167"/>
         <v>0.63</v>
       </c>
-      <c r="AN44" s="24">
+      <c r="AN42" s="24">
         <f t="shared" si="167"/>
         <v>0.63</v>
       </c>
-      <c r="AO44" s="24">
+      <c r="AO42" s="24">
         <f t="shared" si="167"/>
         <v>0.63</v>
       </c>
-      <c r="AP44" s="24">
+      <c r="AP42" s="24">
         <f t="shared" si="167"/>
         <v>0.63</v>
       </c>
-      <c r="AQ44" s="24">
+      <c r="AQ42" s="24">
         <f t="shared" si="167"/>
         <v>0.63</v>
       </c>
-      <c r="AR44" s="24">
+      <c r="AR42" s="24">
         <f t="shared" si="167"/>
         <v>0.63</v>
       </c>
-      <c r="AS44" s="24">
+      <c r="AS42" s="24">
         <f t="shared" si="167"/>
         <v>0.63</v>
       </c>
-      <c r="AT44" s="24">
+      <c r="AT42" s="24">
         <f t="shared" si="167"/>
         <v>0.63</v>
       </c>
-      <c r="AV44" s="7" t="s">
+      <c r="AV42" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="AW44" s="5">
-        <f>AW42+AW43</f>
+      <c r="AW42" s="5">
+        <f>AW40+AW41</f>
         <v>590097.28183199966</v>
       </c>
     </row>
-    <row r="45" spans="2:149" x14ac:dyDescent="0.15">
-      <c r="B45" s="26" t="s">
+    <row r="43" spans="2:149" x14ac:dyDescent="0.2">
+      <c r="B43" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="24">
-        <f t="shared" ref="D45" si="168">D32/D25</f>
+      <c r="D43" s="24">
+        <f t="shared" ref="D43" si="168">D30/D23</f>
         <v>0.32501325502671397</v>
       </c>
-      <c r="E45" s="24">
-        <f t="shared" ref="E45:L45" si="169">E32/E25</f>
+      <c r="E43" s="24">
+        <f t="shared" ref="E43:L43" si="169">E30/E23</f>
         <v>0.34181247855707492</v>
       </c>
-      <c r="F45" s="24">
+      <c r="F43" s="24">
         <f t="shared" si="169"/>
         <v>0.28265332306902746</v>
       </c>
-      <c r="G45" s="24">
+      <c r="G43" s="24">
         <f t="shared" si="169"/>
         <v>0.30102150769363389</v>
       </c>
-      <c r="H45" s="24">
+      <c r="H43" s="24">
         <f t="shared" si="169"/>
         <v>0.30294673214960333</v>
       </c>
-      <c r="I45" s="24">
+      <c r="I43" s="24">
         <f t="shared" si="169"/>
         <v>0.31220948962216394</v>
       </c>
-      <c r="J45" s="24">
+      <c r="J43" s="24">
         <f t="shared" si="169"/>
         <v>0.28787195671776378</v>
       </c>
-      <c r="K45" s="24">
+      <c r="K43" s="24">
         <f t="shared" si="169"/>
         <v>0.28426321213013395</v>
       </c>
-      <c r="L45" s="24">
+      <c r="L43" s="24">
         <f t="shared" si="169"/>
         <v>0.253235837955959</v>
       </c>
-      <c r="M45" s="24">
-        <f t="shared" ref="M45:R45" si="170">M32/M25</f>
+      <c r="M43" s="24">
+        <f t="shared" ref="M43:R43" si="170">M30/M23</f>
         <v>0.30929516216705927</v>
       </c>
-      <c r="N45" s="24">
+      <c r="N43" s="24">
         <f t="shared" si="170"/>
         <v>0.20325992044241778</v>
       </c>
-      <c r="O45" s="24">
+      <c r="O43" s="24">
         <f t="shared" si="170"/>
         <v>0.27149660954613053</v>
       </c>
-      <c r="P45" s="24">
+      <c r="P43" s="24">
         <f t="shared" si="170"/>
         <v>0.3013816616154808</v>
       </c>
-      <c r="Q45" s="24">
+      <c r="Q43" s="24">
         <f t="shared" si="170"/>
         <v>0.29246216939142722</v>
       </c>
-      <c r="R45" s="24">
+      <c r="R43" s="24">
         <f t="shared" si="170"/>
         <v>0.22438313094916751</v>
       </c>
-      <c r="V45" s="33">
-        <f t="shared" ref="V45" si="171">V32/V25</f>
+      <c r="V43" s="33">
+        <f t="shared" ref="V43" si="171">V30/V23</f>
         <v>0.37197958538458065</v>
       </c>
-      <c r="W45" s="33">
-        <f t="shared" ref="W45:X45" si="172">W32/W25</f>
+      <c r="W43" s="33">
+        <f t="shared" ref="W43:X43" si="172">W30/W23</f>
         <v>0.3606666405852666</v>
       </c>
-      <c r="X45" s="33">
+      <c r="X43" s="33">
         <f t="shared" si="172"/>
         <v>0.36860311155246606</v>
       </c>
-      <c r="Y45" s="33">
-        <f t="shared" ref="Y45:Z45" si="173">Y32/Y25</f>
+      <c r="Y43" s="33">
+        <f t="shared" ref="Y43:Z43" si="173">Y30/Y23</f>
         <v>0.348460735492924</v>
       </c>
-      <c r="Z45" s="33">
+      <c r="Z43" s="33">
         <f t="shared" si="173"/>
         <v>0.38566673068305485</v>
       </c>
-      <c r="AA45" s="33">
-        <f t="shared" ref="AA45" si="174">AA32/AA25</f>
+      <c r="AA43" s="33">
+        <f t="shared" ref="AA43" si="174">AA30/AA23</f>
         <v>0.38833049769097694</v>
       </c>
-      <c r="AB45" s="33">
-        <f t="shared" ref="AB45" si="175">AB32/AB25</f>
+      <c r="AB43" s="33">
+        <f t="shared" ref="AB43" si="175">AB30/AB23</f>
         <v>0.37920323372624554</v>
       </c>
-      <c r="AC45" s="33">
-        <f t="shared" ref="AC45:AE45" si="176">AC32/AC25</f>
+      <c r="AC43" s="33">
+        <f t="shared" ref="AC43:AE43" si="176">AC30/AC23</f>
         <v>0.34379375457616668</v>
       </c>
-      <c r="AD45" s="33">
+      <c r="AD43" s="33">
         <f t="shared" si="176"/>
         <v>0.32114518673776099</v>
       </c>
-      <c r="AE45" s="33">
+      <c r="AE43" s="33">
         <f t="shared" si="176"/>
         <v>0.30104723231459712</v>
       </c>
-      <c r="AF45" s="33">
-        <f>AF32/AF25</f>
+      <c r="AF43" s="33">
+        <f>AF30/AF23</f>
         <v>0.26290220457031027</v>
       </c>
-      <c r="AG45" s="33">
-        <f>AG32/AG25</f>
+      <c r="AG43" s="33">
+        <f>AG30/AG23</f>
         <v>0.27383107279817936</v>
       </c>
-      <c r="AH45" s="33">
-        <f>AH32/AH25</f>
+      <c r="AH43" s="33">
+        <f>AH30/AH23</f>
         <v>0.27732292502564831</v>
       </c>
-      <c r="AI45" s="33">
-        <f t="shared" ref="AI45:AT45" si="177">AI32/AI25</f>
+      <c r="AI43" s="33">
+        <f t="shared" ref="AI43:AT43" si="177">AI30/AI23</f>
         <v>0.28417102356883966</v>
       </c>
-      <c r="AJ45" s="33">
+      <c r="AJ43" s="33">
         <f t="shared" si="177"/>
         <v>0.29088614932478452</v>
       </c>
-      <c r="AK45" s="33">
+      <c r="AK43" s="33">
         <f t="shared" si="177"/>
         <v>0.29747088428935176</v>
       </c>
-      <c r="AL45" s="33">
+      <c r="AL43" s="33">
         <f t="shared" si="177"/>
         <v>0.30392776032256824</v>
       </c>
-      <c r="AM45" s="33">
+      <c r="AM43" s="33">
         <f t="shared" si="177"/>
         <v>0.31025926012213001</v>
       </c>
-      <c r="AN45" s="33">
+      <c r="AN43" s="33">
         <f t="shared" si="177"/>
         <v>0.31646781817801095</v>
       </c>
-      <c r="AO45" s="33">
+      <c r="AO43" s="33">
         <f t="shared" si="177"/>
         <v>0.32255582170853503</v>
       </c>
-      <c r="AP45" s="33">
+      <c r="AP43" s="33">
         <f t="shared" si="177"/>
         <v>0.3285256115782722</v>
       </c>
-      <c r="AQ45" s="33">
+      <c r="AQ43" s="33">
         <f t="shared" si="177"/>
         <v>0.33437948319811156</v>
       </c>
-      <c r="AR45" s="33">
+      <c r="AR43" s="33">
         <f t="shared" si="177"/>
         <v>0.34011968740785697</v>
       </c>
-      <c r="AS45" s="33">
+      <c r="AS43" s="33">
         <f t="shared" si="177"/>
         <v>0.34574843134168509</v>
       </c>
-      <c r="AT45" s="33">
+      <c r="AT43" s="33">
         <f t="shared" si="177"/>
         <v>0.35126787927679792</v>
       </c>
     </row>
-    <row r="46" spans="2:149" x14ac:dyDescent="0.15">
-      <c r="B46" s="26" t="s">
+    <row r="44" spans="2:149" x14ac:dyDescent="0.2">
+      <c r="B44" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="D46" s="24">
-        <f>D36/D25</f>
+      <c r="D44" s="24">
+        <f>D34/D23</f>
         <v>0.26746604673926344</v>
       </c>
-      <c r="E46" s="24">
-        <f t="shared" ref="E46:R46" si="178">E36/E25</f>
+      <c r="E44" s="24">
+        <f t="shared" ref="E44:R44" si="178">E34/E23</f>
         <v>0.2774101847767485</v>
       </c>
-      <c r="F46" s="24">
+      <c r="F44" s="24">
         <f t="shared" si="178"/>
         <v>0.2026772731160722</v>
       </c>
-      <c r="G46" s="24">
+      <c r="G44" s="24">
         <f t="shared" si="178"/>
         <v>0.24481703374854533</v>
       </c>
-      <c r="H46" s="24">
+      <c r="H44" s="24">
         <f t="shared" si="178"/>
         <v>0.23067623724971667</v>
       </c>
-      <c r="I46" s="24">
+      <c r="I44" s="24">
         <f t="shared" si="178"/>
         <v>0.23816098301808644</v>
       </c>
-      <c r="J46" s="24">
+      <c r="J44" s="24">
         <f t="shared" si="178"/>
         <v>0.23638412984670876</v>
       </c>
-      <c r="K46" s="24">
+      <c r="K44" s="24">
         <f t="shared" si="178"/>
         <v>0.22670395995878109</v>
       </c>
-      <c r="L46" s="24">
+      <c r="L44" s="24">
         <f t="shared" si="178"/>
         <v>0.21003530005042864</v>
       </c>
-      <c r="M46" s="24">
+      <c r="M44" s="24">
         <f t="shared" si="178"/>
         <v>0.24012502264903063</v>
       </c>
-      <c r="N46" s="24">
+      <c r="N44" s="24">
         <f t="shared" si="178"/>
         <v>0.2052973707189289</v>
       </c>
-      <c r="O46" s="24">
+      <c r="O44" s="24">
         <f t="shared" si="178"/>
         <v>0.23081310828123885</v>
       </c>
-      <c r="P46" s="24">
+      <c r="P44" s="24">
         <f t="shared" si="178"/>
         <v>0.25379170923143751</v>
       </c>
-      <c r="Q46" s="24">
+      <c r="Q44" s="24">
         <f t="shared" si="178"/>
         <v>0.24768381720034655</v>
       </c>
-      <c r="R46" s="24">
+      <c r="R44" s="24">
         <f t="shared" si="178"/>
         <v>0.19369405979018395</v>
       </c>
-      <c r="V46" s="24">
-        <f t="shared" ref="V46:AT46" si="179">V36/V25</f>
+      <c r="V44" s="24">
+        <f t="shared" ref="V44:AT44" si="179">V34/V23</f>
         <v>0.28451741113770834</v>
       </c>
-      <c r="W46" s="24">
+      <c r="W44" s="24">
         <f t="shared" si="179"/>
         <v>0.27512616877273971</v>
       </c>
-      <c r="X46" s="24">
+      <c r="X44" s="24">
         <f t="shared" si="179"/>
         <v>0.29263488910956637</v>
       </c>
-      <c r="Y46" s="24">
+      <c r="Y44" s="24">
         <f t="shared" si="179"/>
         <v>0.24931122405325393</v>
       </c>
-      <c r="Z46" s="24">
+      <c r="Z44" s="24">
         <f t="shared" si="179"/>
         <v>0.30023686063632288</v>
       </c>
-      <c r="AA46" s="24">
+      <c r="AA44" s="24">
         <f t="shared" si="179"/>
         <v>0.3309838010951775</v>
       </c>
-      <c r="AB46" s="24">
+      <c r="AB44" s="24">
         <f t="shared" si="179"/>
         <v>0.31429811592040474</v>
       </c>
-      <c r="AC46" s="24">
+      <c r="AC44" s="24">
         <f t="shared" si="179"/>
         <v>0.28083854641678119</v>
       </c>
-      <c r="AD46" s="24">
+      <c r="AD44" s="24">
         <f t="shared" si="179"/>
         <v>0.2556746858913086</v>
       </c>
-      <c r="AE46" s="24">
+      <c r="AE44" s="24">
         <f t="shared" si="179"/>
         <v>0.23727292156443686</v>
       </c>
-      <c r="AF46" s="24">
+      <c r="AF44" s="24">
         <f t="shared" si="179"/>
         <v>0.22046854314165659</v>
       </c>
-      <c r="AG46" s="24">
+      <c r="AG44" s="24">
         <f t="shared" si="179"/>
         <v>0.23258671667028544</v>
       </c>
-      <c r="AH46" s="24">
+      <c r="AH44" s="24">
         <f t="shared" si="179"/>
         <v>0.2269022911333359</v>
       </c>
-      <c r="AI46" s="24">
+      <c r="AI44" s="24">
         <f t="shared" si="179"/>
         <v>0.23311503271657716</v>
       </c>
-      <c r="AJ46" s="24">
+      <c r="AJ44" s="24">
         <f t="shared" si="179"/>
         <v>0.23922413692814973</v>
       </c>
-      <c r="AK46" s="24">
+      <c r="AK44" s="24">
         <f t="shared" si="179"/>
         <v>0.24523118705869956</v>
       </c>
-      <c r="AL46" s="24">
+      <c r="AL44" s="24">
         <f t="shared" si="179"/>
         <v>0.25113774648664972</v>
       </c>
-      <c r="AM46" s="24">
+      <c r="AM44" s="24">
         <f t="shared" si="179"/>
         <v>0.25694535879143382</v>
       </c>
-      <c r="AN46" s="24">
+      <c r="AN44" s="24">
         <f t="shared" si="179"/>
         <v>0.26265554787143353</v>
       </c>
-      <c r="AO46" s="24">
+      <c r="AO44" s="24">
         <f t="shared" si="179"/>
         <v>0.26826981806635281</v>
       </c>
-      <c r="AP46" s="24">
+      <c r="AP44" s="24">
         <f t="shared" si="179"/>
         <v>0.27378965428377328</v>
       </c>
-      <c r="AQ46" s="24">
+      <c r="AQ44" s="24">
         <f t="shared" si="179"/>
         <v>0.27921652212964515</v>
       </c>
-      <c r="AR46" s="24">
+      <c r="AR44" s="24">
         <f t="shared" si="179"/>
         <v>0.28455186804247445</v>
       </c>
-      <c r="AS46" s="24">
+      <c r="AS44" s="24">
         <f t="shared" si="179"/>
         <v>0.28979711943097791</v>
       </c>
-      <c r="AT46" s="24">
+      <c r="AT44" s="24">
         <f t="shared" si="179"/>
         <v>0.29495368481498568</v>
       </c>
     </row>
-    <row r="47" spans="2:149" x14ac:dyDescent="0.15">
-      <c r="B47" s="26" t="s">
+    <row r="45" spans="2:149" x14ac:dyDescent="0.2">
+      <c r="B45" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="24">
-        <f t="shared" ref="D47" si="180">D35/D34</f>
+      <c r="D45" s="24">
+        <f t="shared" ref="D45" si="180">D33/D32</f>
         <v>0.16755521706016754</v>
       </c>
-      <c r="E47" s="24">
-        <f t="shared" ref="E47:L47" si="181">E35/E34</f>
+      <c r="E45" s="24">
+        <f t="shared" ref="E45:L45" si="181">E33/E32</f>
         <v>0.18643093287336496</v>
       </c>
-      <c r="F47" s="24">
+      <c r="F45" s="24">
         <f t="shared" si="181"/>
         <v>0.29310859188544153</v>
       </c>
-      <c r="G47" s="24">
+      <c r="G45" s="24">
         <f t="shared" si="181"/>
         <v>0.19272313814667424</v>
       </c>
-      <c r="H47" s="24">
+      <c r="H45" s="24">
         <f t="shared" si="181"/>
         <v>0.24552082046212775</v>
       </c>
-      <c r="I47" s="24">
+      <c r="I45" s="24">
         <f t="shared" si="181"/>
         <v>0.22841807067243178</v>
       </c>
-      <c r="J47" s="24">
+      <c r="J45" s="24">
         <f t="shared" si="181"/>
         <v>0.21535468422627957</v>
       </c>
-      <c r="K47" s="24">
+      <c r="K45" s="24">
         <f t="shared" si="181"/>
         <v>0.16198077271902775</v>
       </c>
-      <c r="L47" s="24">
+      <c r="L45" s="24">
         <f t="shared" si="181"/>
         <v>0.14637062339880444</v>
       </c>
-      <c r="M47" s="24">
-        <f t="shared" ref="M47:R47" si="182">M35/M34</f>
+      <c r="M45" s="24">
+        <f t="shared" ref="M45:R45" si="182">M33/M32</f>
         <v>0.19449931621334143</v>
       </c>
-      <c r="N47" s="24">
+      <c r="N45" s="24">
         <f t="shared" si="182"/>
         <v>5.0482387256001793E-2</v>
       </c>
-      <c r="O47" s="24">
+      <c r="O45" s="24">
         <f t="shared" si="182"/>
         <v>0.18999999999999997</v>
       </c>
-      <c r="P47" s="24">
+      <c r="P45" s="24">
         <f t="shared" si="182"/>
         <v>0.19</v>
       </c>
-      <c r="Q47" s="24">
+      <c r="Q45" s="24">
         <f t="shared" si="182"/>
         <v>0.19</v>
       </c>
-      <c r="R47" s="24">
+      <c r="R45" s="24">
         <f t="shared" si="182"/>
         <v>0.19</v>
       </c>
-      <c r="V47" s="24">
-        <f t="shared" ref="V47:AT47" si="183">V35/V34</f>
+      <c r="V45" s="24">
+        <f t="shared" ref="V45:AT45" si="183">V33/V32</f>
         <v>0.31009747015660938</v>
       </c>
-      <c r="W47" s="24">
+      <c r="W45" s="24">
         <f t="shared" si="183"/>
         <v>0.30028356798169248</v>
       </c>
-      <c r="X47" s="24">
+      <c r="X45" s="24">
         <f t="shared" si="183"/>
         <v>0.25753758293440832</v>
       </c>
-      <c r="Y47" s="24">
+      <c r="Y45" s="24">
         <f t="shared" si="183"/>
         <v>0.26497149487916855</v>
       </c>
-      <c r="Z47" s="24">
+      <c r="Z45" s="24">
         <f t="shared" si="183"/>
         <v>0.24999000519729742</v>
       </c>
-      <c r="AA47" s="24">
+      <c r="AA45" s="24">
         <f t="shared" si="183"/>
         <v>0.17530547540166008</v>
       </c>
-      <c r="AB47" s="24">
+      <c r="AB45" s="24">
         <f t="shared" si="183"/>
         <v>0.18583977512297961</v>
       </c>
-      <c r="AC47" s="24">
+      <c r="AC45" s="24">
         <f t="shared" si="183"/>
         <v>0.19181576223569421</v>
       </c>
-      <c r="AD47" s="24">
+      <c r="AD45" s="24">
         <f t="shared" si="183"/>
         <v>0.20560346369914481</v>
       </c>
-      <c r="AE47" s="24">
+      <c r="AE45" s="24">
         <f t="shared" si="183"/>
         <v>0.22140402552773686</v>
       </c>
-      <c r="AF47" s="24">
+      <c r="AF45" s="24">
         <f t="shared" si="183"/>
         <v>0.14527358743193788</v>
       </c>
-      <c r="AG47" s="24">
+      <c r="AG45" s="24">
         <f t="shared" si="183"/>
         <v>0.19000000000000009</v>
       </c>
-      <c r="AH47" s="24">
+      <c r="AH45" s="24">
         <f t="shared" si="183"/>
         <v>0.2</v>
       </c>
-      <c r="AI47" s="24">
+      <c r="AI45" s="24">
         <f t="shared" si="183"/>
         <v>0.2</v>
       </c>
-      <c r="AJ47" s="24">
+      <c r="AJ45" s="24">
         <f t="shared" si="183"/>
         <v>0.2</v>
       </c>
-      <c r="AK47" s="24">
+      <c r="AK45" s="24">
         <f t="shared" si="183"/>
         <v>0.2</v>
       </c>
-      <c r="AL47" s="24">
+      <c r="AL45" s="24">
         <f t="shared" si="183"/>
         <v>0.2</v>
       </c>
-      <c r="AM47" s="24">
+      <c r="AM45" s="24">
         <f t="shared" si="183"/>
         <v>0.2</v>
       </c>
-      <c r="AN47" s="24">
+      <c r="AN45" s="24">
         <f t="shared" si="183"/>
         <v>0.2</v>
       </c>
-      <c r="AO47" s="24">
+      <c r="AO45" s="24">
         <f t="shared" si="183"/>
         <v>0.2</v>
       </c>
-      <c r="AP47" s="24">
+      <c r="AP45" s="24">
         <f t="shared" si="183"/>
         <v>0.2</v>
       </c>
-      <c r="AQ47" s="24">
+      <c r="AQ45" s="24">
         <f t="shared" si="183"/>
         <v>0.2</v>
       </c>
-      <c r="AR47" s="24">
+      <c r="AR45" s="24">
         <f t="shared" si="183"/>
         <v>0.2</v>
       </c>
-      <c r="AS47" s="24">
+      <c r="AS45" s="24">
         <f t="shared" si="183"/>
         <v>0.2</v>
       </c>
-      <c r="AT47" s="24">
+      <c r="AT45" s="24">
         <f t="shared" si="183"/>
         <v>0.2</v>
       </c>
-      <c r="AV47" s="7" t="s">
+      <c r="AV45" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="AW47" s="23">
-        <f>AW44/Main!K3</f>
+      <c r="AW45" s="23">
+        <f>AW42/Main!K3</f>
         <v>75.24831443917364</v>
       </c>
     </row>
-    <row r="48" spans="2:149" x14ac:dyDescent="0.15">
-      <c r="AV48" s="7" t="s">
+    <row r="46" spans="2:149" x14ac:dyDescent="0.2">
+      <c r="AV46" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="AW48" s="23">
+      <c r="AW46" s="23">
         <f>Main!K2</f>
         <v>56.53</v>
       </c>
     </row>
-    <row r="50" spans="2:49" x14ac:dyDescent="0.15">
-      <c r="B50" s="26" t="s">
+    <row r="48" spans="2:149" x14ac:dyDescent="0.2">
+      <c r="B48" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="I50" s="6">
-        <f t="shared" ref="I50:N50" si="184">I51-I62</f>
+      <c r="I48" s="6">
+        <f t="shared" ref="I48:N48" si="184">I49-I60</f>
         <v>75589</v>
       </c>
-      <c r="J50" s="6">
+      <c r="J48" s="6">
         <f t="shared" si="184"/>
         <v>73287</v>
       </c>
-      <c r="K50" s="6">
+      <c r="K48" s="6">
         <f t="shared" si="184"/>
         <v>72226</v>
       </c>
-      <c r="L50" s="6">
+      <c r="L48" s="6">
         <f t="shared" si="184"/>
         <v>69725</v>
       </c>
-      <c r="M50" s="6">
+      <c r="M48" s="6">
         <f t="shared" si="184"/>
         <v>70473</v>
       </c>
-      <c r="N50" s="6">
+      <c r="N48" s="6">
         <f t="shared" si="184"/>
         <v>69984</v>
       </c>
-      <c r="O50" s="6">
-        <f>+N50+O36</f>
+      <c r="O48" s="6">
+        <f>+N48+O34</f>
         <v>74734.777736999997</v>
       </c>
-      <c r="P50" s="6">
-        <f>+O50+P36</f>
+      <c r="P48" s="6">
+        <f>+O48+P34</f>
         <v>80834.397524999993</v>
       </c>
-      <c r="Q50" s="6">
-        <f>+P50+Q36</f>
+      <c r="Q48" s="6">
+        <f>+P48+Q34</f>
         <v>86356.944152999989</v>
       </c>
-      <c r="R50" s="6">
-        <f>+Q50+R36</f>
+      <c r="R48" s="6">
+        <f>+Q48+R34</f>
         <v>90389.681594999987</v>
       </c>
-      <c r="AE50" s="9">
-        <f>+AE51-AE62</f>
+      <c r="AE48" s="9">
+        <f>+AE49-AE60</f>
         <v>73287</v>
       </c>
-      <c r="AF50" s="9">
-        <f>+AE50+AF36</f>
+      <c r="AF48" s="9">
+        <f>+AE48+AF34</f>
         <v>92438</v>
       </c>
-      <c r="AG50" s="9">
-        <f>+AF50+AG36</f>
+      <c r="AG48" s="9">
+        <f>+AF48+AG34</f>
         <v>112843.68159499999</v>
       </c>
-      <c r="AH50" s="9">
-        <f>+AG50+AH36</f>
+      <c r="AH48" s="9">
+        <f>+AG48+AH34</f>
         <v>133148.78711337998</v>
       </c>
-      <c r="AI50" s="9">
-        <f>+AH50+AI36</f>
+      <c r="AI48" s="9">
+        <f>+AH48+AI34</f>
         <v>154635.69265759349</v>
       </c>
-      <c r="AJ50" s="9">
-        <f t="shared" ref="AJ50:AT50" si="185">+AI50+AJ36</f>
+      <c r="AJ48" s="9">
+        <f t="shared" ref="AJ48:AT48" si="185">+AI48+AJ34</f>
         <v>177347.19249265667</v>
       </c>
-      <c r="AK50" s="9">
+      <c r="AK48" s="9">
         <f t="shared" si="185"/>
         <v>201327.44456936108</v>
       </c>
-      <c r="AL50" s="9">
+      <c r="AL48" s="9">
         <f t="shared" si="185"/>
         <v>226622.012259246</v>
       </c>
-      <c r="AM50" s="9">
+      <c r="AM48" s="9">
         <f t="shared" si="185"/>
         <v>253277.90734996708</v>
       </c>
-      <c r="AN50" s="9">
+      <c r="AN48" s="9">
         <f t="shared" si="185"/>
         <v>281343.63433895726</v>
       </c>
-      <c r="AO50" s="9">
+      <c r="AO48" s="9">
         <f t="shared" si="185"/>
         <v>310869.23606441333</v>
       </c>
-      <c r="AP50" s="9">
+      <c r="AP48" s="9">
         <f t="shared" si="185"/>
         <v>341906.34071381367</v>
       </c>
-      <c r="AQ50" s="9">
+      <c r="AQ48" s="9">
         <f t="shared" si="185"/>
         <v>374508.21025137935</v>
       </c>
-      <c r="AR50" s="9">
+      <c r="AR48" s="9">
         <f t="shared" si="185"/>
         <v>408729.79030713422</v>
       </c>
-      <c r="AS50" s="9">
+      <c r="AS48" s="9">
         <f t="shared" si="185"/>
         <v>444627.76157150016</v>
       </c>
-      <c r="AT50" s="9">
+      <c r="AT48" s="9">
         <f t="shared" si="185"/>
         <v>482260.59274068271</v>
       </c>
-      <c r="AW50" s="33">
-        <f>AW47/Main!K2-1</f>
+      <c r="AW48" s="33">
+        <f>AW45/Main!K2-1</f>
         <v>0.33112178381697577</v>
       </c>
     </row>
-    <row r="51" spans="2:49" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10">
+        <f>7414+88024+12019</f>
+        <v>107457</v>
+      </c>
+      <c r="J49" s="10">
+        <f>96526+12053</f>
+        <v>108579</v>
+      </c>
+      <c r="K49" s="10">
+        <f>5431+93924+11438</f>
+        <v>110793</v>
+      </c>
+      <c r="L49" s="10">
+        <f>102640+11514</f>
+        <v>114154</v>
+      </c>
+      <c r="M49" s="10">
+        <f>7170+98382+11315</f>
+        <v>116867</v>
+      </c>
+      <c r="N49" s="10">
+        <f>6510+106730+10431</f>
+        <v>123671</v>
+      </c>
+      <c r="AE49" s="9">
+        <f>5595+90931+12053</f>
+        <v>108579</v>
+      </c>
+    </row>
+    <row r="50" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10">
+        <v>12427</v>
+      </c>
+      <c r="J50" s="10">
+        <v>17908</v>
+      </c>
+      <c r="K50" s="10">
+        <v>11444</v>
+      </c>
+      <c r="L50" s="10">
+        <v>14507</v>
+      </c>
+      <c r="M50" s="10">
+        <v>12247</v>
+      </c>
+      <c r="N50" s="10">
+        <v>18277</v>
+      </c>
+      <c r="AE50" s="9">
+        <v>17908</v>
+      </c>
+    </row>
+    <row r="51" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="9" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -5823,37 +5865,30 @@
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="10">
-        <f>7414+88024+12019</f>
-        <v>107457</v>
+        <v>2469</v>
       </c>
       <c r="J51" s="10">
-        <f>96526+12053</f>
-        <v>108579</v>
+        <v>2902</v>
       </c>
       <c r="K51" s="10">
-        <f>5431+93924+11438</f>
-        <v>110793</v>
+        <v>3816</v>
       </c>
       <c r="L51" s="10">
-        <f>102640+11514</f>
-        <v>114154</v>
+        <v>2702</v>
       </c>
       <c r="M51" s="10">
-        <f>7170+98382+11315</f>
-        <v>116867</v>
+        <v>2450</v>
       </c>
       <c r="N51" s="10">
-        <f>6510+106730+10431</f>
-        <v>123671</v>
+        <v>2251</v>
       </c>
       <c r="AE51" s="9">
-        <f>5595+90931+12053</f>
-        <v>108579</v>
-      </c>
-    </row>
-    <row r="52" spans="2:49" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="52" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -5862,30 +5897,30 @@
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
       <c r="I52" s="10">
-        <v>12427</v>
+        <v>1688</v>
       </c>
       <c r="J52" s="10">
-        <v>17908</v>
+        <v>1915</v>
       </c>
       <c r="K52" s="10">
-        <v>11444</v>
+        <v>1447</v>
       </c>
       <c r="L52" s="10">
-        <v>14507</v>
+        <v>1618</v>
       </c>
       <c r="M52" s="10">
-        <v>12247</v>
+        <v>1574</v>
       </c>
       <c r="N52" s="10">
-        <v>18277</v>
+        <v>0</v>
       </c>
       <c r="AE52" s="9">
-        <v>17908</v>
-      </c>
-    </row>
-    <row r="53" spans="2:49" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="53" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
@@ -5894,30 +5929,30 @@
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="10">
-        <v>2469</v>
+        <v>6376</v>
       </c>
       <c r="J53" s="10">
-        <v>2902</v>
+        <v>5461</v>
       </c>
       <c r="K53" s="10">
-        <v>3816</v>
+        <v>5594</v>
       </c>
       <c r="L53" s="10">
-        <v>2702</v>
+        <v>6345</v>
       </c>
       <c r="M53" s="10">
-        <v>2450</v>
+        <v>6598</v>
       </c>
       <c r="N53" s="10">
-        <v>2251</v>
+        <v>5892</v>
       </c>
       <c r="AE53" s="9">
-        <v>2902</v>
-      </c>
-    </row>
-    <row r="54" spans="2:49" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>5461</v>
+      </c>
+    </row>
+    <row r="54" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -5926,30 +5961,30 @@
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="10">
-        <v>1688</v>
+        <v>14375</v>
       </c>
       <c r="J54" s="10">
-        <v>1915</v>
+        <v>14731</v>
       </c>
       <c r="K54" s="10">
-        <v>1447</v>
+        <v>15046</v>
       </c>
       <c r="L54" s="10">
-        <v>1618</v>
+        <v>15789</v>
       </c>
       <c r="M54" s="10">
-        <v>1574</v>
+        <v>16831</v>
       </c>
       <c r="N54" s="10">
-        <v>0</v>
+        <v>18356</v>
       </c>
       <c r="AE54" s="9">
-        <v>1915</v>
-      </c>
-    </row>
-    <row r="55" spans="2:49" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>14731</v>
+      </c>
+    </row>
+    <row r="55" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -5958,30 +5993,37 @@
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10">
-        <v>6376</v>
+        <f>21728+6963</f>
+        <v>28691</v>
       </c>
       <c r="J55" s="10">
-        <v>5461</v>
+        <f>16939+4835</f>
+        <v>21774</v>
       </c>
       <c r="K55" s="10">
-        <v>5594</v>
+        <f>17142+4745</f>
+        <v>21887</v>
       </c>
       <c r="L55" s="10">
-        <v>6345</v>
+        <f>17436+4619</f>
+        <v>22055</v>
       </c>
       <c r="M55" s="10">
-        <v>6598</v>
+        <f>17948+4459</f>
+        <v>22407</v>
       </c>
       <c r="N55" s="10">
-        <v>5892</v>
+        <f>17872+3733</f>
+        <v>21605</v>
       </c>
       <c r="AE55" s="9">
-        <v>5461</v>
-      </c>
-    </row>
-    <row r="56" spans="2:49" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <f>16939+4835</f>
+        <v>21774</v>
+      </c>
+    </row>
+    <row r="56" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -5990,134 +6032,134 @@
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10">
-        <v>14375</v>
+        <v>3200</v>
       </c>
       <c r="J56" s="10">
-        <v>14731</v>
+        <v>2953</v>
       </c>
       <c r="K56" s="10">
-        <v>15046</v>
+        <v>2869</v>
       </c>
       <c r="L56" s="10">
-        <v>15789</v>
+        <v>2928</v>
       </c>
       <c r="M56" s="10">
-        <v>16831</v>
+        <v>2895</v>
       </c>
       <c r="N56" s="10">
-        <v>18356</v>
+        <v>3642</v>
       </c>
       <c r="AE56" s="9">
-        <v>14731</v>
-      </c>
-    </row>
-    <row r="57" spans="2:49" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="57" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B57" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
+        <v>61</v>
+      </c>
       <c r="I57" s="10">
-        <f>21728+6963</f>
-        <v>28691</v>
+        <f t="shared" ref="I57:N57" si="186">SUM(I49:I56)</f>
+        <v>176683</v>
       </c>
       <c r="J57" s="10">
-        <f>16939+4835</f>
-        <v>21774</v>
-      </c>
-      <c r="K57" s="10">
-        <f>17142+4745</f>
-        <v>21887</v>
-      </c>
-      <c r="L57" s="10">
-        <f>17436+4619</f>
-        <v>22055</v>
-      </c>
-      <c r="M57" s="10">
-        <f>17948+4459</f>
-        <v>22407</v>
-      </c>
-      <c r="N57" s="10">
-        <f>17872+3733</f>
-        <v>21605</v>
-      </c>
-      <c r="AE57" s="9">
-        <f>16939+4835</f>
-        <v>21774</v>
-      </c>
-    </row>
-    <row r="58" spans="2:49" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10">
-        <v>3200</v>
-      </c>
-      <c r="J58" s="10">
-        <v>2953</v>
-      </c>
-      <c r="K58" s="10">
-        <v>2869</v>
-      </c>
-      <c r="L58" s="10">
-        <v>2928</v>
-      </c>
-      <c r="M58" s="10">
-        <v>2895</v>
-      </c>
-      <c r="N58" s="10">
-        <v>3642</v>
-      </c>
-      <c r="AE58" s="9">
-        <v>2953</v>
-      </c>
-    </row>
-    <row r="59" spans="2:49" x14ac:dyDescent="0.15">
-      <c r="B59" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="I59" s="10">
-        <f t="shared" ref="I59:N59" si="186">SUM(I51:I58)</f>
-        <v>176683</v>
-      </c>
-      <c r="J59" s="10">
         <f t="shared" si="186"/>
         <v>176223</v>
       </c>
-      <c r="K59" s="10">
+      <c r="K57" s="10">
         <f t="shared" si="186"/>
         <v>172896</v>
       </c>
-      <c r="L59" s="10">
+      <c r="L57" s="10">
         <f t="shared" si="186"/>
         <v>180098</v>
       </c>
-      <c r="M59" s="10">
+      <c r="M57" s="10">
         <f t="shared" si="186"/>
         <v>181869</v>
       </c>
-      <c r="N59" s="10">
+      <c r="N57" s="10">
         <f t="shared" si="186"/>
         <v>193694</v>
       </c>
-      <c r="AE59" s="10">
-        <f>SUM(AE51:AE58)</f>
+      <c r="AE57" s="10">
+        <f>SUM(AE49:AE56)</f>
         <v>176223</v>
       </c>
     </row>
-    <row r="61" spans="2:49" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10">
+        <v>6690</v>
+      </c>
+      <c r="J59" s="10">
+        <v>6591</v>
+      </c>
+      <c r="K59" s="10">
+        <v>6630</v>
+      </c>
+      <c r="L59" s="10">
+        <v>6936</v>
+      </c>
+      <c r="M59" s="10">
+        <v>6759</v>
+      </c>
+      <c r="N59" s="10">
+        <v>6898</v>
+      </c>
+      <c r="AE59" s="9">
+        <v>6591</v>
+      </c>
+    </row>
+    <row r="60" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10">
+        <f>1725+2499+27644</f>
+        <v>31868</v>
+      </c>
+      <c r="J60" s="10">
+        <f>4985+27808+2499</f>
+        <v>35292</v>
+      </c>
+      <c r="K60" s="10">
+        <f>9998+27819+750</f>
+        <v>38567</v>
+      </c>
+      <c r="L60" s="10">
+        <f>3750+40679</f>
+        <v>44429</v>
+      </c>
+      <c r="M60" s="10">
+        <f>40896+5498</f>
+        <v>46394</v>
+      </c>
+      <c r="N60" s="10">
+        <f>12904+0+40783</f>
+        <v>53687</v>
+      </c>
+      <c r="AE60" s="9">
+        <f>4985+2499+27808</f>
+        <v>35292</v>
+      </c>
+    </row>
+    <row r="61" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -6126,30 +6168,30 @@
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
       <c r="I61" s="10">
-        <v>6690</v>
+        <v>3902</v>
       </c>
       <c r="J61" s="10">
-        <v>6591</v>
+        <v>5096</v>
       </c>
       <c r="K61" s="10">
-        <v>6630</v>
+        <v>3450</v>
       </c>
       <c r="L61" s="10">
-        <v>6936</v>
+        <v>3649</v>
       </c>
       <c r="M61" s="10">
-        <v>6759</v>
+        <v>4276</v>
       </c>
       <c r="N61" s="10">
-        <v>6898</v>
+        <v>5264</v>
       </c>
       <c r="AE61" s="9">
-        <v>6591</v>
-      </c>
-    </row>
-    <row r="62" spans="2:49" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>5096</v>
+      </c>
+    </row>
+    <row r="62" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="9" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -6158,37 +6200,30 @@
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
       <c r="I62" s="10">
-        <f>1725+2499+27644</f>
-        <v>31868</v>
+        <v>758</v>
       </c>
       <c r="J62" s="10">
-        <f>4985+27808+2499</f>
-        <v>35292</v>
+        <v>606</v>
       </c>
       <c r="K62" s="10">
-        <f>9998+27819+750</f>
-        <v>38567</v>
+        <v>607</v>
       </c>
       <c r="L62" s="10">
-        <f>3750+40679</f>
-        <v>44429</v>
+        <v>493</v>
       </c>
       <c r="M62" s="10">
-        <f>40896+5498</f>
-        <v>46394</v>
+        <v>685</v>
       </c>
       <c r="N62" s="10">
-        <f>12904+0+40783</f>
-        <v>53687</v>
+        <v>580</v>
       </c>
       <c r="AE62" s="9">
-        <f>4985+2499+27808</f>
-        <v>35292</v>
-      </c>
-    </row>
-    <row r="63" spans="2:49" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="63" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
@@ -6197,30 +6232,37 @@
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
       <c r="I63" s="10">
-        <v>3902</v>
+        <f>18232+1966</f>
+        <v>20198</v>
       </c>
       <c r="J63" s="10">
-        <v>5096</v>
+        <f>23223+2095</f>
+        <v>25318</v>
       </c>
       <c r="K63" s="10">
-        <v>3450</v>
+        <f>21603+2784</f>
+        <v>24387</v>
       </c>
       <c r="L63" s="10">
-        <v>3649</v>
+        <f>20929+4102</f>
+        <v>25031</v>
       </c>
       <c r="M63" s="10">
-        <v>4276</v>
+        <f>20876+5017</f>
+        <v>25893</v>
       </c>
       <c r="N63" s="10">
-        <v>5264</v>
+        <f>27468+6441</f>
+        <v>33909</v>
       </c>
       <c r="AE63" s="9">
-        <v>5096</v>
-      </c>
-    </row>
-    <row r="64" spans="2:49" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <f>23223+2095</f>
+        <v>25318</v>
+      </c>
+    </row>
+    <row r="64" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="9" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
@@ -6229,30 +6271,30 @@
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
       <c r="I64" s="10">
-        <v>758</v>
+        <v>96</v>
       </c>
       <c r="J64" s="10">
-        <v>606</v>
+        <v>92</v>
       </c>
       <c r="K64" s="10">
-        <v>607</v>
+        <v>154</v>
       </c>
       <c r="L64" s="10">
-        <v>493</v>
+        <v>439</v>
       </c>
       <c r="M64" s="10">
-        <v>685</v>
+        <v>373</v>
       </c>
       <c r="N64" s="10">
-        <v>580</v>
+        <v>294</v>
       </c>
       <c r="AE64" s="9">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="65" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -6261,37 +6303,31 @@
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
       <c r="I65" s="10">
-        <f>18232+1966</f>
-        <v>20198</v>
+        <v>6846</v>
       </c>
       <c r="J65" s="10">
-        <f>23223+2095</f>
-        <v>25318</v>
+        <v>6766</v>
       </c>
       <c r="K65" s="10">
-        <f>21603+2784</f>
-        <v>24387</v>
+        <v>6207</v>
       </c>
       <c r="L65" s="10">
-        <f>20929+4102</f>
-        <v>25031</v>
+        <v>6447</v>
       </c>
       <c r="M65" s="10">
-        <f>20876+5017</f>
-        <v>25893</v>
+        <v>5887</v>
       </c>
       <c r="N65" s="10">
-        <f>27468+6441</f>
-        <v>33909</v>
+        <f>193694-187745</f>
+        <v>5949</v>
       </c>
       <c r="AE65" s="9">
-        <f>23223+2095</f>
-        <v>25318</v>
-      </c>
-    </row>
-    <row r="66" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>6766</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="9" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -6300,30 +6336,30 @@
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10">
-        <v>96</v>
+        <v>2919</v>
       </c>
       <c r="J66" s="10">
-        <v>92</v>
+        <v>2835</v>
       </c>
       <c r="K66" s="10">
-        <v>154</v>
+        <v>2169</v>
       </c>
       <c r="L66" s="10">
-        <v>439</v>
+        <v>2194</v>
       </c>
       <c r="M66" s="10">
-        <v>373</v>
+        <v>2674</v>
       </c>
       <c r="N66" s="10">
-        <v>294</v>
+        <v>696</v>
       </c>
       <c r="AE66" s="9">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -6332,31 +6368,30 @@
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
       <c r="I67" s="10">
-        <v>6846</v>
+        <v>13274</v>
       </c>
       <c r="J67" s="10">
-        <v>6766</v>
+        <v>13544</v>
       </c>
       <c r="K67" s="10">
-        <v>6207</v>
+        <v>13280</v>
       </c>
       <c r="L67" s="10">
-        <v>6447</v>
+        <v>13700</v>
       </c>
       <c r="M67" s="10">
-        <v>5887</v>
+        <v>14122</v>
       </c>
       <c r="N67" s="10">
-        <f>193694-187745</f>
-        <v>5949</v>
+        <v>14420</v>
       </c>
       <c r="AE67" s="9">
-        <v>6766</v>
-      </c>
-    </row>
-    <row r="68" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>13544</v>
+      </c>
+    </row>
+    <row r="68" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="9" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
@@ -6365,30 +6400,30 @@
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10">
-        <v>2919</v>
+        <v>90132</v>
       </c>
       <c r="J68" s="10">
-        <v>2835</v>
+        <v>80083</v>
       </c>
       <c r="K68" s="10">
-        <v>2169</v>
+        <v>77445</v>
       </c>
       <c r="L68" s="10">
-        <v>2194</v>
+        <v>76780</v>
       </c>
       <c r="M68" s="10">
-        <v>2674</v>
+        <v>74806</v>
       </c>
       <c r="N68" s="10">
-        <v>696</v>
+        <v>71997</v>
       </c>
       <c r="AE68" s="9">
-        <v>2835</v>
-      </c>
-    </row>
-    <row r="69" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>80083</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -6397,136 +6432,130 @@
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
       <c r="I69" s="10">
-        <v>13274</v>
+        <f t="shared" ref="I69:N69" si="187">SUM(I59:I68)</f>
+        <v>176683</v>
       </c>
       <c r="J69" s="10">
-        <v>13544</v>
-      </c>
-      <c r="K69" s="10">
-        <v>13280</v>
-      </c>
-      <c r="L69" s="10">
-        <v>13700</v>
-      </c>
-      <c r="M69" s="10">
-        <v>14122</v>
-      </c>
-      <c r="N69" s="10">
-        <v>14420</v>
-      </c>
-      <c r="AE69" s="9">
-        <v>13544</v>
-      </c>
-    </row>
-    <row r="70" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10">
-        <v>90132</v>
-      </c>
-      <c r="J70" s="10">
-        <v>80083</v>
-      </c>
-      <c r="K70" s="10">
-        <v>77445</v>
-      </c>
-      <c r="L70" s="10">
-        <v>76780</v>
-      </c>
-      <c r="M70" s="10">
-        <v>74806</v>
-      </c>
-      <c r="N70" s="10">
-        <v>71997</v>
-      </c>
-      <c r="AE70" s="9">
-        <v>80083</v>
-      </c>
-    </row>
-    <row r="71" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10">
-        <f t="shared" ref="I71:N71" si="187">SUM(I61:I70)</f>
-        <v>176683</v>
-      </c>
-      <c r="J71" s="10">
         <f t="shared" si="187"/>
         <v>176223</v>
       </c>
-      <c r="K71" s="10">
+      <c r="K69" s="10">
         <f t="shared" si="187"/>
         <v>172896</v>
       </c>
-      <c r="L71" s="10">
+      <c r="L69" s="10">
         <f t="shared" si="187"/>
         <v>180098</v>
       </c>
-      <c r="M71" s="10">
+      <c r="M69" s="10">
         <f t="shared" si="187"/>
         <v>181869</v>
       </c>
-      <c r="N71" s="10">
+      <c r="N69" s="10">
         <f t="shared" si="187"/>
         <v>193694</v>
       </c>
-      <c r="AE71" s="9">
-        <f>SUM(AE61:AE70)</f>
+      <c r="AE69" s="9">
+        <f>SUM(AE59:AE68)</f>
         <v>176223</v>
       </c>
     </row>
-    <row r="73" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="5" t="s">
+    <row r="71" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6">
-        <f t="shared" ref="I73:N73" si="188">I36</f>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6">
+        <f t="shared" ref="I71:N71" si="188">I34</f>
         <v>5175</v>
       </c>
-      <c r="J73" s="6">
+      <c r="J71" s="6">
         <f t="shared" si="188"/>
         <v>5243</v>
       </c>
-      <c r="K73" s="6">
+      <c r="K71" s="6">
         <f t="shared" si="188"/>
         <v>4620</v>
       </c>
-      <c r="L73" s="6">
+      <c r="L71" s="6">
         <f t="shared" si="188"/>
         <v>4998</v>
       </c>
-      <c r="M73" s="6">
+      <c r="M71" s="6">
         <f t="shared" si="188"/>
         <v>5301</v>
       </c>
-      <c r="N73" s="6">
+      <c r="N71" s="6">
         <f t="shared" si="188"/>
         <v>4232</v>
       </c>
     </row>
-    <row r="74" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10">
+        <v>4985</v>
+      </c>
+      <c r="J72" s="10">
+        <v>-3195</v>
+      </c>
+      <c r="K72" s="10">
+        <v>4620</v>
+      </c>
+      <c r="L72" s="10">
+        <v>4998</v>
+      </c>
+      <c r="M72" s="10">
+        <v>3756</v>
+      </c>
+      <c r="N72" s="10">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10">
+        <v>0</v>
+      </c>
+      <c r="J73" s="10">
+        <v>7498</v>
+      </c>
+      <c r="K73" s="10">
+        <v>0</v>
+      </c>
+      <c r="L73" s="10">
+        <v>0</v>
+      </c>
+      <c r="M73" s="10">
+        <v>0</v>
+      </c>
+      <c r="N73" s="10">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
@@ -6535,27 +6564,27 @@
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
       <c r="I74" s="10">
-        <v>4985</v>
+        <v>1515</v>
       </c>
       <c r="J74" s="10">
-        <v>-3195</v>
+        <v>1493</v>
       </c>
       <c r="K74" s="10">
-        <v>4620</v>
+        <v>1461</v>
       </c>
       <c r="L74" s="10">
-        <v>4998</v>
+        <v>1544</v>
       </c>
       <c r="M74" s="10">
-        <v>3756</v>
+        <v>1707</v>
       </c>
       <c r="N74" s="10">
-        <v>3122</v>
-      </c>
-    </row>
-    <row r="75" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
@@ -6564,27 +6593,27 @@
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
       <c r="I75" s="10">
-        <v>0</v>
+        <v>641</v>
       </c>
       <c r="J75" s="10">
-        <v>7498</v>
+        <v>654</v>
       </c>
       <c r="K75" s="10">
-        <v>0</v>
+        <v>674</v>
       </c>
       <c r="L75" s="10">
-        <v>0</v>
+        <v>658</v>
       </c>
       <c r="M75" s="10">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="N75" s="10">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="76" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
@@ -6593,27 +6622,27 @@
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
       <c r="I76" s="10">
-        <v>1515</v>
+        <v>-55</v>
       </c>
       <c r="J76" s="10">
-        <v>1493</v>
+        <v>-264</v>
       </c>
       <c r="K76" s="10">
-        <v>1461</v>
+        <v>101</v>
       </c>
       <c r="L76" s="10">
-        <v>1544</v>
+        <v>50</v>
       </c>
       <c r="M76" s="10">
-        <v>1707</v>
+        <v>65</v>
       </c>
       <c r="N76" s="10">
-        <v>1910</v>
-      </c>
-    </row>
-    <row r="77" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>-439</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
@@ -6622,27 +6651,27 @@
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
       <c r="I77" s="10">
-        <v>641</v>
+        <v>-31</v>
       </c>
       <c r="J77" s="10">
-        <v>654</v>
+        <v>-33</v>
       </c>
       <c r="K77" s="10">
-        <v>674</v>
+        <v>-282</v>
       </c>
       <c r="L77" s="10">
-        <v>658</v>
+        <v>-20</v>
       </c>
       <c r="M77" s="10">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="N77" s="10">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="78" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="9" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
@@ -6651,27 +6680,27 @@
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
       <c r="I78" s="10">
-        <v>-55</v>
+        <v>253</v>
       </c>
       <c r="J78" s="10">
-        <v>-264</v>
+        <v>-644</v>
       </c>
       <c r="K78" s="10">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="L78" s="10">
-        <v>50</v>
+        <v>-247</v>
       </c>
       <c r="M78" s="10">
-        <v>65</v>
+        <v>351</v>
       </c>
       <c r="N78" s="10">
-        <v>-439</v>
-      </c>
-    </row>
-    <row r="79" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>-625</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="9" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
@@ -6680,27 +6709,33 @@
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
       <c r="I79" s="10">
-        <v>-31</v>
+        <f>10163-11209</f>
+        <v>-1046</v>
       </c>
       <c r="J79" s="10">
-        <v>-33</v>
+        <f>16687-11573</f>
+        <v>5114</v>
       </c>
       <c r="K79" s="10">
-        <v>-282</v>
+        <f>10423-11355</f>
+        <v>-932</v>
       </c>
       <c r="L79" s="10">
-        <v>-20</v>
+        <f>12570-11929</f>
+        <v>641</v>
       </c>
       <c r="M79" s="10">
-        <v>0</v>
+        <f>13073-12210</f>
+        <v>863</v>
       </c>
       <c r="N79" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <f>21006-13004</f>
+        <v>8002</v>
+      </c>
+    </row>
+    <row r="80" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
@@ -6709,27 +6744,27 @@
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
       <c r="I80" s="10">
-        <v>253</v>
+        <v>3655</v>
       </c>
       <c r="J80" s="10">
-        <v>-644</v>
+        <v>-5448</v>
       </c>
       <c r="K80" s="10">
-        <v>73</v>
+        <v>6376</v>
       </c>
       <c r="L80" s="10">
-        <v>-247</v>
+        <v>-3118</v>
       </c>
       <c r="M80" s="10">
-        <v>351</v>
+        <v>2288</v>
       </c>
       <c r="N80" s="10">
-        <v>-625</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>-6076</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
@@ -6738,33 +6773,27 @@
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
       <c r="I81" s="10">
-        <f>10163-11209</f>
-        <v>-1046</v>
+        <v>-430</v>
       </c>
       <c r="J81" s="10">
-        <f>16687-11573</f>
-        <v>5114</v>
+        <v>-429</v>
       </c>
       <c r="K81" s="10">
-        <f>10423-11355</f>
-        <v>-932</v>
+        <v>-937</v>
       </c>
       <c r="L81" s="10">
-        <f>12570-11929</f>
-        <v>641</v>
+        <v>1104</v>
       </c>
       <c r="M81" s="10">
-        <f>13073-12210</f>
-        <v>863</v>
+        <v>241</v>
       </c>
       <c r="N81" s="10">
-        <f>21006-13004</f>
-        <v>8002</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="9" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
@@ -6773,27 +6802,27 @@
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
       <c r="I82" s="10">
-        <v>3655</v>
+        <v>-111</v>
       </c>
       <c r="J82" s="10">
-        <v>-5448</v>
+        <v>612</v>
       </c>
       <c r="K82" s="10">
-        <v>6376</v>
+        <v>-280</v>
       </c>
       <c r="L82" s="10">
-        <v>-3118</v>
+        <v>-912</v>
       </c>
       <c r="M82" s="10">
-        <v>2288</v>
+        <v>-420</v>
       </c>
       <c r="N82" s="10">
-        <v>-6076</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
@@ -6802,27 +6831,27 @@
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
       <c r="I83" s="10">
-        <v>-430</v>
+        <v>-108</v>
       </c>
       <c r="J83" s="10">
-        <v>-429</v>
+        <v>5</v>
       </c>
       <c r="K83" s="10">
-        <v>-937</v>
+        <v>-5</v>
       </c>
       <c r="L83" s="10">
-        <v>1104</v>
+        <v>56</v>
       </c>
       <c r="M83" s="10">
-        <v>241</v>
+        <v>7</v>
       </c>
       <c r="N83" s="10">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="9" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
@@ -6831,268 +6860,274 @@
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
       <c r="I84" s="10">
-        <v>-111</v>
+        <v>-390</v>
       </c>
       <c r="J84" s="10">
-        <v>612</v>
+        <v>-142</v>
       </c>
       <c r="K84" s="10">
-        <v>-280</v>
+        <v>-135</v>
       </c>
       <c r="L84" s="10">
-        <v>-912</v>
+        <v>369</v>
       </c>
       <c r="M84" s="10">
-        <v>-420</v>
+        <v>-129</v>
       </c>
       <c r="N84" s="10">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="10">
-        <v>-108</v>
-      </c>
-      <c r="J85" s="10">
-        <v>5</v>
-      </c>
-      <c r="K85" s="10">
-        <v>-5</v>
-      </c>
-      <c r="L85" s="10">
-        <v>56</v>
-      </c>
-      <c r="M85" s="10">
-        <v>7</v>
-      </c>
-      <c r="N85" s="10">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
-      <c r="I86" s="10">
-        <v>-390</v>
-      </c>
-      <c r="J86" s="10">
-        <v>-142</v>
-      </c>
-      <c r="K86" s="10">
-        <v>-135</v>
-      </c>
-      <c r="L86" s="10">
-        <v>369</v>
-      </c>
-      <c r="M86" s="10">
-        <v>-129</v>
-      </c>
-      <c r="N86" s="10">
         <v>-17</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B87" s="26" t="s">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B85" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I87" s="30">
+      <c r="I85" s="30">
         <v>200</v>
       </c>
-      <c r="J87" s="30">
+      <c r="J85" s="30">
         <v>1328</v>
       </c>
-      <c r="K87" s="30">
+      <c r="K85" s="30">
         <v>-2024</v>
       </c>
-      <c r="L87" s="30">
+      <c r="L85" s="30">
         <v>105</v>
       </c>
-      <c r="M87" s="30">
+      <c r="M85" s="30">
         <v>626</v>
       </c>
-      <c r="N87" s="30">
+      <c r="N85" s="30">
         <v>1033</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B88" s="26" t="s">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B86" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I88" s="30">
+      <c r="I86" s="30">
         <v>492</v>
       </c>
-      <c r="J88" s="30">
+      <c r="J86" s="30">
         <v>267</v>
       </c>
-      <c r="K88" s="30">
+      <c r="K86" s="30">
         <v>-116</v>
       </c>
-      <c r="L88" s="30">
+      <c r="L86" s="30">
         <v>370</v>
       </c>
-      <c r="M88" s="30">
+      <c r="M86" s="30">
         <v>340</v>
       </c>
-      <c r="N88" s="30">
+      <c r="N86" s="30">
         <v>-580</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B89" s="7" t="s">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B87" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I89" s="6">
-        <f t="shared" ref="I89:N89" si="189">SUM(I74:I88)</f>
+      <c r="I87" s="6">
+        <f t="shared" ref="I87:N87" si="189">SUM(I72:I86)</f>
         <v>9570</v>
       </c>
-      <c r="J89" s="6">
+      <c r="J87" s="6">
         <f t="shared" si="189"/>
         <v>6816</v>
       </c>
-      <c r="K89" s="6">
+      <c r="K87" s="6">
         <f t="shared" si="189"/>
         <v>8594</v>
       </c>
-      <c r="L89" s="6">
+      <c r="L87" s="6">
         <f t="shared" si="189"/>
         <v>5598</v>
       </c>
-      <c r="M89" s="6">
+      <c r="M87" s="6">
         <f t="shared" si="189"/>
         <v>10367</v>
       </c>
-      <c r="N89" s="6">
+      <c r="N87" s="6">
         <f t="shared" si="189"/>
         <v>8464</v>
       </c>
     </row>
-    <row r="91" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="9" t="s">
+    <row r="89" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="10">
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10">
         <v>1391</v>
       </c>
-      <c r="J91" s="10">
+      <c r="J89" s="10">
         <v>1781</v>
       </c>
-      <c r="K91" s="10">
+      <c r="K89" s="10">
         <v>1356</v>
       </c>
-      <c r="L91" s="10">
+      <c r="L89" s="10">
         <v>2024</v>
       </c>
-      <c r="M91" s="10">
+      <c r="M89" s="10">
         <v>2308</v>
       </c>
-      <c r="N91" s="10">
+      <c r="N89" s="10">
         <v>2655</v>
       </c>
     </row>
-    <row r="92" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="7" t="s">
+    <row r="90" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="6">
-        <f>+I89-I91</f>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="6">
+        <f>+I87-I89</f>
         <v>8179</v>
       </c>
-      <c r="J92" s="6">
-        <f t="shared" ref="J92:M92" si="190">+J89-J91</f>
+      <c r="J90" s="6">
+        <f t="shared" ref="J90:M90" si="190">+J87-J89</f>
         <v>5035</v>
       </c>
-      <c r="K92" s="6">
+      <c r="K90" s="6">
         <f t="shared" si="190"/>
         <v>7238</v>
       </c>
-      <c r="L92" s="6">
+      <c r="L90" s="6">
         <f t="shared" si="190"/>
         <v>3574</v>
       </c>
-      <c r="M92" s="6">
+      <c r="M90" s="6">
         <f t="shared" si="190"/>
         <v>8059</v>
       </c>
-      <c r="N92" s="6">
-        <f t="shared" ref="N92" si="191">+N89-N91</f>
+      <c r="N90" s="6">
+        <f t="shared" ref="N90" si="191">+N87-N89</f>
         <v>5809</v>
       </c>
     </row>
-    <row r="93" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
-      <c r="L93" s="6"/>
-      <c r="M93" s="8"/>
-      <c r="N93" s="8"/>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B94" s="7" t="s">
+    <row r="91" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="8"/>
+      <c r="N91" s="8"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B92" s="7" t="s">
         <v>67</v>
       </c>
+      <c r="I92" s="10"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="10"/>
+      <c r="L92" s="6">
+        <f>SUM(I90:L90)</f>
+        <v>24026</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B93" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="10"/>
+      <c r="L93" s="6">
+        <f>SUM(I71:L71)</f>
+        <v>20036</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I94" s="10"/>
       <c r="J94" s="10"/>
       <c r="K94" s="10"/>
-      <c r="L94" s="6">
-        <f>SUM(I92:L92)</f>
-        <v>24026</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B95" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I95" s="10"/>
-      <c r="J95" s="10"/>
-      <c r="K95" s="10"/>
-      <c r="L95" s="6">
-        <f>SUM(I73:L73)</f>
-        <v>20036</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="I96" s="10"/>
-      <c r="J96" s="10"/>
-      <c r="K96" s="10"/>
-      <c r="L96" s="10"/>
-    </row>
-    <row r="98" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L94" s="10"/>
+    </row>
+    <row r="96" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10">
+        <v>-162</v>
+      </c>
+      <c r="J96" s="10">
+        <v>-626</v>
+      </c>
+      <c r="K96" s="10">
+        <v>-390</v>
+      </c>
+      <c r="L96" s="10">
+        <v>-381</v>
+      </c>
+      <c r="M96" s="10">
+        <v>-559</v>
+      </c>
+      <c r="N96" s="10">
+        <v>-63</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10">
+        <f>-5131+146</f>
+        <v>-4985</v>
+      </c>
+      <c r="J97" s="10">
+        <f>-4279+151</f>
+        <v>-4128</v>
+      </c>
+      <c r="K97" s="10">
+        <f>-4757+219</f>
+        <v>-4538</v>
+      </c>
+      <c r="L97" s="10">
+        <f>-3678+117</f>
+        <v>-3561</v>
+      </c>
+      <c r="M97" s="10">
+        <f>-3857+159</f>
+        <v>-3698</v>
+      </c>
+      <c r="N97" s="10">
+        <f>-4279+151</f>
+        <v>-4128</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B98" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C98" s="10"/>
       <c r="D98" s="10"/>
@@ -7101,144 +7136,80 @@
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
       <c r="I98" s="10">
-        <v>-162</v>
+        <v>-2532</v>
       </c>
       <c r="J98" s="10">
-        <v>-626</v>
+        <v>-2496</v>
       </c>
       <c r="K98" s="10">
-        <v>-390</v>
+        <v>-2475</v>
       </c>
       <c r="L98" s="10">
-        <v>-381</v>
+        <v>-2868</v>
       </c>
       <c r="M98" s="10">
-        <v>-559</v>
+        <v>-2842</v>
       </c>
       <c r="N98" s="10">
-        <v>-63</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="10">
-        <f>-5131+146</f>
-        <v>-4985</v>
-      </c>
-      <c r="J99" s="10">
-        <f>-4279+151</f>
-        <v>-4128</v>
-      </c>
-      <c r="K99" s="10">
-        <f>-4757+219</f>
-        <v>-4538</v>
-      </c>
-      <c r="L99" s="10">
-        <f>-3678+117</f>
-        <v>-3561</v>
-      </c>
-      <c r="M99" s="10">
-        <f>-3857+159</f>
-        <v>-3698</v>
-      </c>
-      <c r="N99" s="10">
-        <f>-4279+151</f>
-        <v>-4128</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="10"/>
-      <c r="I100" s="10">
-        <v>-2532</v>
-      </c>
-      <c r="J100" s="10">
-        <v>-2496</v>
-      </c>
-      <c r="K100" s="10">
-        <v>-2475</v>
-      </c>
-      <c r="L100" s="10">
-        <v>-2868</v>
-      </c>
-      <c r="M100" s="10">
-        <v>-2842</v>
-      </c>
-      <c r="N100" s="10">
         <v>-2821</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B104" s="26" t="s">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B102" s="26" t="s">
         <v>70</v>
       </c>
+      <c r="L102" s="10">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="10"/>
+      <c r="K103" s="10">
+        <v>18200</v>
+      </c>
+      <c r="L103" s="10">
+        <v>20600</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c r="N103" s="10">
+        <v>23100</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="10"/>
+      <c r="J104" s="10"/>
+      <c r="K104" s="10">
+        <v>39000</v>
+      </c>
       <c r="L104" s="10">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="10"/>
-      <c r="I105" s="10"/>
-      <c r="J105" s="10"/>
-      <c r="K105" s="10">
-        <v>18200</v>
-      </c>
-      <c r="L105" s="10">
-        <v>20600</v>
-      </c>
-      <c r="M105" s="10"/>
-      <c r="N105" s="10">
-        <v>23100</v>
-      </c>
-    </row>
-    <row r="106" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B106" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C106" s="10"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="10"/>
-      <c r="I106" s="10"/>
-      <c r="J106" s="10"/>
-      <c r="K106" s="10">
-        <v>39000</v>
-      </c>
-      <c r="L106" s="10">
         <v>48000</v>
       </c>
-      <c r="M106" s="10"/>
-      <c r="N106" s="10">
+      <c r="M104" s="10"/>
+      <c r="N104" s="10">
         <v>49000</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B108" s="26" t="s">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B106" s="26" t="s">
         <v>101</v>
       </c>
     </row>

--- a/investing spreadsheets/MSFT.xlsx
+++ b/investing spreadsheets/MSFT.xlsx
@@ -27,64 +27,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Martin Shkreli</author>
-  </authors>
-  <commentList>
-    <comment ref="K21" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Martin Shkreli:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
--13% constant currency</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M23" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Martin Shkreli:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Revenue deferrals of 1,545m</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="118">
   <si>
@@ -450,7 +392,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0&quot;x&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -462,19 +404,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -603,28 +532,28 @@
   </borders>
   <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -682,7 +611,7 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1292,14 +1221,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:ES106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BO3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V23" sqref="V23"/>
+      <selection pane="bottomRight" activeCell="CA21" sqref="CA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7217,6 +7146,5 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>